--- a/references/MessagePayloadBlockFormatter.xlsx
+++ b/references/MessagePayloadBlockFormatter.xlsx
@@ -7,16 +7,17 @@
     <workbookView xWindow="360" yWindow="90" windowWidth="23955" windowHeight="14640"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="AIS Messages" sheetId="1" r:id="rId1"/>
+    <sheet name="AIS Type8 SubMessages" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="921">
   <si>
     <t>0-5</t>
   </si>
@@ -570,9 +571,183 @@
     <t>Reserved for future use</t>
   </si>
   <si>
+    <t>Wing in ground (WIG), all ships of this type</t>
+  </si>
+  <si>
+    <t>Wing in ground (WIG), Hazardous category A</t>
+  </si>
+  <si>
+    <t>Wing in ground (WIG), Hazardous category B</t>
+  </si>
+  <si>
+    <t>Wing in ground (WIG), Hazardous category C</t>
+  </si>
+  <si>
+    <t>Wing in ground (WIG), Hazardous category D</t>
+  </si>
+  <si>
+    <t>Wing in ground (WIG), Reserved for future use</t>
+  </si>
+  <si>
+    <t>Fishing</t>
+  </si>
+  <si>
+    <t>Towing</t>
+  </si>
+  <si>
+    <t>Towing: length exceeds 200m or breadth exceeds 25m</t>
+  </si>
+  <si>
+    <t>Dredging or underwater ops</t>
+  </si>
+  <si>
+    <t>Diving ops</t>
+  </si>
+  <si>
+    <t>Military ops</t>
+  </si>
+  <si>
+    <t>Sailing</t>
+  </si>
+  <si>
+    <t>Pleasure Craft</t>
+  </si>
+  <si>
     <t>Reserved</t>
   </si>
   <si>
+    <t>High speed craft (HSC), all ships of this type</t>
+  </si>
+  <si>
+    <t>High speed craft (HSC), Hazardous category A</t>
+  </si>
+  <si>
+    <t>High speed craft (HSC), Hazardous category B</t>
+  </si>
+  <si>
+    <t>High speed craft (HSC), Hazardous category C</t>
+  </si>
+  <si>
+    <t>High speed craft (HSC), Hazardous category D</t>
+  </si>
+  <si>
+    <t>High speed craft (HSC), Reserved for future use</t>
+  </si>
+  <si>
+    <t>High speed craft (HSC), No additional information</t>
+  </si>
+  <si>
+    <t>Pilot Vessel</t>
+  </si>
+  <si>
+    <t>Search and Rescue vessel</t>
+  </si>
+  <si>
+    <t>Tug</t>
+  </si>
+  <si>
+    <t>Port Tender</t>
+  </si>
+  <si>
+    <t>Anti-pollution equipment</t>
+  </si>
+  <si>
+    <t>Law Enforcement</t>
+  </si>
+  <si>
+    <t>Spare - Local Vessel</t>
+  </si>
+  <si>
+    <t>Medical Transport</t>
+  </si>
+  <si>
+    <t>Noncombatant ship according to RR Resolution No. 18</t>
+  </si>
+  <si>
+    <t>Passenger, all ships of this type</t>
+  </si>
+  <si>
+    <t>Passenger, Hazardous category A</t>
+  </si>
+  <si>
+    <t>Passenger, Hazardous category B</t>
+  </si>
+  <si>
+    <t>Passenger, Hazardous category C</t>
+  </si>
+  <si>
+    <t>Passenger, Hazardous category D</t>
+  </si>
+  <si>
+    <t>Passenger, Reserved for future use</t>
+  </si>
+  <si>
+    <t>Passenger, No additional information</t>
+  </si>
+  <si>
+    <t>Cargo, all ships of this type</t>
+  </si>
+  <si>
+    <t>Cargo, Hazardous category A</t>
+  </si>
+  <si>
+    <t>Cargo, Hazardous category B</t>
+  </si>
+  <si>
+    <t>Cargo, Hazardous category C</t>
+  </si>
+  <si>
+    <t>Cargo, Hazardous category D</t>
+  </si>
+  <si>
+    <t>Cargo, Reserved for future use</t>
+  </si>
+  <si>
+    <t>Cargo, No additional information</t>
+  </si>
+  <si>
+    <t>Tanker, all ships of this type</t>
+  </si>
+  <si>
+    <t>Tanker, Hazardous category A</t>
+  </si>
+  <si>
+    <t>Tanker, Hazardous category B</t>
+  </si>
+  <si>
+    <t>Tanker, Hazardous category C</t>
+  </si>
+  <si>
+    <t>Tanker, Hazardous category D</t>
+  </si>
+  <si>
+    <t>Tanker, Reserved for future use</t>
+  </si>
+  <si>
+    <t>Tanker, No additional information</t>
+  </si>
+  <si>
+    <t>Other Type, all ships of this type</t>
+  </si>
+  <si>
+    <t>Other Type, Hazardous category A</t>
+  </si>
+  <si>
+    <t>Other Type, Hazardous category B</t>
+  </si>
+  <si>
+    <t>Other Type, Hazardous category C</t>
+  </si>
+  <si>
+    <t>Other Type, Hazardous category D</t>
+  </si>
+  <si>
+    <t>Other Type, Reserved for future use</t>
+  </si>
+  <si>
+    <t>Other Type, no additional information</t>
+  </si>
+  <si>
     <t>"@"</t>
   </si>
   <si>
@@ -2130,103 +2305,481 @@
     <t>Aid To Navigation Report</t>
   </si>
   <si>
-    <t>Default, Type of Aid to Navigation not specified</t>
-  </si>
-  <si>
-    <t>Reference point</t>
-  </si>
-  <si>
-    <t>RACON (radar transponder marking a navigation hazard)</t>
-  </si>
-  <si>
-    <t>Fixed structure off shore, such as oil platforms, wind farms, rigs. (Note: This code should identify an obstruction that is fitted with an Aid-to-Navigation AIS station.)</t>
-  </si>
-  <si>
-    <t>Spare, Reserved for future use.</t>
-  </si>
-  <si>
-    <t>Light, without sectors</t>
-  </si>
-  <si>
-    <t>Light, with sectors</t>
-  </si>
-  <si>
-    <t>Leading Light Front</t>
-  </si>
-  <si>
-    <t>Leading Light Rear</t>
-  </si>
-  <si>
-    <t>Beacon, Cardinal N</t>
-  </si>
-  <si>
-    <t>Beacon, Cardinal E</t>
-  </si>
-  <si>
-    <t>Beacon, Cardinal S</t>
-  </si>
-  <si>
-    <t>Beacon, Cardinal W</t>
-  </si>
-  <si>
-    <t>Beacon, Port hand</t>
-  </si>
-  <si>
-    <t>Beacon, Starboard hand</t>
-  </si>
-  <si>
-    <t>Beacon, Preferred Channel port hand</t>
-  </si>
-  <si>
-    <t>Beacon, Preferred Channel starboard hand</t>
-  </si>
-  <si>
-    <t>Beacon, Isolated danger</t>
-  </si>
-  <si>
-    <t>Beacon, Safe water</t>
-  </si>
-  <si>
-    <t>Beacon, Special mark</t>
-  </si>
-  <si>
-    <t>Cardinal Mark N</t>
-  </si>
-  <si>
-    <t>Cardinal Mark E</t>
-  </si>
-  <si>
-    <t>Cardinal Mark S</t>
-  </si>
-  <si>
-    <t>Cardinal Mark W</t>
-  </si>
-  <si>
-    <t>Port hand Mark</t>
-  </si>
-  <si>
-    <t>Starboard hand Mark</t>
-  </si>
-  <si>
-    <t>Preferred Channel Port hand</t>
-  </si>
-  <si>
-    <t>Preferred Channel Starboard hand</t>
-  </si>
-  <si>
-    <t>Isolated danger</t>
-  </si>
-  <si>
-    <t>Safe Water</t>
-  </si>
-  <si>
-    <t>Special Mark</t>
-  </si>
-  <si>
-    <t>Light Vessel / LANBY / Rigs</t>
-  </si>
-  <si>
     <t>43-162</t>
+  </si>
+  <si>
+    <t>DAC-001</t>
+  </si>
+  <si>
+    <t>FID-11</t>
+  </si>
+  <si>
+    <t>DAC</t>
+  </si>
+  <si>
+    <t>DAC = 001</t>
+  </si>
+  <si>
+    <t>FID</t>
+  </si>
+  <si>
+    <t>FID = 11</t>
+  </si>
+  <si>
+    <t>56-79</t>
+  </si>
+  <si>
+    <t>Unit = minutes * 0.001, 0x7FFFFF = N/A (default), E positive, W negative.</t>
+  </si>
+  <si>
+    <t>80-104</t>
+  </si>
+  <si>
+    <t>Unit = minutes * 0.001, 0xFFFFFF = N/A (default), N positive, S negative.</t>
+  </si>
+  <si>
+    <t>105-109</t>
+  </si>
+  <si>
+    <t>1-31, 31=N/A (default)</t>
+  </si>
+  <si>
+    <t>110-114</t>
+  </si>
+  <si>
+    <t>0-23, 31=N/A (default)</t>
+  </si>
+  <si>
+    <t>115-120</t>
+  </si>
+  <si>
+    <t>0-59, 63=N/A (default)</t>
+  </si>
+  <si>
+    <t>121-127</t>
+  </si>
+  <si>
+    <t>Average Wind Speed</t>
+  </si>
+  <si>
+    <t>wspeed</t>
+  </si>
+  <si>
+    <t>10-min avg wind speed, knots, 127 = N/A (default).</t>
+  </si>
+  <si>
+    <t>128-134</t>
+  </si>
+  <si>
+    <t>Gust Speed</t>
+  </si>
+  <si>
+    <t>wgust</t>
+  </si>
+  <si>
+    <t>10-min max wind speed, knots, 127 = N/A (default).</t>
+  </si>
+  <si>
+    <t>135-143</t>
+  </si>
+  <si>
+    <t>Wind Direction</t>
+  </si>
+  <si>
+    <t>wdir</t>
+  </si>
+  <si>
+    <t>0-359, degrees from true north 511 = N/A (default)</t>
+  </si>
+  <si>
+    <t>144-152</t>
+  </si>
+  <si>
+    <t>Wind Gust Direction</t>
+  </si>
+  <si>
+    <t>wgustdir</t>
+  </si>
+  <si>
+    <t>153-163</t>
+  </si>
+  <si>
+    <t>Air Temperature</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>Dry bulb temp: 0.1 deg C -60.0 to +60.0, 2047 = N/A (default),</t>
+  </si>
+  <si>
+    <t>164-170</t>
+  </si>
+  <si>
+    <t>Relative Humidity</t>
+  </si>
+  <si>
+    <t>humidity</t>
+  </si>
+  <si>
+    <t>0-100%, units of 1%, 127 = N/A (default).</t>
+  </si>
+  <si>
+    <t>171-180</t>
+  </si>
+  <si>
+    <t>Dew Point</t>
+  </si>
+  <si>
+    <t>dewpoint</t>
+  </si>
+  <si>
+    <t>-20.0 to +50.0: 0.1 deg C, 1023 = N/A (default),</t>
+  </si>
+  <si>
+    <t>181-189</t>
+  </si>
+  <si>
+    <t>Air Pressure</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>800-1200hPa: units 1hPa, 511 = N/A (default).</t>
+  </si>
+  <si>
+    <t>190-191</t>
+  </si>
+  <si>
+    <t>Pressure Tendency</t>
+  </si>
+  <si>
+    <t>pressuretend</t>
+  </si>
+  <si>
+    <t>0 = steady, 1 = decreasing, 2 = increasing, 3 - N/A (default).</t>
+  </si>
+  <si>
+    <t>192-199</t>
+  </si>
+  <si>
+    <t>Horiz. Visibility</t>
+  </si>
+  <si>
+    <t>visibility</t>
+  </si>
+  <si>
+    <t>0-25.0, units of 0.1nm 255 = N/A (default)</t>
+  </si>
+  <si>
+    <t>200-208</t>
+  </si>
+  <si>
+    <t>Water Level</t>
+  </si>
+  <si>
+    <t>waterlevel</t>
+  </si>
+  <si>
+    <t>-10.0 to +30.0 in 0.1m, 511 = N/A (default).</t>
+  </si>
+  <si>
+    <t>209-210</t>
+  </si>
+  <si>
+    <t>Water Level Trend</t>
+  </si>
+  <si>
+    <t>leveltrend</t>
+  </si>
+  <si>
+    <t>211-218</t>
+  </si>
+  <si>
+    <t>Surface Current Speed</t>
+  </si>
+  <si>
+    <t>cspeed</t>
+  </si>
+  <si>
+    <t>0.0-25.0 knots: units 0.1 knot</t>
+  </si>
+  <si>
+    <t>Surface Current Direction</t>
+  </si>
+  <si>
+    <t>cdir</t>
+  </si>
+  <si>
+    <t>0-359: deg from true north, 511 = N/A (default)</t>
+  </si>
+  <si>
+    <t>228-235</t>
+  </si>
+  <si>
+    <t>Current Speed #2</t>
+  </si>
+  <si>
+    <t>cspeed2</t>
+  </si>
+  <si>
+    <t>0.0-25.0 in units of 0.1 knot, 255 = N/A (default).</t>
+  </si>
+  <si>
+    <t>236-244</t>
+  </si>
+  <si>
+    <t>Current Direction #2</t>
+  </si>
+  <si>
+    <t>cdir2</t>
+  </si>
+  <si>
+    <t>0-359: deg. fom true north, 511 = N/A (default)</t>
+  </si>
+  <si>
+    <t>245-249</t>
+  </si>
+  <si>
+    <t>Measurement Depth #2</t>
+  </si>
+  <si>
+    <t>cdepth2</t>
+  </si>
+  <si>
+    <t>0-30m down: units 0.1m, 31 = N/A (default).</t>
+  </si>
+  <si>
+    <t>250-257</t>
+  </si>
+  <si>
+    <t>Current Speed #3</t>
+  </si>
+  <si>
+    <t>cspeed3</t>
+  </si>
+  <si>
+    <t>0.0-25.0: units of 0.1 knot, 255 = N/A (default).</t>
+  </si>
+  <si>
+    <t>258-266</t>
+  </si>
+  <si>
+    <t>Current Direction #3</t>
+  </si>
+  <si>
+    <t>cdir3</t>
+  </si>
+  <si>
+    <t>0-359: degrees fom true north, 511 = N/A (default).</t>
+  </si>
+  <si>
+    <t>267-271</t>
+  </si>
+  <si>
+    <t>Measurement Depth #3</t>
+  </si>
+  <si>
+    <t>cdepth3</t>
+  </si>
+  <si>
+    <t>272-279</t>
+  </si>
+  <si>
+    <t>Wave height</t>
+  </si>
+  <si>
+    <t>waveheight</t>
+  </si>
+  <si>
+    <t>0-25m: units of 0.1m, 255 = N/A (default).</t>
+  </si>
+  <si>
+    <t>280-285</t>
+  </si>
+  <si>
+    <t>Wave period</t>
+  </si>
+  <si>
+    <t>waveperiod</t>
+  </si>
+  <si>
+    <t>Seconds 0-60: 63 = N/A (default).</t>
+  </si>
+  <si>
+    <t>286-294</t>
+  </si>
+  <si>
+    <t>Wave direction</t>
+  </si>
+  <si>
+    <t>wavedir</t>
+  </si>
+  <si>
+    <t>0-359: deg. ffom true north, 511 = N/A (default).</t>
+  </si>
+  <si>
+    <t>295-302</t>
+  </si>
+  <si>
+    <t>Swell height</t>
+  </si>
+  <si>
+    <t>swellheight</t>
+  </si>
+  <si>
+    <t>0-25m: units of 0.1m 255 = N/A (default).</t>
+  </si>
+  <si>
+    <t>303-308</t>
+  </si>
+  <si>
+    <t>Swell period</t>
+  </si>
+  <si>
+    <t>swellperiod</t>
+  </si>
+  <si>
+    <t>309-317</t>
+  </si>
+  <si>
+    <t>Swell direction</t>
+  </si>
+  <si>
+    <t>swelldir</t>
+  </si>
+  <si>
+    <t>0-359: deg. fom true north, 511 = N/A (default).</t>
+  </si>
+  <si>
+    <t>318-321</t>
+  </si>
+  <si>
+    <t>Sea state</t>
+  </si>
+  <si>
+    <t>seastate</t>
+  </si>
+  <si>
+    <t>See "Beaufort Scale"</t>
+  </si>
+  <si>
+    <t>322-331</t>
+  </si>
+  <si>
+    <t>Water Temperature</t>
+  </si>
+  <si>
+    <t>watertemp</t>
+  </si>
+  <si>
+    <t>-10.0 to 50.0: units 0.1 C, 1023 = N/A (default).</t>
+  </si>
+  <si>
+    <t>332-334</t>
+  </si>
+  <si>
+    <t>Precipitation</t>
+  </si>
+  <si>
+    <t>preciptype</t>
+  </si>
+  <si>
+    <t>See "Precipitation Types"</t>
+  </si>
+  <si>
+    <t>335-343</t>
+  </si>
+  <si>
+    <t>Salinity</t>
+  </si>
+  <si>
+    <t>salinity</t>
+  </si>
+  <si>
+    <t>0.0-50.0%: units 0.1%, 511 = N/A (default)</t>
+  </si>
+  <si>
+    <t>344-345</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>0 = No 1 = Yes 2 = (reserved for future use) 3 = not available = default</t>
+  </si>
+  <si>
+    <t>346-351</t>
+  </si>
+  <si>
+    <t>Under way using engine</t>
+  </si>
+  <si>
+    <t>At anchor</t>
+  </si>
+  <si>
+    <t>Not under command</t>
+  </si>
+  <si>
+    <t>Restricted manoeuverability</t>
+  </si>
+  <si>
+    <t>Constrained by her draught</t>
+  </si>
+  <si>
+    <t>Moored</t>
+  </si>
+  <si>
+    <t>Aground</t>
+  </si>
+  <si>
+    <t>Engaged in Fishing</t>
+  </si>
+  <si>
+    <t>Under way sailing</t>
+  </si>
+  <si>
+    <t>Reserved for future amendment of Navigational Status for HSC</t>
+  </si>
+  <si>
+    <t>Reserved for future amendment of Navigational Status for WIG</t>
+  </si>
+  <si>
+    <t>AIS-SART is active</t>
+  </si>
+  <si>
+    <t>Not defined (default)</t>
+  </si>
+  <si>
+    <t>Position Report Class A</t>
+  </si>
+  <si>
+    <t>Base Station Report</t>
+  </si>
+  <si>
+    <t>Static and Voyage Related Data</t>
+  </si>
+  <si>
+    <t>Binary Addressed Message</t>
+  </si>
+  <si>
+    <t>Binary Acknoledge</t>
+  </si>
+  <si>
+    <t>Binary Broadcast</t>
+  </si>
+  <si>
+    <t>Static Data Report</t>
+  </si>
+  <si>
+    <t>Standard Class B CS Station Report</t>
+  </si>
+  <si>
+    <t>Extended Class B CS Station Report</t>
   </si>
 </sst>
 </file>
@@ -2341,7 +2894,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -2361,6 +2914,8 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2664,8 +3219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="B231" sqref="B231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2687,7 +3242,9 @@
       <c r="B1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="5"/>
+      <c r="C1" s="5" t="s">
+        <v>912</v>
+      </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -3291,7 +3848,9 @@
       <c r="B19" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>913</v>
+      </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -3899,7 +4458,9 @@
       <c r="B37" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="5"/>
+      <c r="C37" s="5" t="s">
+        <v>914</v>
+      </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -4687,7 +5248,9 @@
       <c r="B60" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="5"/>
+      <c r="C60" s="5" t="s">
+        <v>915</v>
+      </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -4724,7 +5287,7 @@
         <v>3</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>249</v>
+        <v>307</v>
       </c>
       <c r="I61" s="6" t="str">
         <f t="shared" ref="I61:I70" si="11">"messageBlocks.add(new _PayloadBlock("&amp;B61&amp;", "&amp;C61&amp;", "&amp;D61&amp;", "&amp;CHAR(34)&amp;E61&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F61&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G61&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H61&amp;CHAR(34)&amp;"));"</f>
@@ -4787,7 +5350,7 @@
         <v>67</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>250</v>
+        <v>308</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>9</v>
@@ -4823,16 +5386,16 @@
         <v>65</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>251</v>
+        <v>309</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>252</v>
+        <v>310</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>253</v>
+        <v>311</v>
       </c>
       <c r="I64" s="6" t="str">
         <f t="shared" si="11"/>
@@ -4859,10 +5422,10 @@
         <v>67</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>254</v>
+        <v>312</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>255</v>
+        <v>313</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>3</v>
@@ -4881,7 +5444,7 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="5" t="s">
-        <v>272</v>
+        <v>330</v>
       </c>
       <c r="B66" s="6" t="str">
         <f t="shared" si="9"/>
@@ -4895,16 +5458,16 @@
         <v>71</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>256</v>
+        <v>314</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>257</v>
+        <v>315</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>258</v>
+        <v>316</v>
       </c>
       <c r="I66" s="6" t="str">
         <f t="shared" si="11"/>
@@ -4917,7 +5480,7 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="5" t="s">
-        <v>273</v>
+        <v>331</v>
       </c>
       <c r="B67" s="6" t="str">
         <f t="shared" si="9"/>
@@ -4951,7 +5514,7 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="5" t="s">
-        <v>259</v>
+        <v>317</v>
       </c>
       <c r="B68" s="6" t="str">
         <f t="shared" si="9"/>
@@ -4965,16 +5528,16 @@
         <v>70</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>260</v>
+        <v>318</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>262</v>
+        <v>320</v>
       </c>
       <c r="I68" s="6" t="str">
         <f t="shared" si="11"/>
@@ -4987,7 +5550,7 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="5" t="s">
-        <v>263</v>
+        <v>321</v>
       </c>
       <c r="B69" s="6" t="str">
         <f t="shared" si="9"/>
@@ -5001,16 +5564,16 @@
         <v>63</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>264</v>
+        <v>322</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>265</v>
+        <v>323</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>262</v>
+        <v>320</v>
       </c>
       <c r="I69" s="6" t="str">
         <f t="shared" si="11"/>
@@ -5023,7 +5586,7 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="5" t="s">
-        <v>266</v>
+        <v>324</v>
       </c>
       <c r="B70" s="6" t="e">
         <f t="shared" si="9"/>
@@ -5034,19 +5597,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>267</v>
+        <v>325</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>268</v>
+        <v>326</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>269</v>
+        <v>327</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>270</v>
+        <v>328</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>271</v>
+        <v>329</v>
       </c>
       <c r="I70" s="6" t="e">
         <f t="shared" si="11"/>
@@ -5077,9 +5640,11 @@
         <v>79</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="C72" s="5"/>
+        <v>332</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>916</v>
+      </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
@@ -5116,7 +5681,7 @@
         <v>3</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>275</v>
+        <v>333</v>
       </c>
       <c r="I73" s="6" t="str">
         <f t="shared" ref="I73:I84" si="14">"messageBlocks.add(new _PayloadBlock("&amp;B73&amp;", "&amp;C73&amp;", "&amp;D73&amp;", "&amp;CHAR(34)&amp;E73&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F73&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G73&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H73&amp;CHAR(34)&amp;"));"</f>
@@ -5179,7 +5744,7 @@
         <v>67</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>250</v>
+        <v>308</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>9</v>
@@ -5249,10 +5814,10 @@
         <v>67</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>276</v>
+        <v>334</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>277</v>
+        <v>335</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>3</v>
@@ -5271,7 +5836,7 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="5" t="s">
-        <v>278</v>
+        <v>336</v>
       </c>
       <c r="B78" s="6" t="str">
         <f t="shared" si="12"/>
@@ -5285,10 +5850,10 @@
         <v>65</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>279</v>
+        <v>337</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>280</v>
+        <v>338</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>3</v>
@@ -5307,7 +5872,7 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="5" t="s">
-        <v>281</v>
+        <v>339</v>
       </c>
       <c r="B79" s="6" t="str">
         <f t="shared" si="12"/>
@@ -5321,10 +5886,10 @@
         <v>67</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>282</v>
+        <v>340</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>283</v>
+        <v>341</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>3</v>
@@ -5343,7 +5908,7 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="5" t="s">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="B80" s="6" t="str">
         <f t="shared" si="12"/>
@@ -5357,10 +5922,10 @@
         <v>65</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>285</v>
+        <v>343</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>286</v>
+        <v>344</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>3</v>
@@ -5379,7 +5944,7 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="5" t="s">
-        <v>287</v>
+        <v>345</v>
       </c>
       <c r="B81" s="6" t="str">
         <f t="shared" si="12"/>
@@ -5393,10 +5958,10 @@
         <v>67</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>288</v>
+        <v>346</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>289</v>
+        <v>347</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>3</v>
@@ -5415,7 +5980,7 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="5" t="s">
-        <v>290</v>
+        <v>348</v>
       </c>
       <c r="B82" s="6" t="str">
         <f t="shared" si="12"/>
@@ -5429,10 +5994,10 @@
         <v>65</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>291</v>
+        <v>349</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>292</v>
+        <v>350</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>3</v>
@@ -5451,7 +6016,7 @@
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="5" t="s">
-        <v>293</v>
+        <v>351</v>
       </c>
       <c r="B83" s="6" t="str">
         <f t="shared" si="12"/>
@@ -5465,10 +6030,10 @@
         <v>67</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>294</v>
+        <v>352</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>295</v>
+        <v>353</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>3</v>
@@ -5487,7 +6052,7 @@
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="5" t="s">
-        <v>296</v>
+        <v>354</v>
       </c>
       <c r="B84" s="6" t="str">
         <f t="shared" si="12"/>
@@ -5501,10 +6066,10 @@
         <v>65</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>297</v>
+        <v>355</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>298</v>
+        <v>356</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>3</v>
@@ -5543,7 +6108,9 @@
       <c r="B86" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C86" s="5"/>
+      <c r="C86" s="5" t="s">
+        <v>917</v>
+      </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
@@ -5580,7 +6147,7 @@
         <v>3</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>299</v>
+        <v>357</v>
       </c>
       <c r="I87" s="6" t="str">
         <f t="shared" ref="I87:I93" si="17">"messageBlocks.add(new _PayloadBlock("&amp;B87&amp;", "&amp;C87&amp;", "&amp;D87&amp;", "&amp;CHAR(34)&amp;E87&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F87&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G87&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H87&amp;CHAR(34)&amp;"));"</f>
@@ -5643,7 +6210,7 @@
         <v>67</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>250</v>
+        <v>308</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>9</v>
@@ -5699,7 +6266,7 @@
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="5" t="s">
-        <v>300</v>
+        <v>358</v>
       </c>
       <c r="B91" s="6" t="str">
         <f t="shared" si="15"/>
@@ -5713,16 +6280,16 @@
         <v>70</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>260</v>
+        <v>318</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>262</v>
+        <v>320</v>
       </c>
       <c r="I91" s="6" t="str">
         <f t="shared" si="17"/>
@@ -5735,7 +6302,7 @@
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="5" t="s">
-        <v>301</v>
+        <v>359</v>
       </c>
       <c r="B92" s="6" t="str">
         <f t="shared" si="15"/>
@@ -5749,16 +6316,16 @@
         <v>63</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>264</v>
+        <v>322</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>265</v>
+        <v>323</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>262</v>
+        <v>320</v>
       </c>
       <c r="I92" s="6" t="str">
         <f t="shared" si="17"/>
@@ -5771,7 +6338,7 @@
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="5" t="s">
-        <v>302</v>
+        <v>360</v>
       </c>
       <c r="B93" s="6" t="e">
         <f t="shared" si="15"/>
@@ -5782,19 +6349,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>303</v>
+        <v>361</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>268</v>
+        <v>326</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>269</v>
+        <v>327</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>270</v>
+        <v>328</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>304</v>
+        <v>362</v>
       </c>
       <c r="I93" s="6" t="e">
         <f t="shared" si="17"/>
@@ -5864,7 +6431,7 @@
         <v>3</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>305</v>
+        <v>363</v>
       </c>
       <c r="I96" s="6" t="str">
         <f t="shared" ref="I96:I111" si="20">"messageBlocks.add(new _PayloadBlock("&amp;B96&amp;", "&amp;C96&amp;", "&amp;D96&amp;", "&amp;CHAR(34)&amp;E96&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F96&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G96&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H96&amp;CHAR(34)&amp;"));"</f>
@@ -5949,7 +6516,7 @@
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="5" t="s">
-        <v>306</v>
+        <v>364</v>
       </c>
       <c r="B99" s="6" t="str">
         <f t="shared" si="18"/>
@@ -5963,10 +6530,10 @@
         <v>74</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>307</v>
+        <v>365</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>308</v>
+        <v>366</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>3</v>
@@ -5999,7 +6566,7 @@
         <v>70</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>309</v>
+        <v>367</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>23</v>
@@ -6080,7 +6647,7 @@
         <v>32</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>310</v>
+        <v>368</v>
       </c>
       <c r="I102" s="6" t="str">
         <f t="shared" si="20"/>
@@ -6116,7 +6683,7 @@
         <v>32</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>310</v>
+        <v>368</v>
       </c>
       <c r="I103" s="6" t="str">
         <f t="shared" si="20"/>
@@ -6143,7 +6710,7 @@
         <v>74</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>311</v>
+        <v>369</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>39</v>
@@ -6152,7 +6719,7 @@
         <v>24</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>312</v>
+        <v>370</v>
       </c>
       <c r="I104" s="6" t="str">
         <f t="shared" si="20"/>
@@ -6165,7 +6732,7 @@
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="5" t="s">
-        <v>313</v>
+        <v>371</v>
       </c>
       <c r="B105" s="6" t="str">
         <f t="shared" si="18"/>
@@ -6188,7 +6755,7 @@
         <v>3</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>314</v>
+        <v>372</v>
       </c>
       <c r="I105" s="6" t="str">
         <f t="shared" si="20"/>
@@ -6201,7 +6768,7 @@
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="5" t="s">
-        <v>315</v>
+        <v>373</v>
       </c>
       <c r="B106" s="6" t="str">
         <f t="shared" si="18"/>
@@ -6215,16 +6782,16 @@
         <v>69</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>316</v>
+        <v>374</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>317</v>
+        <v>375</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>55</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="I106" s="6" t="str">
         <f t="shared" si="20"/>
@@ -6237,7 +6804,7 @@
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="5" t="s">
-        <v>318</v>
+        <v>376</v>
       </c>
       <c r="B107" s="6" t="str">
         <f t="shared" si="18"/>
@@ -6260,7 +6827,7 @@
         <v>28</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>319</v>
+        <v>377</v>
       </c>
       <c r="I107" s="6" t="str">
         <f t="shared" si="20"/>
@@ -6273,7 +6840,7 @@
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="5" t="s">
-        <v>320</v>
+        <v>378</v>
       </c>
       <c r="B108" s="6" t="str">
         <f t="shared" si="18"/>
@@ -6307,7 +6874,7 @@
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="5" t="s">
-        <v>321</v>
+        <v>379</v>
       </c>
       <c r="B109" s="6" t="str">
         <f t="shared" si="18"/>
@@ -6321,16 +6888,16 @@
         <v>71</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>322</v>
+        <v>380</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>323</v>
+        <v>381</v>
       </c>
       <c r="G109" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>324</v>
+        <v>382</v>
       </c>
       <c r="I109" s="6" t="str">
         <f t="shared" si="20"/>
@@ -6343,7 +6910,7 @@
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="5" t="s">
-        <v>325</v>
+        <v>383</v>
       </c>
       <c r="B110" s="6" t="str">
         <f t="shared" si="18"/>
@@ -6379,7 +6946,7 @@
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="5" t="s">
-        <v>326</v>
+        <v>384</v>
       </c>
       <c r="B111" s="6" t="str">
         <f t="shared" si="18"/>
@@ -6390,7 +6957,7 @@
         <v>167</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>327</v>
+        <v>385</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>61</v>
@@ -6402,7 +6969,7 @@
         <v>3</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>328</v>
+        <v>386</v>
       </c>
       <c r="I111" s="6" t="str">
         <f t="shared" si="20"/>
@@ -6472,7 +7039,7 @@
         <v>3</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>329</v>
+        <v>387</v>
       </c>
       <c r="I114" s="6" t="str">
         <f t="shared" ref="I114:I119" si="23">"messageBlocks.add(new _PayloadBlock("&amp;B114&amp;", "&amp;C114&amp;", "&amp;D114&amp;", "&amp;CHAR(34)&amp;E114&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F114&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G114&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H114&amp;CHAR(34)&amp;"));"</f>
@@ -6535,7 +7102,7 @@
         <v>67</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>250</v>
+        <v>308</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>9</v>
@@ -6605,10 +7172,10 @@
         <v>67</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>254</v>
+        <v>312</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>255</v>
+        <v>313</v>
       </c>
       <c r="G118" s="5" t="s">
         <v>3</v>
@@ -6627,7 +7194,7 @@
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="5" t="s">
-        <v>278</v>
+        <v>336</v>
       </c>
       <c r="B119" s="6" t="str">
         <f t="shared" si="21"/>
@@ -6679,7 +7246,7 @@
         <v>79</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>330</v>
+        <v>388</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
@@ -7326,7 +7893,7 @@
         <v>3</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>331</v>
+        <v>389</v>
       </c>
       <c r="I140" s="6" t="str">
         <f t="shared" ref="I140:I147" si="29">"messageBlocks.add(new _PayloadBlock("&amp;B140&amp;", "&amp;C140&amp;", "&amp;D140&amp;", "&amp;CHAR(34)&amp;E140&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F140&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G140&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H140&amp;CHAR(34)&amp;"));"</f>
@@ -7389,7 +7956,7 @@
         <v>67</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>250</v>
+        <v>308</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>9</v>
@@ -7425,16 +7992,16 @@
         <v>65</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>251</v>
+        <v>309</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>252</v>
+        <v>310</v>
       </c>
       <c r="G143" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>253</v>
+        <v>311</v>
       </c>
       <c r="I143" s="6" t="str">
         <f t="shared" si="29"/>
@@ -7461,10 +8028,10 @@
         <v>67</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>254</v>
+        <v>312</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>255</v>
+        <v>313</v>
       </c>
       <c r="G144" s="5" t="s">
         <v>3</v>
@@ -7483,7 +8050,7 @@
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="5" t="s">
-        <v>272</v>
+        <v>330</v>
       </c>
       <c r="B145" s="6" t="str">
         <f t="shared" si="27"/>
@@ -7497,16 +8064,16 @@
         <v>71</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>256</v>
+        <v>314</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>257</v>
+        <v>315</v>
       </c>
       <c r="G145" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>332</v>
+        <v>390</v>
       </c>
       <c r="I145" s="6" t="str">
         <f t="shared" si="29"/>
@@ -7519,7 +8086,7 @@
     </row>
     <row r="146" spans="1:13">
       <c r="A146" s="5" t="s">
-        <v>273</v>
+        <v>331</v>
       </c>
       <c r="B146" s="6" t="str">
         <f t="shared" si="27"/>
@@ -7553,7 +8120,7 @@
     </row>
     <row r="147" spans="1:13">
       <c r="A147" s="5" t="s">
-        <v>333</v>
+        <v>391</v>
       </c>
       <c r="B147" s="6" t="e">
         <f t="shared" si="27"/>
@@ -7564,19 +8131,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>334</v>
+        <v>392</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>335</v>
+        <v>393</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>336</v>
+        <v>394</v>
       </c>
       <c r="G147" s="5" t="s">
         <v>132</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>337</v>
+        <v>395</v>
       </c>
       <c r="I147" s="6" t="e">
         <f t="shared" si="29"/>
@@ -7607,7 +8174,7 @@
         <v>79</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>338</v>
+        <v>396</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
@@ -7646,7 +8213,7 @@
         <v>3</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>275</v>
+        <v>333</v>
       </c>
       <c r="I150" s="6" t="str">
         <f t="shared" ref="I150:I161" si="32">"messageBlocks.add(new _PayloadBlock("&amp;B150&amp;", "&amp;C150&amp;", "&amp;D150&amp;", "&amp;CHAR(34)&amp;E150&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F150&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G150&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H150&amp;CHAR(34)&amp;"));"</f>
@@ -7709,7 +8276,7 @@
         <v>67</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>250</v>
+        <v>308</v>
       </c>
       <c r="F152" s="5" t="s">
         <v>9</v>
@@ -7779,10 +8346,10 @@
         <v>67</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>276</v>
+        <v>334</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>277</v>
+        <v>335</v>
       </c>
       <c r="G154" s="5" t="s">
         <v>3</v>
@@ -7801,7 +8368,7 @@
     </row>
     <row r="155" spans="1:13">
       <c r="A155" s="5" t="s">
-        <v>278</v>
+        <v>336</v>
       </c>
       <c r="B155" s="6" t="str">
         <f t="shared" si="30"/>
@@ -7815,10 +8382,10 @@
         <v>65</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>279</v>
+        <v>337</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>280</v>
+        <v>338</v>
       </c>
       <c r="G155" s="5" t="s">
         <v>3</v>
@@ -7837,7 +8404,7 @@
     </row>
     <row r="156" spans="1:13">
       <c r="A156" s="5" t="s">
-        <v>281</v>
+        <v>339</v>
       </c>
       <c r="B156" s="6" t="str">
         <f t="shared" si="30"/>
@@ -7851,10 +8418,10 @@
         <v>67</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>282</v>
+        <v>340</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>283</v>
+        <v>341</v>
       </c>
       <c r="G156" s="5" t="s">
         <v>3</v>
@@ -7873,7 +8440,7 @@
     </row>
     <row r="157" spans="1:13">
       <c r="A157" s="5" t="s">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="B157" s="6" t="str">
         <f t="shared" si="30"/>
@@ -7887,10 +8454,10 @@
         <v>65</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>285</v>
+        <v>343</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>286</v>
+        <v>344</v>
       </c>
       <c r="G157" s="5" t="s">
         <v>3</v>
@@ -7909,7 +8476,7 @@
     </row>
     <row r="158" spans="1:13">
       <c r="A158" s="5" t="s">
-        <v>287</v>
+        <v>345</v>
       </c>
       <c r="B158" s="6" t="str">
         <f t="shared" si="30"/>
@@ -7923,10 +8490,10 @@
         <v>67</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>288</v>
+        <v>346</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>289</v>
+        <v>347</v>
       </c>
       <c r="G158" s="5" t="s">
         <v>3</v>
@@ -7945,7 +8512,7 @@
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="5" t="s">
-        <v>290</v>
+        <v>348</v>
       </c>
       <c r="B159" s="6" t="str">
         <f t="shared" si="30"/>
@@ -7959,10 +8526,10 @@
         <v>65</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>291</v>
+        <v>349</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>292</v>
+        <v>350</v>
       </c>
       <c r="G159" s="5" t="s">
         <v>3</v>
@@ -7981,7 +8548,7 @@
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="5" t="s">
-        <v>293</v>
+        <v>351</v>
       </c>
       <c r="B160" s="6" t="str">
         <f t="shared" si="30"/>
@@ -7995,10 +8562,10 @@
         <v>67</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>294</v>
+        <v>352</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>295</v>
+        <v>353</v>
       </c>
       <c r="G160" s="5" t="s">
         <v>3</v>
@@ -8017,7 +8584,7 @@
     </row>
     <row r="161" spans="1:13">
       <c r="A161" s="5" t="s">
-        <v>296</v>
+        <v>354</v>
       </c>
       <c r="B161" s="6" t="str">
         <f t="shared" si="30"/>
@@ -8031,10 +8598,10 @@
         <v>65</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>297</v>
+        <v>355</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>298</v>
+        <v>356</v>
       </c>
       <c r="G161" s="5" t="s">
         <v>3</v>
@@ -8110,7 +8677,7 @@
         <v>3</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>339</v>
+        <v>397</v>
       </c>
       <c r="I164" s="6" t="str">
         <f t="shared" ref="I164:I168" si="35">"messageBlocks.add(new _PayloadBlock("&amp;B164&amp;", "&amp;C164&amp;", "&amp;D164&amp;", "&amp;CHAR(34)&amp;E164&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F164&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G164&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H164&amp;CHAR(34)&amp;"));"</f>
@@ -8173,7 +8740,7 @@
         <v>67</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>250</v>
+        <v>308</v>
       </c>
       <c r="F166" s="5" t="s">
         <v>9</v>
@@ -8229,7 +8796,7 @@
     </row>
     <row r="168" spans="1:13">
       <c r="A168" s="5" t="s">
-        <v>341</v>
+        <v>399</v>
       </c>
       <c r="B168" s="6" t="e">
         <f t="shared" si="33"/>
@@ -8240,19 +8807,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>342</v>
+        <v>400</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>335</v>
+        <v>393</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>336</v>
+        <v>394</v>
       </c>
       <c r="G168" s="5" t="s">
         <v>132</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>340</v>
+        <v>398</v>
       </c>
       <c r="I168" s="6" t="e">
         <f t="shared" si="35"/>
@@ -8283,7 +8850,7 @@
         <v>79</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>343</v>
+        <v>401</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
@@ -8322,7 +8889,7 @@
         <v>3</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>344</v>
+        <v>402</v>
       </c>
       <c r="I171" s="6" t="str">
         <f t="shared" ref="I171:I185" si="38">"messageBlocks.add(new _PayloadBlock("&amp;B171&amp;", "&amp;C171&amp;", "&amp;D171&amp;", "&amp;CHAR(34)&amp;E171&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F171&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G171&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H171&amp;CHAR(34)&amp;"));"</f>
@@ -8385,7 +8952,7 @@
         <v>67</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>250</v>
+        <v>308</v>
       </c>
       <c r="F173" s="5" t="s">
         <v>9</v>
@@ -8455,10 +9022,10 @@
         <v>67</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>345</v>
+        <v>403</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>277</v>
+        <v>335</v>
       </c>
       <c r="G175" s="5" t="s">
         <v>3</v>
@@ -8477,7 +9044,7 @@
     </row>
     <row r="176" spans="1:13">
       <c r="A176" s="5" t="s">
-        <v>346</v>
+        <v>404</v>
       </c>
       <c r="B176" s="6" t="str">
         <f t="shared" si="36"/>
@@ -8491,16 +9058,16 @@
         <v>63</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>347</v>
+        <v>405</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>348</v>
+        <v>406</v>
       </c>
       <c r="G176" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>262</v>
+        <v>320</v>
       </c>
       <c r="I176" s="6" t="str">
         <f t="shared" si="38"/>
@@ -8513,7 +9080,7 @@
     </row>
     <row r="177" spans="1:13">
       <c r="A177" s="5" t="s">
-        <v>349</v>
+        <v>407</v>
       </c>
       <c r="B177" s="6" t="str">
         <f t="shared" si="36"/>
@@ -8527,16 +9094,16 @@
         <v>74</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>350</v>
+        <v>408</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>351</v>
+        <v>409</v>
       </c>
       <c r="G177" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H177" s="5" t="s">
-        <v>262</v>
+        <v>320</v>
       </c>
       <c r="I177" s="6" t="str">
         <f t="shared" si="38"/>
@@ -8549,7 +9116,7 @@
     </row>
     <row r="178" spans="1:13">
       <c r="A178" s="5" t="s">
-        <v>352</v>
+        <v>410</v>
       </c>
       <c r="B178" s="6" t="str">
         <f t="shared" si="36"/>
@@ -8583,7 +9150,7 @@
     </row>
     <row r="179" spans="1:13">
       <c r="A179" s="5" t="s">
-        <v>353</v>
+        <v>411</v>
       </c>
       <c r="B179" s="6" t="str">
         <f t="shared" si="36"/>
@@ -8597,16 +9164,16 @@
         <v>63</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>354</v>
+        <v>412</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>355</v>
+        <v>413</v>
       </c>
       <c r="G179" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H179" s="5" t="s">
-        <v>262</v>
+        <v>320</v>
       </c>
       <c r="I179" s="6" t="str">
         <f t="shared" si="38"/>
@@ -8619,7 +9186,7 @@
     </row>
     <row r="180" spans="1:13">
       <c r="A180" s="5" t="s">
-        <v>356</v>
+        <v>414</v>
       </c>
       <c r="B180" s="6" t="str">
         <f t="shared" si="36"/>
@@ -8633,16 +9200,16 @@
         <v>74</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>357</v>
+        <v>415</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>358</v>
+        <v>416</v>
       </c>
       <c r="G180" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H180" s="5" t="s">
-        <v>262</v>
+        <v>320</v>
       </c>
       <c r="I180" s="6" t="str">
         <f t="shared" si="38"/>
@@ -8655,7 +9222,7 @@
     </row>
     <row r="181" spans="1:13">
       <c r="A181" s="5" t="s">
-        <v>359</v>
+        <v>417</v>
       </c>
       <c r="B181" s="6" t="str">
         <f t="shared" si="36"/>
@@ -8689,7 +9256,7 @@
     </row>
     <row r="182" spans="1:13">
       <c r="A182" s="5" t="s">
-        <v>360</v>
+        <v>418</v>
       </c>
       <c r="B182" s="6" t="str">
         <f t="shared" si="36"/>
@@ -8703,10 +9270,10 @@
         <v>67</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>345</v>
+        <v>403</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>283</v>
+        <v>341</v>
       </c>
       <c r="G182" s="5" t="s">
         <v>3</v>
@@ -8725,7 +9292,7 @@
     </row>
     <row r="183" spans="1:13">
       <c r="A183" s="5" t="s">
-        <v>361</v>
+        <v>419</v>
       </c>
       <c r="B183" s="6" t="str">
         <f t="shared" si="36"/>
@@ -8739,16 +9306,16 @@
         <v>63</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>347</v>
+        <v>405</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>362</v>
+        <v>420</v>
       </c>
       <c r="G183" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>262</v>
+        <v>320</v>
       </c>
       <c r="I183" s="6" t="str">
         <f t="shared" si="38"/>
@@ -8761,7 +9328,7 @@
     </row>
     <row r="184" spans="1:13">
       <c r="A184" s="5" t="s">
-        <v>363</v>
+        <v>421</v>
       </c>
       <c r="B184" s="6" t="str">
         <f t="shared" si="36"/>
@@ -8775,16 +9342,16 @@
         <v>74</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>350</v>
+        <v>408</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>364</v>
+        <v>422</v>
       </c>
       <c r="G184" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>262</v>
+        <v>320</v>
       </c>
       <c r="I184" s="6" t="str">
         <f t="shared" si="38"/>
@@ -8797,7 +9364,7 @@
     </row>
     <row r="185" spans="1:13">
       <c r="A185" s="5" t="s">
-        <v>365</v>
+        <v>423</v>
       </c>
       <c r="B185" s="6" t="str">
         <f t="shared" si="36"/>
@@ -8849,7 +9416,7 @@
         <v>79</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>366</v>
+        <v>424</v>
       </c>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
@@ -8888,7 +9455,7 @@
         <v>3</v>
       </c>
       <c r="H188" s="5" t="s">
-        <v>367</v>
+        <v>425</v>
       </c>
       <c r="I188" s="6" t="str">
         <f t="shared" ref="I188:I197" si="41">"messageBlocks.add(new _PayloadBlock("&amp;B188&amp;", "&amp;C188&amp;", "&amp;D188&amp;", "&amp;CHAR(34)&amp;E188&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F188&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G188&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H188&amp;CHAR(34)&amp;"));"</f>
@@ -8951,7 +9518,7 @@
         <v>67</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>250</v>
+        <v>308</v>
       </c>
       <c r="F190" s="5" t="s">
         <v>9</v>
@@ -9021,10 +9588,10 @@
         <v>67</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>368</v>
+        <v>426</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>277</v>
+        <v>335</v>
       </c>
       <c r="G192" s="5" t="s">
         <v>3</v>
@@ -9043,7 +9610,7 @@
     </row>
     <row r="193" spans="1:13">
       <c r="A193" s="5" t="s">
-        <v>369</v>
+        <v>427</v>
       </c>
       <c r="B193" s="6" t="str">
         <f t="shared" si="39"/>
@@ -9057,16 +9624,16 @@
         <v>74</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>370</v>
+        <v>428</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>371</v>
+        <v>429</v>
       </c>
       <c r="G193" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H193" s="5" t="s">
-        <v>372</v>
+        <v>430</v>
       </c>
       <c r="I193" s="6" t="str">
         <f t="shared" si="41"/>
@@ -9079,7 +9646,7 @@
     </row>
     <row r="194" spans="1:13">
       <c r="A194" s="5" t="s">
-        <v>373</v>
+        <v>431</v>
       </c>
       <c r="B194" s="6" t="str">
         <f t="shared" si="39"/>
@@ -9093,16 +9660,16 @@
         <v>70</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>374</v>
+        <v>432</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>375</v>
+        <v>433</v>
       </c>
       <c r="G194" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H194" s="5" t="s">
-        <v>372</v>
+        <v>430</v>
       </c>
       <c r="I194" s="6" t="str">
         <f t="shared" si="41"/>
@@ -9115,7 +9682,7 @@
     </row>
     <row r="195" spans="1:13">
       <c r="A195" s="5" t="s">
-        <v>376</v>
+        <v>434</v>
       </c>
       <c r="B195" s="6" t="str">
         <f t="shared" si="39"/>
@@ -9129,10 +9696,10 @@
         <v>67</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>377</v>
+        <v>435</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>283</v>
+        <v>341</v>
       </c>
       <c r="G195" s="5" t="s">
         <v>3</v>
@@ -9151,7 +9718,7 @@
     </row>
     <row r="196" spans="1:13">
       <c r="A196" s="5" t="s">
-        <v>378</v>
+        <v>436</v>
       </c>
       <c r="B196" s="6" t="str">
         <f t="shared" si="39"/>
@@ -9165,16 +9732,16 @@
         <v>74</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>379</v>
+        <v>437</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>380</v>
+        <v>438</v>
       </c>
       <c r="G196" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H196" s="5" t="s">
-        <v>372</v>
+        <v>430</v>
       </c>
       <c r="I196" s="6" t="str">
         <f t="shared" si="41"/>
@@ -9187,7 +9754,7 @@
     </row>
     <row r="197" spans="1:13">
       <c r="A197" s="5" t="s">
-        <v>381</v>
+        <v>439</v>
       </c>
       <c r="B197" s="6" t="str">
         <f t="shared" si="39"/>
@@ -9201,16 +9768,16 @@
         <v>70</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>382</v>
+        <v>440</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>383</v>
+        <v>441</v>
       </c>
       <c r="G197" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H197" s="5" t="s">
-        <v>372</v>
+        <v>430</v>
       </c>
       <c r="I197" s="6" t="str">
         <f t="shared" si="41"/>
@@ -9241,7 +9808,7 @@
         <v>79</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>384</v>
+        <v>442</v>
       </c>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
@@ -9280,7 +9847,7 @@
         <v>3</v>
       </c>
       <c r="H200" s="5" t="s">
-        <v>385</v>
+        <v>443</v>
       </c>
       <c r="I200" s="6" t="str">
         <f t="shared" ref="I200:I207" si="44">"messageBlocks.add(new _PayloadBlock("&amp;B200&amp;", "&amp;C200&amp;", "&amp;D200&amp;", "&amp;CHAR(34)&amp;E200&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F200&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G200&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H200&amp;CHAR(34)&amp;"));"</f>
@@ -9343,7 +9910,7 @@
         <v>67</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>250</v>
+        <v>308</v>
       </c>
       <c r="F202" s="5" t="s">
         <v>9</v>
@@ -9399,7 +9966,7 @@
     </row>
     <row r="204" spans="1:13">
       <c r="A204" s="5" t="s">
-        <v>386</v>
+        <v>444</v>
       </c>
       <c r="B204" s="6" t="str">
         <f t="shared" si="42"/>
@@ -9410,7 +9977,7 @@
         <v>57</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>387</v>
+        <v>445</v>
       </c>
       <c r="E204" s="5" t="s">
         <v>30</v>
@@ -9419,10 +9986,10 @@
         <v>31</v>
       </c>
       <c r="G204" s="5" t="s">
-        <v>388</v>
+        <v>446</v>
       </c>
       <c r="H204" s="5" t="s">
-        <v>389</v>
+        <v>447</v>
       </c>
       <c r="I204" s="6" t="str">
         <f t="shared" si="44"/>
@@ -9435,7 +10002,7 @@
     </row>
     <row r="205" spans="1:13">
       <c r="A205" s="5" t="s">
-        <v>390</v>
+        <v>448</v>
       </c>
       <c r="B205" s="6" t="str">
         <f t="shared" si="42"/>
@@ -9446,7 +10013,7 @@
         <v>74</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>384</v>
+        <v>442</v>
       </c>
       <c r="E205" s="5" t="s">
         <v>35</v>
@@ -9455,10 +10022,10 @@
         <v>36</v>
       </c>
       <c r="G205" s="5" t="s">
-        <v>388</v>
+        <v>446</v>
       </c>
       <c r="H205" s="5" t="s">
-        <v>389</v>
+        <v>447</v>
       </c>
       <c r="I205" s="6" t="str">
         <f t="shared" si="44"/>
@@ -9471,7 +10038,7 @@
     </row>
     <row r="206" spans="1:13">
       <c r="A206" s="5" t="s">
-        <v>391</v>
+        <v>449</v>
       </c>
       <c r="B206" s="6" t="str">
         <f t="shared" si="42"/>
@@ -9492,7 +10059,7 @@
         <v>55</v>
       </c>
       <c r="H206" s="5" t="s">
-        <v>392</v>
+        <v>450</v>
       </c>
       <c r="I206" s="6" t="str">
         <f t="shared" si="44"/>
@@ -9505,7 +10072,7 @@
     </row>
     <row r="207" spans="1:13">
       <c r="A207" s="5" t="s">
-        <v>393</v>
+        <v>451</v>
       </c>
       <c r="B207" s="6" t="str">
         <f t="shared" si="42"/>
@@ -9516,19 +10083,19 @@
         <v>815</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>394</v>
+        <v>452</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>269</v>
+        <v>327</v>
       </c>
       <c r="G207" s="5" t="s">
-        <v>270</v>
+        <v>328</v>
       </c>
       <c r="H207" s="5" t="s">
-        <v>396</v>
+        <v>454</v>
       </c>
       <c r="I207" s="6" t="str">
         <f t="shared" si="44"/>
@@ -9555,13 +10122,15 @@
       <c r="M208" s="5"/>
     </row>
     <row r="209" spans="1:13">
-      <c r="A209" s="5" t="s">
+      <c r="A209" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B209" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="C209" s="5"/>
+      <c r="B209" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>919</v>
+      </c>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
@@ -9598,7 +10167,7 @@
         <v>3</v>
       </c>
       <c r="H210" s="5" t="s">
-        <v>397</v>
+        <v>455</v>
       </c>
       <c r="I210" s="6" t="str">
         <f t="shared" ref="I210:I229" si="47">"messageBlocks.add(new _PayloadBlock("&amp;B210&amp;", "&amp;C210&amp;", "&amp;D210&amp;", "&amp;CHAR(34)&amp;E210&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F210&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G210&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H210&amp;CHAR(34)&amp;"));"</f>
@@ -9683,7 +10252,7 @@
     </row>
     <row r="213" spans="1:13">
       <c r="A213" s="5" t="s">
-        <v>398</v>
+        <v>456</v>
       </c>
       <c r="B213" s="6" t="str">
         <f t="shared" si="45"/>
@@ -9697,10 +10266,10 @@
         <v>69</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>399</v>
+        <v>457</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>400</v>
+        <v>458</v>
       </c>
       <c r="G213" s="5" t="s">
         <v>55</v>
@@ -9719,7 +10288,7 @@
     </row>
     <row r="214" spans="1:13">
       <c r="A214" s="5" t="s">
-        <v>401</v>
+        <v>459</v>
       </c>
       <c r="B214" s="6" t="str">
         <f t="shared" si="45"/>
@@ -9733,7 +10302,7 @@
         <v>70</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>402</v>
+        <v>460</v>
       </c>
       <c r="F214" s="5" t="s">
         <v>23</v>
@@ -9742,7 +10311,7 @@
         <v>24</v>
       </c>
       <c r="H214" s="5" t="s">
-        <v>403</v>
+        <v>461</v>
       </c>
       <c r="I214" s="6" t="str">
         <f t="shared" si="47"/>
@@ -9755,7 +10324,7 @@
     </row>
     <row r="215" spans="1:13">
       <c r="A215" s="5" t="s">
-        <v>404</v>
+        <v>462</v>
       </c>
       <c r="B215" s="6" t="str">
         <f t="shared" si="45"/>
@@ -9791,7 +10360,7 @@
     </row>
     <row r="216" spans="1:13">
       <c r="A216" s="5" t="s">
-        <v>405</v>
+        <v>463</v>
       </c>
       <c r="B216" s="6" t="str">
         <f t="shared" si="45"/>
@@ -9814,7 +10383,7 @@
         <v>32</v>
       </c>
       <c r="H216" s="5" t="s">
-        <v>310</v>
+        <v>368</v>
       </c>
       <c r="I216" s="6" t="str">
         <f t="shared" si="47"/>
@@ -9827,7 +10396,7 @@
     </row>
     <row r="217" spans="1:13">
       <c r="A217" s="5" t="s">
-        <v>406</v>
+        <v>464</v>
       </c>
       <c r="B217" s="6" t="str">
         <f t="shared" si="45"/>
@@ -9850,7 +10419,7 @@
         <v>32</v>
       </c>
       <c r="H217" s="5" t="s">
-        <v>310</v>
+        <v>368</v>
       </c>
       <c r="I217" s="6" t="str">
         <f t="shared" si="47"/>
@@ -9863,7 +10432,7 @@
     </row>
     <row r="218" spans="1:13">
       <c r="A218" s="5" t="s">
-        <v>407</v>
+        <v>465</v>
       </c>
       <c r="B218" s="6" t="str">
         <f t="shared" si="45"/>
@@ -9877,7 +10446,7 @@
         <v>74</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>311</v>
+        <v>369</v>
       </c>
       <c r="F218" s="5" t="s">
         <v>39</v>
@@ -9886,7 +10455,7 @@
         <v>24</v>
       </c>
       <c r="H218" s="5" t="s">
-        <v>408</v>
+        <v>466</v>
       </c>
       <c r="I218" s="6" t="str">
         <f t="shared" si="47"/>
@@ -9899,7 +10468,7 @@
     </row>
     <row r="219" spans="1:13">
       <c r="A219" s="5" t="s">
-        <v>409</v>
+        <v>467</v>
       </c>
       <c r="B219" s="6" t="str">
         <f t="shared" si="45"/>
@@ -9913,7 +10482,7 @@
         <v>75</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>410</v>
+        <v>468</v>
       </c>
       <c r="F219" s="5" t="s">
         <v>43</v>
@@ -9922,7 +10491,7 @@
         <v>3</v>
       </c>
       <c r="H219" s="5" t="s">
-        <v>411</v>
+        <v>469</v>
       </c>
       <c r="I219" s="6" t="str">
         <f t="shared" si="47"/>
@@ -9935,7 +10504,7 @@
     </row>
     <row r="220" spans="1:13">
       <c r="A220" s="5" t="s">
-        <v>412</v>
+        <v>470</v>
       </c>
       <c r="B220" s="6" t="str">
         <f t="shared" si="45"/>
@@ -9958,7 +10527,7 @@
         <v>3</v>
       </c>
       <c r="H220" s="5" t="s">
-        <v>413</v>
+        <v>471</v>
       </c>
       <c r="I220" s="6" t="str">
         <f t="shared" si="47"/>
@@ -9971,7 +10540,7 @@
     </row>
     <row r="221" spans="1:13">
       <c r="A221" s="5" t="s">
-        <v>414</v>
+        <v>472</v>
       </c>
       <c r="B221" s="6" t="str">
         <f t="shared" si="45"/>
@@ -9985,16 +10554,16 @@
         <v>65</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>316</v>
+        <v>374</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>317</v>
+        <v>375</v>
       </c>
       <c r="G221" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H221" s="5" t="s">
-        <v>415</v>
+        <v>473</v>
       </c>
       <c r="I221" s="6" t="str">
         <f t="shared" si="47"/>
@@ -10007,7 +10576,7 @@
     </row>
     <row r="222" spans="1:13">
       <c r="A222" s="5" t="s">
-        <v>416</v>
+        <v>474</v>
       </c>
       <c r="B222" s="6" t="str">
         <f t="shared" si="45"/>
@@ -10021,16 +10590,16 @@
         <v>71</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>417</v>
+        <v>475</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>418</v>
+        <v>476</v>
       </c>
       <c r="G222" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H222" s="5" t="s">
-        <v>419</v>
+        <v>477</v>
       </c>
       <c r="I222" s="6" t="str">
         <f t="shared" si="47"/>
@@ -10043,7 +10612,7 @@
     </row>
     <row r="223" spans="1:13">
       <c r="A223" s="5" t="s">
-        <v>318</v>
+        <v>376</v>
       </c>
       <c r="B223" s="6" t="str">
         <f t="shared" si="45"/>
@@ -10057,16 +10626,16 @@
         <v>71</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>420</v>
+        <v>478</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>421</v>
+        <v>479</v>
       </c>
       <c r="G223" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H223" s="5" t="s">
-        <v>422</v>
+        <v>480</v>
       </c>
       <c r="I223" s="6" t="str">
         <f t="shared" si="47"/>
@@ -10079,7 +10648,7 @@
     </row>
     <row r="224" spans="1:13">
       <c r="A224" s="5" t="s">
-        <v>423</v>
+        <v>481</v>
       </c>
       <c r="B224" s="6" t="str">
         <f t="shared" si="45"/>
@@ -10093,16 +10662,16 @@
         <v>71</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>424</v>
+        <v>482</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>425</v>
+        <v>483</v>
       </c>
       <c r="G224" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H224" s="5" t="s">
-        <v>426</v>
+        <v>484</v>
       </c>
       <c r="I224" s="6" t="str">
         <f t="shared" si="47"/>
@@ -10115,7 +10684,7 @@
     </row>
     <row r="225" spans="1:13">
       <c r="A225" s="5" t="s">
-        <v>427</v>
+        <v>485</v>
       </c>
       <c r="B225" s="6" t="str">
         <f t="shared" si="45"/>
@@ -10129,16 +10698,16 @@
         <v>71</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>428</v>
+        <v>486</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>429</v>
+        <v>487</v>
       </c>
       <c r="G225" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H225" s="5" t="s">
-        <v>430</v>
+        <v>488</v>
       </c>
       <c r="I225" s="6" t="str">
         <f t="shared" si="47"/>
@@ -10151,7 +10720,7 @@
     </row>
     <row r="226" spans="1:13">
       <c r="A226" s="5" t="s">
-        <v>431</v>
+        <v>489</v>
       </c>
       <c r="B226" s="6" t="str">
         <f t="shared" si="45"/>
@@ -10165,16 +10734,16 @@
         <v>71</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>432</v>
+        <v>490</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>433</v>
+        <v>491</v>
       </c>
       <c r="G226" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H226" s="5" t="s">
-        <v>434</v>
+        <v>492</v>
       </c>
       <c r="I226" s="6" t="str">
         <f t="shared" si="47"/>
@@ -10187,7 +10756,7 @@
     </row>
     <row r="227" spans="1:13">
       <c r="A227" s="5" t="s">
-        <v>321</v>
+        <v>379</v>
       </c>
       <c r="B227" s="6" t="str">
         <f t="shared" si="45"/>
@@ -10201,16 +10770,16 @@
         <v>71</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>322</v>
+        <v>380</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>323</v>
+        <v>381</v>
       </c>
       <c r="G227" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H227" s="5" t="s">
-        <v>435</v>
+        <v>493</v>
       </c>
       <c r="I227" s="6" t="str">
         <f t="shared" si="47"/>
@@ -10223,7 +10792,7 @@
     </row>
     <row r="228" spans="1:13">
       <c r="A228" s="5" t="s">
-        <v>325</v>
+        <v>383</v>
       </c>
       <c r="B228" s="6" t="str">
         <f t="shared" si="45"/>
@@ -10259,7 +10828,7 @@
     </row>
     <row r="229" spans="1:13">
       <c r="A229" s="5" t="s">
-        <v>326</v>
+        <v>384</v>
       </c>
       <c r="B229" s="6" t="str">
         <f t="shared" si="45"/>
@@ -10270,7 +10839,7 @@
         <v>167</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>327</v>
+        <v>385</v>
       </c>
       <c r="E229" s="5" t="s">
         <v>61</v>
@@ -10282,7 +10851,7 @@
         <v>3</v>
       </c>
       <c r="H229" s="5" t="s">
-        <v>328</v>
+        <v>386</v>
       </c>
       <c r="I229" s="6" t="str">
         <f t="shared" si="47"/>
@@ -10315,7 +10884,9 @@
       <c r="B231" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C231" s="5"/>
+      <c r="C231" s="5" t="s">
+        <v>920</v>
+      </c>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
       <c r="F231" s="5"/>
@@ -10352,7 +10923,7 @@
         <v>3</v>
       </c>
       <c r="H232" s="5" t="s">
-        <v>436</v>
+        <v>494</v>
       </c>
       <c r="I232" s="6" t="str">
         <f t="shared" ref="I232:I254" si="50">"messageBlocks.add(new _PayloadBlock("&amp;B232&amp;", "&amp;C232&amp;", "&amp;D232&amp;", "&amp;CHAR(34)&amp;E232&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F232&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G232&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H232&amp;CHAR(34)&amp;"));"</f>
@@ -10388,7 +10959,7 @@
         <v>3</v>
       </c>
       <c r="H233" s="5" t="s">
-        <v>437</v>
+        <v>495</v>
       </c>
       <c r="I233" s="6" t="str">
         <f t="shared" si="50"/>
@@ -10437,7 +11008,7 @@
     </row>
     <row r="235" spans="1:13">
       <c r="A235" s="5" t="s">
-        <v>398</v>
+        <v>456</v>
       </c>
       <c r="B235" s="6" t="str">
         <f t="shared" si="48"/>
@@ -10451,10 +11022,10 @@
         <v>69</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>399</v>
+        <v>457</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>400</v>
+        <v>458</v>
       </c>
       <c r="G235" s="5" t="s">
         <v>3</v>
@@ -10471,7 +11042,7 @@
     </row>
     <row r="236" spans="1:13">
       <c r="A236" s="5" t="s">
-        <v>401</v>
+        <v>459</v>
       </c>
       <c r="B236" s="6" t="str">
         <f t="shared" si="48"/>
@@ -10485,7 +11056,7 @@
         <v>70</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>402</v>
+        <v>460</v>
       </c>
       <c r="F236" s="5" t="s">
         <v>23</v>
@@ -10494,7 +11065,7 @@
         <v>24</v>
       </c>
       <c r="H236" s="5" t="s">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="I236" s="6" t="str">
         <f t="shared" si="50"/>
@@ -10507,7 +11078,7 @@
     </row>
     <row r="237" spans="1:13">
       <c r="A237" s="5" t="s">
-        <v>404</v>
+        <v>462</v>
       </c>
       <c r="B237" s="6" t="str">
         <f t="shared" si="48"/>
@@ -10530,7 +11101,7 @@
         <v>28</v>
       </c>
       <c r="H237" s="5" t="s">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="I237" s="6" t="str">
         <f t="shared" si="50"/>
@@ -10543,7 +11114,7 @@
     </row>
     <row r="238" spans="1:13">
       <c r="A238" s="5" t="s">
-        <v>405</v>
+        <v>463</v>
       </c>
       <c r="B238" s="6" t="str">
         <f t="shared" si="48"/>
@@ -10566,7 +11137,7 @@
         <v>32</v>
       </c>
       <c r="H238" s="5" t="s">
-        <v>310</v>
+        <v>368</v>
       </c>
       <c r="I238" s="6" t="str">
         <f t="shared" si="50"/>
@@ -10579,7 +11150,7 @@
     </row>
     <row r="239" spans="1:13">
       <c r="A239" s="5" t="s">
-        <v>406</v>
+        <v>464</v>
       </c>
       <c r="B239" s="6" t="str">
         <f t="shared" si="48"/>
@@ -10602,7 +11173,7 @@
         <v>32</v>
       </c>
       <c r="H239" s="5" t="s">
-        <v>310</v>
+        <v>368</v>
       </c>
       <c r="I239" s="6" t="str">
         <f t="shared" si="50"/>
@@ -10615,7 +11186,7 @@
     </row>
     <row r="240" spans="1:13">
       <c r="A240" s="5" t="s">
-        <v>407</v>
+        <v>465</v>
       </c>
       <c r="B240" s="6" t="str">
         <f t="shared" si="48"/>
@@ -10629,7 +11200,7 @@
         <v>74</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>311</v>
+        <v>369</v>
       </c>
       <c r="F240" s="5" t="s">
         <v>39</v>
@@ -10638,7 +11209,7 @@
         <v>24</v>
       </c>
       <c r="H240" s="5" t="s">
-        <v>439</v>
+        <v>497</v>
       </c>
       <c r="I240" s="6" t="str">
         <f t="shared" si="50"/>
@@ -10651,7 +11222,7 @@
     </row>
     <row r="241" spans="1:13">
       <c r="A241" s="5" t="s">
-        <v>409</v>
+        <v>467</v>
       </c>
       <c r="B241" s="6" t="str">
         <f t="shared" si="48"/>
@@ -10665,7 +11236,7 @@
         <v>75</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>410</v>
+        <v>468</v>
       </c>
       <c r="F241" s="5" t="s">
         <v>43</v>
@@ -10674,7 +11245,7 @@
         <v>3</v>
       </c>
       <c r="H241" s="5" t="s">
-        <v>411</v>
+        <v>469</v>
       </c>
       <c r="I241" s="6" t="str">
         <f t="shared" si="50"/>
@@ -10687,7 +11258,7 @@
     </row>
     <row r="242" spans="1:13">
       <c r="A242" s="5" t="s">
-        <v>412</v>
+        <v>470</v>
       </c>
       <c r="B242" s="6" t="str">
         <f t="shared" si="48"/>
@@ -10710,7 +11281,7 @@
         <v>3</v>
       </c>
       <c r="H242" s="5" t="s">
-        <v>413</v>
+        <v>471</v>
       </c>
       <c r="I242" s="6" t="str">
         <f t="shared" si="50"/>
@@ -10723,7 +11294,7 @@
     </row>
     <row r="243" spans="1:13">
       <c r="A243" s="5" t="s">
-        <v>440</v>
+        <v>498</v>
       </c>
       <c r="B243" s="6" t="str">
         <f t="shared" si="48"/>
@@ -10737,16 +11308,16 @@
         <v>68</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>316</v>
+        <v>374</v>
       </c>
       <c r="F243" s="5" t="s">
-        <v>317</v>
+        <v>375</v>
       </c>
       <c r="G243" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H243" s="5" t="s">
-        <v>415</v>
+        <v>473</v>
       </c>
       <c r="I243" s="6" t="str">
         <f t="shared" si="50"/>
@@ -10759,7 +11330,7 @@
     </row>
     <row r="244" spans="1:13">
       <c r="A244" s="5" t="s">
-        <v>441</v>
+        <v>499</v>
       </c>
       <c r="B244" s="6" t="str">
         <f t="shared" si="48"/>
@@ -10773,13 +11344,13 @@
         <v>135</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="F244" s="5" t="s">
         <v>137</v>
       </c>
       <c r="G244" s="5" t="s">
-        <v>443</v>
+        <v>501</v>
       </c>
       <c r="H244" s="5" t="s">
         <v>177</v>
@@ -10795,7 +11366,7 @@
     </row>
     <row r="245" spans="1:13">
       <c r="A245" s="5" t="s">
-        <v>444</v>
+        <v>502</v>
       </c>
       <c r="B245" s="6" t="str">
         <f t="shared" si="48"/>
@@ -10809,7 +11380,7 @@
         <v>69</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>445</v>
+        <v>503</v>
       </c>
       <c r="F245" s="5" t="s">
         <v>141</v>
@@ -10818,7 +11389,7 @@
         <v>3</v>
       </c>
       <c r="H245" s="5" t="s">
-        <v>446</v>
+        <v>504</v>
       </c>
       <c r="I245" s="6" t="str">
         <f t="shared" si="50"/>
@@ -10831,7 +11402,7 @@
     </row>
     <row r="246" spans="1:13">
       <c r="A246" s="5" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="B246" s="6" t="str">
         <f t="shared" si="48"/>
@@ -10867,7 +11438,7 @@
     </row>
     <row r="247" spans="1:13">
       <c r="A247" s="5" t="s">
-        <v>448</v>
+        <v>506</v>
       </c>
       <c r="B247" s="6" t="str">
         <f t="shared" si="48"/>
@@ -10903,7 +11474,7 @@
     </row>
     <row r="248" spans="1:13">
       <c r="A248" s="5" t="s">
-        <v>449</v>
+        <v>507</v>
       </c>
       <c r="B248" s="6" t="str">
         <f t="shared" si="48"/>
@@ -10939,7 +11510,7 @@
     </row>
     <row r="249" spans="1:13">
       <c r="A249" s="5" t="s">
-        <v>450</v>
+        <v>508</v>
       </c>
       <c r="B249" s="6" t="str">
         <f t="shared" si="48"/>
@@ -10975,7 +11546,7 @@
     </row>
     <row r="250" spans="1:13">
       <c r="A250" s="5" t="s">
-        <v>451</v>
+        <v>509</v>
       </c>
       <c r="B250" s="6" t="str">
         <f t="shared" si="48"/>
@@ -11011,7 +11582,7 @@
     </row>
     <row r="251" spans="1:13">
       <c r="A251" s="5" t="s">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="B251" s="6" t="str">
         <f t="shared" si="48"/>
@@ -11034,7 +11605,7 @@
         <v>28</v>
       </c>
       <c r="H251" s="5" t="s">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="I251" s="6" t="str">
         <f t="shared" si="50"/>
@@ -11047,7 +11618,7 @@
     </row>
     <row r="252" spans="1:13">
       <c r="A252" s="5" t="s">
-        <v>453</v>
+        <v>511</v>
       </c>
       <c r="B252" s="6" t="str">
         <f t="shared" si="48"/>
@@ -11083,7 +11654,7 @@
     </row>
     <row r="253" spans="1:13">
       <c r="A253" s="5" t="s">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="B253" s="6" t="str">
         <f t="shared" si="48"/>
@@ -11097,16 +11668,16 @@
         <v>71</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>455</v>
+        <v>513</v>
       </c>
       <c r="F253" s="5" t="s">
-        <v>323</v>
+        <v>381</v>
       </c>
       <c r="G253" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H253" s="5" t="s">
-        <v>456</v>
+        <v>514</v>
       </c>
       <c r="I253" s="6" t="str">
         <f t="shared" si="50"/>
@@ -11119,7 +11690,7 @@
     </row>
     <row r="254" spans="1:13">
       <c r="A254" s="5" t="s">
-        <v>457</v>
+        <v>515</v>
       </c>
       <c r="B254" s="6" t="str">
         <f t="shared" si="48"/>
@@ -11140,7 +11711,7 @@
         <v>55</v>
       </c>
       <c r="H254" s="5" t="s">
-        <v>458</v>
+        <v>516</v>
       </c>
       <c r="I254" s="6" t="str">
         <f t="shared" si="50"/>
@@ -11171,7 +11742,7 @@
         <v>79</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>327</v>
+        <v>385</v>
       </c>
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
@@ -11210,7 +11781,7 @@
         <v>3</v>
       </c>
       <c r="H257" s="5" t="s">
-        <v>459</v>
+        <v>517</v>
       </c>
       <c r="I257" s="6" t="str">
         <f t="shared" ref="I257:I276" si="53">"messageBlocks.add(new _PayloadBlock("&amp;B257&amp;", "&amp;C257&amp;", "&amp;D257&amp;", "&amp;CHAR(34)&amp;E257&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F257&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G257&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H257&amp;CHAR(34)&amp;"));"</f>
@@ -11246,7 +11817,7 @@
         <v>3</v>
       </c>
       <c r="H258" s="5" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="I258" s="6" t="str">
         <f t="shared" si="53"/>
@@ -11329,7 +11900,7 @@
     </row>
     <row r="261" spans="1:13">
       <c r="A261" s="5" t="s">
-        <v>461</v>
+        <v>519</v>
       </c>
       <c r="B261" s="6" t="str">
         <f t="shared" si="51"/>
@@ -11343,16 +11914,16 @@
         <v>74</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>462</v>
+        <v>520</v>
       </c>
       <c r="F261" s="5" t="s">
-        <v>371</v>
+        <v>429</v>
       </c>
       <c r="G261" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H261" s="5" t="s">
-        <v>463</v>
+        <v>521</v>
       </c>
       <c r="I261" s="6" t="str">
         <f t="shared" si="53"/>
@@ -11379,16 +11950,16 @@
         <v>68</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="F262" s="5" t="s">
-        <v>465</v>
+        <v>523</v>
       </c>
       <c r="G262" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H262" s="5" t="s">
-        <v>466</v>
+        <v>524</v>
       </c>
       <c r="I262" s="6" t="str">
         <f t="shared" si="53"/>
@@ -11401,7 +11972,7 @@
     </row>
     <row r="263" spans="1:13">
       <c r="A263" s="5" t="s">
-        <v>467</v>
+        <v>525</v>
       </c>
       <c r="B263" s="6" t="str">
         <f t="shared" si="51"/>
@@ -11415,16 +11986,16 @@
         <v>76</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>468</v>
+        <v>526</v>
       </c>
       <c r="F263" s="5" t="s">
-        <v>469</v>
+        <v>527</v>
       </c>
       <c r="G263" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H263" s="5" t="s">
-        <v>470</v>
+        <v>528</v>
       </c>
       <c r="I263" s="6" t="str">
         <f t="shared" si="53"/>
@@ -11437,7 +12008,7 @@
     </row>
     <row r="264" spans="1:13">
       <c r="A264" s="5" t="s">
-        <v>471</v>
+        <v>529</v>
       </c>
       <c r="B264" s="6" t="str">
         <f t="shared" si="51"/>
@@ -11448,19 +12019,19 @@
         <v>69</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>330</v>
+        <v>388</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>472</v>
+        <v>530</v>
       </c>
       <c r="F264" s="5" t="s">
-        <v>375</v>
+        <v>433</v>
       </c>
       <c r="G264" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H264" s="5" t="s">
-        <v>473</v>
+        <v>531</v>
       </c>
       <c r="I264" s="6" t="str">
         <f t="shared" si="53"/>
@@ -11473,7 +12044,7 @@
     </row>
     <row r="265" spans="1:13">
       <c r="A265" s="5" t="s">
-        <v>369</v>
+        <v>427</v>
       </c>
       <c r="B265" s="6" t="str">
         <f t="shared" si="51"/>
@@ -11487,16 +12058,16 @@
         <v>74</v>
       </c>
       <c r="E265" s="5" t="s">
-        <v>474</v>
+        <v>532</v>
       </c>
       <c r="F265" s="5" t="s">
-        <v>380</v>
+        <v>438</v>
       </c>
       <c r="G265" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H265" s="5" t="s">
-        <v>463</v>
+        <v>521</v>
       </c>
       <c r="I265" s="6" t="str">
         <f t="shared" si="53"/>
@@ -11509,7 +12080,7 @@
     </row>
     <row r="266" spans="1:13">
       <c r="A266" s="5" t="s">
-        <v>475</v>
+        <v>533</v>
       </c>
       <c r="B266" s="6" t="str">
         <f t="shared" si="51"/>
@@ -11523,16 +12094,16 @@
         <v>68</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="F266" s="5" t="s">
-        <v>476</v>
+        <v>534</v>
       </c>
       <c r="G266" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H266" s="5" t="s">
-        <v>466</v>
+        <v>524</v>
       </c>
       <c r="I266" s="6" t="str">
         <f t="shared" si="53"/>
@@ -11545,7 +12116,7 @@
     </row>
     <row r="267" spans="1:13">
       <c r="A267" s="5" t="s">
-        <v>477</v>
+        <v>535</v>
       </c>
       <c r="B267" s="6" t="str">
         <f t="shared" si="51"/>
@@ -11559,16 +12130,16 @@
         <v>76</v>
       </c>
       <c r="E267" s="5" t="s">
-        <v>468</v>
+        <v>526</v>
       </c>
       <c r="F267" s="5" t="s">
-        <v>478</v>
+        <v>536</v>
       </c>
       <c r="G267" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H267" s="5" t="s">
-        <v>470</v>
+        <v>528</v>
       </c>
       <c r="I267" s="6" t="str">
         <f t="shared" si="53"/>
@@ -11581,7 +12152,7 @@
     </row>
     <row r="268" spans="1:13">
       <c r="A268" s="5" t="s">
-        <v>479</v>
+        <v>537</v>
       </c>
       <c r="B268" s="6" t="str">
         <f t="shared" si="51"/>
@@ -11592,19 +12163,19 @@
         <v>99</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>330</v>
+        <v>388</v>
       </c>
       <c r="E268" s="5" t="s">
-        <v>472</v>
+        <v>530</v>
       </c>
       <c r="F268" s="5" t="s">
-        <v>383</v>
+        <v>441</v>
       </c>
       <c r="G268" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H268" s="5" t="s">
-        <v>473</v>
+        <v>531</v>
       </c>
       <c r="I268" s="6" t="str">
         <f t="shared" si="53"/>
@@ -11617,7 +12188,7 @@
     </row>
     <row r="269" spans="1:13">
       <c r="A269" s="5" t="s">
-        <v>480</v>
+        <v>538</v>
       </c>
       <c r="B269" s="6" t="str">
         <f t="shared" si="51"/>
@@ -11631,16 +12202,16 @@
         <v>74</v>
       </c>
       <c r="E269" s="5" t="s">
-        <v>481</v>
+        <v>539</v>
       </c>
       <c r="F269" s="5" t="s">
-        <v>482</v>
+        <v>540</v>
       </c>
       <c r="G269" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H269" s="5" t="s">
-        <v>463</v>
+        <v>521</v>
       </c>
       <c r="I269" s="6" t="str">
         <f t="shared" si="53"/>
@@ -11653,7 +12224,7 @@
     </row>
     <row r="270" spans="1:13">
       <c r="A270" s="5" t="s">
-        <v>483</v>
+        <v>541</v>
       </c>
       <c r="B270" s="6" t="str">
         <f t="shared" si="51"/>
@@ -11667,16 +12238,16 @@
         <v>68</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="F270" s="5" t="s">
-        <v>484</v>
+        <v>542</v>
       </c>
       <c r="G270" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H270" s="5" t="s">
-        <v>466</v>
+        <v>524</v>
       </c>
       <c r="I270" s="6" t="str">
         <f t="shared" si="53"/>
@@ -11689,7 +12260,7 @@
     </row>
     <row r="271" spans="1:13">
       <c r="A271" s="5" t="s">
-        <v>485</v>
+        <v>543</v>
       </c>
       <c r="B271" s="6" t="str">
         <f t="shared" si="51"/>
@@ -11703,16 +12274,16 @@
         <v>76</v>
       </c>
       <c r="E271" s="5" t="s">
-        <v>468</v>
+        <v>526</v>
       </c>
       <c r="F271" s="5" t="s">
-        <v>486</v>
+        <v>544</v>
       </c>
       <c r="G271" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H271" s="5" t="s">
-        <v>470</v>
+        <v>528</v>
       </c>
       <c r="I271" s="6" t="str">
         <f t="shared" si="53"/>
@@ -11725,7 +12296,7 @@
     </row>
     <row r="272" spans="1:13">
       <c r="A272" s="5" t="s">
-        <v>487</v>
+        <v>545</v>
       </c>
       <c r="B272" s="6" t="str">
         <f t="shared" si="51"/>
@@ -11736,19 +12307,19 @@
         <v>129</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>330</v>
+        <v>388</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>472</v>
+        <v>530</v>
       </c>
       <c r="F272" s="5" t="s">
-        <v>488</v>
+        <v>546</v>
       </c>
       <c r="G272" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H272" s="5" t="s">
-        <v>473</v>
+        <v>531</v>
       </c>
       <c r="I272" s="6" t="str">
         <f t="shared" si="53"/>
@@ -11761,7 +12332,7 @@
     </row>
     <row r="273" spans="1:13">
       <c r="A273" s="5" t="s">
-        <v>489</v>
+        <v>547</v>
       </c>
       <c r="B273" s="6" t="str">
         <f t="shared" si="51"/>
@@ -11775,16 +12346,16 @@
         <v>74</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>490</v>
+        <v>548</v>
       </c>
       <c r="F273" s="5" t="s">
-        <v>491</v>
+        <v>549</v>
       </c>
       <c r="G273" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H273" s="5" t="s">
-        <v>463</v>
+        <v>521</v>
       </c>
       <c r="I273" s="6" t="str">
         <f t="shared" si="53"/>
@@ -11797,7 +12368,7 @@
     </row>
     <row r="274" spans="1:13">
       <c r="A274" s="5" t="s">
-        <v>492</v>
+        <v>550</v>
       </c>
       <c r="B274" s="6" t="str">
         <f t="shared" si="51"/>
@@ -11811,16 +12382,16 @@
         <v>68</v>
       </c>
       <c r="E274" s="5" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="F274" s="5" t="s">
-        <v>493</v>
+        <v>551</v>
       </c>
       <c r="G274" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H274" s="5" t="s">
-        <v>466</v>
+        <v>524</v>
       </c>
       <c r="I274" s="6" t="str">
         <f t="shared" si="53"/>
@@ -11833,7 +12404,7 @@
     </row>
     <row r="275" spans="1:13">
       <c r="A275" s="5" t="s">
-        <v>494</v>
+        <v>552</v>
       </c>
       <c r="B275" s="6" t="str">
         <f t="shared" si="51"/>
@@ -11847,16 +12418,16 @@
         <v>76</v>
       </c>
       <c r="E275" s="5" t="s">
-        <v>468</v>
+        <v>526</v>
       </c>
       <c r="F275" s="5" t="s">
-        <v>495</v>
+        <v>553</v>
       </c>
       <c r="G275" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H275" s="5" t="s">
-        <v>470</v>
+        <v>528</v>
       </c>
       <c r="I275" s="6" t="str">
         <f t="shared" si="53"/>
@@ -11869,7 +12440,7 @@
     </row>
     <row r="276" spans="1:13">
       <c r="A276" s="5" t="s">
-        <v>496</v>
+        <v>554</v>
       </c>
       <c r="B276" s="6" t="str">
         <f t="shared" si="51"/>
@@ -11880,19 +12451,19 @@
         <v>159</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>330</v>
+        <v>388</v>
       </c>
       <c r="E276" s="5" t="s">
-        <v>472</v>
+        <v>530</v>
       </c>
       <c r="F276" s="5" t="s">
-        <v>497</v>
+        <v>555</v>
       </c>
       <c r="G276" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H276" s="5" t="s">
-        <v>473</v>
+        <v>531</v>
       </c>
       <c r="I276" s="6" t="str">
         <f t="shared" si="53"/>
@@ -11923,10 +12494,10 @@
         <v>79</v>
       </c>
       <c r="B278" s="10" t="s">
-        <v>498</v>
+        <v>556</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>703</v>
+        <v>761</v>
       </c>
       <c r="D278" s="5"/>
       <c r="E278" s="5"/>
@@ -11964,7 +12535,7 @@
         <v>3</v>
       </c>
       <c r="H279" s="5" t="s">
-        <v>499</v>
+        <v>557</v>
       </c>
       <c r="I279" s="6" t="str">
         <f t="shared" ref="I279:I299" si="56">"messageBlocks.add(new _PayloadBlock("&amp;B279&amp;", "&amp;C279&amp;", "&amp;D279&amp;", "&amp;CHAR(34)&amp;E279&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F279&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G279&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H279&amp;CHAR(34)&amp;"));"</f>
@@ -12000,7 +12571,7 @@
         <v>3</v>
       </c>
       <c r="H280" s="5" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="I280" s="6" t="str">
         <f t="shared" si="56"/>
@@ -12049,7 +12620,7 @@
     </row>
     <row r="282" spans="1:13">
       <c r="A282" s="5" t="s">
-        <v>500</v>
+        <v>558</v>
       </c>
       <c r="B282" s="6" t="str">
         <f t="shared" si="54"/>
@@ -12063,16 +12634,16 @@
         <v>117</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>501</v>
+        <v>559</v>
       </c>
       <c r="F282" s="5" t="s">
-        <v>502</v>
+        <v>560</v>
       </c>
       <c r="G282" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H282" s="5" t="s">
-        <v>503</v>
+        <v>561</v>
       </c>
       <c r="I282" s="6" t="str">
         <f t="shared" si="56"/>
@@ -12085,7 +12656,7 @@
     </row>
     <row r="283" spans="1:13">
       <c r="A283" s="5" t="s">
-        <v>736</v>
+        <v>762</v>
       </c>
       <c r="B283" s="6" t="str">
         <f t="shared" si="54"/>
@@ -12099,16 +12670,16 @@
         <v>135</v>
       </c>
       <c r="E283" s="5" t="s">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="F283" s="5" t="s">
-        <v>504</v>
+        <v>562</v>
       </c>
       <c r="G283" s="5" t="s">
         <v>132</v>
       </c>
       <c r="H283" s="5" t="s">
-        <v>505</v>
+        <v>563</v>
       </c>
       <c r="I283" s="6" t="str">
         <f t="shared" si="56"/>
@@ -12121,7 +12692,7 @@
     </row>
     <row r="284" spans="1:13">
       <c r="A284" s="5" t="s">
-        <v>506</v>
+        <v>564</v>
       </c>
       <c r="B284" s="6" t="str">
         <f t="shared" si="54"/>
@@ -12144,7 +12715,7 @@
         <v>28</v>
       </c>
       <c r="H284" s="5" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="I284" s="6" t="str">
         <f t="shared" si="56"/>
@@ -12157,7 +12728,7 @@
     </row>
     <row r="285" spans="1:13">
       <c r="A285" s="5" t="s">
-        <v>507</v>
+        <v>565</v>
       </c>
       <c r="B285" s="6" t="str">
         <f t="shared" si="54"/>
@@ -12180,7 +12751,7 @@
         <v>32</v>
       </c>
       <c r="H285" s="5" t="s">
-        <v>310</v>
+        <v>368</v>
       </c>
       <c r="I285" s="6" t="str">
         <f t="shared" si="56"/>
@@ -12193,7 +12764,7 @@
     </row>
     <row r="286" spans="1:13">
       <c r="A286" s="5" t="s">
-        <v>508</v>
+        <v>566</v>
       </c>
       <c r="B286" s="6" t="str">
         <f t="shared" si="54"/>
@@ -12216,7 +12787,7 @@
         <v>32</v>
       </c>
       <c r="H286" s="5" t="s">
-        <v>310</v>
+        <v>368</v>
       </c>
       <c r="I286" s="6" t="str">
         <f t="shared" si="56"/>
@@ -12229,7 +12800,7 @@
     </row>
     <row r="287" spans="1:13">
       <c r="A287" s="5" t="s">
-        <v>509</v>
+        <v>567</v>
       </c>
       <c r="B287" s="6" t="str">
         <f t="shared" si="54"/>
@@ -12265,7 +12836,7 @@
     </row>
     <row r="288" spans="1:13">
       <c r="A288" s="5" t="s">
-        <v>510</v>
+        <v>568</v>
       </c>
       <c r="B288" s="6" t="str">
         <f t="shared" si="54"/>
@@ -12301,7 +12872,7 @@
     </row>
     <row r="289" spans="1:13">
       <c r="A289" s="5" t="s">
-        <v>511</v>
+        <v>569</v>
       </c>
       <c r="B289" s="6" t="str">
         <f t="shared" si="54"/>
@@ -12337,7 +12908,7 @@
     </row>
     <row r="290" spans="1:13">
       <c r="A290" s="5" t="s">
-        <v>512</v>
+        <v>570</v>
       </c>
       <c r="B290" s="6" t="str">
         <f t="shared" si="54"/>
@@ -12373,7 +12944,7 @@
     </row>
     <row r="291" spans="1:13">
       <c r="A291" s="5" t="s">
-        <v>513</v>
+        <v>571</v>
       </c>
       <c r="B291" s="6" t="str">
         <f t="shared" si="54"/>
@@ -12396,7 +12967,7 @@
         <v>14</v>
       </c>
       <c r="H291" s="5" t="s">
-        <v>514</v>
+        <v>572</v>
       </c>
       <c r="I291" s="6" t="str">
         <f t="shared" si="56"/>
@@ -12409,7 +12980,7 @@
     </row>
     <row r="292" spans="1:13">
       <c r="A292" s="5" t="s">
-        <v>515</v>
+        <v>573</v>
       </c>
       <c r="B292" s="6" t="str">
         <f t="shared" si="54"/>
@@ -12423,7 +12994,7 @@
         <v>63</v>
       </c>
       <c r="E292" s="5" t="s">
-        <v>516</v>
+        <v>574</v>
       </c>
       <c r="F292" s="5" t="s">
         <v>47</v>
@@ -12432,7 +13003,7 @@
         <v>3</v>
       </c>
       <c r="H292" s="5" t="s">
-        <v>517</v>
+        <v>575</v>
       </c>
       <c r="I292" s="6" t="str">
         <f t="shared" si="56"/>
@@ -12445,7 +13016,7 @@
     </row>
     <row r="293" spans="1:13">
       <c r="A293" s="5" t="s">
-        <v>518</v>
+        <v>576</v>
       </c>
       <c r="B293" s="6" t="str">
         <f t="shared" si="54"/>
@@ -12459,16 +13030,16 @@
         <v>71</v>
       </c>
       <c r="E293" s="5" t="s">
-        <v>519</v>
+        <v>577</v>
       </c>
       <c r="F293" s="5" t="s">
-        <v>520</v>
+        <v>578</v>
       </c>
       <c r="G293" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H293" s="5" t="s">
-        <v>521</v>
+        <v>579</v>
       </c>
       <c r="I293" s="6" t="str">
         <f t="shared" si="56"/>
@@ -12481,7 +13052,7 @@
     </row>
     <row r="294" spans="1:13">
       <c r="A294" s="5" t="s">
-        <v>522</v>
+        <v>580</v>
       </c>
       <c r="B294" s="6" t="str">
         <f t="shared" si="54"/>
@@ -12495,16 +13066,16 @@
         <v>69</v>
       </c>
       <c r="E294" s="5" t="s">
-        <v>316</v>
+        <v>374</v>
       </c>
       <c r="F294" s="5" t="s">
-        <v>317</v>
+        <v>375</v>
       </c>
       <c r="G294" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H294" s="5" t="s">
-        <v>415</v>
+        <v>473</v>
       </c>
       <c r="I294" s="6" t="str">
         <f t="shared" si="56"/>
@@ -12517,7 +13088,7 @@
     </row>
     <row r="295" spans="1:13">
       <c r="A295" s="5" t="s">
-        <v>523</v>
+        <v>581</v>
       </c>
       <c r="B295" s="6" t="str">
         <f t="shared" si="54"/>
@@ -12540,7 +13111,7 @@
         <v>28</v>
       </c>
       <c r="H295" s="5" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="I295" s="6" t="str">
         <f t="shared" si="56"/>
@@ -12553,7 +13124,7 @@
     </row>
     <row r="296" spans="1:13">
       <c r="A296" s="5" t="s">
-        <v>524</v>
+        <v>582</v>
       </c>
       <c r="B296" s="6" t="str">
         <f t="shared" si="54"/>
@@ -12567,16 +13138,16 @@
         <v>71</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>525</v>
+        <v>583</v>
       </c>
       <c r="F296" s="5" t="s">
-        <v>526</v>
+        <v>584</v>
       </c>
       <c r="G296" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H296" s="5" t="s">
-        <v>521</v>
+        <v>579</v>
       </c>
       <c r="I296" s="6" t="str">
         <f t="shared" si="56"/>
@@ -12589,7 +13160,7 @@
     </row>
     <row r="297" spans="1:13">
       <c r="A297" s="5" t="s">
-        <v>527</v>
+        <v>585</v>
       </c>
       <c r="B297" s="6" t="str">
         <f t="shared" si="54"/>
@@ -12603,16 +13174,16 @@
         <v>71</v>
       </c>
       <c r="E297" s="5" t="s">
-        <v>324</v>
+        <v>382</v>
       </c>
       <c r="F297" s="5" t="s">
-        <v>323</v>
+        <v>381</v>
       </c>
       <c r="G297" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H297" s="5" t="s">
-        <v>456</v>
+        <v>514</v>
       </c>
       <c r="I297" s="6" t="str">
         <f t="shared" si="56"/>
@@ -12625,7 +13196,7 @@
     </row>
     <row r="298" spans="1:13">
       <c r="A298" s="5" t="s">
-        <v>528</v>
+        <v>586</v>
       </c>
       <c r="B298" s="6" t="str">
         <f t="shared" si="54"/>
@@ -12659,7 +13230,7 @@
     </row>
     <row r="299" spans="1:13">
       <c r="A299" s="5" t="s">
-        <v>529</v>
+        <v>587</v>
       </c>
       <c r="B299" s="6" t="str">
         <f t="shared" si="54"/>
@@ -12670,17 +13241,17 @@
         <v>360</v>
       </c>
       <c r="D299" s="5" t="s">
-        <v>266</v>
+        <v>324</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>530</v>
+        <v>588</v>
       </c>
       <c r="F299" s="5"/>
       <c r="G299" s="5" t="s">
         <v>132</v>
       </c>
       <c r="H299" s="5" t="s">
-        <v>521</v>
+        <v>579</v>
       </c>
       <c r="I299" s="6" t="str">
         <f t="shared" si="56"/>
@@ -12711,7 +13282,7 @@
         <v>79</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>531</v>
+        <v>589</v>
       </c>
       <c r="C301" s="5"/>
       <c r="D301" s="5"/>
@@ -12750,7 +13321,7 @@
         <v>3</v>
       </c>
       <c r="H302" s="5" t="s">
-        <v>532</v>
+        <v>590</v>
       </c>
       <c r="I302" s="6" t="str">
         <f t="shared" ref="I302:I320" si="59">"messageBlocks.add(new _PayloadBlock("&amp;B302&amp;", "&amp;C302&amp;", "&amp;D302&amp;", "&amp;CHAR(34)&amp;E302&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F302&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G302&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H302&amp;CHAR(34)&amp;"));"</f>
@@ -12869,7 +13440,7 @@
     </row>
     <row r="306" spans="1:13">
       <c r="A306" s="5" t="s">
-        <v>461</v>
+        <v>519</v>
       </c>
       <c r="B306" s="6" t="str">
         <f t="shared" si="57"/>
@@ -12883,16 +13454,16 @@
         <v>74</v>
       </c>
       <c r="E306" s="5" t="s">
-        <v>533</v>
+        <v>591</v>
       </c>
       <c r="F306" s="5" t="s">
-        <v>534</v>
+        <v>592</v>
       </c>
       <c r="G306" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H306" s="5" t="s">
-        <v>535</v>
+        <v>593</v>
       </c>
       <c r="I306" s="6" t="str">
         <f t="shared" si="59"/>
@@ -12905,7 +13476,7 @@
     </row>
     <row r="307" spans="1:13">
       <c r="A307" s="5" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="B307" s="6" t="str">
         <f t="shared" si="57"/>
@@ -12919,16 +13490,16 @@
         <v>74</v>
       </c>
       <c r="E307" s="5" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="F307" s="5" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="G307" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H307" s="5" t="s">
-        <v>535</v>
+        <v>593</v>
       </c>
       <c r="I307" s="6" t="str">
         <f t="shared" si="59"/>
@@ -12941,7 +13512,7 @@
     </row>
     <row r="308" spans="1:13">
       <c r="A308" s="5" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="B308" s="6" t="str">
         <f t="shared" si="57"/>
@@ -12955,16 +13526,16 @@
         <v>68</v>
       </c>
       <c r="E308" s="5" t="s">
-        <v>540</v>
+        <v>598</v>
       </c>
       <c r="F308" s="5" t="s">
-        <v>541</v>
+        <v>599</v>
       </c>
       <c r="G308" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H308" s="5" t="s">
-        <v>542</v>
+        <v>600</v>
       </c>
       <c r="I308" s="6" t="str">
         <f t="shared" si="59"/>
@@ -12977,7 +13548,7 @@
     </row>
     <row r="309" spans="1:13">
       <c r="A309" s="5" t="s">
-        <v>543</v>
+        <v>601</v>
       </c>
       <c r="B309" s="6" t="str">
         <f t="shared" si="57"/>
@@ -12991,16 +13562,16 @@
         <v>71</v>
       </c>
       <c r="E309" s="5" t="s">
-        <v>544</v>
+        <v>602</v>
       </c>
       <c r="F309" s="5" t="s">
-        <v>545</v>
+        <v>603</v>
       </c>
       <c r="G309" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H309" s="5" t="s">
-        <v>546</v>
+        <v>604</v>
       </c>
       <c r="I309" s="6" t="str">
         <f t="shared" si="59"/>
@@ -13013,7 +13584,7 @@
     </row>
     <row r="310" spans="1:13">
       <c r="A310" s="5" t="s">
-        <v>547</v>
+        <v>605</v>
       </c>
       <c r="B310" s="6" t="str">
         <f t="shared" si="57"/>
@@ -13024,19 +13595,19 @@
         <v>86</v>
       </c>
       <c r="D310" s="5" t="s">
-        <v>387</v>
+        <v>445</v>
       </c>
       <c r="E310" s="5" t="s">
-        <v>548</v>
+        <v>606</v>
       </c>
       <c r="F310" s="5" t="s">
-        <v>549</v>
+        <v>607</v>
       </c>
       <c r="G310" s="5" t="s">
-        <v>388</v>
+        <v>446</v>
       </c>
       <c r="H310" s="5" t="s">
-        <v>550</v>
+        <v>608</v>
       </c>
       <c r="I310" s="6" t="str">
         <f t="shared" si="59"/>
@@ -13049,7 +13620,7 @@
     </row>
     <row r="311" spans="1:13">
       <c r="A311" s="5" t="s">
-        <v>551</v>
+        <v>609</v>
       </c>
       <c r="B311" s="6" t="str">
         <f t="shared" si="57"/>
@@ -13060,19 +13631,19 @@
         <v>103</v>
       </c>
       <c r="D311" s="5" t="s">
-        <v>384</v>
+        <v>442</v>
       </c>
       <c r="E311" s="5" t="s">
-        <v>552</v>
+        <v>610</v>
       </c>
       <c r="F311" s="5" t="s">
-        <v>553</v>
+        <v>611</v>
       </c>
       <c r="G311" s="5" t="s">
-        <v>388</v>
+        <v>446</v>
       </c>
       <c r="H311" s="5" t="s">
-        <v>554</v>
+        <v>612</v>
       </c>
       <c r="I311" s="6" t="str">
         <f t="shared" si="59"/>
@@ -13085,7 +13656,7 @@
     </row>
     <row r="312" spans="1:13">
       <c r="A312" s="5" t="s">
-        <v>555</v>
+        <v>613</v>
       </c>
       <c r="B312" s="6" t="str">
         <f t="shared" si="57"/>
@@ -13096,19 +13667,19 @@
         <v>121</v>
       </c>
       <c r="D312" s="5" t="s">
-        <v>387</v>
+        <v>445</v>
       </c>
       <c r="E312" s="5" t="s">
-        <v>556</v>
+        <v>614</v>
       </c>
       <c r="F312" s="5" t="s">
-        <v>557</v>
+        <v>615</v>
       </c>
       <c r="G312" s="5" t="s">
-        <v>388</v>
+        <v>446</v>
       </c>
       <c r="H312" s="5" t="s">
-        <v>558</v>
+        <v>616</v>
       </c>
       <c r="I312" s="6" t="str">
         <f t="shared" si="59"/>
@@ -13121,7 +13692,7 @@
     </row>
     <row r="313" spans="1:13">
       <c r="A313" s="5" t="s">
-        <v>559</v>
+        <v>617</v>
       </c>
       <c r="B313" s="6" t="str">
         <f t="shared" si="57"/>
@@ -13132,19 +13703,19 @@
         <v>138</v>
       </c>
       <c r="D313" s="5" t="s">
-        <v>384</v>
+        <v>442</v>
       </c>
       <c r="E313" s="5" t="s">
-        <v>560</v>
+        <v>618</v>
       </c>
       <c r="F313" s="5" t="s">
-        <v>561</v>
+        <v>619</v>
       </c>
       <c r="G313" s="5" t="s">
-        <v>388</v>
+        <v>446</v>
       </c>
       <c r="H313" s="5" t="s">
-        <v>562</v>
+        <v>620</v>
       </c>
       <c r="I313" s="6" t="str">
         <f t="shared" si="59"/>
@@ -13157,7 +13728,7 @@
     </row>
     <row r="314" spans="1:13">
       <c r="A314" s="5" t="s">
-        <v>563</v>
+        <v>621</v>
       </c>
       <c r="B314" s="6" t="str">
         <f t="shared" si="57"/>
@@ -13171,16 +13742,16 @@
         <v>67</v>
       </c>
       <c r="E314" s="5" t="s">
-        <v>564</v>
+        <v>622</v>
       </c>
       <c r="F314" s="5" t="s">
-        <v>565</v>
+        <v>623</v>
       </c>
       <c r="G314" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H314" s="5" t="s">
-        <v>566</v>
+        <v>624</v>
       </c>
       <c r="I314" s="6" t="str">
         <f t="shared" si="59"/>
@@ -13193,7 +13764,7 @@
     </row>
     <row r="315" spans="1:13">
       <c r="A315" s="5" t="s">
-        <v>287</v>
+        <v>345</v>
       </c>
       <c r="B315" s="6" t="str">
         <f t="shared" si="57"/>
@@ -13207,16 +13778,16 @@
         <v>67</v>
       </c>
       <c r="E315" s="5" t="s">
-        <v>567</v>
+        <v>625</v>
       </c>
       <c r="F315" s="5" t="s">
-        <v>568</v>
+        <v>626</v>
       </c>
       <c r="G315" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H315" s="5" t="s">
-        <v>569</v>
+        <v>627</v>
       </c>
       <c r="I315" s="6" t="str">
         <f t="shared" si="59"/>
@@ -13229,7 +13800,7 @@
     </row>
     <row r="316" spans="1:13">
       <c r="A316" s="5" t="s">
-        <v>570</v>
+        <v>628</v>
       </c>
       <c r="B316" s="6" t="str">
         <f t="shared" si="57"/>
@@ -13243,16 +13814,16 @@
         <v>71</v>
       </c>
       <c r="E316" s="5" t="s">
-        <v>571</v>
+        <v>629</v>
       </c>
       <c r="F316" s="5" t="s">
-        <v>572</v>
+        <v>630</v>
       </c>
       <c r="G316" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H316" s="5" t="s">
-        <v>573</v>
+        <v>631</v>
       </c>
       <c r="I316" s="6" t="str">
         <f t="shared" si="59"/>
@@ -13265,7 +13836,7 @@
     </row>
     <row r="317" spans="1:13">
       <c r="A317" s="5" t="s">
-        <v>574</v>
+        <v>632</v>
       </c>
       <c r="B317" s="6" t="str">
         <f t="shared" si="57"/>
@@ -13279,16 +13850,16 @@
         <v>71</v>
       </c>
       <c r="E317" s="5" t="s">
-        <v>575</v>
+        <v>633</v>
       </c>
       <c r="F317" s="5" t="s">
-        <v>576</v>
+        <v>634</v>
       </c>
       <c r="G317" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H317" s="5" t="s">
-        <v>577</v>
+        <v>635</v>
       </c>
       <c r="I317" s="6" t="str">
         <f t="shared" si="59"/>
@@ -13301,7 +13872,7 @@
     </row>
     <row r="318" spans="1:13">
       <c r="A318" s="5" t="s">
-        <v>416</v>
+        <v>474</v>
       </c>
       <c r="B318" s="6" t="str">
         <f t="shared" si="57"/>
@@ -13315,16 +13886,16 @@
         <v>71</v>
       </c>
       <c r="E318" s="5" t="s">
-        <v>578</v>
+        <v>636</v>
       </c>
       <c r="F318" s="5" t="s">
-        <v>579</v>
+        <v>637</v>
       </c>
       <c r="G318" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H318" s="5" t="s">
-        <v>577</v>
+        <v>635</v>
       </c>
       <c r="I318" s="6" t="str">
         <f t="shared" si="59"/>
@@ -13337,7 +13908,7 @@
     </row>
     <row r="319" spans="1:13">
       <c r="A319" s="5" t="s">
-        <v>580</v>
+        <v>638</v>
       </c>
       <c r="B319" s="6" t="str">
         <f t="shared" si="57"/>
@@ -13351,16 +13922,16 @@
         <v>76</v>
       </c>
       <c r="E319" s="5" t="s">
-        <v>581</v>
+        <v>639</v>
       </c>
       <c r="F319" s="5" t="s">
-        <v>582</v>
+        <v>640</v>
       </c>
       <c r="G319" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H319" s="5" t="s">
-        <v>583</v>
+        <v>641</v>
       </c>
       <c r="I319" s="6" t="str">
         <f t="shared" si="59"/>
@@ -13373,7 +13944,7 @@
     </row>
     <row r="320" spans="1:13">
       <c r="A320" s="5" t="s">
-        <v>584</v>
+        <v>642</v>
       </c>
       <c r="B320" s="6" t="str">
         <f t="shared" si="57"/>
@@ -13384,7 +13955,7 @@
         <v>167</v>
       </c>
       <c r="D320" s="5" t="s">
-        <v>585</v>
+        <v>643</v>
       </c>
       <c r="E320" s="5" t="s">
         <v>54</v>
@@ -13425,7 +13996,7 @@
         <v>79</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>585</v>
+        <v>643</v>
       </c>
       <c r="C322" s="5"/>
       <c r="D322" s="5"/>
@@ -13464,7 +14035,7 @@
         <v>3</v>
       </c>
       <c r="H323" s="5" t="s">
-        <v>586</v>
+        <v>644</v>
       </c>
       <c r="I323" s="6" t="str">
         <f t="shared" ref="I323:I337" si="62">"messageBlocks.add(new _PayloadBlock("&amp;B323&amp;", "&amp;C323&amp;", "&amp;D323&amp;", "&amp;CHAR(34)&amp;E323&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F323&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G323&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H323&amp;CHAR(34)&amp;"));"</f>
@@ -13536,7 +14107,7 @@
         <v>3</v>
       </c>
       <c r="H325" s="5" t="s">
-        <v>587</v>
+        <v>645</v>
       </c>
       <c r="I325" s="6" t="str">
         <f t="shared" si="62"/>
@@ -13583,7 +14154,7 @@
     </row>
     <row r="327" spans="1:13">
       <c r="A327" s="5" t="s">
-        <v>386</v>
+        <v>444</v>
       </c>
       <c r="B327" s="6" t="str">
         <f t="shared" si="60"/>
@@ -13594,19 +14165,19 @@
         <v>57</v>
       </c>
       <c r="D327" s="5" t="s">
-        <v>387</v>
+        <v>445</v>
       </c>
       <c r="E327" s="5" t="s">
-        <v>548</v>
+        <v>606</v>
       </c>
       <c r="F327" s="5" t="s">
-        <v>549</v>
+        <v>607</v>
       </c>
       <c r="G327" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H327" s="5" t="s">
-        <v>588</v>
+        <v>646</v>
       </c>
       <c r="I327" s="6" t="str">
         <f t="shared" si="62"/>
@@ -13619,7 +14190,7 @@
     </row>
     <row r="328" spans="1:13">
       <c r="A328" s="5" t="s">
-        <v>390</v>
+        <v>448</v>
       </c>
       <c r="B328" s="6" t="str">
         <f t="shared" si="60"/>
@@ -13630,19 +14201,19 @@
         <v>74</v>
       </c>
       <c r="D328" s="5" t="s">
-        <v>384</v>
+        <v>442</v>
       </c>
       <c r="E328" s="5" t="s">
-        <v>552</v>
+        <v>610</v>
       </c>
       <c r="F328" s="5" t="s">
-        <v>553</v>
+        <v>611</v>
       </c>
       <c r="G328" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H328" s="5" t="s">
-        <v>588</v>
+        <v>646</v>
       </c>
       <c r="I328" s="6" t="str">
         <f t="shared" si="62"/>
@@ -13655,7 +14226,7 @@
     </row>
     <row r="329" spans="1:13">
       <c r="A329" s="5" t="s">
-        <v>589</v>
+        <v>647</v>
       </c>
       <c r="B329" s="6" t="str">
         <f t="shared" si="60"/>
@@ -13666,19 +14237,19 @@
         <v>92</v>
       </c>
       <c r="D329" s="5" t="s">
-        <v>387</v>
+        <v>445</v>
       </c>
       <c r="E329" s="5" t="s">
-        <v>556</v>
+        <v>614</v>
       </c>
       <c r="F329" s="5" t="s">
-        <v>557</v>
+        <v>615</v>
       </c>
       <c r="G329" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H329" s="5" t="s">
-        <v>588</v>
+        <v>646</v>
       </c>
       <c r="I329" s="6" t="str">
         <f t="shared" si="62"/>
@@ -13691,7 +14262,7 @@
     </row>
     <row r="330" spans="1:13">
       <c r="A330" s="5" t="s">
-        <v>590</v>
+        <v>648</v>
       </c>
       <c r="B330" s="6" t="str">
         <f t="shared" si="60"/>
@@ -13702,19 +14273,19 @@
         <v>109</v>
       </c>
       <c r="D330" s="5" t="s">
-        <v>384</v>
+        <v>442</v>
       </c>
       <c r="E330" s="5" t="s">
-        <v>560</v>
+        <v>618</v>
       </c>
       <c r="F330" s="5" t="s">
-        <v>561</v>
+        <v>619</v>
       </c>
       <c r="G330" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H330" s="5" t="s">
-        <v>588</v>
+        <v>646</v>
       </c>
       <c r="I330" s="6" t="str">
         <f t="shared" si="62"/>
@@ -13727,7 +14298,7 @@
     </row>
     <row r="331" spans="1:13">
       <c r="A331" s="5" t="s">
-        <v>591</v>
+        <v>649</v>
       </c>
       <c r="B331" s="6" t="str">
         <f t="shared" si="60"/>
@@ -13741,16 +14312,16 @@
         <v>68</v>
       </c>
       <c r="E331" s="5" t="s">
-        <v>592</v>
+        <v>650</v>
       </c>
       <c r="F331" s="5" t="s">
-        <v>593</v>
+        <v>651</v>
       </c>
       <c r="G331" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H331" s="5" t="s">
-        <v>594</v>
+        <v>652</v>
       </c>
       <c r="I331" s="6" t="str">
         <f t="shared" si="62"/>
@@ -13763,7 +14334,7 @@
     </row>
     <row r="332" spans="1:13">
       <c r="A332" s="5" t="s">
-        <v>595</v>
+        <v>653</v>
       </c>
       <c r="B332" s="6" t="str">
         <f t="shared" si="60"/>
@@ -13780,13 +14351,13 @@
         <v>140</v>
       </c>
       <c r="F332" s="5" t="s">
-        <v>596</v>
+        <v>654</v>
       </c>
       <c r="G332" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H332" s="5" t="s">
-        <v>597</v>
+        <v>655</v>
       </c>
       <c r="I332" s="6" t="str">
         <f t="shared" si="62"/>
@@ -13799,7 +14370,7 @@
     </row>
     <row r="333" spans="1:13">
       <c r="A333" s="5" t="s">
-        <v>598</v>
+        <v>656</v>
       </c>
       <c r="B333" s="6" t="str">
         <f t="shared" si="60"/>
@@ -13810,7 +14381,7 @@
         <v>143</v>
       </c>
       <c r="D333" s="5" t="s">
-        <v>531</v>
+        <v>589</v>
       </c>
       <c r="E333" s="5" t="s">
         <v>54</v>
@@ -13833,7 +14404,7 @@
     </row>
     <row r="334" spans="1:13">
       <c r="A334" s="5" t="s">
-        <v>599</v>
+        <v>657</v>
       </c>
       <c r="B334" s="6" t="str">
         <f t="shared" si="60"/>
@@ -13847,16 +14418,16 @@
         <v>65</v>
       </c>
       <c r="E334" s="5" t="s">
-        <v>600</v>
+        <v>658</v>
       </c>
       <c r="F334" s="5" t="s">
-        <v>541</v>
+        <v>599</v>
       </c>
       <c r="G334" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H334" s="5" t="s">
-        <v>601</v>
+        <v>659</v>
       </c>
       <c r="I334" s="6" t="str">
         <f t="shared" si="62"/>
@@ -13869,7 +14440,7 @@
     </row>
     <row r="335" spans="1:13">
       <c r="A335" s="5" t="s">
-        <v>602</v>
+        <v>660</v>
       </c>
       <c r="B335" s="6" t="str">
         <f t="shared" si="60"/>
@@ -13883,16 +14454,16 @@
         <v>68</v>
       </c>
       <c r="E335" s="5" t="s">
-        <v>603</v>
+        <v>661</v>
       </c>
       <c r="F335" s="5" t="s">
-        <v>604</v>
+        <v>662</v>
       </c>
       <c r="G335" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H335" s="5" t="s">
-        <v>605</v>
+        <v>663</v>
       </c>
       <c r="I335" s="6" t="str">
         <f t="shared" si="62"/>
@@ -13905,7 +14476,7 @@
     </row>
     <row r="336" spans="1:13">
       <c r="A336" s="5" t="s">
-        <v>606</v>
+        <v>664</v>
       </c>
       <c r="B336" s="6" t="str">
         <f t="shared" si="60"/>
@@ -13919,16 +14490,16 @@
         <v>68</v>
       </c>
       <c r="E336" s="5" t="s">
-        <v>607</v>
+        <v>665</v>
       </c>
       <c r="F336" s="5" t="s">
-        <v>608</v>
+        <v>666</v>
       </c>
       <c r="G336" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H336" s="5" t="s">
-        <v>609</v>
+        <v>667</v>
       </c>
       <c r="I336" s="6" t="str">
         <f t="shared" si="62"/>
@@ -13941,7 +14512,7 @@
     </row>
     <row r="337" spans="1:13">
       <c r="A337" s="5" t="s">
-        <v>610</v>
+        <v>668</v>
       </c>
       <c r="B337" s="6" t="str">
         <f t="shared" si="60"/>
@@ -13989,13 +14560,15 @@
       <c r="M338" s="5"/>
     </row>
     <row r="339" spans="1:13">
-      <c r="A339" s="5" t="s">
+      <c r="A339" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B339" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="C339" s="5"/>
+      <c r="B339" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="C339" s="5" t="s">
+        <v>918</v>
+      </c>
       <c r="D339" s="5"/>
       <c r="E339" s="5"/>
       <c r="F339" s="5"/>
@@ -14032,7 +14605,7 @@
         <v>3</v>
       </c>
       <c r="H340" s="5" t="s">
-        <v>612</v>
+        <v>670</v>
       </c>
       <c r="I340" s="6" t="str">
         <f t="shared" ref="I340:I356" si="65">"messageBlocks.add(new _PayloadBlock("&amp;B340&amp;", "&amp;C340&amp;", "&amp;D340&amp;", "&amp;CHAR(34)&amp;E340&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F340&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G340&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H340&amp;CHAR(34)&amp;"));"</f>
@@ -14068,7 +14641,7 @@
         <v>3</v>
       </c>
       <c r="H341" s="5" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="I341" s="6" t="str">
         <f t="shared" si="65"/>
@@ -14131,16 +14704,16 @@
         <v>65</v>
       </c>
       <c r="E343" s="5" t="s">
-        <v>613</v>
+        <v>671</v>
       </c>
       <c r="F343" s="5" t="s">
-        <v>614</v>
+        <v>672</v>
       </c>
       <c r="G343" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H343" s="5" t="s">
-        <v>615</v>
+        <v>673</v>
       </c>
       <c r="I343" s="6" t="str">
         <f t="shared" si="65"/>
@@ -14153,7 +14726,7 @@
     </row>
     <row r="344" spans="1:13">
       <c r="A344" s="5" t="s">
-        <v>616</v>
+        <v>674</v>
       </c>
       <c r="B344" s="6" t="str">
         <f t="shared" si="63"/>
@@ -14176,9 +14749,9 @@
         <v>132</v>
       </c>
       <c r="H344" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="I344" s="6" t="str">
+        <v>675</v>
+      </c>
+      <c r="I344" s="12" t="str">
         <f t="shared" si="65"/>
         <v>messageBlocks.add(new _PayloadBlock(40, 159, 120, "Vessel Name", "shipname", "t", "(Part A) 20 sixbit chars"));</v>
       </c>
@@ -14189,7 +14762,7 @@
     </row>
     <row r="345" spans="1:13">
       <c r="A345" s="5" t="s">
-        <v>618</v>
+        <v>676</v>
       </c>
       <c r="B345" s="6" t="str">
         <f t="shared" si="63"/>
@@ -14210,7 +14783,7 @@
         <v>55</v>
       </c>
       <c r="H345" s="5" t="s">
-        <v>619</v>
+        <v>677</v>
       </c>
       <c r="I345" s="6" t="str">
         <f t="shared" si="65"/>
@@ -14223,7 +14796,7 @@
     </row>
     <row r="346" spans="1:13">
       <c r="A346" s="5" t="s">
-        <v>620</v>
+        <v>678</v>
       </c>
       <c r="B346" s="6" t="str">
         <f t="shared" si="63"/>
@@ -14246,9 +14819,9 @@
         <v>14</v>
       </c>
       <c r="H346" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="I346" s="6" t="str">
+        <v>679</v>
+      </c>
+      <c r="I346" s="11" t="str">
         <f t="shared" si="65"/>
         <v>messageBlocks.add(new _PayloadBlock(40, 47, 8, "Ship Type", "shiptype", "e", "(Part B) See "Ship Types""));</v>
       </c>
@@ -14259,7 +14832,7 @@
     </row>
     <row r="347" spans="1:13">
       <c r="A347" s="5" t="s">
-        <v>622</v>
+        <v>680</v>
       </c>
       <c r="B347" s="6" t="str">
         <f t="shared" si="63"/>
@@ -14270,21 +14843,21 @@
         <v>65</v>
       </c>
       <c r="D347" s="5" t="s">
-        <v>387</v>
+        <v>445</v>
       </c>
       <c r="E347" s="5" t="s">
-        <v>623</v>
+        <v>681</v>
       </c>
       <c r="F347" s="5" t="s">
-        <v>624</v>
+        <v>682</v>
       </c>
       <c r="G347" s="5" t="s">
         <v>132</v>
       </c>
       <c r="H347" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="I347" s="6" t="str">
+        <v>683</v>
+      </c>
+      <c r="I347" s="11" t="str">
         <f t="shared" si="65"/>
         <v>messageBlocks.add(new _PayloadBlock(48, 65, 18, "Vendor ID", "vendorid", "t", "(Part B) 3 six-bit chars"));</v>
       </c>
@@ -14295,7 +14868,7 @@
     </row>
     <row r="348" spans="1:13">
       <c r="A348" s="5" t="s">
-        <v>626</v>
+        <v>684</v>
       </c>
       <c r="B348" s="6" t="str">
         <f t="shared" si="63"/>
@@ -14309,18 +14882,18 @@
         <v>68</v>
       </c>
       <c r="E348" s="5" t="s">
-        <v>627</v>
+        <v>685</v>
       </c>
       <c r="F348" s="5" t="s">
-        <v>628</v>
+        <v>686</v>
       </c>
       <c r="G348" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H348" s="5" t="s">
-        <v>629</v>
-      </c>
-      <c r="I348" s="6" t="str">
+        <v>687</v>
+      </c>
+      <c r="I348" s="11" t="str">
         <f t="shared" si="65"/>
         <v>messageBlocks.add(new _PayloadBlock(66, 69, 4, "Unit Model Code", "model", "u", "(Part B)"));</v>
       </c>
@@ -14331,7 +14904,7 @@
     </row>
     <row r="349" spans="1:13">
       <c r="A349" s="5" t="s">
-        <v>630</v>
+        <v>688</v>
       </c>
       <c r="B349" s="6" t="str">
         <f t="shared" si="63"/>
@@ -14342,21 +14915,21 @@
         <v>89</v>
       </c>
       <c r="D349" s="5" t="s">
-        <v>327</v>
+        <v>385</v>
       </c>
       <c r="E349" s="5" t="s">
-        <v>631</v>
+        <v>689</v>
       </c>
       <c r="F349" s="5" t="s">
-        <v>632</v>
+        <v>690</v>
       </c>
       <c r="G349" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H349" s="5" t="s">
-        <v>629</v>
-      </c>
-      <c r="I349" s="6" t="str">
+        <v>687</v>
+      </c>
+      <c r="I349" s="11" t="str">
         <f t="shared" si="65"/>
         <v>messageBlocks.add(new _PayloadBlock(70, 89, 20, "Serial Number", "serial", "u", "(Part B)"));</v>
       </c>
@@ -14367,7 +14940,7 @@
     </row>
     <row r="350" spans="1:13">
       <c r="A350" s="5" t="s">
-        <v>633</v>
+        <v>691</v>
       </c>
       <c r="B350" s="6" t="str">
         <f t="shared" si="63"/>
@@ -14390,9 +14963,9 @@
         <v>132</v>
       </c>
       <c r="H350" s="5" t="s">
-        <v>634</v>
-      </c>
-      <c r="I350" s="6" t="str">
+        <v>692</v>
+      </c>
+      <c r="I350" s="11" t="str">
         <f t="shared" si="65"/>
         <v>messageBlocks.add(new _PayloadBlock(90, 131, 42, "Call Sign", "callsign", "t", "(Part B) As in Message Type 5"));</v>
       </c>
@@ -14403,7 +14976,7 @@
     </row>
     <row r="351" spans="1:13">
       <c r="A351" s="5" t="s">
-        <v>635</v>
+        <v>693</v>
       </c>
       <c r="B351" s="6" t="str">
         <f t="shared" si="63"/>
@@ -14426,9 +14999,9 @@
         <v>3</v>
       </c>
       <c r="H351" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="I351" s="6" t="str">
+        <v>694</v>
+      </c>
+      <c r="I351" s="11" t="str">
         <f t="shared" si="65"/>
         <v>messageBlocks.add(new _PayloadBlock(132, 140, 9, "Dimension to Bow", "to_bow", "u", "(Part B) Meters"));</v>
       </c>
@@ -14439,7 +15012,7 @@
     </row>
     <row r="352" spans="1:13">
       <c r="A352" s="5" t="s">
-        <v>637</v>
+        <v>695</v>
       </c>
       <c r="B352" s="6" t="str">
         <f t="shared" si="63"/>
@@ -14462,9 +15035,9 @@
         <v>3</v>
       </c>
       <c r="H352" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="I352" s="6" t="str">
+        <v>694</v>
+      </c>
+      <c r="I352" s="11" t="str">
         <f t="shared" si="65"/>
         <v>messageBlocks.add(new _PayloadBlock(141, 149, 9, "Dimension to Stern", "to_stern", "u", "(Part B) Meters"));</v>
       </c>
@@ -14475,7 +15048,7 @@
     </row>
     <row r="353" spans="1:13">
       <c r="A353" s="5" t="s">
-        <v>638</v>
+        <v>696</v>
       </c>
       <c r="B353" s="6" t="str">
         <f t="shared" si="63"/>
@@ -14498,9 +15071,9 @@
         <v>3</v>
       </c>
       <c r="H353" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="I353" s="6" t="str">
+        <v>694</v>
+      </c>
+      <c r="I353" s="11" t="str">
         <f t="shared" si="65"/>
         <v>messageBlocks.add(new _PayloadBlock(150, 155, 6, "Dimension to Port", "to_port", "u", "(Part B) Meters"));</v>
       </c>
@@ -14511,7 +15084,7 @@
     </row>
     <row r="354" spans="1:13">
       <c r="A354" s="5" t="s">
-        <v>639</v>
+        <v>697</v>
       </c>
       <c r="B354" s="6" t="str">
         <f t="shared" si="63"/>
@@ -14534,9 +15107,9 @@
         <v>3</v>
       </c>
       <c r="H354" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="I354" s="6" t="str">
+        <v>694</v>
+      </c>
+      <c r="I354" s="11" t="str">
         <f t="shared" si="65"/>
         <v>messageBlocks.add(new _PayloadBlock(156, 161, 6, "Dimension to Starboard", "to_starboard", "u", "(Part B) Meters"));</v>
       </c>
@@ -14547,7 +15120,7 @@
     </row>
     <row r="355" spans="1:13">
       <c r="A355" s="5" t="s">
-        <v>640</v>
+        <v>698</v>
       </c>
       <c r="B355" s="6" t="str">
         <f t="shared" si="63"/>
@@ -14561,18 +15134,18 @@
         <v>67</v>
       </c>
       <c r="E355" s="5" t="s">
-        <v>641</v>
+        <v>699</v>
       </c>
       <c r="F355" s="5" t="s">
-        <v>642</v>
+        <v>700</v>
       </c>
       <c r="G355" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H355" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="I355" s="6" t="str">
+        <v>701</v>
+      </c>
+      <c r="I355" s="11" t="str">
         <f t="shared" si="65"/>
         <v>messageBlocks.add(new _PayloadBlock(132, 161, 30, "Mothership MMSI", "mothership_mmsi", "u", "(Part B) See below"));</v>
       </c>
@@ -14583,7 +15156,7 @@
     </row>
     <row r="356" spans="1:13">
       <c r="A356" s="5" t="s">
-        <v>644</v>
+        <v>702</v>
       </c>
       <c r="B356" s="6" t="str">
         <f t="shared" si="63"/>
@@ -14604,7 +15177,7 @@
         <v>55</v>
       </c>
       <c r="H356" s="5" t="s">
-        <v>645</v>
+        <v>703</v>
       </c>
       <c r="I356" s="6" t="str">
         <f t="shared" si="65"/>
@@ -14635,7 +15208,7 @@
         <v>79</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>646</v>
+        <v>704</v>
       </c>
       <c r="C358" s="5"/>
       <c r="D358" s="5"/>
@@ -14674,7 +15247,7 @@
         <v>3</v>
       </c>
       <c r="H359" s="5" t="s">
-        <v>647</v>
+        <v>705</v>
       </c>
       <c r="I359" s="6" t="str">
         <f t="shared" ref="I359:I366" si="68">"messageBlocks.add(new _PayloadBlock("&amp;B359&amp;", "&amp;C359&amp;", "&amp;D359&amp;", "&amp;CHAR(34)&amp;E359&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F359&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G359&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H359&amp;CHAR(34)&amp;"));"</f>
@@ -14710,7 +15283,7 @@
         <v>3</v>
       </c>
       <c r="H360" s="5" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="I360" s="6" t="str">
         <f t="shared" si="68"/>
@@ -14759,7 +15332,7 @@
     </row>
     <row r="362" spans="1:13">
       <c r="A362" s="5" t="s">
-        <v>648</v>
+        <v>706</v>
       </c>
       <c r="B362" s="6" t="e">
         <f t="shared" si="66"/>
@@ -14773,16 +15346,16 @@
         <v>71</v>
       </c>
       <c r="E362" s="5" t="s">
-        <v>649</v>
+        <v>707</v>
       </c>
       <c r="F362" s="5" t="s">
-        <v>572</v>
+        <v>630</v>
       </c>
       <c r="G362" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H362" s="5" t="s">
-        <v>650</v>
+        <v>708</v>
       </c>
       <c r="I362" s="6" t="e">
         <f t="shared" si="68"/>
@@ -14795,7 +15368,7 @@
     </row>
     <row r="363" spans="1:13">
       <c r="A363" s="5" t="s">
-        <v>651</v>
+        <v>709</v>
       </c>
       <c r="B363" s="6" t="e">
         <f t="shared" si="66"/>
@@ -14809,10 +15382,10 @@
         <v>71</v>
       </c>
       <c r="E363" s="5" t="s">
-        <v>652</v>
+        <v>710</v>
       </c>
       <c r="F363" s="5" t="s">
-        <v>653</v>
+        <v>711</v>
       </c>
       <c r="G363" s="5" t="s">
         <v>28</v>
@@ -14831,7 +15404,7 @@
     </row>
     <row r="364" spans="1:13">
       <c r="A364" s="5" t="s">
-        <v>341</v>
+        <v>399</v>
       </c>
       <c r="B364" s="6" t="e">
         <f t="shared" si="66"/>
@@ -14842,19 +15415,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="D364" s="5" t="s">
-        <v>654</v>
+        <v>712</v>
       </c>
       <c r="E364" s="5" t="s">
-        <v>254</v>
+        <v>312</v>
       </c>
       <c r="F364" s="5" t="s">
-        <v>255</v>
+        <v>313</v>
       </c>
       <c r="G364" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H364" s="5" t="s">
-        <v>655</v>
+        <v>713</v>
       </c>
       <c r="I364" s="6" t="e">
         <f t="shared" si="68"/>
@@ -14867,7 +15440,7 @@
     </row>
     <row r="365" spans="1:13">
       <c r="A365" s="5" t="s">
-        <v>656</v>
+        <v>714</v>
       </c>
       <c r="B365" s="6" t="e">
         <f t="shared" si="66"/>
@@ -14878,19 +15451,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="D365" s="5" t="s">
-        <v>657</v>
+        <v>715</v>
       </c>
       <c r="E365" s="5" t="s">
-        <v>658</v>
+        <v>716</v>
       </c>
       <c r="F365" s="5" t="s">
-        <v>659</v>
+        <v>717</v>
       </c>
       <c r="G365" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H365" s="5" t="s">
-        <v>262</v>
+        <v>320</v>
       </c>
       <c r="I365" s="6" t="e">
         <f t="shared" si="68"/>
@@ -14903,7 +15476,7 @@
     </row>
     <row r="366" spans="1:13">
       <c r="A366" s="5" t="s">
-        <v>656</v>
+        <v>714</v>
       </c>
       <c r="B366" s="6" t="e">
         <f t="shared" si="66"/>
@@ -14914,19 +15487,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="D366" s="5" t="s">
-        <v>660</v>
+        <v>718</v>
       </c>
       <c r="E366" s="5" t="s">
-        <v>268</v>
+        <v>326</v>
       </c>
       <c r="F366" s="5" t="s">
-        <v>269</v>
+        <v>327</v>
       </c>
       <c r="G366" s="5" t="s">
-        <v>270</v>
+        <v>328</v>
       </c>
       <c r="H366" s="5" t="s">
-        <v>661</v>
+        <v>719</v>
       </c>
       <c r="I366" s="6" t="e">
         <f t="shared" si="68"/>
@@ -14957,7 +15530,7 @@
         <v>79</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>662</v>
+        <v>720</v>
       </c>
       <c r="C368" s="5"/>
       <c r="D368" s="5"/>
@@ -14996,7 +15569,7 @@
         <v>3</v>
       </c>
       <c r="H369" s="5" t="s">
-        <v>663</v>
+        <v>721</v>
       </c>
       <c r="I369" s="6" t="str">
         <f t="shared" ref="I369:I377" si="71">"messageBlocks.add(new _PayloadBlock("&amp;B369&amp;", "&amp;C369&amp;", "&amp;D369&amp;", "&amp;CHAR(34)&amp;E369&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F369&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G369&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H369&amp;CHAR(34)&amp;"));"</f>
@@ -15032,7 +15605,7 @@
         <v>3</v>
       </c>
       <c r="H370" s="5" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="I370" s="6" t="str">
         <f t="shared" si="71"/>
@@ -15081,7 +15654,7 @@
     </row>
     <row r="372" spans="1:13">
       <c r="A372" s="5" t="s">
-        <v>648</v>
+        <v>706</v>
       </c>
       <c r="B372" s="6" t="e">
         <f t="shared" si="69"/>
@@ -15095,16 +15668,16 @@
         <v>71</v>
       </c>
       <c r="E372" s="5" t="s">
-        <v>649</v>
+        <v>707</v>
       </c>
       <c r="F372" s="5" t="s">
-        <v>572</v>
+        <v>630</v>
       </c>
       <c r="G372" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H372" s="5" t="s">
-        <v>650</v>
+        <v>708</v>
       </c>
       <c r="I372" s="6" t="e">
         <f t="shared" si="71"/>
@@ -15117,7 +15690,7 @@
     </row>
     <row r="373" spans="1:13">
       <c r="A373" s="5" t="s">
-        <v>651</v>
+        <v>709</v>
       </c>
       <c r="B373" s="6" t="e">
         <f t="shared" si="69"/>
@@ -15131,10 +15704,10 @@
         <v>71</v>
       </c>
       <c r="E373" s="5" t="s">
-        <v>652</v>
+        <v>710</v>
       </c>
       <c r="F373" s="5" t="s">
-        <v>653</v>
+        <v>711</v>
       </c>
       <c r="G373" s="5" t="s">
         <v>28</v>
@@ -15153,7 +15726,7 @@
     </row>
     <row r="374" spans="1:13">
       <c r="A374" s="5" t="s">
-        <v>341</v>
+        <v>399</v>
       </c>
       <c r="B374" s="6" t="e">
         <f t="shared" si="69"/>
@@ -15164,19 +15737,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="D374" s="5" t="s">
-        <v>654</v>
+        <v>712</v>
       </c>
       <c r="E374" s="5" t="s">
-        <v>254</v>
+        <v>312</v>
       </c>
       <c r="F374" s="5" t="s">
-        <v>255</v>
+        <v>313</v>
       </c>
       <c r="G374" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H374" s="5" t="s">
-        <v>655</v>
+        <v>713</v>
       </c>
       <c r="I374" s="6" t="e">
         <f t="shared" si="71"/>
@@ -15189,7 +15762,7 @@
     </row>
     <row r="375" spans="1:13">
       <c r="A375" s="5" t="s">
-        <v>656</v>
+        <v>714</v>
       </c>
       <c r="B375" s="6" t="e">
         <f t="shared" si="69"/>
@@ -15200,19 +15773,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="D375" s="5" t="s">
-        <v>657</v>
+        <v>715</v>
       </c>
       <c r="E375" s="5" t="s">
-        <v>658</v>
+        <v>716</v>
       </c>
       <c r="F375" s="5" t="s">
-        <v>659</v>
+        <v>717</v>
       </c>
       <c r="G375" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H375" s="5" t="s">
-        <v>262</v>
+        <v>320</v>
       </c>
       <c r="I375" s="6" t="e">
         <f t="shared" si="71"/>
@@ -15225,7 +15798,7 @@
     </row>
     <row r="376" spans="1:13">
       <c r="A376" s="5" t="s">
-        <v>656</v>
+        <v>714</v>
       </c>
       <c r="B376" s="6" t="e">
         <f t="shared" si="69"/>
@@ -15236,19 +15809,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="D376" s="5" t="s">
-        <v>664</v>
+        <v>722</v>
       </c>
       <c r="E376" s="5" t="s">
-        <v>268</v>
+        <v>326</v>
       </c>
       <c r="F376" s="5" t="s">
-        <v>269</v>
+        <v>327</v>
       </c>
       <c r="G376" s="5" t="s">
-        <v>270</v>
+        <v>328</v>
       </c>
       <c r="H376" s="5" t="s">
-        <v>661</v>
+        <v>719</v>
       </c>
       <c r="I376" s="6" t="e">
         <f t="shared" si="71"/>
@@ -15261,7 +15834,7 @@
     </row>
     <row r="377" spans="1:13">
       <c r="A377" s="5" t="s">
-        <v>656</v>
+        <v>714</v>
       </c>
       <c r="B377" s="6" t="e">
         <f t="shared" si="69"/>
@@ -15272,7 +15845,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="D377" s="5" t="s">
-        <v>327</v>
+        <v>385</v>
       </c>
       <c r="E377" s="5" t="s">
         <v>61</v>
@@ -15284,7 +15857,7 @@
         <v>3</v>
       </c>
       <c r="H377" s="5" t="s">
-        <v>328</v>
+        <v>386</v>
       </c>
       <c r="I377" s="6" t="e">
         <f t="shared" si="71"/>
@@ -15354,7 +15927,7 @@
         <v>3</v>
       </c>
       <c r="H380" s="5" t="s">
-        <v>665</v>
+        <v>723</v>
       </c>
       <c r="I380" s="6" t="str">
         <f t="shared" ref="I380:I391" si="74">"messageBlocks.add(new _PayloadBlock("&amp;B380&amp;", "&amp;C380&amp;", "&amp;D380&amp;", "&amp;CHAR(34)&amp;E380&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F380&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G380&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H380&amp;CHAR(34)&amp;"));"</f>
@@ -15390,7 +15963,7 @@
         <v>3</v>
       </c>
       <c r="H381" s="5" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="I381" s="6" t="str">
         <f t="shared" si="74"/>
@@ -15439,7 +16012,7 @@
     </row>
     <row r="383" spans="1:13">
       <c r="A383" s="5" t="s">
-        <v>666</v>
+        <v>724</v>
       </c>
       <c r="B383" s="6" t="str">
         <f t="shared" si="72"/>
@@ -15462,7 +16035,7 @@
         <v>3</v>
       </c>
       <c r="H383" s="5" t="s">
-        <v>667</v>
+        <v>725</v>
       </c>
       <c r="I383" s="6" t="str">
         <f t="shared" si="74"/>
@@ -15475,7 +16048,7 @@
     </row>
     <row r="384" spans="1:13">
       <c r="A384" s="5" t="s">
-        <v>668</v>
+        <v>726</v>
       </c>
       <c r="B384" s="6" t="str">
         <f t="shared" si="72"/>
@@ -15498,7 +16071,7 @@
         <v>3</v>
       </c>
       <c r="H384" s="5" t="s">
-        <v>667</v>
+        <v>725</v>
       </c>
       <c r="I384" s="6" t="str">
         <f t="shared" si="74"/>
@@ -15511,7 +16084,7 @@
     </row>
     <row r="385" spans="1:13">
       <c r="A385" s="5" t="s">
-        <v>669</v>
+        <v>727</v>
       </c>
       <c r="B385" s="6" t="str">
         <f t="shared" si="72"/>
@@ -15534,7 +16107,7 @@
         <v>3</v>
       </c>
       <c r="H385" s="5" t="s">
-        <v>667</v>
+        <v>725</v>
       </c>
       <c r="I385" s="6" t="str">
         <f t="shared" si="74"/>
@@ -15547,7 +16120,7 @@
     </row>
     <row r="386" spans="1:13">
       <c r="A386" s="5" t="s">
-        <v>670</v>
+        <v>728</v>
       </c>
       <c r="B386" s="6" t="str">
         <f t="shared" si="72"/>
@@ -15558,7 +16131,7 @@
         <v>61</v>
       </c>
       <c r="D386" s="5" t="s">
-        <v>387</v>
+        <v>445</v>
       </c>
       <c r="E386" s="5" t="s">
         <v>30</v>
@@ -15570,7 +16143,7 @@
         <v>32</v>
       </c>
       <c r="H386" s="5" t="s">
-        <v>671</v>
+        <v>729</v>
       </c>
       <c r="I386" s="6" t="str">
         <f t="shared" si="74"/>
@@ -15583,7 +16156,7 @@
     </row>
     <row r="387" spans="1:13">
       <c r="A387" s="5" t="s">
-        <v>672</v>
+        <v>730</v>
       </c>
       <c r="B387" s="6" t="str">
         <f t="shared" si="72"/>
@@ -15594,7 +16167,7 @@
         <v>78</v>
       </c>
       <c r="D387" s="5" t="s">
-        <v>384</v>
+        <v>442</v>
       </c>
       <c r="E387" s="5" t="s">
         <v>35</v>
@@ -15606,7 +16179,7 @@
         <v>32</v>
       </c>
       <c r="H387" s="5" t="s">
-        <v>673</v>
+        <v>731</v>
       </c>
       <c r="I387" s="6" t="str">
         <f t="shared" si="74"/>
@@ -15619,7 +16192,7 @@
     </row>
     <row r="388" spans="1:13">
       <c r="A388" s="5" t="s">
-        <v>674</v>
+        <v>732</v>
       </c>
       <c r="B388" s="6" t="str">
         <f t="shared" si="72"/>
@@ -15633,7 +16206,7 @@
         <v>63</v>
       </c>
       <c r="E388" s="5" t="s">
-        <v>402</v>
+        <v>460</v>
       </c>
       <c r="F388" s="5" t="s">
         <v>23</v>
@@ -15642,7 +16215,7 @@
         <v>3</v>
       </c>
       <c r="H388" s="5" t="s">
-        <v>675</v>
+        <v>733</v>
       </c>
       <c r="I388" s="6" t="str">
         <f t="shared" si="74"/>
@@ -15655,7 +16228,7 @@
     </row>
     <row r="389" spans="1:13">
       <c r="A389" s="5" t="s">
-        <v>676</v>
+        <v>734</v>
       </c>
       <c r="B389" s="6" t="str">
         <f t="shared" si="72"/>
@@ -15669,7 +16242,7 @@
         <v>75</v>
       </c>
       <c r="E389" s="5" t="s">
-        <v>311</v>
+        <v>369</v>
       </c>
       <c r="F389" s="5" t="s">
         <v>39</v>
@@ -15691,7 +16264,7 @@
     </row>
     <row r="390" spans="1:13">
       <c r="A390" s="5" t="s">
-        <v>677</v>
+        <v>735</v>
       </c>
       <c r="B390" s="6" t="str">
         <f t="shared" si="72"/>
@@ -15705,16 +16278,16 @@
         <v>71</v>
       </c>
       <c r="E390" s="5" t="s">
-        <v>678</v>
+        <v>736</v>
       </c>
       <c r="F390" s="5" t="s">
-        <v>679</v>
+        <v>737</v>
       </c>
       <c r="G390" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H390" s="5" t="s">
-        <v>680</v>
+        <v>738</v>
       </c>
       <c r="I390" s="6" t="str">
         <f t="shared" si="74"/>
@@ -15727,7 +16300,7 @@
     </row>
     <row r="391" spans="1:13">
       <c r="A391" s="5" t="s">
-        <v>681</v>
+        <v>739</v>
       </c>
       <c r="B391" s="6" t="str">
         <f t="shared" si="72"/>
@@ -15776,7 +16349,7 @@
     </row>
     <row r="393" spans="1:13">
       <c r="A393" s="5" t="s">
-        <v>682</v>
+        <v>740</v>
       </c>
       <c r="B393" s="5"/>
       <c r="C393" s="5"/>
@@ -15793,16 +16366,16 @@
     </row>
     <row r="394" spans="1:13">
       <c r="A394" s="5" t="s">
-        <v>683</v>
+        <v>741</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>684</v>
+        <v>742</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>685</v>
+        <v>743</v>
       </c>
       <c r="D394" s="5" t="s">
-        <v>686</v>
+        <v>744</v>
       </c>
       <c r="E394" s="5"/>
       <c r="F394" s="5"/>
@@ -15816,16 +16389,16 @@
     </row>
     <row r="395" spans="1:13">
       <c r="A395" s="5" t="s">
-        <v>687</v>
+        <v>745</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>687</v>
+        <v>745</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>688</v>
+        <v>746</v>
       </c>
       <c r="D395" s="5" t="s">
-        <v>689</v>
+        <v>747</v>
       </c>
       <c r="E395" s="5"/>
       <c r="F395" s="5"/>
@@ -15839,16 +16412,16 @@
     </row>
     <row r="396" spans="1:13">
       <c r="A396" s="5" t="s">
-        <v>270</v>
+        <v>328</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>270</v>
+        <v>328</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>690</v>
+        <v>748</v>
       </c>
       <c r="D396" s="5" t="s">
-        <v>691</v>
+        <v>749</v>
       </c>
       <c r="E396" s="5"/>
       <c r="F396" s="5"/>
@@ -15862,16 +16435,16 @@
     </row>
     <row r="397" spans="1:13">
       <c r="A397" s="5" t="s">
-        <v>692</v>
+        <v>750</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>693</v>
+        <v>751</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>694</v>
+        <v>752</v>
       </c>
       <c r="D397" s="5" t="s">
-        <v>695</v>
+        <v>753</v>
       </c>
       <c r="E397" s="5"/>
       <c r="F397" s="5"/>
@@ -15888,13 +16461,13 @@
         <v>55</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>696</v>
+        <v>754</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>688</v>
+        <v>746</v>
       </c>
       <c r="D398" s="5" t="s">
-        <v>697</v>
+        <v>755</v>
       </c>
       <c r="E398" s="5"/>
       <c r="F398" s="5"/>
@@ -15909,13 +16482,13 @@
     <row r="399" spans="1:13">
       <c r="A399" s="5"/>
       <c r="B399" s="5" t="s">
-        <v>698</v>
+        <v>756</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>688</v>
+        <v>746</v>
       </c>
       <c r="D399" s="5" t="s">
-        <v>699</v>
+        <v>757</v>
       </c>
       <c r="E399" s="5"/>
       <c r="F399" s="5"/>
@@ -15929,16 +16502,16 @@
     </row>
     <row r="400" spans="1:13">
       <c r="A400" s="5" t="s">
-        <v>443</v>
+        <v>501</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>443</v>
+        <v>501</v>
       </c>
       <c r="C400" s="5" t="s">
-        <v>690</v>
+        <v>748</v>
       </c>
       <c r="D400" s="5" t="s">
-        <v>700</v>
+        <v>758</v>
       </c>
       <c r="E400" s="5"/>
       <c r="F400" s="5"/>
@@ -15952,16 +16525,16 @@
     </row>
     <row r="401" spans="1:13">
       <c r="A401" s="5" t="s">
-        <v>701</v>
+        <v>759</v>
       </c>
       <c r="B401" s="5" t="s">
         <v>132</v>
       </c>
       <c r="C401" s="5" t="s">
-        <v>690</v>
+        <v>748</v>
       </c>
       <c r="D401" s="5" t="s">
-        <v>702</v>
+        <v>760</v>
       </c>
       <c r="E401" s="5"/>
       <c r="F401" s="5"/>
@@ -59286,268 +59859,1402 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B32"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49" style="5" customWidth="1"/>
+    <col min="9" max="9" width="79.7109375" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1">
+    <row r="1" spans="1:9">
+      <c r="A1" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="6" t="str">
+        <f>LEFT(A2,FIND("-",A2)-1)</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f>RIGHT(A2,LEN(A2)-FIND("-",A2))</f>
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="I2" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B2&amp;", "&amp;C2&amp;", "&amp;D2&amp;", "&amp;CHAR(34)&amp;E2&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F2&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G2&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H2&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 8"));</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="6" t="str">
+        <f>LEFT(A3,FIND("-",A3)-1)</f>
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="str">
+        <f>RIGHT(A3,LEN(A3)-FIND("-",A3))</f>
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B3&amp;", "&amp;C3&amp;", "&amp;D3&amp;", "&amp;CHAR(34)&amp;E3&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F3&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G3&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H3&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in Common Navigation Block"));</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="6" t="str">
+        <f>LEFT(A4,FIND("-",A4)-1)</f>
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="str">
+        <f>RIGHT(A4,LEN(A4)-FIND("-",A4))</f>
+        <v>37</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B4&amp;", "&amp;C4&amp;", "&amp;D4&amp;", "&amp;CHAR(34)&amp;E4&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F4&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G4&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H4&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(8, 37, 30, "Source MMSI", "mmsi", "u", "9 decimal digits"));</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="6" t="str">
+        <f>LEFT(A5,FIND("-",A5)-1)</f>
+        <v>38</v>
+      </c>
+      <c r="C5" s="6" t="str">
+        <f>RIGHT(A5,LEN(A5)-FIND("-",A5))</f>
+        <v>39</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B5&amp;", "&amp;C5&amp;", "&amp;D5&amp;", "&amp;CHAR(34)&amp;E5&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F5&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G5&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H5&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(38, 39, 2, "Spare", "", "x", "Not used"));</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B6" s="6" t="str">
+        <f>LEFT(A6,FIND("-",A6)-1)</f>
+        <v>40</v>
+      </c>
+      <c r="C6" s="6" t="str">
+        <f>RIGHT(A6,LEN(A6)-FIND("-",A6))</f>
+        <v>49</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="I6" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B6&amp;", "&amp;C6&amp;", "&amp;D6&amp;", "&amp;CHAR(34)&amp;E6&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F6&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G6&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H6&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(40, 49, 10, "DAC", "dac", "u", "DAC = 001"));</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B7" s="6" t="str">
+        <f>LEFT(A7,FIND("-",A7)-1)</f>
+        <v>50</v>
+      </c>
+      <c r="C7" s="6" t="str">
+        <f>RIGHT(A7,LEN(A7)-FIND("-",A7))</f>
+        <v>55</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="I7" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B7&amp;", "&amp;C7&amp;", "&amp;D7&amp;", "&amp;CHAR(34)&amp;E7&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F7&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G7&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H7&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(50, 55, 6, "FID", "fid", "u", "FID = 11"));</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="B8" s="6" t="str">
+        <f>LEFT(A8,FIND("-",A8)-1)</f>
+        <v>56</v>
+      </c>
+      <c r="C8" s="6" t="str">
+        <f>RIGHT(A8,LEN(A8)-FIND("-",A8))</f>
+        <v>79</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="I8" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B8&amp;", "&amp;C8&amp;", "&amp;D8&amp;", "&amp;CHAR(34)&amp;E8&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F8&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G8&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H8&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(56, 79, 24, "Latitude", "lat", "I3", "Unit = minutes * 0.001, 0x7FFFFF = N/A (default), E positive, W negative."));</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="B9" s="6" t="str">
+        <f>LEFT(A9,FIND("-",A9)-1)</f>
+        <v>80</v>
+      </c>
+      <c r="C9" s="6" t="str">
+        <f>RIGHT(A9,LEN(A9)-FIND("-",A9))</f>
+        <v>104</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
+      <c r="E9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="I9" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B9&amp;", "&amp;C9&amp;", "&amp;D9&amp;", "&amp;CHAR(34)&amp;E9&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F9&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G9&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H9&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(80, 104, 25, "Longitude", "lon", "I3", "Unit = minutes * 0.001, 0xFFFFFF = N/A (default), N positive, S negative."));</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="B10" s="6" t="str">
+        <f>LEFT(A10,FIND("-",A10)-1)</f>
+        <v>105</v>
+      </c>
+      <c r="C10" s="6" t="str">
+        <f>RIGHT(A10,LEN(A10)-FIND("-",A10))</f>
+        <v>109</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
+      <c r="H10" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="I10" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B10&amp;", "&amp;C10&amp;", "&amp;D10&amp;", "&amp;CHAR(34)&amp;E10&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F10&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G10&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H10&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(105, 109, 5, "Day (UTC)", "day", "u", "1-31, 31=N/A (default)"));</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="B11" s="6" t="str">
+        <f>LEFT(A11,FIND("-",A11)-1)</f>
+        <v>110</v>
+      </c>
+      <c r="C11" s="6" t="str">
+        <f>RIGHT(A11,LEN(A11)-FIND("-",A11))</f>
+        <v>114</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="I11" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B11&amp;", "&amp;C11&amp;", "&amp;D11&amp;", "&amp;CHAR(34)&amp;E11&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F11&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G11&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H11&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(110, 114, 5, "Hour (UTC)", "hour", "u", "0-23, 31=N/A (default)"));</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B12" s="6" t="str">
+        <f>LEFT(A12,FIND("-",A12)-1)</f>
+        <v>115</v>
+      </c>
+      <c r="C12" s="6" t="str">
+        <f>RIGHT(A12,LEN(A12)-FIND("-",A12))</f>
+        <v>120</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="I12" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B12&amp;", "&amp;C12&amp;", "&amp;D12&amp;", "&amp;CHAR(34)&amp;E12&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F12&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G12&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H12&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(115, 120, 6, "Minute (UTC)", "minute", "u", "0-59, 63=N/A (default)"));</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="B13" s="6" t="str">
+        <f>LEFT(A13,FIND("-",A13)-1)</f>
+        <v>121</v>
+      </c>
+      <c r="C13" s="6" t="str">
+        <f>RIGHT(A13,LEN(A13)-FIND("-",A13))</f>
+        <v>127</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="I13" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B13&amp;", "&amp;C13&amp;", "&amp;D13&amp;", "&amp;CHAR(34)&amp;E13&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F13&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G13&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H13&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(121, 127, 7, "Average Wind Speed", "wspeed", "u", "10-min avg wind speed, knots, 127 = N/A (default)."));</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="B14" s="6" t="str">
+        <f>LEFT(A14,FIND("-",A14)-1)</f>
+        <v>128</v>
+      </c>
+      <c r="C14" s="6" t="str">
+        <f>RIGHT(A14,LEN(A14)-FIND("-",A14))</f>
+        <v>134</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="I14" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B14&amp;", "&amp;C14&amp;", "&amp;D14&amp;", "&amp;CHAR(34)&amp;E14&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F14&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G14&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H14&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(128, 134, 7, "Gust Speed", "wgust", "u", "10-min max wind speed, knots, 127 = N/A (default)."));</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="B15" s="6" t="str">
+        <f>LEFT(A15,FIND("-",A15)-1)</f>
+        <v>135</v>
+      </c>
+      <c r="C15" s="6" t="str">
+        <f>RIGHT(A15,LEN(A15)-FIND("-",A15))</f>
+        <v>143</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="I15" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B15&amp;", "&amp;C15&amp;", "&amp;D15&amp;", "&amp;CHAR(34)&amp;E15&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F15&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G15&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H15&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(135, 143, 9, "Wind Direction", "wdir", "u", "0-359, degrees from true north 511 = N/A (default)"));</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="B16" s="6" t="str">
+        <f>LEFT(A16,FIND("-",A16)-1)</f>
+        <v>144</v>
+      </c>
+      <c r="C16" s="6" t="str">
+        <f>RIGHT(A16,LEN(A16)-FIND("-",A16))</f>
+        <v>152</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="I16" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B16&amp;", "&amp;C16&amp;", "&amp;D16&amp;", "&amp;CHAR(34)&amp;E16&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F16&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G16&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H16&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(144, 152, 9, "Wind Gust Direction", "wgustdir", "u", "0-359, degrees from true north 511 = N/A (default)"));</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="B17" s="6" t="str">
+        <f>LEFT(A17,FIND("-",A17)-1)</f>
+        <v>153</v>
+      </c>
+      <c r="C17" s="6" t="str">
+        <f>RIGHT(A17,LEN(A17)-FIND("-",A17))</f>
+        <v>163</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="I17" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B17&amp;", "&amp;C17&amp;", "&amp;D17&amp;", "&amp;CHAR(34)&amp;E17&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F17&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G17&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H17&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(153, 163, 11, "Air Temperature", "temperature", "u", "Dry bulb temp: 0.1 deg C -60.0 to +60.0, 2047 = N/A (default),"));</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="B18" s="6" t="str">
+        <f>LEFT(A18,FIND("-",A18)-1)</f>
+        <v>164</v>
+      </c>
+      <c r="C18" s="6" t="str">
+        <f>RIGHT(A18,LEN(A18)-FIND("-",A18))</f>
+        <v>170</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="I18" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B18&amp;", "&amp;C18&amp;", "&amp;D18&amp;", "&amp;CHAR(34)&amp;E18&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F18&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G18&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H18&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(164, 170, 7, "Relative Humidity", "humidity", "u", "0-100%, units of 1%, 127 = N/A (default)."));</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="B19" s="6" t="str">
+        <f>LEFT(A19,FIND("-",A19)-1)</f>
+        <v>171</v>
+      </c>
+      <c r="C19" s="6" t="str">
+        <f>RIGHT(A19,LEN(A19)-FIND("-",A19))</f>
+        <v>180</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="I19" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B19&amp;", "&amp;C19&amp;", "&amp;D19&amp;", "&amp;CHAR(34)&amp;E19&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F19&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G19&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H19&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(171, 180, 10, "Dew Point", "dewpoint", "u", "-20.0 to +50.0: 0.1 deg C, 1023 = N/A (default),"));</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="B20" s="6" t="str">
+        <f>LEFT(A20,FIND("-",A20)-1)</f>
+        <v>181</v>
+      </c>
+      <c r="C20" s="6" t="str">
+        <f>RIGHT(A20,LEN(A20)-FIND("-",A20))</f>
+        <v>189</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="I20" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B20&amp;", "&amp;C20&amp;", "&amp;D20&amp;", "&amp;CHAR(34)&amp;E20&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F20&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G20&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H20&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(181, 189, 9, "Air Pressure", "pressure", "u", "800-1200hPa: units 1hPa, 511 = N/A (default)."));</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="B21" s="6" t="str">
+        <f>LEFT(A21,FIND("-",A21)-1)</f>
+        <v>190</v>
+      </c>
+      <c r="C21" s="6" t="str">
+        <f>RIGHT(A21,LEN(A21)-FIND("-",A21))</f>
+        <v>191</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
+      <c r="H21" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="I21" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B21&amp;", "&amp;C21&amp;", "&amp;D21&amp;", "&amp;CHAR(34)&amp;E21&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F21&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G21&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H21&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(190, 191, 2, "Pressure Tendency", "pressuretend", "e", "0 = steady, 1 = decreasing, 2 = increasing, 3 - N/A (default)."));</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="B22" s="6" t="str">
+        <f>LEFT(A22,FIND("-",A22)-1)</f>
+        <v>192</v>
+      </c>
+      <c r="C22" s="6" t="str">
+        <f>RIGHT(A22,LEN(A22)-FIND("-",A22))</f>
+        <v>199</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>735</v>
+      <c r="H22" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="I22" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B22&amp;", "&amp;C22&amp;", "&amp;D22&amp;", "&amp;CHAR(34)&amp;E22&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F22&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G22&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H22&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(192, 199, 8, "Horiz. Visibility", "visibility", "U1", "0-25.0, units of 0.1nm 255 = N/A (default)"));</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="B23" s="6" t="str">
+        <f>LEFT(A23,FIND("-",A23)-1)</f>
+        <v>200</v>
+      </c>
+      <c r="C23" s="6" t="str">
+        <f>RIGHT(A23,LEN(A23)-FIND("-",A23))</f>
+        <v>208</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="I23" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B23&amp;", "&amp;C23&amp;", "&amp;D23&amp;", "&amp;CHAR(34)&amp;E23&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F23&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G23&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H23&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(200, 208, 9, "Water Level", "waterlevel", "I1", "-10.0 to +30.0 in 0.1m, 511 = N/A (default)."));</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="B24" s="6" t="str">
+        <f>LEFT(A24,FIND("-",A24)-1)</f>
+        <v>209</v>
+      </c>
+      <c r="C24" s="6" t="str">
+        <f>RIGHT(A24,LEN(A24)-FIND("-",A24))</f>
+        <v>210</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="I24" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B24&amp;", "&amp;C24&amp;", "&amp;D24&amp;", "&amp;CHAR(34)&amp;E24&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F24&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G24&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H24&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(209, 210, 2, "Water Level Trend", "leveltrend", "e", "0 = steady, 1 = decreasing, 2 = increasing, 3 - N/A (default)."));</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="B25" s="6" t="str">
+        <f>LEFT(A25,FIND("-",A25)-1)</f>
+        <v>211</v>
+      </c>
+      <c r="C25" s="6" t="str">
+        <f>RIGHT(A25,LEN(A25)-FIND("-",A25))</f>
+        <v>218</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="I25" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B25&amp;", "&amp;C25&amp;", "&amp;D25&amp;", "&amp;CHAR(34)&amp;E25&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F25&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G25&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H25&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(211, 218, 8, "Surface Current Speed", "cspeed", "U1", "0.0-25.0 knots: units 0.1 knot"));</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="B26" s="6" t="str">
+        <f>LEFT(A26,FIND("-",A26)-1)</f>
+        <v>219</v>
+      </c>
+      <c r="C26" s="6" t="str">
+        <f>RIGHT(A26,LEN(A26)-FIND("-",A26))</f>
+        <v>227</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="I26" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B26&amp;", "&amp;C26&amp;", "&amp;D26&amp;", "&amp;CHAR(34)&amp;E26&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F26&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G26&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H26&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(219, 227, 9, "Surface Current Direction", "cdir", "u", "0-359: deg from true north, 511 = N/A (default)"));</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="B27" s="6" t="str">
+        <f>LEFT(A27,FIND("-",A27)-1)</f>
+        <v>228</v>
+      </c>
+      <c r="C27" s="6" t="str">
+        <f>RIGHT(A27,LEN(A27)-FIND("-",A27))</f>
+        <v>235</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="I27" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B27&amp;", "&amp;C27&amp;", "&amp;D27&amp;", "&amp;CHAR(34)&amp;E27&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F27&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G27&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H27&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(228, 235, 8, "Current Speed #2", "cspeed2", "U1", "0.0-25.0 in units of 0.1 knot, 255 = N/A (default)."));</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="B28" s="6" t="str">
+        <f>LEFT(A28,FIND("-",A28)-1)</f>
+        <v>236</v>
+      </c>
+      <c r="C28" s="6" t="str">
+        <f>RIGHT(A28,LEN(A28)-FIND("-",A28))</f>
+        <v>244</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="I28" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B28&amp;", "&amp;C28&amp;", "&amp;D28&amp;", "&amp;CHAR(34)&amp;E28&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F28&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G28&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H28&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(236, 244, 9, "Current Direction #2", "cdir2", "u", "0-359: deg. fom true north, 511 = N/A (default)"));</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="B29" s="6" t="str">
+        <f>LEFT(A29,FIND("-",A29)-1)</f>
+        <v>245</v>
+      </c>
+      <c r="C29" s="6" t="str">
+        <f>RIGHT(A29,LEN(A29)-FIND("-",A29))</f>
+        <v>249</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="I29" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B29&amp;", "&amp;C29&amp;", "&amp;D29&amp;", "&amp;CHAR(34)&amp;E29&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F29&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G29&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H29&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(245, 249, 5, "Measurement Depth #2", "cdepth2", "U1", "0-30m down: units 0.1m, 31 = N/A (default)."));</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="B30" s="6" t="str">
+        <f>LEFT(A30,FIND("-",A30)-1)</f>
+        <v>250</v>
+      </c>
+      <c r="C30" s="6" t="str">
+        <f>RIGHT(A30,LEN(A30)-FIND("-",A30))</f>
+        <v>257</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="I30" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B30&amp;", "&amp;C30&amp;", "&amp;D30&amp;", "&amp;CHAR(34)&amp;E30&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F30&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G30&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H30&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(250, 257, 8, "Current Speed #3", "cspeed3", "U1", "0.0-25.0: units of 0.1 knot, 255 = N/A (default)."));</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="B31" s="6" t="str">
+        <f>LEFT(A31,FIND("-",A31)-1)</f>
+        <v>258</v>
+      </c>
+      <c r="C31" s="6" t="str">
+        <f>RIGHT(A31,LEN(A31)-FIND("-",A31))</f>
+        <v>266</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="I31" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B31&amp;", "&amp;C31&amp;", "&amp;D31&amp;", "&amp;CHAR(34)&amp;E31&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F31&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G31&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H31&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(258, 266, 9, "Current Direction #3", "cdir3", "u", "0-359: degrees fom true north, 511 = N/A (default)."));</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="B32" s="6" t="str">
+        <f>LEFT(A32,FIND("-",A32)-1)</f>
+        <v>267</v>
+      </c>
+      <c r="C32" s="6" t="str">
+        <f>RIGHT(A32,LEN(A32)-FIND("-",A32))</f>
+        <v>271</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="I32" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B32&amp;", "&amp;C32&amp;", "&amp;D32&amp;", "&amp;CHAR(34)&amp;E32&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F32&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G32&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H32&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(267, 271, 5, "Measurement Depth #3", "cdepth3", "U1", "0-30m down: units 0.1m, 31 = N/A (default)."));</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="B33" s="6" t="str">
+        <f>LEFT(A33,FIND("-",A33)-1)</f>
+        <v>272</v>
+      </c>
+      <c r="C33" s="6" t="str">
+        <f>RIGHT(A33,LEN(A33)-FIND("-",A33))</f>
+        <v>279</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="I33" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B33&amp;", "&amp;C33&amp;", "&amp;D33&amp;", "&amp;CHAR(34)&amp;E33&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F33&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G33&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H33&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(272, 279, 8, "Wave height", "waveheight", "U1", "0-25m: units of 0.1m, 255 = N/A (default)."));</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="B34" s="6" t="str">
+        <f>LEFT(A34,FIND("-",A34)-1)</f>
+        <v>280</v>
+      </c>
+      <c r="C34" s="6" t="str">
+        <f>RIGHT(A34,LEN(A34)-FIND("-",A34))</f>
+        <v>285</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="I34" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B34&amp;", "&amp;C34&amp;", "&amp;D34&amp;", "&amp;CHAR(34)&amp;E34&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F34&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G34&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H34&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(280, 285, 6, "Wave period", "waveperiod", "u", "Seconds 0-60: 63 = N/A (default)."));</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="B35" s="6" t="str">
+        <f>LEFT(A35,FIND("-",A35)-1)</f>
+        <v>286</v>
+      </c>
+      <c r="C35" s="6" t="str">
+        <f>RIGHT(A35,LEN(A35)-FIND("-",A35))</f>
+        <v>294</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="I35" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B35&amp;", "&amp;C35&amp;", "&amp;D35&amp;", "&amp;CHAR(34)&amp;E35&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F35&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G35&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H35&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(286, 294, 9, "Wave direction", "wavedir", "u", "0-359: deg. ffom true north, 511 = N/A (default)."));</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="B36" s="6" t="str">
+        <f>LEFT(A36,FIND("-",A36)-1)</f>
+        <v>295</v>
+      </c>
+      <c r="C36" s="6" t="str">
+        <f>RIGHT(A36,LEN(A36)-FIND("-",A36))</f>
+        <v>302</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="I36" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B36&amp;", "&amp;C36&amp;", "&amp;D36&amp;", "&amp;CHAR(34)&amp;E36&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F36&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G36&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H36&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(295, 302, 8, "Swell height", "swellheight", "U1", "0-25m: units of 0.1m 255 = N/A (default)."));</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="B37" s="6" t="str">
+        <f>LEFT(A37,FIND("-",A37)-1)</f>
+        <v>303</v>
+      </c>
+      <c r="C37" s="6" t="str">
+        <f>RIGHT(A37,LEN(A37)-FIND("-",A37))</f>
+        <v>308</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="I37" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B37&amp;", "&amp;C37&amp;", "&amp;D37&amp;", "&amp;CHAR(34)&amp;E37&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F37&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G37&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H37&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(303, 308, 6, "Swell period", "swellperiod", "u", "Seconds 0-60: 63 = N/A (default)."));</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="B38" s="6" t="str">
+        <f>LEFT(A38,FIND("-",A38)-1)</f>
+        <v>309</v>
+      </c>
+      <c r="C38" s="6" t="str">
+        <f>RIGHT(A38,LEN(A38)-FIND("-",A38))</f>
+        <v>317</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="I38" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B38&amp;", "&amp;C38&amp;", "&amp;D38&amp;", "&amp;CHAR(34)&amp;E38&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F38&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G38&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H38&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(309, 317, 9, "Swell direction", "swelldir", "u", "0-359: deg. fom true north, 511 = N/A (default)."));</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="B39" s="6" t="str">
+        <f>LEFT(A39,FIND("-",A39)-1)</f>
+        <v>318</v>
+      </c>
+      <c r="C39" s="6" t="str">
+        <f>RIGHT(A39,LEN(A39)-FIND("-",A39))</f>
+        <v>321</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="I39" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B39&amp;", "&amp;C39&amp;", "&amp;D39&amp;", "&amp;CHAR(34)&amp;E39&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F39&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G39&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H39&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(318, 321, 4, "Sea state", "seastate", "e", "See "Beaufort Scale""));</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="B40" s="6" t="str">
+        <f>LEFT(A40,FIND("-",A40)-1)</f>
+        <v>322</v>
+      </c>
+      <c r="C40" s="6" t="str">
+        <f>RIGHT(A40,LEN(A40)-FIND("-",A40))</f>
+        <v>331</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="I40" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B40&amp;", "&amp;C40&amp;", "&amp;D40&amp;", "&amp;CHAR(34)&amp;E40&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F40&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G40&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H40&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(322, 331, 10, "Water Temperature", "watertemp", "U1", "-10.0 to 50.0: units 0.1 C, 1023 = N/A (default)."));</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="B41" s="6" t="str">
+        <f>LEFT(A41,FIND("-",A41)-1)</f>
+        <v>332</v>
+      </c>
+      <c r="C41" s="6" t="str">
+        <f>RIGHT(A41,LEN(A41)-FIND("-",A41))</f>
+        <v>334</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="I41" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B41&amp;", "&amp;C41&amp;", "&amp;D41&amp;", "&amp;CHAR(34)&amp;E41&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F41&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G41&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H41&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(332, 334, 3, "Precipitation", "preciptype", "e", "See "Precipitation Types""));</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="B42" s="6" t="str">
+        <f>LEFT(A42,FIND("-",A42)-1)</f>
+        <v>335</v>
+      </c>
+      <c r="C42" s="6" t="str">
+        <f>RIGHT(A42,LEN(A42)-FIND("-",A42))</f>
+        <v>343</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="I42" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B42&amp;", "&amp;C42&amp;", "&amp;D42&amp;", "&amp;CHAR(34)&amp;E42&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F42&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G42&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H42&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(335, 343, 9, "Salinity", "salinity", "U1", "0.0-50.0%: units 0.1%, 511 = N/A (default)"));</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="B43" s="6" t="str">
+        <f>LEFT(A43,FIND("-",A43)-1)</f>
+        <v>344</v>
+      </c>
+      <c r="C43" s="6" t="str">
+        <f>RIGHT(A43,LEN(A43)-FIND("-",A43))</f>
+        <v>345</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="I43" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B43&amp;", "&amp;C43&amp;", "&amp;D43&amp;", "&amp;CHAR(34)&amp;E43&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F43&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G43&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H43&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(344, 345, 2, "Ice", "ice", "e", "0 = No 1 = Yes 2 = (reserved for future use) 3 = not available = default"));</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B44" s="6" t="str">
+        <f>LEFT(A44,FIND("-",A44)-1)</f>
+        <v>346</v>
+      </c>
+      <c r="C44" s="6" t="str">
+        <f>RIGHT(A44,LEN(A44)-FIND("-",A44))</f>
+        <v>351</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I44" s="6" t="str">
+        <f>"messageBlocks.add(new _PayloadBlock("&amp;B44&amp;", "&amp;C44&amp;", "&amp;D44&amp;", "&amp;CHAR(34)&amp;E44&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F44&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G44&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H44&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new _PayloadBlock(346, 351, 6, "Spare", "", "x", "Not used"));</v>
       </c>
     </row>
   </sheetData>
@@ -59556,6 +61263,1221 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E1:E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>899</v>
+      </c>
+      <c r="E1" t="str">
+        <f t="shared" ref="E1:E64" si="0">"put("&amp;A1&amp;","&amp;CHAR(34)&amp;B1&amp;CHAR(34)&amp;");"</f>
+        <v>put(0,"Under way using engine");</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>900</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" si="0"/>
+        <v>put(1,"At anchor");</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>901</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>put(2,"Not under command");</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>902</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>put(3,"Restricted manoeuverability");</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>903</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>put(4,"Constrained by her draught");</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>904</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>put(5,"Moored");</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>905</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>put(6,"Aground");</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>906</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>put(7,"Engaged in Fishing");</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>907</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>put(8,"Under way sailing");</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>908</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>put(9,"Reserved for future amendment of Navigational Status for HSC");</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>909</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>put(10,"Reserved for future amendment of Navigational Status for WIG");</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>put(11,"Reserved for future use");</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>put(12,"Reserved for future use");</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>put(13,"Reserved for future use");</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>910</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>put(14,"AIS-SART is active");</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>911</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>put(15,"Not defined (default)");</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>put(16,"Reserved for future use");</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>put(17,"Reserved for future use");</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>put(18,"Reserved for future use");</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>put(19,"Reserved for future use");</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>put(20,"Wing in ground (WIG), all ships of this type");</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>185</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>put(21,"Wing in ground (WIG), Hazardous category A");</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>put(22,"Wing in ground (WIG), Hazardous category B");</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>put(23,"Wing in ground (WIG), Hazardous category C");</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>188</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>put(24,"Wing in ground (WIG), Hazardous category D");</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>189</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>put(25,"Wing in ground (WIG), Reserved for future use");</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>189</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>put(26,"Wing in ground (WIG), Reserved for future use");</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>189</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>put(27,"Wing in ground (WIG), Reserved for future use");</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>189</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>put(28,"Wing in ground (WIG), Reserved for future use");</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>put(29,"Wing in ground (WIG), Reserved for future use");</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>190</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>put(30,"Fishing");</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>191</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>put(31,"Towing");</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>192</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>put(32,"Towing: length exceeds 200m or breadth exceeds 25m");</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>193</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>put(33,"Dredging or underwater ops");</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>194</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>put(34,"Diving ops");</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>195</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>put(35,"Military ops");</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>196</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>put(36,"Sailing");</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>197</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>put(37,"Pleasure Craft");</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>198</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>put(38,"Reserved");</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>put(39,"Reserved");</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>199</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>put(40,"High speed craft (HSC), all ships of this type");</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>200</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>put(41,"High speed craft (HSC), Hazardous category A");</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>201</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>put(42,"High speed craft (HSC), Hazardous category B");</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>202</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>put(43,"High speed craft (HSC), Hazardous category C");</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>203</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>put(44,"High speed craft (HSC), Hazardous category D");</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>204</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>put(45,"High speed craft (HSC), Reserved for future use");</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>204</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>put(46,"High speed craft (HSC), Reserved for future use");</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>204</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>put(47,"High speed craft (HSC), Reserved for future use");</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>204</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>put(48,"High speed craft (HSC), Reserved for future use");</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>205</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>put(49,"High speed craft (HSC), No additional information");</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>206</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>put(50,"Pilot Vessel");</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>207</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>put(51,"Search and Rescue vessel");</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>208</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>put(52,"Tug");</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>209</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>put(53,"Port Tender");</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>210</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>put(54,"Anti-pollution equipment");</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>211</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>put(55,"Law Enforcement");</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>212</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>put(56,"Spare - Local Vessel");</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>212</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>put(57,"Spare - Local Vessel");</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>213</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>put(58,"Medical Transport");</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>214</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v>put(59,"Noncombatant ship according to RR Resolution No. 18");</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>215</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>put(60,"Passenger, all ships of this type");</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>216</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>put(61,"Passenger, Hazardous category A");</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>217</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v>put(62,"Passenger, Hazardous category B");</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>218</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v>put(63,"Passenger, Hazardous category C");</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>219</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" ref="E65:E99" si="1">"put("&amp;A65&amp;","&amp;CHAR(34)&amp;B65&amp;CHAR(34)&amp;");"</f>
+        <v>put(64,"Passenger, Hazardous category D");</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>220</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="1"/>
+        <v>put(65,"Passenger, Reserved for future use");</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>220</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="1"/>
+        <v>put(66,"Passenger, Reserved for future use");</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>220</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="1"/>
+        <v>put(67,"Passenger, Reserved for future use");</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>220</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="1"/>
+        <v>put(68,"Passenger, Reserved for future use");</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>221</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="1"/>
+        <v>put(69,"Passenger, No additional information");</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>222</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="1"/>
+        <v>put(70,"Cargo, all ships of this type");</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>223</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="1"/>
+        <v>put(71,"Cargo, Hazardous category A");</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>224</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="1"/>
+        <v>put(72,"Cargo, Hazardous category B");</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>225</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="1"/>
+        <v>put(73,"Cargo, Hazardous category C");</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>226</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="1"/>
+        <v>put(74,"Cargo, Hazardous category D");</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>227</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="1"/>
+        <v>put(75,"Cargo, Reserved for future use");</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>227</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="1"/>
+        <v>put(76,"Cargo, Reserved for future use");</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>227</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="1"/>
+        <v>put(77,"Cargo, Reserved for future use");</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>227</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="1"/>
+        <v>put(78,"Cargo, Reserved for future use");</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>228</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="1"/>
+        <v>put(79,"Cargo, No additional information");</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>229</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="1"/>
+        <v>put(80,"Tanker, all ships of this type");</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>230</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="1"/>
+        <v>put(81,"Tanker, Hazardous category A");</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>231</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="1"/>
+        <v>put(82,"Tanker, Hazardous category B");</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>232</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="1"/>
+        <v>put(83,"Tanker, Hazardous category C");</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>233</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="1"/>
+        <v>put(84,"Tanker, Hazardous category D");</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>234</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="1"/>
+        <v>put(85,"Tanker, Reserved for future use");</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>234</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="1"/>
+        <v>put(86,"Tanker, Reserved for future use");</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>234</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="1"/>
+        <v>put(87,"Tanker, Reserved for future use");</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>234</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="1"/>
+        <v>put(88,"Tanker, Reserved for future use");</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>235</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="1"/>
+        <v>put(89,"Tanker, No additional information");</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>236</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="1"/>
+        <v>put(90,"Other Type, all ships of this type");</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>237</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="1"/>
+        <v>put(91,"Other Type, Hazardous category A");</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>238</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="1"/>
+        <v>put(92,"Other Type, Hazardous category B");</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>239</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="1"/>
+        <v>put(93,"Other Type, Hazardous category C");</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>240</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="1"/>
+        <v>put(94,"Other Type, Hazardous category D");</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>241</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="1"/>
+        <v>put(95,"Other Type, Reserved for future use");</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>241</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="1"/>
+        <v>put(96,"Other Type, Reserved for future use");</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>241</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="1"/>
+        <v>put(97,"Other Type, Reserved for future use");</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>241</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="1"/>
+        <v>put(98,"Other Type, Reserved for future use");</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>242</v>
+      </c>
+      <c r="E100" t="str">
+        <f>"put("&amp;A100&amp;","&amp;CHAR(34)&amp;B100&amp;CHAR(34)&amp;");"</f>
+        <v>put(99,"Other Type, no additional information");</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L82"/>
   <sheetViews>
@@ -59573,7 +62495,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>185</v>
+        <v>243</v>
       </c>
       <c r="D1" s="3">
         <v>10000</v>
@@ -59582,7 +62504,7 @@
         <v>16</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>186</v>
+        <v>244</v>
       </c>
       <c r="G1" s="3">
         <v>100000</v>
@@ -59591,7 +62513,7 @@
         <v>32</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>187</v>
+        <v>245</v>
       </c>
       <c r="J1" s="3">
         <v>110000</v>
@@ -59600,7 +62522,7 @@
         <v>48</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>188</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1">
@@ -59611,7 +62533,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>189</v>
+        <v>247</v>
       </c>
       <c r="D2" s="1">
         <v>10001</v>
@@ -59620,7 +62542,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>190</v>
+        <v>248</v>
       </c>
       <c r="G2" s="1">
         <v>100001</v>
@@ -59629,7 +62551,7 @@
         <v>33</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>191</v>
+        <v>249</v>
       </c>
       <c r="J2" s="1">
         <v>110001</v>
@@ -59638,7 +62560,7 @@
         <v>49</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>192</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1">
@@ -59649,7 +62571,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>193</v>
+        <v>251</v>
       </c>
       <c r="D3" s="1">
         <v>10010</v>
@@ -59658,7 +62580,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>194</v>
+        <v>252</v>
       </c>
       <c r="G3" s="1">
         <v>100010</v>
@@ -59667,7 +62589,7 @@
         <v>34</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>195</v>
+        <v>253</v>
       </c>
       <c r="J3" s="1">
         <v>110010</v>
@@ -59676,7 +62598,7 @@
         <v>50</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1">
@@ -59687,7 +62609,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>197</v>
+        <v>255</v>
       </c>
       <c r="D4" s="1">
         <v>10011</v>
@@ -59696,7 +62618,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>198</v>
+        <v>256</v>
       </c>
       <c r="G4" s="1">
         <v>100011</v>
@@ -59705,7 +62627,7 @@
         <v>35</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="J4" s="1">
         <v>110011</v>
@@ -59714,7 +62636,7 @@
         <v>51</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1">
@@ -59725,7 +62647,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="D5" s="1">
         <v>10100</v>
@@ -59734,7 +62656,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>202</v>
+        <v>260</v>
       </c>
       <c r="G5" s="1">
         <v>100100</v>
@@ -59743,7 +62665,7 @@
         <v>36</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>203</v>
+        <v>261</v>
       </c>
       <c r="J5" s="1">
         <v>110100</v>
@@ -59752,7 +62674,7 @@
         <v>52</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>204</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1">
@@ -59763,7 +62685,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>205</v>
+        <v>263</v>
       </c>
       <c r="D6" s="1">
         <v>10101</v>
@@ -59772,7 +62694,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>206</v>
+        <v>264</v>
       </c>
       <c r="G6" s="1">
         <v>100101</v>
@@ -59781,7 +62703,7 @@
         <v>37</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>207</v>
+        <v>265</v>
       </c>
       <c r="J6" s="1">
         <v>110101</v>
@@ -59790,7 +62712,7 @@
         <v>53</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>208</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1">
@@ -59801,7 +62723,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="D7" s="1">
         <v>10110</v>
@@ -59810,7 +62732,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="G7" s="1">
         <v>100110</v>
@@ -59819,7 +62741,7 @@
         <v>38</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="J7" s="1">
         <v>110110</v>
@@ -59828,7 +62750,7 @@
         <v>54</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>212</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1">
@@ -59839,7 +62761,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="D8" s="1">
         <v>10111</v>
@@ -59848,7 +62770,7 @@
         <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="G8" s="1">
         <v>100111</v>
@@ -59857,7 +62779,7 @@
         <v>39</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>215</v>
+        <v>273</v>
       </c>
       <c r="J8" s="1">
         <v>110111</v>
@@ -59866,7 +62788,7 @@
         <v>55</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>216</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1">
@@ -59877,7 +62799,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="D9" s="1">
         <v>11000</v>
@@ -59886,7 +62808,7 @@
         <v>24</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>218</v>
+        <v>276</v>
       </c>
       <c r="G9" s="1">
         <v>101000</v>
@@ -59895,7 +62817,7 @@
         <v>40</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>219</v>
+        <v>277</v>
       </c>
       <c r="J9" s="1">
         <v>111000</v>
@@ -59904,7 +62826,7 @@
         <v>56</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>220</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1">
@@ -59915,7 +62837,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>221</v>
+        <v>279</v>
       </c>
       <c r="D10" s="1">
         <v>11001</v>
@@ -59924,7 +62846,7 @@
         <v>25</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>222</v>
+        <v>280</v>
       </c>
       <c r="G10" s="1">
         <v>101001</v>
@@ -59933,7 +62855,7 @@
         <v>41</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>223</v>
+        <v>281</v>
       </c>
       <c r="J10" s="1">
         <v>111001</v>
@@ -59942,7 +62864,7 @@
         <v>56</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1">
@@ -59953,7 +62875,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>225</v>
+        <v>283</v>
       </c>
       <c r="D11" s="1">
         <v>11010</v>
@@ -59962,7 +62884,7 @@
         <v>26</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="G11" s="1">
         <v>101010</v>
@@ -59971,7 +62893,7 @@
         <v>42</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>227</v>
+        <v>285</v>
       </c>
       <c r="J11" s="1">
         <v>111010</v>
@@ -59980,7 +62902,7 @@
         <v>58</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>228</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1">
@@ -59991,7 +62913,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>229</v>
+        <v>287</v>
       </c>
       <c r="D12" s="1">
         <v>11011</v>
@@ -60000,7 +62922,7 @@
         <v>27</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>230</v>
+        <v>288</v>
       </c>
       <c r="G12" s="1">
         <v>101011</v>
@@ -60009,7 +62931,7 @@
         <v>43</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>231</v>
+        <v>289</v>
       </c>
       <c r="J12" s="1">
         <v>111011</v>
@@ -60018,7 +62940,7 @@
         <v>59</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>232</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1">
@@ -60029,7 +62951,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>233</v>
+        <v>291</v>
       </c>
       <c r="D13" s="1">
         <v>11100</v>
@@ -60038,7 +62960,7 @@
         <v>28</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>234</v>
+        <v>292</v>
       </c>
       <c r="G13" s="1">
         <v>101100</v>
@@ -60047,7 +62969,7 @@
         <v>44</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>235</v>
+        <v>293</v>
       </c>
       <c r="J13" s="1">
         <v>111100</v>
@@ -60056,7 +62978,7 @@
         <v>60</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>236</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1">
@@ -60067,7 +62989,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>237</v>
+        <v>295</v>
       </c>
       <c r="D14" s="1">
         <v>11101</v>
@@ -60076,7 +62998,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>238</v>
+        <v>296</v>
       </c>
       <c r="G14" s="1">
         <v>101101</v>
@@ -60085,7 +63007,7 @@
         <v>45</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>239</v>
+        <v>297</v>
       </c>
       <c r="J14" s="1">
         <v>111101</v>
@@ -60094,7 +63016,7 @@
         <v>61</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>240</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1">
@@ -60105,7 +63027,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>241</v>
+        <v>299</v>
       </c>
       <c r="D15" s="1">
         <v>11110</v>
@@ -60114,7 +63036,7 @@
         <v>30</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>242</v>
+        <v>300</v>
       </c>
       <c r="G15" s="1">
         <v>101110</v>
@@ -60123,7 +63045,7 @@
         <v>46</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>243</v>
+        <v>301</v>
       </c>
       <c r="J15" s="1">
         <v>111110</v>
@@ -60132,7 +63054,7 @@
         <v>62</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>244</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1">
@@ -60143,7 +63065,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>245</v>
+        <v>303</v>
       </c>
       <c r="D16" s="1">
         <v>11111</v>
@@ -60152,7 +63074,7 @@
         <v>31</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>246</v>
+        <v>304</v>
       </c>
       <c r="G16" s="1">
         <v>101111</v>
@@ -60161,7 +63083,7 @@
         <v>47</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>247</v>
+        <v>305</v>
       </c>
       <c r="J16" s="1">
         <v>111111</v>
@@ -60170,7 +63092,7 @@
         <v>63</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>248</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1">

--- a/references/MessagePayloadBlockFormatter.xlsx
+++ b/references/MessagePayloadBlockFormatter.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="760">
   <si>
     <t xml:space="preserve">Start</t>
   </si>
@@ -691,6 +691,9 @@
     <t xml:space="preserve">12</t>
   </si>
   <si>
+    <t xml:space="preserve">Addressed Safety Related Message</t>
+  </si>
+  <si>
     <t xml:space="preserve">Constant: 12</t>
   </si>
   <si>
@@ -716,6 +719,9 @@
   </si>
   <si>
     <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safety Related Broadcast Message</t>
   </si>
   <si>
     <t xml:space="preserve">Constant: 14</t>
@@ -2346,7 +2352,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2362,13 +2368,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF008080"/>
+        <bgColor rgb="FF3FBE3F"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF7F00"/>
         <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3FBE3F"/>
+        <bgColor rgb="FF00B050"/>
       </patternFill>
     </fill>
     <fill>
@@ -2380,7 +2392,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00B050"/>
+        <bgColor rgb="FF3FBE3F"/>
       </patternFill>
     </fill>
     <fill>
@@ -2474,7 +2486,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2507,19 +2519,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2527,7 +2539,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2535,19 +2551,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2575,7 +2591,7 @@
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF00B050"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
@@ -2611,7 +2627,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF00B050"/>
+      <rgbColor rgb="FF3FBE3F"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -2630,8 +2646,8 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A254" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B274" activeCellId="0" sqref="B274"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A186" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E193" activeCellId="0" sqref="E193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6549,11 +6565,11 @@
       <c r="L134" s="4"/>
       <c r="M134" s="4"/>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="8" t="s">
         <v>215</v>
       </c>
       <c r="C135" s="1" t="s">
@@ -7417,12 +7433,15 @@
       <c r="L163" s="4"/>
       <c r="M163" s="4"/>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="4" t="s">
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B164" s="8" t="s">
         <v>221</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
@@ -7456,7 +7475,7 @@
         <v>12</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I165" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B165&amp;", "&amp;C165&amp;", "&amp;D165&amp;", "&amp;CHAR(34)&amp;E165&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F165&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G165&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H165&amp;CHAR(34)&amp;"));"</f>
@@ -7626,7 +7645,7 @@
         <v>33</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I170" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B170&amp;", "&amp;C170&amp;", "&amp;D170&amp;", "&amp;CHAR(34)&amp;E170&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F170&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G170&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H170&amp;CHAR(34)&amp;"));"</f>
@@ -7683,16 +7702,16 @@
         <v>936</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G172" s="4" t="s">
         <v>108</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I172" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B172&amp;", "&amp;C172&amp;", "&amp;D172&amp;", "&amp;CHAR(34)&amp;E172&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F172&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G172&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H172&amp;CHAR(34)&amp;"));"</f>
@@ -7731,20 +7750,20 @@
       <c r="M174" s="4"/>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="7" t="s">
+      <c r="A175" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
       <c r="G175" s="4"/>
       <c r="H175" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
@@ -8185,12 +8204,15 @@
       <c r="L189" s="4"/>
       <c r="M189" s="4"/>
     </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="4" t="s">
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B190" s="1" t="s">
-        <v>230</v>
+      <c r="B190" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
@@ -8224,7 +8246,7 @@
         <v>12</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="I191" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B191&amp;", "&amp;C191&amp;", "&amp;D191&amp;", "&amp;CHAR(34)&amp;E191&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F191&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G191&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H191&amp;CHAR(34)&amp;"));"</f>
@@ -8349,16 +8371,16 @@
         <v>968</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G195" s="4" t="s">
         <v>108</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I195" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B195&amp;", "&amp;C195&amp;", "&amp;D195&amp;", "&amp;CHAR(34)&amp;E195&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F195&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G195&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H195&amp;CHAR(34)&amp;"));"</f>
@@ -8401,7 +8423,7 @@
         <v>7</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
@@ -8435,7 +8457,7 @@
         <v>12</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I199" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B199&amp;", "&amp;C199&amp;", "&amp;D199&amp;", "&amp;CHAR(34)&amp;E199&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F199&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G199&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H199&amp;CHAR(34)&amp;"));"</f>
@@ -8560,7 +8582,7 @@
         <v>30</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F203" s="4" t="s">
         <v>172</v>
@@ -8594,10 +8616,10 @@
         <v>6</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G204" s="4" t="s">
         <v>12</v>
@@ -8628,10 +8650,10 @@
         <v>12</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G205" s="4" t="s">
         <v>12</v>
@@ -8694,10 +8716,10 @@
         <v>6</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G207" s="4" t="s">
         <v>12</v>
@@ -8728,10 +8750,10 @@
         <v>12</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G208" s="4" t="s">
         <v>12</v>
@@ -8794,7 +8816,7 @@
         <v>30</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F210" s="4" t="s">
         <v>176</v>
@@ -8828,10 +8850,10 @@
         <v>6</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G211" s="4" t="s">
         <v>12</v>
@@ -8862,10 +8884,10 @@
         <v>12</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G212" s="4" t="s">
         <v>12</v>
@@ -8946,7 +8968,7 @@
         <v>7</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E216" s="4"/>
       <c r="F216" s="4"/>
@@ -8980,7 +9002,7 @@
         <v>12</v>
       </c>
       <c r="H217" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I217" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B217&amp;", "&amp;C217&amp;", "&amp;D217&amp;", "&amp;CHAR(34)&amp;E217&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F217&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G217&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H217&amp;CHAR(34)&amp;"));"</f>
@@ -9105,7 +9127,7 @@
         <v>30</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F221" s="4" t="s">
         <v>172</v>
@@ -9139,16 +9161,16 @@
         <v>12</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G222" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H222" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I222" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B222&amp;", "&amp;C222&amp;", "&amp;D222&amp;", "&amp;CHAR(34)&amp;E222&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F222&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G222&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H222&amp;CHAR(34)&amp;"));"</f>
@@ -9173,16 +9195,16 @@
         <v>10</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F223" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="G223" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H223" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="G223" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H223" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="I223" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B223&amp;", "&amp;C223&amp;", "&amp;D223&amp;", "&amp;CHAR(34)&amp;E223&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F223&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G223&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H223&amp;CHAR(34)&amp;"));"</f>
@@ -9207,7 +9229,7 @@
         <v>30</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F224" s="4" t="s">
         <v>176</v>
@@ -9241,16 +9263,16 @@
         <v>12</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G225" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H225" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I225" s="9" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B225&amp;", "&amp;C225&amp;", "&amp;D225&amp;", "&amp;CHAR(34)&amp;E225&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F225&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G225&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H225&amp;CHAR(34)&amp;"));"</f>
@@ -9275,16 +9297,16 @@
         <v>10</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G226" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H226" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I226" s="9" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B226&amp;", "&amp;C226&amp;", "&amp;D226&amp;", "&amp;CHAR(34)&amp;E226&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F226&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G226&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H226&amp;CHAR(34)&amp;"));"</f>
@@ -9308,7 +9330,7 @@
         <v>53</v>
       </c>
       <c r="H227" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="J227" s="4"/>
       <c r="K227" s="4"/>
@@ -9318,7 +9340,7 @@
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="4"/>
       <c r="D228" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
@@ -9346,7 +9368,7 @@
         <v>7</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E230" s="4"/>
       <c r="F230" s="4"/>
@@ -9380,7 +9402,7 @@
         <v>12</v>
       </c>
       <c r="H231" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="I231" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B231&amp;", "&amp;C231&amp;", "&amp;D231&amp;", "&amp;CHAR(34)&amp;E231&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F231&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G231&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H231&amp;CHAR(34)&amp;"));"</f>
@@ -9511,10 +9533,10 @@
         <v>35</v>
       </c>
       <c r="G235" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H235" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I235" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B235&amp;", "&amp;C235&amp;", "&amp;D235&amp;", "&amp;CHAR(34)&amp;E235&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F235&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G235&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H235&amp;CHAR(34)&amp;"));"</f>
@@ -9545,10 +9567,10 @@
         <v>39</v>
       </c>
       <c r="G236" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H236" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I236" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B236&amp;", "&amp;C236&amp;", "&amp;D236&amp;", "&amp;CHAR(34)&amp;E236&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F236&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G236&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H236&amp;CHAR(34)&amp;"));"</f>
@@ -9580,7 +9602,7 @@
         <v>53</v>
       </c>
       <c r="H237" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="I237" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B237&amp;", "&amp;C237&amp;", "&amp;D237&amp;", "&amp;CHAR(34)&amp;E237&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F237&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G237&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H237&amp;CHAR(34)&amp;"));"</f>
@@ -9604,7 +9626,7 @@
         <v>736</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F238" s="4" t="s">
         <v>165</v>
@@ -9613,7 +9635,7 @@
         <v>166</v>
       </c>
       <c r="H238" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I238" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B238&amp;", "&amp;C238&amp;", "&amp;D238&amp;", "&amp;CHAR(34)&amp;E238&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F238&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G238&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H238&amp;CHAR(34)&amp;"));"</f>
@@ -9656,10 +9678,10 @@
         <v>7</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
@@ -9693,7 +9715,7 @@
         <v>12</v>
       </c>
       <c r="H242" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I242" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B242&amp;", "&amp;C242&amp;", "&amp;D242&amp;", "&amp;CHAR(34)&amp;E242&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F242&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G242&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H242&amp;CHAR(34)&amp;"));"</f>
@@ -9786,10 +9808,10 @@
         <v>8</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G245" s="4" t="s">
         <v>53</v>
@@ -9820,7 +9842,7 @@
         <v>10</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F246" s="4" t="s">
         <v>29</v>
@@ -9829,7 +9851,7 @@
         <v>30</v>
       </c>
       <c r="H246" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I246" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B246&amp;", "&amp;C246&amp;", "&amp;D246&amp;", "&amp;CHAR(34)&amp;E246&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F246&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G246&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H246&amp;CHAR(34)&amp;"));"</f>
@@ -9965,7 +9987,7 @@
         <v>30</v>
       </c>
       <c r="H250" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I250" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B250&amp;", "&amp;C250&amp;", "&amp;D250&amp;", "&amp;CHAR(34)&amp;E250&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F250&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G250&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H250&amp;CHAR(34)&amp;"));"</f>
@@ -9990,7 +10012,7 @@
         <v>9</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F251" s="4" t="s">
         <v>44</v>
@@ -9999,7 +10021,7 @@
         <v>12</v>
       </c>
       <c r="H251" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I251" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B251&amp;", "&amp;C251&amp;", "&amp;D251&amp;", "&amp;CHAR(34)&amp;E251&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F251&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G251&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H251&amp;CHAR(34)&amp;"));"</f>
@@ -10033,7 +10055,7 @@
         <v>12</v>
       </c>
       <c r="H252" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I252" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B252&amp;", "&amp;C252&amp;", "&amp;D252&amp;", "&amp;CHAR(34)&amp;E252&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F252&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G252&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H252&amp;CHAR(34)&amp;"));"</f>
@@ -10067,7 +10089,7 @@
         <v>12</v>
       </c>
       <c r="H253" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="I253" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B253&amp;", "&amp;C253&amp;", "&amp;D253&amp;", "&amp;CHAR(34)&amp;E253&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F253&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G253&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H253&amp;CHAR(34)&amp;"));"</f>
@@ -10092,16 +10114,16 @@
         <v>1</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F254" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G254" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H254" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I254" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B254&amp;", "&amp;C254&amp;", "&amp;D254&amp;", "&amp;CHAR(34)&amp;E254&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F254&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G254&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H254&amp;CHAR(34)&amp;"));"</f>
@@ -10126,16 +10148,16 @@
         <v>1</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F255" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G255" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H255" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I255" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B255&amp;", "&amp;C255&amp;", "&amp;D255&amp;", "&amp;CHAR(34)&amp;E255&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F255&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G255&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H255&amp;CHAR(34)&amp;"));"</f>
@@ -10160,16 +10182,16 @@
         <v>1</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F256" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G256" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H256" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="I256" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B256&amp;", "&amp;C256&amp;", "&amp;D256&amp;", "&amp;CHAR(34)&amp;E256&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F256&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G256&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H256&amp;CHAR(34)&amp;"));"</f>
@@ -10194,16 +10216,16 @@
         <v>1</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F257" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G257" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H257" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I257" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B257&amp;", "&amp;C257&amp;", "&amp;D257&amp;", "&amp;CHAR(34)&amp;E257&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F257&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G257&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H257&amp;CHAR(34)&amp;"));"</f>
@@ -10228,16 +10250,16 @@
         <v>1</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F258" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G258" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H258" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I258" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B258&amp;", "&amp;C258&amp;", "&amp;D258&amp;", "&amp;CHAR(34)&amp;E258&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F258&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G258&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H258&amp;CHAR(34)&amp;"));"</f>
@@ -10271,7 +10293,7 @@
         <v>33</v>
       </c>
       <c r="H259" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I259" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B259&amp;", "&amp;C259&amp;", "&amp;D259&amp;", "&amp;CHAR(34)&amp;E259&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F259&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G259&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H259&amp;CHAR(34)&amp;"));"</f>
@@ -10416,10 +10438,10 @@
         <v>7</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E265" s="4"/>
       <c r="F265" s="4"/>
@@ -10453,7 +10475,7 @@
         <v>12</v>
       </c>
       <c r="H266" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I266" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B266&amp;", "&amp;C266&amp;", "&amp;D266&amp;", "&amp;CHAR(34)&amp;E266&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F266&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G266&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H266&amp;CHAR(34)&amp;"));"</f>
@@ -10487,7 +10509,7 @@
         <v>12</v>
       </c>
       <c r="H267" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I267" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B267&amp;", "&amp;C267&amp;", "&amp;D267&amp;", "&amp;CHAR(34)&amp;E267&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F267&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G267&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H267&amp;CHAR(34)&amp;"));"</f>
@@ -10546,10 +10568,10 @@
         <v>8</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F269" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G269" s="4" t="s">
         <v>12</v>
@@ -10578,7 +10600,7 @@
         <v>10</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F270" s="4" t="s">
         <v>29</v>
@@ -10587,7 +10609,7 @@
         <v>30</v>
       </c>
       <c r="H270" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I270" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B270&amp;", "&amp;C270&amp;", "&amp;D270&amp;", "&amp;CHAR(34)&amp;E270&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F270&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G270&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H270&amp;CHAR(34)&amp;"));"</f>
@@ -10621,7 +10643,7 @@
         <v>33</v>
       </c>
       <c r="H271" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I271" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B271&amp;", "&amp;C271&amp;", "&amp;D271&amp;", "&amp;CHAR(34)&amp;E271&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F271&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G271&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H271&amp;CHAR(34)&amp;"));"</f>
@@ -10723,7 +10745,7 @@
         <v>30</v>
       </c>
       <c r="H274" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I274" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B274&amp;", "&amp;C274&amp;", "&amp;D274&amp;", "&amp;CHAR(34)&amp;E274&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F274&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G274&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H274&amp;CHAR(34)&amp;"));"</f>
@@ -10748,7 +10770,7 @@
         <v>9</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F275" s="4" t="s">
         <v>44</v>
@@ -10757,7 +10779,7 @@
         <v>12</v>
       </c>
       <c r="H275" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I275" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B275&amp;", "&amp;C275&amp;", "&amp;D275&amp;", "&amp;CHAR(34)&amp;E275&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F275&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G275&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H275&amp;CHAR(34)&amp;"));"</f>
@@ -10791,7 +10813,7 @@
         <v>12</v>
       </c>
       <c r="H276" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I276" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B276&amp;", "&amp;C276&amp;", "&amp;D276&amp;", "&amp;CHAR(34)&amp;E276&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F276&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G276&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H276&amp;CHAR(34)&amp;"));"</f>
@@ -10825,7 +10847,7 @@
         <v>12</v>
       </c>
       <c r="H277" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="I277" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B277&amp;", "&amp;C277&amp;", "&amp;D277&amp;", "&amp;CHAR(34)&amp;E277&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F277&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G277&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H277&amp;CHAR(34)&amp;"));"</f>
@@ -10856,7 +10878,7 @@
         <v>111</v>
       </c>
       <c r="G278" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H278" s="4" t="s">
         <v>133</v>
@@ -10884,7 +10906,7 @@
         <v>8</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F279" s="4" t="s">
         <v>114</v>
@@ -10893,7 +10915,7 @@
         <v>12</v>
       </c>
       <c r="H279" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="I279" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B279&amp;", "&amp;C279&amp;", "&amp;D279&amp;", "&amp;CHAR(34)&amp;E279&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F279&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G279&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H279&amp;CHAR(34)&amp;"));"</f>
@@ -10994,7 +11016,7 @@
         <v>33</v>
       </c>
       <c r="H282" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I282" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B282&amp;", "&amp;C282&amp;", "&amp;D282&amp;", "&amp;CHAR(34)&amp;E282&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F282&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G282&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H282&amp;CHAR(34)&amp;"));"</f>
@@ -11053,7 +11075,7 @@
         <v>1</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F284" s="4" t="s">
         <v>209</v>
@@ -11062,7 +11084,7 @@
         <v>12</v>
       </c>
       <c r="H284" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I284" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B284&amp;", "&amp;C284&amp;", "&amp;D284&amp;", "&amp;CHAR(34)&amp;E284&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F284&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G284&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H284&amp;CHAR(34)&amp;"));"</f>
@@ -11094,7 +11116,7 @@
         <v>53</v>
       </c>
       <c r="H285" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I285" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B285&amp;", "&amp;C285&amp;", "&amp;D285&amp;", "&amp;CHAR(34)&amp;E285&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F285&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G285&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H285&amp;CHAR(34)&amp;"));"</f>
@@ -11137,7 +11159,7 @@
         <v>7</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E288" s="4"/>
       <c r="F288" s="4"/>
@@ -11171,7 +11193,7 @@
         <v>12</v>
       </c>
       <c r="H289" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I289" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B289&amp;", "&amp;C289&amp;", "&amp;D289&amp;", "&amp;CHAR(34)&amp;E289&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F289&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G289&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H289&amp;CHAR(34)&amp;"));"</f>
@@ -11205,7 +11227,7 @@
         <v>12</v>
       </c>
       <c r="H290" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I290" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B290&amp;", "&amp;C290&amp;", "&amp;D290&amp;", "&amp;CHAR(34)&amp;E290&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F290&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G290&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H290&amp;CHAR(34)&amp;"));"</f>
@@ -11296,16 +11318,16 @@
         <v>12</v>
       </c>
       <c r="E293" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F293" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G293" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H293" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="I293" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B293&amp;", "&amp;C293&amp;", "&amp;D293&amp;", "&amp;CHAR(34)&amp;E293&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F293&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G293&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H293&amp;CHAR(34)&amp;"));"</f>
@@ -11330,16 +11352,16 @@
         <v>4</v>
       </c>
       <c r="E294" s="4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F294" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G294" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H294" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="I294" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B294&amp;", "&amp;C294&amp;", "&amp;D294&amp;", "&amp;CHAR(34)&amp;E294&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F294&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G294&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H294&amp;CHAR(34)&amp;"));"</f>
@@ -11364,16 +11386,16 @@
         <v>3</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F295" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G295" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H295" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I295" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B295&amp;", "&amp;C295&amp;", "&amp;D295&amp;", "&amp;CHAR(34)&amp;E295&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F295&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G295&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H295&amp;CHAR(34)&amp;"));"</f>
@@ -11398,16 +11420,16 @@
         <v>11</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F296" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G296" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H296" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="I296" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B296&amp;", "&amp;C296&amp;", "&amp;D296&amp;", "&amp;CHAR(34)&amp;E296&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F296&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G296&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H296&amp;CHAR(34)&amp;"));"</f>
@@ -11432,16 +11454,16 @@
         <v>12</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F297" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G297" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H297" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="I297" s="9" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B297&amp;", "&amp;C297&amp;", "&amp;D297&amp;", "&amp;CHAR(34)&amp;E297&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F297&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G297&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H297&amp;CHAR(34)&amp;"));"</f>
@@ -11466,16 +11488,16 @@
         <v>4</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F298" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G298" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H298" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="I298" s="9" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B298&amp;", "&amp;C298&amp;", "&amp;D298&amp;", "&amp;CHAR(34)&amp;E298&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F298&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G298&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H298&amp;CHAR(34)&amp;"));"</f>
@@ -11500,16 +11522,16 @@
         <v>3</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F299" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G299" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H299" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I299" s="9" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B299&amp;", "&amp;C299&amp;", "&amp;D299&amp;", "&amp;CHAR(34)&amp;E299&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F299&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G299&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H299&amp;CHAR(34)&amp;"));"</f>
@@ -11534,16 +11556,16 @@
         <v>11</v>
       </c>
       <c r="E300" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F300" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G300" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H300" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="I300" s="9" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B300&amp;", "&amp;C300&amp;", "&amp;D300&amp;", "&amp;CHAR(34)&amp;E300&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F300&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G300&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H300&amp;CHAR(34)&amp;"));"</f>
@@ -11568,16 +11590,16 @@
         <v>12</v>
       </c>
       <c r="E301" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F301" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G301" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H301" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="I301" s="9" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B301&amp;", "&amp;C301&amp;", "&amp;D301&amp;", "&amp;CHAR(34)&amp;E301&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F301&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G301&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H301&amp;CHAR(34)&amp;"));"</f>
@@ -11602,16 +11624,16 @@
         <v>4</v>
       </c>
       <c r="E302" s="4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F302" s="4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G302" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H302" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="I302" s="9" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B302&amp;", "&amp;C302&amp;", "&amp;D302&amp;", "&amp;CHAR(34)&amp;E302&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F302&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G302&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H302&amp;CHAR(34)&amp;"));"</f>
@@ -11636,16 +11658,16 @@
         <v>3</v>
       </c>
       <c r="E303" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F303" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G303" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H303" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I303" s="9" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B303&amp;", "&amp;C303&amp;", "&amp;D303&amp;", "&amp;CHAR(34)&amp;E303&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F303&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G303&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H303&amp;CHAR(34)&amp;"));"</f>
@@ -11670,16 +11692,16 @@
         <v>11</v>
       </c>
       <c r="E304" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F304" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G304" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H304" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="I304" s="9" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B304&amp;", "&amp;C304&amp;", "&amp;D304&amp;", "&amp;CHAR(34)&amp;E304&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F304&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G304&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H304&amp;CHAR(34)&amp;"));"</f>
@@ -11704,16 +11726,16 @@
         <v>12</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F305" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G305" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H305" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="I305" s="9" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B305&amp;", "&amp;C305&amp;", "&amp;D305&amp;", "&amp;CHAR(34)&amp;E305&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F305&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G305&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H305&amp;CHAR(34)&amp;"));"</f>
@@ -11738,16 +11760,16 @@
         <v>4</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F306" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G306" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H306" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="I306" s="9" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B306&amp;", "&amp;C306&amp;", "&amp;D306&amp;", "&amp;CHAR(34)&amp;E306&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F306&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G306&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H306&amp;CHAR(34)&amp;"));"</f>
@@ -11772,16 +11794,16 @@
         <v>3</v>
       </c>
       <c r="E307" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F307" s="4" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G307" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H307" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I307" s="9" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B307&amp;", "&amp;C307&amp;", "&amp;D307&amp;", "&amp;CHAR(34)&amp;E307&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F307&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G307&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H307&amp;CHAR(34)&amp;"));"</f>
@@ -11806,16 +11828,16 @@
         <v>11</v>
       </c>
       <c r="E308" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F308" s="4" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G308" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H308" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="I308" s="9" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B308&amp;", "&amp;C308&amp;", "&amp;D308&amp;", "&amp;CHAR(34)&amp;E308&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F308&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G308&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H308&amp;CHAR(34)&amp;"));"</f>
@@ -11839,7 +11861,7 @@
         <v>53</v>
       </c>
       <c r="H309" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I309" s="9"/>
       <c r="J309" s="4"/>
@@ -11850,7 +11872,7 @@
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="4"/>
       <c r="D310" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E310" s="4"/>
       <c r="F310" s="4"/>
@@ -11878,10 +11900,10 @@
         <v>7</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E312" s="4"/>
       <c r="F312" s="4"/>
@@ -11915,7 +11937,7 @@
         <v>12</v>
       </c>
       <c r="H313" s="4" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="I313" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B313&amp;", "&amp;C313&amp;", "&amp;D313&amp;", "&amp;CHAR(34)&amp;E313&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F313&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G313&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H313&amp;CHAR(34)&amp;"));"</f>
@@ -11949,7 +11971,7 @@
         <v>12</v>
       </c>
       <c r="H314" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I314" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B314&amp;", "&amp;C314&amp;", "&amp;D314&amp;", "&amp;CHAR(34)&amp;E314&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F314&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G314&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H314&amp;CHAR(34)&amp;"));"</f>
@@ -12008,16 +12030,16 @@
         <v>5</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F316" s="4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G316" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H316" s="4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="I316" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B316&amp;", "&amp;C316&amp;", "&amp;D316&amp;", "&amp;CHAR(34)&amp;E316&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F316&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G316&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H316&amp;CHAR(34)&amp;"));"</f>
@@ -12045,13 +12067,13 @@
         <v>3</v>
       </c>
       <c r="F317" s="4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G317" s="4" t="s">
         <v>108</v>
       </c>
       <c r="H317" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="I317" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B317&amp;", "&amp;C317&amp;", "&amp;D317&amp;", "&amp;CHAR(34)&amp;E317&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F317&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G317&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H317&amp;CHAR(34)&amp;"));"</f>
@@ -12085,7 +12107,7 @@
         <v>33</v>
       </c>
       <c r="H318" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I318" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B318&amp;", "&amp;C318&amp;", "&amp;D318&amp;", "&amp;CHAR(34)&amp;E318&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F318&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G318&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H318&amp;CHAR(34)&amp;"));"</f>
@@ -12221,7 +12243,7 @@
         <v>22</v>
       </c>
       <c r="H322" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="I322" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B322&amp;", "&amp;C322&amp;", "&amp;D322&amp;", "&amp;CHAR(34)&amp;E322&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F322&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G322&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H322&amp;CHAR(34)&amp;"));"</f>
@@ -12246,7 +12268,7 @@
         <v>6</v>
       </c>
       <c r="E323" s="4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F323" s="4" t="s">
         <v>47</v>
@@ -12255,7 +12277,7 @@
         <v>12</v>
       </c>
       <c r="H323" s="4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="I323" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B323&amp;", "&amp;C323&amp;", "&amp;D323&amp;", "&amp;CHAR(34)&amp;E323&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F323&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G323&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H323&amp;CHAR(34)&amp;"));"</f>
@@ -12280,16 +12302,16 @@
         <v>1</v>
       </c>
       <c r="E324" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F324" s="4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G324" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H324" s="4" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="I324" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B324&amp;", "&amp;C324&amp;", "&amp;D324&amp;", "&amp;CHAR(34)&amp;E324&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F324&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G324&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H324&amp;CHAR(34)&amp;"));"</f>
@@ -12323,7 +12345,7 @@
         <v>12</v>
       </c>
       <c r="H325" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="I325" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B325&amp;", "&amp;C325&amp;", "&amp;D325&amp;", "&amp;CHAR(34)&amp;E325&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F325&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G325&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H325&amp;CHAR(34)&amp;"));"</f>
@@ -12357,7 +12379,7 @@
         <v>33</v>
       </c>
       <c r="H326" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I326" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B326&amp;", "&amp;C326&amp;", "&amp;D326&amp;", "&amp;CHAR(34)&amp;E326&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F326&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G326&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H326&amp;CHAR(34)&amp;"));"</f>
@@ -12382,16 +12404,16 @@
         <v>1</v>
       </c>
       <c r="E327" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F327" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G327" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H327" s="4" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="I327" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B327&amp;", "&amp;C327&amp;", "&amp;D327&amp;", "&amp;CHAR(34)&amp;E327&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F327&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G327&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H327&amp;CHAR(34)&amp;"));"</f>
@@ -12425,7 +12447,7 @@
         <v>33</v>
       </c>
       <c r="H328" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I328" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B328&amp;", "&amp;C328&amp;", "&amp;D328&amp;", "&amp;CHAR(34)&amp;E328&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F328&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G328&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H328&amp;CHAR(34)&amp;"));"</f>
@@ -12482,14 +12504,14 @@
         <v>88</v>
       </c>
       <c r="E330" s="4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F330" s="4"/>
       <c r="G330" s="4" t="s">
         <v>108</v>
       </c>
       <c r="H330" s="4" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="I330" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B330&amp;", "&amp;C330&amp;", "&amp;D330&amp;", "&amp;CHAR(34)&amp;E330&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F330&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G330&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H330&amp;CHAR(34)&amp;"));"</f>
@@ -12513,7 +12535,7 @@
         <v>53</v>
       </c>
       <c r="H331" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="J331" s="4"/>
       <c r="K331" s="4"/>
@@ -12552,7 +12574,7 @@
         <v>7</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E334" s="4"/>
       <c r="F334" s="4"/>
@@ -12586,7 +12608,7 @@
         <v>12</v>
       </c>
       <c r="H335" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I335" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B335&amp;", "&amp;C335&amp;", "&amp;D335&amp;", "&amp;CHAR(34)&amp;E335&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F335&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G335&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H335&amp;CHAR(34)&amp;"));"</f>
@@ -12711,16 +12733,16 @@
         <v>12</v>
       </c>
       <c r="E339" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F339" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G339" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H339" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="I339" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B339&amp;", "&amp;C339&amp;", "&amp;D339&amp;", "&amp;CHAR(34)&amp;E339&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F339&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G339&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H339&amp;CHAR(34)&amp;"));"</f>
@@ -12745,16 +12767,16 @@
         <v>12</v>
       </c>
       <c r="E340" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F340" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="G340" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H340" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="G340" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H340" s="4" t="s">
-        <v>357</v>
       </c>
       <c r="I340" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B340&amp;", "&amp;C340&amp;", "&amp;D340&amp;", "&amp;CHAR(34)&amp;E340&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F340&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G340&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H340&amp;CHAR(34)&amp;"));"</f>
@@ -12779,16 +12801,16 @@
         <v>4</v>
       </c>
       <c r="E341" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F341" s="4" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G341" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H341" s="4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="I341" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B341&amp;", "&amp;C341&amp;", "&amp;D341&amp;", "&amp;CHAR(34)&amp;E341&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F341&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G341&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H341&amp;CHAR(34)&amp;"));"</f>
@@ -12813,16 +12835,16 @@
         <v>1</v>
       </c>
       <c r="E342" s="4" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F342" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G342" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H342" s="4" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="I342" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B342&amp;", "&amp;C342&amp;", "&amp;D342&amp;", "&amp;CHAR(34)&amp;E342&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F342&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G342&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H342&amp;CHAR(34)&amp;"));"</f>
@@ -12847,16 +12869,16 @@
         <v>18</v>
       </c>
       <c r="E343" s="4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F343" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G343" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H343" s="4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I343" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B343&amp;", "&amp;C343&amp;", "&amp;D343&amp;", "&amp;CHAR(34)&amp;E343&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F343&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G343&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H343&amp;CHAR(34)&amp;"));"</f>
@@ -12881,16 +12903,16 @@
         <v>17</v>
       </c>
       <c r="E344" s="4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F344" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G344" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H344" s="4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="I344" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B344&amp;", "&amp;C344&amp;", "&amp;D344&amp;", "&amp;CHAR(34)&amp;E344&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F344&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G344&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H344&amp;CHAR(34)&amp;"));"</f>
@@ -12915,16 +12937,16 @@
         <v>18</v>
       </c>
       <c r="E345" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F345" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G345" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H345" s="4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="I345" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B345&amp;", "&amp;C345&amp;", "&amp;D345&amp;", "&amp;CHAR(34)&amp;E345&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F345&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G345&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H345&amp;CHAR(34)&amp;"));"</f>
@@ -12949,16 +12971,16 @@
         <v>17</v>
       </c>
       <c r="E346" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F346" s="4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G346" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H346" s="4" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="I346" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B346&amp;", "&amp;C346&amp;", "&amp;D346&amp;", "&amp;CHAR(34)&amp;E346&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F346&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G346&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H346&amp;CHAR(34)&amp;"));"</f>
@@ -12983,16 +13005,16 @@
         <v>1</v>
       </c>
       <c r="E347" s="4" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F347" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G347" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H347" s="4" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="I347" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B347&amp;", "&amp;C347&amp;", "&amp;D347&amp;", "&amp;CHAR(34)&amp;E347&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F347&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G347&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H347&amp;CHAR(34)&amp;"));"</f>
@@ -13017,16 +13039,16 @@
         <v>1</v>
       </c>
       <c r="E348" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F348" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G348" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H348" s="4" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="I348" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B348&amp;", "&amp;C348&amp;", "&amp;D348&amp;", "&amp;CHAR(34)&amp;E348&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F348&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G348&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H348&amp;CHAR(34)&amp;"));"</f>
@@ -13051,16 +13073,16 @@
         <v>1</v>
       </c>
       <c r="E349" s="4" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F349" s="4" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G349" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H349" s="4" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="I349" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B349&amp;", "&amp;C349&amp;", "&amp;D349&amp;", "&amp;CHAR(34)&amp;E349&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F349&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G349&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H349&amp;CHAR(34)&amp;"));"</f>
@@ -13085,16 +13107,16 @@
         <v>3</v>
       </c>
       <c r="E350" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F350" s="4" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G350" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H350" s="4" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="I350" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B350&amp;", "&amp;C350&amp;", "&amp;D350&amp;", "&amp;CHAR(34)&amp;E350&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F350&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G350&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H350&amp;CHAR(34)&amp;"));"</f>
@@ -13126,7 +13148,7 @@
         <v>53</v>
       </c>
       <c r="H351" s="4" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="I351" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B351&amp;", "&amp;C351&amp;", "&amp;D351&amp;", "&amp;CHAR(34)&amp;E351&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F351&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G351&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H351&amp;CHAR(34)&amp;"));"</f>
@@ -13169,7 +13191,7 @@
         <v>7</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E354" s="4"/>
       <c r="F354" s="4"/>
@@ -13203,7 +13225,7 @@
         <v>12</v>
       </c>
       <c r="H355" s="4" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="I355" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B355&amp;", "&amp;C355&amp;", "&amp;D355&amp;", "&amp;CHAR(34)&amp;E355&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F355&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G355&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H355&amp;CHAR(34)&amp;"));"</f>
@@ -13271,7 +13293,7 @@
         <v>12</v>
       </c>
       <c r="H357" s="4" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I357" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B357&amp;", "&amp;C357&amp;", "&amp;D357&amp;", "&amp;CHAR(34)&amp;E357&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F357&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G357&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H357&amp;CHAR(34)&amp;"));"</f>
@@ -13328,16 +13350,16 @@
         <v>18</v>
       </c>
       <c r="E359" s="4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F359" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G359" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H359" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="I359" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B359&amp;", "&amp;C359&amp;", "&amp;D359&amp;", "&amp;CHAR(34)&amp;E359&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F359&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G359&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H359&amp;CHAR(34)&amp;"));"</f>
@@ -13362,16 +13384,16 @@
         <v>17</v>
       </c>
       <c r="E360" s="4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F360" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G360" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H360" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="I360" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B360&amp;", "&amp;C360&amp;", "&amp;D360&amp;", "&amp;CHAR(34)&amp;E360&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F360&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G360&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H360&amp;CHAR(34)&amp;"));"</f>
@@ -13396,16 +13418,16 @@
         <v>18</v>
       </c>
       <c r="E361" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F361" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G361" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H361" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="I361" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B361&amp;", "&amp;C361&amp;", "&amp;D361&amp;", "&amp;CHAR(34)&amp;E361&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F361&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G361&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H361&amp;CHAR(34)&amp;"));"</f>
@@ -13430,16 +13452,16 @@
         <v>17</v>
       </c>
       <c r="E362" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F362" s="4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G362" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H362" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="I362" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B362&amp;", "&amp;C362&amp;", "&amp;D362&amp;", "&amp;CHAR(34)&amp;E362&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F362&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G362&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H362&amp;CHAR(34)&amp;"));"</f>
@@ -13464,16 +13486,16 @@
         <v>4</v>
       </c>
       <c r="E363" s="4" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F363" s="4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G363" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H363" s="4" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="I363" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B363&amp;", "&amp;C363&amp;", "&amp;D363&amp;", "&amp;CHAR(34)&amp;E363&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F363&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G363&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H363&amp;CHAR(34)&amp;"));"</f>
@@ -13501,13 +13523,13 @@
         <v>113</v>
       </c>
       <c r="F364" s="4" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G364" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H364" s="4" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="I364" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B364&amp;", "&amp;C364&amp;", "&amp;D364&amp;", "&amp;CHAR(34)&amp;E364&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F364&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G364&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H364&amp;CHAR(34)&amp;"));"</f>
@@ -13564,16 +13586,16 @@
         <v>2</v>
       </c>
       <c r="E366" s="4" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F366" s="4" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G366" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H366" s="4" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="I366" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B366&amp;", "&amp;C366&amp;", "&amp;D366&amp;", "&amp;CHAR(34)&amp;E366&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F366&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G366&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H366&amp;CHAR(34)&amp;"));"</f>
@@ -13598,16 +13620,16 @@
         <v>4</v>
       </c>
       <c r="E367" s="4" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F367" s="4" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G367" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H367" s="4" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="I367" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B367&amp;", "&amp;C367&amp;", "&amp;D367&amp;", "&amp;CHAR(34)&amp;E367&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F367&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G367&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H367&amp;CHAR(34)&amp;"));"</f>
@@ -13632,16 +13654,16 @@
         <v>4</v>
       </c>
       <c r="E368" s="4" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F368" s="4" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G368" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H368" s="4" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="I368" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B368&amp;", "&amp;C368&amp;", "&amp;D368&amp;", "&amp;CHAR(34)&amp;E368&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F368&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G368&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H368&amp;CHAR(34)&amp;"));"</f>
@@ -13716,10 +13738,10 @@
         <v>7</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E372" s="4"/>
       <c r="F372" s="4"/>
@@ -13753,7 +13775,7 @@
         <v>12</v>
       </c>
       <c r="H373" s="4" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="I373" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B373&amp;", "&amp;C373&amp;", "&amp;D373&amp;", "&amp;CHAR(34)&amp;E373&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F373&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G373&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H373&amp;CHAR(34)&amp;"));"</f>
@@ -13787,7 +13809,7 @@
         <v>12</v>
       </c>
       <c r="H374" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I374" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B374&amp;", "&amp;C374&amp;", "&amp;D374&amp;", "&amp;CHAR(34)&amp;E374&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F374&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G374&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H374&amp;CHAR(34)&amp;"));"</f>
@@ -13846,16 +13868,16 @@
         <v>2</v>
       </c>
       <c r="E376" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F376" s="4" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G376" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H376" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I376" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B376&amp;", "&amp;C376&amp;", "&amp;D376&amp;", "&amp;CHAR(34)&amp;E376&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F376&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G376&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H376&amp;CHAR(34)&amp;"));"</f>
@@ -13889,9 +13911,9 @@
         <v>108</v>
       </c>
       <c r="H377" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="I377" s="13" t="str">
+        <v>415</v>
+      </c>
+      <c r="I377" s="14" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B377&amp;", "&amp;C377&amp;", "&amp;D377&amp;", "&amp;CHAR(34)&amp;E377&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F377&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G377&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H377&amp;CHAR(34)&amp;"));"</f>
         <v>messageBlocks.add(new PayloadBlock(40, 159, 120, "Vessel Name", "shipname", "t", "(Part A) 20 sixbit chars"));</v>
       </c>
@@ -13923,7 +13945,7 @@
         <v>22</v>
       </c>
       <c r="H378" s="4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="I378" s="9" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B378&amp;", "&amp;C378&amp;", "&amp;D378&amp;", "&amp;CHAR(34)&amp;E378&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F378&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G378&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H378&amp;CHAR(34)&amp;"));"</f>
@@ -13948,16 +13970,16 @@
         <v>18</v>
       </c>
       <c r="E379" s="4" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F379" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G379" s="4" t="s">
         <v>108</v>
       </c>
       <c r="H379" s="4" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="I379" s="9" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B379&amp;", "&amp;C379&amp;", "&amp;D379&amp;", "&amp;CHAR(34)&amp;E379&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F379&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G379&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H379&amp;CHAR(34)&amp;"));"</f>
@@ -13982,16 +14004,16 @@
         <v>4</v>
       </c>
       <c r="E380" s="4" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F380" s="4" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G380" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H380" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I380" s="9" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B380&amp;", "&amp;C380&amp;", "&amp;D380&amp;", "&amp;CHAR(34)&amp;E380&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F380&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G380&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H380&amp;CHAR(34)&amp;"));"</f>
@@ -14016,16 +14038,16 @@
         <v>20</v>
       </c>
       <c r="E381" s="4" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F381" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="G381" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H381" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="G381" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H381" s="4" t="s">
-        <v>420</v>
       </c>
       <c r="I381" s="9" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B381&amp;", "&amp;C381&amp;", "&amp;D381&amp;", "&amp;CHAR(34)&amp;E381&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F381&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G381&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H381&amp;CHAR(34)&amp;"));"</f>
@@ -14059,7 +14081,7 @@
         <v>108</v>
       </c>
       <c r="H382" s="4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="I382" s="9" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B382&amp;", "&amp;C382&amp;", "&amp;D382&amp;", "&amp;CHAR(34)&amp;E382&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F382&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G382&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H382&amp;CHAR(34)&amp;"));"</f>
@@ -14127,7 +14149,7 @@
         <v>12</v>
       </c>
       <c r="H384" s="4" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="I384" s="9" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B384&amp;", "&amp;C384&amp;", "&amp;D384&amp;", "&amp;CHAR(34)&amp;E384&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F384&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G384&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H384&amp;CHAR(34)&amp;"));"</f>
@@ -14159,7 +14181,7 @@
         <v>53</v>
       </c>
       <c r="H385" s="4" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="I385" s="9" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B385&amp;", "&amp;C385&amp;", "&amp;D385&amp;", "&amp;CHAR(34)&amp;E385&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F385&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G385&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H385&amp;CHAR(34)&amp;"));"</f>
@@ -14173,7 +14195,7 @@
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="4"/>
       <c r="D386" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E386" s="4"/>
       <c r="F386" s="4"/>
@@ -14201,7 +14223,7 @@
         <v>7</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E388" s="4"/>
       <c r="F388" s="4"/>
@@ -14235,7 +14257,7 @@
         <v>12</v>
       </c>
       <c r="H389" s="4" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="I389" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B389&amp;", "&amp;C389&amp;", "&amp;D389&amp;", "&amp;CHAR(34)&amp;E389&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F389&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G389&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H389&amp;CHAR(34)&amp;"));"</f>
@@ -14269,7 +14291,7 @@
         <v>12</v>
       </c>
       <c r="H390" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I390" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B390&amp;", "&amp;C390&amp;", "&amp;D390&amp;", "&amp;CHAR(34)&amp;E390&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F390&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G390&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H390&amp;CHAR(34)&amp;"));"</f>
@@ -14328,16 +14350,16 @@
         <v>1</v>
       </c>
       <c r="E392" s="4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F392" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G392" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H392" s="4" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="I392" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B392&amp;", "&amp;C392&amp;", "&amp;D392&amp;", "&amp;CHAR(34)&amp;E392&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F392&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G392&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H392&amp;CHAR(34)&amp;"));"</f>
@@ -14362,10 +14384,10 @@
         <v>1</v>
       </c>
       <c r="E393" s="4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F393" s="4" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G393" s="4" t="s">
         <v>33</v>
@@ -14405,7 +14427,7 @@
         <v>12</v>
       </c>
       <c r="H394" s="4" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="I394" s="9" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B394&amp;", "&amp;C394&amp;", "&amp;D394&amp;", "&amp;CHAR(34)&amp;E394&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F394&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G394&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H394&amp;CHAR(34)&amp;"));"</f>
@@ -14437,7 +14459,7 @@
         <v>53</v>
       </c>
       <c r="H395" s="4" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="I395" s="9" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B395&amp;", "&amp;C395&amp;", "&amp;D395&amp;", "&amp;CHAR(34)&amp;E395&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F395&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G395&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H395&amp;CHAR(34)&amp;"));"</f>
@@ -14462,10 +14484,10 @@
         <v>16</v>
       </c>
       <c r="E396" s="4" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F396" s="4" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G396" s="4" t="s">
         <v>12</v>
@@ -14505,7 +14527,7 @@
         <v>166</v>
       </c>
       <c r="H397" s="4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="I397" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B397&amp;", "&amp;C397&amp;", "&amp;D397&amp;", "&amp;CHAR(34)&amp;E397&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F397&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G397&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H397&amp;CHAR(34)&amp;"));"</f>
@@ -14548,7 +14570,7 @@
         <v>7</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E400" s="4"/>
       <c r="F400" s="4"/>
@@ -14582,7 +14604,7 @@
         <v>12</v>
       </c>
       <c r="H401" s="4" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="I401" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B401&amp;", "&amp;C401&amp;", "&amp;D401&amp;", "&amp;CHAR(34)&amp;E401&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F401&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G401&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H401&amp;CHAR(34)&amp;"));"</f>
@@ -14616,7 +14638,7 @@
         <v>12</v>
       </c>
       <c r="H402" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I402" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B402&amp;", "&amp;C402&amp;", "&amp;D402&amp;", "&amp;CHAR(34)&amp;E402&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F402&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G402&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H402&amp;CHAR(34)&amp;"));"</f>
@@ -14675,16 +14697,16 @@
         <v>1</v>
       </c>
       <c r="E404" s="4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F404" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G404" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H404" s="4" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="I404" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B404&amp;", "&amp;C404&amp;", "&amp;D404&amp;", "&amp;CHAR(34)&amp;E404&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F404&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G404&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H404&amp;CHAR(34)&amp;"));"</f>
@@ -14709,10 +14731,10 @@
         <v>1</v>
       </c>
       <c r="E405" s="4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F405" s="4" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G405" s="4" t="s">
         <v>33</v>
@@ -14752,7 +14774,7 @@
         <v>12</v>
       </c>
       <c r="H406" s="4" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="I406" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B406&amp;", "&amp;C406&amp;", "&amp;D406&amp;", "&amp;CHAR(34)&amp;E406&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F406&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G406&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H406&amp;CHAR(34)&amp;"));"</f>
@@ -14784,7 +14806,7 @@
         <v>53</v>
       </c>
       <c r="H407" s="4" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="I407" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B407&amp;", "&amp;C407&amp;", "&amp;D407&amp;", "&amp;CHAR(34)&amp;E407&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F407&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G407&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H407&amp;CHAR(34)&amp;"));"</f>
@@ -14809,10 +14831,10 @@
         <v>16</v>
       </c>
       <c r="E408" s="4" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F408" s="4" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G408" s="4" t="s">
         <v>12</v>
@@ -14852,7 +14874,7 @@
         <v>166</v>
       </c>
       <c r="H409" s="4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="I409" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B409&amp;", "&amp;C409&amp;", "&amp;D409&amp;", "&amp;CHAR(34)&amp;E409&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F409&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G409&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H409&amp;CHAR(34)&amp;"));"</f>
@@ -14877,16 +14899,16 @@
         <v>224</v>
       </c>
       <c r="E410" s="4" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F410" s="4" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G410" s="4" t="s">
         <v>166</v>
       </c>
       <c r="H410" s="4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="I410" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B410&amp;", "&amp;C410&amp;", "&amp;D410&amp;", "&amp;CHAR(34)&amp;E410&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F410&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G410&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H410&amp;CHAR(34)&amp;"));"</f>
@@ -14911,16 +14933,16 @@
         <v>244</v>
       </c>
       <c r="E411" s="4" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F411" s="4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G411" s="4" t="s">
         <v>166</v>
       </c>
       <c r="H411" s="4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="I411" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B411&amp;", "&amp;C411&amp;", "&amp;D411&amp;", "&amp;CHAR(34)&amp;E411&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F411&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G411&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H411&amp;CHAR(34)&amp;"));"</f>
@@ -14945,16 +14967,16 @@
         <v>244</v>
       </c>
       <c r="E412" s="4" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F412" s="4" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G412" s="4" t="s">
         <v>166</v>
       </c>
       <c r="H412" s="4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="I412" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B412&amp;", "&amp;C412&amp;", "&amp;D412&amp;", "&amp;CHAR(34)&amp;E412&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F412&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G412&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H412&amp;CHAR(34)&amp;"));"</f>
@@ -14979,16 +15001,16 @@
         <v>244</v>
       </c>
       <c r="E413" s="4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F413" s="4" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G413" s="4" t="s">
         <v>166</v>
       </c>
       <c r="H413" s="4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="I413" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B413&amp;", "&amp;C413&amp;", "&amp;D413&amp;", "&amp;CHAR(34)&amp;E413&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F413&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G413&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H413&amp;CHAR(34)&amp;"));"</f>
@@ -15022,7 +15044,7 @@
         <v>166</v>
       </c>
       <c r="H414" s="4" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="I414" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B414&amp;", "&amp;C414&amp;", "&amp;D414&amp;", "&amp;CHAR(34)&amp;E414&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F414&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G414&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H414&amp;CHAR(34)&amp;"));"</f>
@@ -15069,7 +15091,7 @@
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="4"/>
-      <c r="D416" s="14" t="n">
+      <c r="D416" s="15" t="n">
         <f aca="false">SUM(D401:D415)</f>
         <v>1152</v>
       </c>
@@ -15099,7 +15121,7 @@
         <v>7</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E418" s="4"/>
       <c r="F418" s="4"/>
@@ -15133,7 +15155,7 @@
         <v>12</v>
       </c>
       <c r="H419" s="4" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="I419" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B419&amp;", "&amp;C419&amp;", "&amp;D419&amp;", "&amp;CHAR(34)&amp;E419&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F419&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G419&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H419&amp;CHAR(34)&amp;"));"</f>
@@ -15167,7 +15189,7 @@
         <v>12</v>
       </c>
       <c r="H420" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I420" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B420&amp;", "&amp;C420&amp;", "&amp;D420&amp;", "&amp;CHAR(34)&amp;E420&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F420&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G420&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H420&amp;CHAR(34)&amp;"));"</f>
@@ -15235,7 +15257,7 @@
         <v>12</v>
       </c>
       <c r="H422" s="4" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I422" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B422&amp;", "&amp;C422&amp;", "&amp;D422&amp;", "&amp;CHAR(34)&amp;E422&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F422&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G422&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H422&amp;CHAR(34)&amp;"));"</f>
@@ -15269,7 +15291,7 @@
         <v>12</v>
       </c>
       <c r="H423" s="4" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I423" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B423&amp;", "&amp;C423&amp;", "&amp;D423&amp;", "&amp;CHAR(34)&amp;E423&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F423&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G423&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H423&amp;CHAR(34)&amp;"));"</f>
@@ -15303,7 +15325,7 @@
         <v>12</v>
       </c>
       <c r="H424" s="4" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I424" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B424&amp;", "&amp;C424&amp;", "&amp;D424&amp;", "&amp;CHAR(34)&amp;E424&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F424&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G424&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H424&amp;CHAR(34)&amp;"));"</f>
@@ -15337,7 +15359,7 @@
         <v>36</v>
       </c>
       <c r="H425" s="4" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="I425" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B425&amp;", "&amp;C425&amp;", "&amp;D425&amp;", "&amp;CHAR(34)&amp;E425&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F425&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G425&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H425&amp;CHAR(34)&amp;"));"</f>
@@ -15371,7 +15393,7 @@
         <v>36</v>
       </c>
       <c r="H426" s="4" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="I426" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B426&amp;", "&amp;C426&amp;", "&amp;D426&amp;", "&amp;CHAR(34)&amp;E426&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F426&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G426&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H426&amp;CHAR(34)&amp;"));"</f>
@@ -15396,7 +15418,7 @@
         <v>6</v>
       </c>
       <c r="E427" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F427" s="4" t="s">
         <v>29</v>
@@ -15405,7 +15427,7 @@
         <v>12</v>
       </c>
       <c r="H427" s="4" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I427" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B427&amp;", "&amp;C427&amp;", "&amp;D427&amp;", "&amp;CHAR(34)&amp;E427&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F427&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G427&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H427&amp;CHAR(34)&amp;"));"</f>
@@ -15464,16 +15486,16 @@
         <v>1</v>
       </c>
       <c r="E429" s="4" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F429" s="4" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G429" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H429" s="4" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="I429" s="0" t="str">
         <f aca="false">"messageBlocks.add(new PayloadBlock("&amp;B429&amp;", "&amp;C429&amp;", "&amp;D429&amp;", "&amp;CHAR(34)&amp;E429&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F429&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G429&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H429&amp;CHAR(34)&amp;"));"</f>
@@ -15545,7 +15567,7 @@
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="4" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E433" s="4"/>
       <c r="F433" s="4"/>
@@ -15559,10 +15581,10 @@
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="4" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>5</v>
@@ -15582,16 +15604,16 @@
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="4" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E435" s="4"/>
       <c r="F435" s="4"/>
@@ -15611,10 +15633,10 @@
         <v>166</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E436" s="4"/>
       <c r="F436" s="4"/>
@@ -15628,16 +15650,16 @@
     </row>
     <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E437" s="4"/>
       <c r="F437" s="4"/>
@@ -15654,13 +15676,13 @@
         <v>53</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E438" s="4"/>
       <c r="F438" s="4"/>
@@ -15675,13 +15697,13 @@
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="4"/>
       <c r="B439" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E439" s="4"/>
       <c r="F439" s="4"/>
@@ -15695,16 +15717,16 @@
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E440" s="4"/>
       <c r="F440" s="4"/>
@@ -15718,16 +15740,16 @@
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="4" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B441" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E441" s="4"/>
       <c r="F441" s="4"/>
@@ -15793,15 +15815,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B2" s="0" t="str">
         <f aca="false">LEFT(A2,FIND("-",A2)-1)</f>
@@ -15833,7 +15855,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B3" s="0" t="str">
         <f aca="false">LEFT(A3,FIND("-",A3)-1)</f>
@@ -15844,7 +15866,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>14</v>
@@ -15865,7 +15887,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B4" s="0" t="str">
         <f aca="false">LEFT(A4,FIND("-",A4)-1)</f>
@@ -15876,7 +15898,7 @@
         <v>37</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>149</v>
@@ -15897,7 +15919,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B5" s="0" t="str">
         <f aca="false">LEFT(A5,FIND("-",A5)-1)</f>
@@ -15908,7 +15930,7 @@
         <v>39</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>52</v>
@@ -15926,7 +15948,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B6" s="0" t="str">
         <f aca="false">LEFT(A6,FIND("-",A6)-1)</f>
@@ -15940,7 +15962,7 @@
         <v>215</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>159</v>
@@ -15949,7 +15971,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="I6" s="0" t="str">
         <f aca="false">"messageBlocks.add(new _PayloadBlock("&amp;B6&amp;", "&amp;C6&amp;", "&amp;D6&amp;", "&amp;CHAR(34)&amp;E6&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F6&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G6&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H6&amp;CHAR(34)&amp;"));"</f>
@@ -15958,7 +15980,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B7" s="0" t="str">
         <f aca="false">LEFT(A7,FIND("-",A7)-1)</f>
@@ -15972,7 +15994,7 @@
         <v>146</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>162</v>
@@ -15981,7 +16003,7 @@
         <v>12</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I7" s="0" t="str">
         <f aca="false">"messageBlocks.add(new _PayloadBlock("&amp;B7&amp;", "&amp;C7&amp;", "&amp;D7&amp;", "&amp;CHAR(34)&amp;E7&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F7&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G7&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H7&amp;CHAR(34)&amp;"));"</f>
@@ -15990,7 +16012,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B8" s="0" t="str">
         <f aca="false">LEFT(A8,FIND("-",A8)-1)</f>
@@ -16001,7 +16023,7 @@
         <v>79</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>38</v>
@@ -16013,7 +16035,7 @@
         <v>26</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I8" s="0" t="str">
         <f aca="false">"messageBlocks.add(new _PayloadBlock("&amp;B8&amp;", "&amp;C8&amp;", "&amp;D8&amp;", "&amp;CHAR(34)&amp;E8&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F8&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G8&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H8&amp;CHAR(34)&amp;"));"</f>
@@ -16022,7 +16044,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B9" s="0" t="str">
         <f aca="false">LEFT(A9,FIND("-",A9)-1)</f>
@@ -16033,7 +16055,7 @@
         <v>104</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>34</v>
@@ -16045,7 +16067,7 @@
         <v>26</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="I9" s="0" t="str">
         <f aca="false">"messageBlocks.add(new _PayloadBlock("&amp;B9&amp;", "&amp;C9&amp;", "&amp;D9&amp;", "&amp;CHAR(34)&amp;E9&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F9&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G9&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H9&amp;CHAR(34)&amp;"));"</f>
@@ -16054,7 +16076,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B10" s="0" t="str">
         <f aca="false">LEFT(A10,FIND("-",A10)-1)</f>
@@ -16077,7 +16099,7 @@
         <v>12</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="I10" s="0" t="str">
         <f aca="false">"messageBlocks.add(new _PayloadBlock("&amp;B10&amp;", "&amp;C10&amp;", "&amp;D10&amp;", "&amp;CHAR(34)&amp;E10&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F10&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G10&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H10&amp;CHAR(34)&amp;"));"</f>
@@ -16086,7 +16108,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B11" s="0" t="str">
         <f aca="false">LEFT(A11,FIND("-",A11)-1)</f>
@@ -16109,7 +16131,7 @@
         <v>12</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="I11" s="0" t="str">
         <f aca="false">"messageBlocks.add(new _PayloadBlock("&amp;B11&amp;", "&amp;C11&amp;", "&amp;D11&amp;", "&amp;CHAR(34)&amp;E11&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F11&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G11&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H11&amp;CHAR(34)&amp;"));"</f>
@@ -16118,7 +16140,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B12" s="0" t="str">
         <f aca="false">LEFT(A12,FIND("-",A12)-1)</f>
@@ -16141,7 +16163,7 @@
         <v>12</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="I12" s="0" t="str">
         <f aca="false">"messageBlocks.add(new _PayloadBlock("&amp;B12&amp;", "&amp;C12&amp;", "&amp;D12&amp;", "&amp;CHAR(34)&amp;E12&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F12&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G12&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H12&amp;CHAR(34)&amp;"));"</f>
@@ -16150,7 +16172,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B13" s="0" t="str">
         <f aca="false">LEFT(A13,FIND("-",A13)-1)</f>
@@ -16164,16 +16186,16 @@
         <v>168</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="I13" s="0" t="str">
         <f aca="false">"messageBlocks.add(new _PayloadBlock("&amp;B13&amp;", "&amp;C13&amp;", "&amp;D13&amp;", "&amp;CHAR(34)&amp;E13&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F13&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G13&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H13&amp;CHAR(34)&amp;"));"</f>
@@ -16182,7 +16204,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B14" s="0" t="str">
         <f aca="false">LEFT(A14,FIND("-",A14)-1)</f>
@@ -16196,16 +16218,16 @@
         <v>168</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="I14" s="0" t="str">
         <f aca="false">"messageBlocks.add(new _PayloadBlock("&amp;B14&amp;", "&amp;C14&amp;", "&amp;D14&amp;", "&amp;CHAR(34)&amp;E14&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F14&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G14&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H14&amp;CHAR(34)&amp;"));"</f>
@@ -16214,7 +16236,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B15" s="0" t="str">
         <f aca="false">LEFT(A15,FIND("-",A15)-1)</f>
@@ -16228,16 +16250,16 @@
         <v>191</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="I15" s="0" t="str">
         <f aca="false">"messageBlocks.add(new _PayloadBlock("&amp;B15&amp;", "&amp;C15&amp;", "&amp;D15&amp;", "&amp;CHAR(34)&amp;E15&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F15&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G15&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H15&amp;CHAR(34)&amp;"));"</f>
@@ -16246,7 +16268,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B16" s="0" t="str">
         <f aca="false">LEFT(A16,FIND("-",A16)-1)</f>
@@ -16260,16 +16282,16 @@
         <v>191</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>514</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>512</v>
       </c>
       <c r="I16" s="0" t="str">
         <f aca="false">"messageBlocks.add(new _PayloadBlock("&amp;B16&amp;", "&amp;C16&amp;", "&amp;D16&amp;", "&amp;CHAR(34)&amp;E16&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F16&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G16&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H16&amp;CHAR(34)&amp;"));"</f>
@@ -16278,7 +16300,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B17" s="0" t="str">
         <f aca="false">LEFT(A17,FIND("-",A17)-1)</f>
@@ -16292,16 +16314,16 @@
         <v>218</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="I17" s="0" t="str">
         <f aca="false">"messageBlocks.add(new _PayloadBlock("&amp;B17&amp;", "&amp;C17&amp;", "&amp;D17&amp;", "&amp;CHAR(34)&amp;E17&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F17&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G17&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H17&amp;CHAR(34)&amp;"));"</f>
@@ -16310,7 +16332,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B18" s="0" t="str">
         <f aca="false">LEFT(A18,FIND("-",A18)-1)</f>
@@ -16324,16 +16346,16 @@
         <v>168</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="I18" s="0" t="str">
         <f aca="false">"messageBlocks.add(new _PayloadBlock("&amp;B18&amp;", "&amp;C18&amp;", "&amp;D18&amp;", "&amp;CHAR(34)&amp;E18&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F18&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G18&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H18&amp;CHAR(34)&amp;"));"</f>
@@ -16342,7 +16364,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B19" s="0" t="str">
         <f aca="false">LEFT(A19,FIND("-",A19)-1)</f>
@@ -16356,16 +16378,16 @@
         <v>215</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="I19" s="0" t="str">
         <f aca="false">"messageBlocks.add(new _PayloadBlock("&amp;B19&amp;", "&amp;C19&amp;", "&amp;D19&amp;", "&amp;CHAR(34)&amp;E19&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F19&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G19&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H19&amp;CHAR(34)&amp;"));"</f>
@@ -16374,7 +16396,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B20" s="0" t="str">
         <f aca="false">LEFT(A20,FIND("-",A20)-1)</f>
@@ -16388,16 +16410,16 @@
         <v>191</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="I20" s="0" t="str">
         <f aca="false">"messageBlocks.add(new _PayloadBlock("&amp;B20&amp;", "&amp;C20&amp;", "&amp;D20&amp;", "&amp;CHAR(34)&amp;E20&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F20&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G20&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H20&amp;CHAR(34)&amp;"));"</f>
@@ -16406,7 +16428,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B21" s="0" t="str">
         <f aca="false">LEFT(A21,FIND("-",A21)-1)</f>
@@ -16417,19 +16439,19 @@
         <v>191</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="I21" s="0" t="str">
         <f aca="false">"messageBlocks.add(new _PayloadBlock("&amp;B21&amp;", "&amp;C21&amp;", "&amp;D21&amp;", "&amp;CHAR(34)&amp;E21&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F21&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G21&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H21&amp;CHAR(34)&amp;"));"</f>
@@ -16438,7 +16460,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B22" s="0" t="str">
         <f aca="false">LEFT(A22,FIND("-",A22)-1)</f>
@@ -16452,16 +16474,16 @@
         <v>187</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="I22" s="0" t="str">
         <f aca="false">"messageBlocks.add(new _PayloadBlock("&amp;B22&amp;", "&amp;C22&amp;", "&amp;D22&amp;", "&amp;CHAR(34)&amp;E22&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F22&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G22&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H22&amp;CHAR(34)&amp;"));"</f>
@@ -16470,7 +16492,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B23" s="0" t="str">
         <f aca="false">LEFT(A23,FIND("-",A23)-1)</f>
@@ -16484,16 +16506,16 @@
         <v>191</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="I23" s="0" t="str">
         <f aca="false">"messageBlocks.add(new _PayloadBlock("&amp;B23&amp;", "&amp;C23&amp;", "&amp;D23&amp;", "&amp;CHAR(34)&amp;E23&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F23&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G23&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H23&amp;CHAR(34)&amp;"));"</f>
@@ -16502,7 +16524,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B24" s="0" t="str">
         <f aca="false">LEFT(A24,FIND("-",A24)-1)</f>
@@ -16513,19 +16535,19 @@
         <v>210</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="I24" s="0" t="str">
         <f aca="false">"messageBlocks.add(new _PayloadBlock("&amp;B24&amp;", "&amp;C24&amp;", "&amp;D24&amp;", "&amp;CHAR(34)&amp;E24&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F24&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G24&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H24&amp;CHAR(34)&amp;"));"</f>
@@ -16534,7 +16556,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B25" s="0" t="str">
         <f aca="false">LEFT(A25,FIND("-",A25)-1)</f>
@@ -16548,16 +16570,16 @@
         <v>187</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="I25" s="0" t="str">
         <f aca="false">"messageBlocks.add(new _PayloadBlock("&amp;B25&amp;", "&amp;C25&amp;", "&amp;D25&amp;", "&amp;CHAR(34)&amp;E25&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F25&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G25&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H25&amp;CHAR(34)&amp;"));"</f>
@@ -16566,7 +16588,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B26" s="0" t="str">
         <f aca="false">LEFT(A26,FIND("-",A26)-1)</f>
@@ -16580,16 +16602,16 @@
         <v>191</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="I26" s="0" t="str">
         <f aca="false">"messageBlocks.add(new _PayloadBlock("&amp;B26&amp;", "&amp;C26&amp;", "&amp;D26&amp;", "&amp;CHAR(34)&amp;E26&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F26&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G26&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H26&amp;CHAR(34)&amp;"));"</f>
@@ -16598,7 +16620,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B27" s="0" t="str">
         <f aca="false">LEFT(A27,FIND("-",A27)-1)</f>
@@ -16612,16 +16634,16 @@
         <v>187</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="I27" s="0" t="str">
         <f aca="false">"messageBlocks.add(new _PayloadBlock("&amp;B27&amp;", "&amp;C27&amp;", "&amp;D27&amp;", "&amp;CHAR(34)&amp;E27&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F27&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G27&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H27&amp;CHAR(34)&amp;"));"</f>
@@ -16630,7 +16652,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B28" s="0" t="str">
         <f aca="false">LEFT(A28,FIND("-",A28)-1)</f>
@@ -16644,16 +16666,16 @@
         <v>191</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="I28" s="0" t="str">
         <f aca="false">"messageBlocks.add(new _PayloadBlock("&amp;B28&amp;", "&amp;C28&amp;", "&amp;D28&amp;", "&amp;CHAR(34)&amp;E28&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F28&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G28&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H28&amp;CHAR(34)&amp;"));"</f>
@@ -16662,7 +16684,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B29" s="0" t="str">
         <f aca="false">LEFT(A29,FIND("-",A29)-1)</f>
@@ -16676,16 +16698,16 @@
         <v>96</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I29" s="0" t="str">
         <f aca="false">"messageBlocks.add(new _PayloadBlock("&amp;B29&amp;", "&amp;C29&amp;", "&amp;D29&amp;", "&amp;CHAR(34)&amp;E29&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F29&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G29&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H29&amp;CHAR(34)&amp;"));"</f>
@@ -16694,7 +16716,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B30" s="0" t="str">
         <f aca="false">LEFT(A30,FIND("-",A30)-1)</f>
@@ -16708,16 +16730,16 @@
         <v>187</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="I30" s="0" t="str">
         <f aca="false">"messageBlocks.add(new _PayloadBlock("&amp;B30&amp;", "&amp;C30&amp;", "&amp;D30&amp;", "&amp;CHAR(34)&amp;E30&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F30&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G30&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H30&amp;CHAR(34)&amp;"));"</f>
@@ -16726,7 +16748,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B31" s="0" t="str">
         <f aca="false">LEFT(A31,FIND("-",A31)-1)</f>
@@ -16740,16 +16762,16 @@
         <v>191</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="I31" s="0" t="str">
         <f aca="false">"messageBlocks.add(new _PayloadBlock("&amp;B31&amp;", "&amp;C31&amp;", "&amp;D31&amp;", "&amp;CHAR(34)&amp;E31&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F31&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G31&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H31&amp;CHAR(34)&amp;"));"</f>
@@ -16758,7 +16780,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B32" s="0" t="str">
         <f aca="false">LEFT(A32,FIND("-",A32)-1)</f>
@@ -16772,16 +16794,16 @@
         <v>96</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I32" s="0" t="str">
         <f aca="false">"messageBlocks.add(new _PayloadBlock("&amp;B32&amp;", "&amp;C32&amp;", "&amp;D32&amp;", "&amp;CHAR(34)&amp;E32&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F32&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G32&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H32&amp;CHAR(34)&amp;"));"</f>
@@ -16790,7 +16812,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B33" s="0" t="str">
         <f aca="false">LEFT(A33,FIND("-",A33)-1)</f>
@@ -16804,16 +16826,16 @@
         <v>187</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="I33" s="0" t="str">
         <f aca="false">"messageBlocks.add(new _PayloadBlock("&amp;B33&amp;", "&amp;C33&amp;", "&amp;D33&amp;", "&amp;CHAR(34)&amp;E33&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F33&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G33&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H33&amp;CHAR(34)&amp;"));"</f>
@@ -16822,7 +16844,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B34" s="0" t="str">
         <f aca="false">LEFT(A34,FIND("-",A34)-1)</f>
@@ -16836,16 +16858,16 @@
         <v>146</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="I34" s="0" t="str">
         <f aca="false">"messageBlocks.add(new _PayloadBlock("&amp;B34&amp;", "&amp;C34&amp;", "&amp;D34&amp;", "&amp;CHAR(34)&amp;E34&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F34&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G34&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H34&amp;CHAR(34)&amp;"));"</f>
@@ -16854,7 +16876,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B35" s="0" t="str">
         <f aca="false">LEFT(A35,FIND("-",A35)-1)</f>
@@ -16868,16 +16890,16 @@
         <v>191</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="I35" s="0" t="str">
         <f aca="false">"messageBlocks.add(new _PayloadBlock("&amp;B35&amp;", "&amp;C35&amp;", "&amp;D35&amp;", "&amp;CHAR(34)&amp;E35&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F35&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G35&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H35&amp;CHAR(34)&amp;"));"</f>
@@ -16886,7 +16908,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B36" s="0" t="str">
         <f aca="false">LEFT(A36,FIND("-",A36)-1)</f>
@@ -16900,16 +16922,16 @@
         <v>187</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="I36" s="0" t="str">
         <f aca="false">"messageBlocks.add(new _PayloadBlock("&amp;B36&amp;", "&amp;C36&amp;", "&amp;D36&amp;", "&amp;CHAR(34)&amp;E36&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F36&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G36&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H36&amp;CHAR(34)&amp;"));"</f>
@@ -16918,7 +16940,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B37" s="0" t="str">
         <f aca="false">LEFT(A37,FIND("-",A37)-1)</f>
@@ -16932,16 +16954,16 @@
         <v>146</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="I37" s="0" t="str">
         <f aca="false">"messageBlocks.add(new _PayloadBlock("&amp;B37&amp;", "&amp;C37&amp;", "&amp;D37&amp;", "&amp;CHAR(34)&amp;E37&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F37&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G37&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H37&amp;CHAR(34)&amp;"));"</f>
@@ -16950,7 +16972,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B38" s="0" t="str">
         <f aca="false">LEFT(A38,FIND("-",A38)-1)</f>
@@ -16964,16 +16986,16 @@
         <v>191</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="I38" s="0" t="str">
         <f aca="false">"messageBlocks.add(new _PayloadBlock("&amp;B38&amp;", "&amp;C38&amp;", "&amp;D38&amp;", "&amp;CHAR(34)&amp;E38&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F38&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G38&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H38&amp;CHAR(34)&amp;"));"</f>
@@ -16982,7 +17004,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B39" s="0" t="str">
         <f aca="false">LEFT(A39,FIND("-",A39)-1)</f>
@@ -16996,16 +17018,16 @@
         <v>68</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="I39" s="0" t="str">
         <f aca="false">"messageBlocks.add(new _PayloadBlock("&amp;B39&amp;", "&amp;C39&amp;", "&amp;D39&amp;", "&amp;CHAR(34)&amp;E39&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F39&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G39&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H39&amp;CHAR(34)&amp;"));"</f>
@@ -17014,7 +17036,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B40" s="0" t="str">
         <f aca="false">LEFT(A40,FIND("-",A40)-1)</f>
@@ -17028,16 +17050,16 @@
         <v>215</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="I40" s="0" t="str">
         <f aca="false">"messageBlocks.add(new _PayloadBlock("&amp;B40&amp;", "&amp;C40&amp;", "&amp;D40&amp;", "&amp;CHAR(34)&amp;E40&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F40&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G40&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H40&amp;CHAR(34)&amp;"));"</f>
@@ -17046,7 +17068,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B41" s="0" t="str">
         <f aca="false">LEFT(A41,FIND("-",A41)-1)</f>
@@ -17057,19 +17079,19 @@
         <v>334</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="I41" s="0" t="str">
         <f aca="false">"messageBlocks.add(new _PayloadBlock("&amp;B41&amp;", "&amp;C41&amp;", "&amp;D41&amp;", "&amp;CHAR(34)&amp;E41&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F41&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G41&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H41&amp;CHAR(34)&amp;"));"</f>
@@ -17078,7 +17100,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B42" s="0" t="str">
         <f aca="false">LEFT(A42,FIND("-",A42)-1)</f>
@@ -17092,16 +17114,16 @@
         <v>191</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="I42" s="0" t="str">
         <f aca="false">"messageBlocks.add(new _PayloadBlock("&amp;B42&amp;", "&amp;C42&amp;", "&amp;D42&amp;", "&amp;CHAR(34)&amp;E42&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F42&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G42&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H42&amp;CHAR(34)&amp;"));"</f>
@@ -17110,7 +17132,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B43" s="0" t="str">
         <f aca="false">LEFT(A43,FIND("-",A43)-1)</f>
@@ -17121,19 +17143,19 @@
         <v>345</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="I43" s="0" t="str">
         <f aca="false">"messageBlocks.add(new _PayloadBlock("&amp;B43&amp;", "&amp;C43&amp;", "&amp;D43&amp;", "&amp;CHAR(34)&amp;E43&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F43&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G43&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H43&amp;CHAR(34)&amp;"));"</f>
@@ -17142,7 +17164,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B44" s="0" t="str">
         <f aca="false">LEFT(A44,FIND("-",A44)-1)</f>
@@ -17201,7 +17223,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="E1" s="0" t="str">
         <f aca="false">"put("&amp;A1&amp;","&amp;CHAR(34)&amp;B1&amp;CHAR(34)&amp;");"</f>
@@ -17213,7 +17235,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="E2" s="0" t="str">
         <f aca="false">"put("&amp;A2&amp;","&amp;CHAR(34)&amp;B2&amp;CHAR(34)&amp;");"</f>
@@ -17225,7 +17247,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E3" s="0" t="str">
         <f aca="false">"put("&amp;A3&amp;","&amp;CHAR(34)&amp;B3&amp;CHAR(34)&amp;");"</f>
@@ -17237,7 +17259,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E4" s="0" t="str">
         <f aca="false">"put("&amp;A4&amp;","&amp;CHAR(34)&amp;B4&amp;CHAR(34)&amp;");"</f>
@@ -17249,7 +17271,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E5" s="0" t="str">
         <f aca="false">"put("&amp;A5&amp;","&amp;CHAR(34)&amp;B5&amp;CHAR(34)&amp;");"</f>
@@ -17261,7 +17283,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E6" s="0" t="str">
         <f aca="false">"put("&amp;A6&amp;","&amp;CHAR(34)&amp;B6&amp;CHAR(34)&amp;");"</f>
@@ -17273,7 +17295,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E7" s="0" t="str">
         <f aca="false">"put("&amp;A7&amp;","&amp;CHAR(34)&amp;B7&amp;CHAR(34)&amp;");"</f>
@@ -17285,7 +17307,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="E8" s="0" t="str">
         <f aca="false">"put("&amp;A8&amp;","&amp;CHAR(34)&amp;B8&amp;CHAR(34)&amp;");"</f>
@@ -17297,7 +17319,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E9" s="0" t="str">
         <f aca="false">"put("&amp;A9&amp;","&amp;CHAR(34)&amp;B9&amp;CHAR(34)&amp;");"</f>
@@ -17309,7 +17331,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="E10" s="0" t="str">
         <f aca="false">"put("&amp;A10&amp;","&amp;CHAR(34)&amp;B10&amp;CHAR(34)&amp;");"</f>
@@ -17321,7 +17343,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E11" s="0" t="str">
         <f aca="false">"put("&amp;A11&amp;","&amp;CHAR(34)&amp;B11&amp;CHAR(34)&amp;");"</f>
@@ -17333,7 +17355,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E12" s="0" t="str">
         <f aca="false">"put("&amp;A12&amp;","&amp;CHAR(34)&amp;B12&amp;CHAR(34)&amp;");"</f>
@@ -17345,7 +17367,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E13" s="0" t="str">
         <f aca="false">"put("&amp;A13&amp;","&amp;CHAR(34)&amp;B13&amp;CHAR(34)&amp;");"</f>
@@ -17357,7 +17379,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E14" s="0" t="str">
         <f aca="false">"put("&amp;A14&amp;","&amp;CHAR(34)&amp;B14&amp;CHAR(34)&amp;");"</f>
@@ -17369,7 +17391,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E15" s="0" t="str">
         <f aca="false">"put("&amp;A15&amp;","&amp;CHAR(34)&amp;B15&amp;CHAR(34)&amp;");"</f>
@@ -17381,7 +17403,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E16" s="0" t="str">
         <f aca="false">"put("&amp;A16&amp;","&amp;CHAR(34)&amp;B16&amp;CHAR(34)&amp;");"</f>
@@ -17393,7 +17415,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E17" s="0" t="str">
         <f aca="false">"put("&amp;A17&amp;","&amp;CHAR(34)&amp;B17&amp;CHAR(34)&amp;");"</f>
@@ -17405,7 +17427,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E18" s="0" t="str">
         <f aca="false">"put("&amp;A18&amp;","&amp;CHAR(34)&amp;B18&amp;CHAR(34)&amp;");"</f>
@@ -17417,7 +17439,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E19" s="0" t="str">
         <f aca="false">"put("&amp;A19&amp;","&amp;CHAR(34)&amp;B19&amp;CHAR(34)&amp;");"</f>
@@ -17429,7 +17451,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E20" s="0" t="str">
         <f aca="false">"put("&amp;A20&amp;","&amp;CHAR(34)&amp;B20&amp;CHAR(34)&amp;");"</f>
@@ -17441,7 +17463,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E21" s="0" t="str">
         <f aca="false">"put("&amp;A21&amp;","&amp;CHAR(34)&amp;B21&amp;CHAR(34)&amp;");"</f>
@@ -17453,7 +17475,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E22" s="0" t="str">
         <f aca="false">"put("&amp;A22&amp;","&amp;CHAR(34)&amp;B22&amp;CHAR(34)&amp;");"</f>
@@ -17465,7 +17487,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="E23" s="0" t="str">
         <f aca="false">"put("&amp;A23&amp;","&amp;CHAR(34)&amp;B23&amp;CHAR(34)&amp;");"</f>
@@ -17477,7 +17499,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E24" s="0" t="str">
         <f aca="false">"put("&amp;A24&amp;","&amp;CHAR(34)&amp;B24&amp;CHAR(34)&amp;");"</f>
@@ -17489,7 +17511,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="E25" s="0" t="str">
         <f aca="false">"put("&amp;A25&amp;","&amp;CHAR(34)&amp;B25&amp;CHAR(34)&amp;");"</f>
@@ -17501,7 +17523,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E26" s="0" t="str">
         <f aca="false">"put("&amp;A26&amp;","&amp;CHAR(34)&amp;B26&amp;CHAR(34)&amp;");"</f>
@@ -17513,7 +17535,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E27" s="0" t="str">
         <f aca="false">"put("&amp;A27&amp;","&amp;CHAR(34)&amp;B27&amp;CHAR(34)&amp;");"</f>
@@ -17525,7 +17547,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E28" s="0" t="str">
         <f aca="false">"put("&amp;A28&amp;","&amp;CHAR(34)&amp;B28&amp;CHAR(34)&amp;");"</f>
@@ -17537,7 +17559,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E29" s="0" t="str">
         <f aca="false">"put("&amp;A29&amp;","&amp;CHAR(34)&amp;B29&amp;CHAR(34)&amp;");"</f>
@@ -17549,7 +17571,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E30" s="0" t="str">
         <f aca="false">"put("&amp;A30&amp;","&amp;CHAR(34)&amp;B30&amp;CHAR(34)&amp;");"</f>
@@ -17561,7 +17583,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="E31" s="0" t="str">
         <f aca="false">"put("&amp;A31&amp;","&amp;CHAR(34)&amp;B31&amp;CHAR(34)&amp;");"</f>
@@ -17573,7 +17595,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="E32" s="0" t="str">
         <f aca="false">"put("&amp;A32&amp;","&amp;CHAR(34)&amp;B32&amp;CHAR(34)&amp;");"</f>
@@ -17585,7 +17607,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E33" s="0" t="str">
         <f aca="false">"put("&amp;A33&amp;","&amp;CHAR(34)&amp;B33&amp;CHAR(34)&amp;");"</f>
@@ -17597,7 +17619,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E34" s="0" t="str">
         <f aca="false">"put("&amp;A34&amp;","&amp;CHAR(34)&amp;B34&amp;CHAR(34)&amp;");"</f>
@@ -17609,7 +17631,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E35" s="0" t="str">
         <f aca="false">"put("&amp;A35&amp;","&amp;CHAR(34)&amp;B35&amp;CHAR(34)&amp;");"</f>
@@ -17621,7 +17643,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="E36" s="0" t="str">
         <f aca="false">"put("&amp;A36&amp;","&amp;CHAR(34)&amp;B36&amp;CHAR(34)&amp;");"</f>
@@ -17633,7 +17655,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E37" s="0" t="str">
         <f aca="false">"put("&amp;A37&amp;","&amp;CHAR(34)&amp;B37&amp;CHAR(34)&amp;");"</f>
@@ -17645,7 +17667,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="E38" s="0" t="str">
         <f aca="false">"put("&amp;A38&amp;","&amp;CHAR(34)&amp;B38&amp;CHAR(34)&amp;");"</f>
@@ -17681,7 +17703,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E41" s="0" t="str">
         <f aca="false">"put("&amp;A41&amp;","&amp;CHAR(34)&amp;B41&amp;CHAR(34)&amp;");"</f>
@@ -17693,7 +17715,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="E42" s="0" t="str">
         <f aca="false">"put("&amp;A42&amp;","&amp;CHAR(34)&amp;B42&amp;CHAR(34)&amp;");"</f>
@@ -17705,7 +17727,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E43" s="0" t="str">
         <f aca="false">"put("&amp;A43&amp;","&amp;CHAR(34)&amp;B43&amp;CHAR(34)&amp;");"</f>
@@ -17717,7 +17739,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="E44" s="0" t="str">
         <f aca="false">"put("&amp;A44&amp;","&amp;CHAR(34)&amp;B44&amp;CHAR(34)&amp;");"</f>
@@ -17729,7 +17751,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E45" s="0" t="str">
         <f aca="false">"put("&amp;A45&amp;","&amp;CHAR(34)&amp;B45&amp;CHAR(34)&amp;");"</f>
@@ -17741,7 +17763,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="E46" s="0" t="str">
         <f aca="false">"put("&amp;A46&amp;","&amp;CHAR(34)&amp;B46&amp;CHAR(34)&amp;");"</f>
@@ -17753,7 +17775,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="E47" s="0" t="str">
         <f aca="false">"put("&amp;A47&amp;","&amp;CHAR(34)&amp;B47&amp;CHAR(34)&amp;");"</f>
@@ -17765,7 +17787,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="E48" s="0" t="str">
         <f aca="false">"put("&amp;A48&amp;","&amp;CHAR(34)&amp;B48&amp;CHAR(34)&amp;");"</f>
@@ -17777,7 +17799,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="E49" s="0" t="str">
         <f aca="false">"put("&amp;A49&amp;","&amp;CHAR(34)&amp;B49&amp;CHAR(34)&amp;");"</f>
@@ -17789,7 +17811,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="E50" s="0" t="str">
         <f aca="false">"put("&amp;A50&amp;","&amp;CHAR(34)&amp;B50&amp;CHAR(34)&amp;");"</f>
@@ -17801,7 +17823,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="E51" s="0" t="str">
         <f aca="false">"put("&amp;A51&amp;","&amp;CHAR(34)&amp;B51&amp;CHAR(34)&amp;");"</f>
@@ -17813,7 +17835,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="E52" s="0" t="str">
         <f aca="false">"put("&amp;A52&amp;","&amp;CHAR(34)&amp;B52&amp;CHAR(34)&amp;");"</f>
@@ -17825,7 +17847,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="E53" s="0" t="str">
         <f aca="false">"put("&amp;A53&amp;","&amp;CHAR(34)&amp;B53&amp;CHAR(34)&amp;");"</f>
@@ -17837,7 +17859,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E54" s="0" t="str">
         <f aca="false">"put("&amp;A54&amp;","&amp;CHAR(34)&amp;B54&amp;CHAR(34)&amp;");"</f>
@@ -17849,7 +17871,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E55" s="0" t="str">
         <f aca="false">"put("&amp;A55&amp;","&amp;CHAR(34)&amp;B55&amp;CHAR(34)&amp;");"</f>
@@ -17861,7 +17883,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="E56" s="0" t="str">
         <f aca="false">"put("&amp;A56&amp;","&amp;CHAR(34)&amp;B56&amp;CHAR(34)&amp;");"</f>
@@ -17873,7 +17895,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="E57" s="0" t="str">
         <f aca="false">"put("&amp;A57&amp;","&amp;CHAR(34)&amp;B57&amp;CHAR(34)&amp;");"</f>
@@ -17885,7 +17907,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="E58" s="0" t="str">
         <f aca="false">"put("&amp;A58&amp;","&amp;CHAR(34)&amp;B58&amp;CHAR(34)&amp;");"</f>
@@ -17897,7 +17919,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E59" s="0" t="str">
         <f aca="false">"put("&amp;A59&amp;","&amp;CHAR(34)&amp;B59&amp;CHAR(34)&amp;");"</f>
@@ -17909,7 +17931,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E60" s="0" t="str">
         <f aca="false">"put("&amp;A60&amp;","&amp;CHAR(34)&amp;B60&amp;CHAR(34)&amp;");"</f>
@@ -17921,7 +17943,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="E61" s="0" t="str">
         <f aca="false">"put("&amp;A61&amp;","&amp;CHAR(34)&amp;B61&amp;CHAR(34)&amp;");"</f>
@@ -17933,7 +17955,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="E62" s="0" t="str">
         <f aca="false">"put("&amp;A62&amp;","&amp;CHAR(34)&amp;B62&amp;CHAR(34)&amp;");"</f>
@@ -17945,7 +17967,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E63" s="0" t="str">
         <f aca="false">"put("&amp;A63&amp;","&amp;CHAR(34)&amp;B63&amp;CHAR(34)&amp;");"</f>
@@ -17957,7 +17979,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="E64" s="0" t="str">
         <f aca="false">"put("&amp;A64&amp;","&amp;CHAR(34)&amp;B64&amp;CHAR(34)&amp;");"</f>
@@ -17969,7 +17991,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="E65" s="0" t="str">
         <f aca="false">"put("&amp;A65&amp;","&amp;CHAR(34)&amp;B65&amp;CHAR(34)&amp;");"</f>
@@ -17981,7 +18003,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="E66" s="0" t="str">
         <f aca="false">"put("&amp;A66&amp;","&amp;CHAR(34)&amp;B66&amp;CHAR(34)&amp;");"</f>
@@ -17993,7 +18015,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="E67" s="0" t="str">
         <f aca="false">"put("&amp;A67&amp;","&amp;CHAR(34)&amp;B67&amp;CHAR(34)&amp;");"</f>
@@ -18005,7 +18027,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="E68" s="0" t="str">
         <f aca="false">"put("&amp;A68&amp;","&amp;CHAR(34)&amp;B68&amp;CHAR(34)&amp;");"</f>
@@ -18017,7 +18039,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="E69" s="0" t="str">
         <f aca="false">"put("&amp;A69&amp;","&amp;CHAR(34)&amp;B69&amp;CHAR(34)&amp;");"</f>
@@ -18029,7 +18051,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E70" s="0" t="str">
         <f aca="false">"put("&amp;A70&amp;","&amp;CHAR(34)&amp;B70&amp;CHAR(34)&amp;");"</f>
@@ -18041,7 +18063,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="E71" s="0" t="str">
         <f aca="false">"put("&amp;A71&amp;","&amp;CHAR(34)&amp;B71&amp;CHAR(34)&amp;");"</f>
@@ -18053,7 +18075,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="E72" s="0" t="str">
         <f aca="false">"put("&amp;A72&amp;","&amp;CHAR(34)&amp;B72&amp;CHAR(34)&amp;");"</f>
@@ -18065,7 +18087,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="E73" s="0" t="str">
         <f aca="false">"put("&amp;A73&amp;","&amp;CHAR(34)&amp;B73&amp;CHAR(34)&amp;");"</f>
@@ -18077,7 +18099,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E74" s="0" t="str">
         <f aca="false">"put("&amp;A74&amp;","&amp;CHAR(34)&amp;B74&amp;CHAR(34)&amp;");"</f>
@@ -18089,7 +18111,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="E75" s="0" t="str">
         <f aca="false">"put("&amp;A75&amp;","&amp;CHAR(34)&amp;B75&amp;CHAR(34)&amp;");"</f>
@@ -18101,7 +18123,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E76" s="0" t="str">
         <f aca="false">"put("&amp;A76&amp;","&amp;CHAR(34)&amp;B76&amp;CHAR(34)&amp;");"</f>
@@ -18113,7 +18135,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E77" s="0" t="str">
         <f aca="false">"put("&amp;A77&amp;","&amp;CHAR(34)&amp;B77&amp;CHAR(34)&amp;");"</f>
@@ -18125,7 +18147,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E78" s="0" t="str">
         <f aca="false">"put("&amp;A78&amp;","&amp;CHAR(34)&amp;B78&amp;CHAR(34)&amp;");"</f>
@@ -18137,7 +18159,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E79" s="0" t="str">
         <f aca="false">"put("&amp;A79&amp;","&amp;CHAR(34)&amp;B79&amp;CHAR(34)&amp;");"</f>
@@ -18149,7 +18171,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="E80" s="0" t="str">
         <f aca="false">"put("&amp;A80&amp;","&amp;CHAR(34)&amp;B80&amp;CHAR(34)&amp;");"</f>
@@ -18161,7 +18183,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="E81" s="0" t="str">
         <f aca="false">"put("&amp;A81&amp;","&amp;CHAR(34)&amp;B81&amp;CHAR(34)&amp;");"</f>
@@ -18173,7 +18195,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="E82" s="0" t="str">
         <f aca="false">"put("&amp;A82&amp;","&amp;CHAR(34)&amp;B82&amp;CHAR(34)&amp;");"</f>
@@ -18185,7 +18207,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="E83" s="0" t="str">
         <f aca="false">"put("&amp;A83&amp;","&amp;CHAR(34)&amp;B83&amp;CHAR(34)&amp;");"</f>
@@ -18197,7 +18219,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="E84" s="0" t="str">
         <f aca="false">"put("&amp;A84&amp;","&amp;CHAR(34)&amp;B84&amp;CHAR(34)&amp;");"</f>
@@ -18209,7 +18231,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="E85" s="0" t="str">
         <f aca="false">"put("&amp;A85&amp;","&amp;CHAR(34)&amp;B85&amp;CHAR(34)&amp;");"</f>
@@ -18221,7 +18243,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="E86" s="0" t="str">
         <f aca="false">"put("&amp;A86&amp;","&amp;CHAR(34)&amp;B86&amp;CHAR(34)&amp;");"</f>
@@ -18233,7 +18255,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="E87" s="0" t="str">
         <f aca="false">"put("&amp;A87&amp;","&amp;CHAR(34)&amp;B87&amp;CHAR(34)&amp;");"</f>
@@ -18245,7 +18267,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="E88" s="0" t="str">
         <f aca="false">"put("&amp;A88&amp;","&amp;CHAR(34)&amp;B88&amp;CHAR(34)&amp;");"</f>
@@ -18257,7 +18279,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="E89" s="0" t="str">
         <f aca="false">"put("&amp;A89&amp;","&amp;CHAR(34)&amp;B89&amp;CHAR(34)&amp;");"</f>
@@ -18269,7 +18291,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="E90" s="0" t="str">
         <f aca="false">"put("&amp;A90&amp;","&amp;CHAR(34)&amp;B90&amp;CHAR(34)&amp;");"</f>
@@ -18281,7 +18303,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="E91" s="0" t="str">
         <f aca="false">"put("&amp;A91&amp;","&amp;CHAR(34)&amp;B91&amp;CHAR(34)&amp;");"</f>
@@ -18293,7 +18315,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="E92" s="0" t="str">
         <f aca="false">"put("&amp;A92&amp;","&amp;CHAR(34)&amp;B92&amp;CHAR(34)&amp;");"</f>
@@ -18305,7 +18327,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="E93" s="0" t="str">
         <f aca="false">"put("&amp;A93&amp;","&amp;CHAR(34)&amp;B93&amp;CHAR(34)&amp;");"</f>
@@ -18317,7 +18339,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="E94" s="0" t="str">
         <f aca="false">"put("&amp;A94&amp;","&amp;CHAR(34)&amp;B94&amp;CHAR(34)&amp;");"</f>
@@ -18329,7 +18351,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="E95" s="0" t="str">
         <f aca="false">"put("&amp;A95&amp;","&amp;CHAR(34)&amp;B95&amp;CHAR(34)&amp;");"</f>
@@ -18341,7 +18363,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="E96" s="0" t="str">
         <f aca="false">"put("&amp;A96&amp;","&amp;CHAR(34)&amp;B96&amp;CHAR(34)&amp;");"</f>
@@ -18353,7 +18375,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="E97" s="0" t="str">
         <f aca="false">"put("&amp;A97&amp;","&amp;CHAR(34)&amp;B97&amp;CHAR(34)&amp;");"</f>
@@ -18365,7 +18387,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="E98" s="0" t="str">
         <f aca="false">"put("&amp;A98&amp;","&amp;CHAR(34)&amp;B98&amp;CHAR(34)&amp;");"</f>
@@ -18377,7 +18399,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="E99" s="0" t="str">
         <f aca="false">"put("&amp;A99&amp;","&amp;CHAR(34)&amp;B99&amp;CHAR(34)&amp;");"</f>
@@ -18389,7 +18411,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="E100" s="0" t="str">
         <f aca="false">"put("&amp;A100&amp;","&amp;CHAR(34)&amp;B100&amp;CHAR(34)&amp;");"</f>
@@ -18424,876 +18446,876 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="n">
+      <c r="A1" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="n">
+      <c r="B1" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>694</v>
-      </c>
-      <c r="D1" s="15" t="n">
+      <c r="C1" s="16" t="s">
+        <v>696</v>
+      </c>
+      <c r="D1" s="16" t="n">
         <v>10000</v>
       </c>
-      <c r="E1" s="15" t="n">
+      <c r="E1" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>695</v>
-      </c>
-      <c r="G1" s="15" t="n">
+      <c r="F1" s="16" t="s">
+        <v>697</v>
+      </c>
+      <c r="G1" s="16" t="n">
         <v>100000</v>
       </c>
-      <c r="H1" s="15" t="n">
+      <c r="H1" s="16" t="n">
         <v>32</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>696</v>
-      </c>
-      <c r="J1" s="15" t="n">
+      <c r="I1" s="16" t="s">
+        <v>698</v>
+      </c>
+      <c r="J1" s="16" t="n">
         <v>110000</v>
       </c>
-      <c r="K1" s="15" t="n">
+      <c r="K1" s="16" t="n">
         <v>48</v>
       </c>
-      <c r="L1" s="16" t="s">
-        <v>697</v>
+      <c r="L1" s="17" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="n">
+      <c r="A2" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="n">
+      <c r="B2" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>698</v>
-      </c>
-      <c r="D2" s="17" t="n">
+      <c r="C2" s="18" t="s">
+        <v>700</v>
+      </c>
+      <c r="D2" s="18" t="n">
         <v>10001</v>
       </c>
-      <c r="E2" s="17" t="n">
+      <c r="E2" s="18" t="n">
         <v>17</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>699</v>
-      </c>
-      <c r="G2" s="17" t="n">
+      <c r="F2" s="18" t="s">
+        <v>701</v>
+      </c>
+      <c r="G2" s="18" t="n">
         <v>100001</v>
       </c>
-      <c r="H2" s="17" t="n">
+      <c r="H2" s="18" t="n">
         <v>33</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>700</v>
-      </c>
-      <c r="J2" s="17" t="n">
+      <c r="I2" s="18" t="s">
+        <v>702</v>
+      </c>
+      <c r="J2" s="18" t="n">
         <v>110001</v>
       </c>
-      <c r="K2" s="17" t="n">
+      <c r="K2" s="18" t="n">
         <v>49</v>
       </c>
-      <c r="L2" s="18" t="s">
-        <v>701</v>
+      <c r="L2" s="19" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="n">
+      <c r="A3" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="B3" s="17" t="n">
+      <c r="B3" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>702</v>
-      </c>
-      <c r="D3" s="17" t="n">
+      <c r="C3" s="18" t="s">
+        <v>704</v>
+      </c>
+      <c r="D3" s="18" t="n">
         <v>10010</v>
       </c>
-      <c r="E3" s="17" t="n">
+      <c r="E3" s="18" t="n">
         <v>18</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>703</v>
-      </c>
-      <c r="G3" s="17" t="n">
+      <c r="F3" s="18" t="s">
+        <v>705</v>
+      </c>
+      <c r="G3" s="18" t="n">
         <v>100010</v>
       </c>
-      <c r="H3" s="17" t="n">
+      <c r="H3" s="18" t="n">
         <v>34</v>
       </c>
-      <c r="I3" s="17" t="s">
-        <v>704</v>
-      </c>
-      <c r="J3" s="17" t="n">
+      <c r="I3" s="18" t="s">
+        <v>706</v>
+      </c>
+      <c r="J3" s="18" t="n">
         <v>110010</v>
       </c>
-      <c r="K3" s="17" t="n">
+      <c r="K3" s="18" t="n">
         <v>50</v>
       </c>
-      <c r="L3" s="18" t="s">
-        <v>705</v>
+      <c r="L3" s="19" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="n">
+      <c r="A4" s="18" t="n">
         <v>11</v>
       </c>
-      <c r="B4" s="17" t="n">
+      <c r="B4" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>706</v>
-      </c>
-      <c r="D4" s="17" t="n">
+      <c r="C4" s="18" t="s">
+        <v>708</v>
+      </c>
+      <c r="D4" s="18" t="n">
         <v>10011</v>
       </c>
-      <c r="E4" s="17" t="n">
+      <c r="E4" s="18" t="n">
         <v>19</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>707</v>
-      </c>
-      <c r="G4" s="17" t="n">
+      <c r="F4" s="18" t="s">
+        <v>709</v>
+      </c>
+      <c r="G4" s="18" t="n">
         <v>100011</v>
       </c>
-      <c r="H4" s="17" t="n">
+      <c r="H4" s="18" t="n">
         <v>35</v>
       </c>
-      <c r="I4" s="17" t="s">
-        <v>708</v>
-      </c>
-      <c r="J4" s="17" t="n">
+      <c r="I4" s="18" t="s">
+        <v>710</v>
+      </c>
+      <c r="J4" s="18" t="n">
         <v>110011</v>
       </c>
-      <c r="K4" s="17" t="n">
+      <c r="K4" s="18" t="n">
         <v>51</v>
       </c>
-      <c r="L4" s="18" t="s">
-        <v>709</v>
+      <c r="L4" s="19" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="n">
+      <c r="A5" s="18" t="n">
         <v>100</v>
       </c>
-      <c r="B5" s="17" t="n">
+      <c r="B5" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>710</v>
-      </c>
-      <c r="D5" s="17" t="n">
+      <c r="C5" s="18" t="s">
+        <v>712</v>
+      </c>
+      <c r="D5" s="18" t="n">
         <v>10100</v>
       </c>
-      <c r="E5" s="17" t="n">
+      <c r="E5" s="18" t="n">
         <v>20</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>711</v>
-      </c>
-      <c r="G5" s="17" t="n">
+      <c r="F5" s="18" t="s">
+        <v>713</v>
+      </c>
+      <c r="G5" s="18" t="n">
         <v>100100</v>
       </c>
-      <c r="H5" s="17" t="n">
+      <c r="H5" s="18" t="n">
         <v>36</v>
       </c>
-      <c r="I5" s="17" t="s">
-        <v>712</v>
-      </c>
-      <c r="J5" s="17" t="n">
+      <c r="I5" s="18" t="s">
+        <v>714</v>
+      </c>
+      <c r="J5" s="18" t="n">
         <v>110100</v>
       </c>
-      <c r="K5" s="17" t="n">
+      <c r="K5" s="18" t="n">
         <v>52</v>
       </c>
-      <c r="L5" s="18" t="s">
-        <v>713</v>
+      <c r="L5" s="19" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="n">
+      <c r="A6" s="18" t="n">
         <v>101</v>
       </c>
-      <c r="B6" s="17" t="n">
+      <c r="B6" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>714</v>
-      </c>
-      <c r="D6" s="17" t="n">
+      <c r="C6" s="18" t="s">
+        <v>716</v>
+      </c>
+      <c r="D6" s="18" t="n">
         <v>10101</v>
       </c>
-      <c r="E6" s="17" t="n">
+      <c r="E6" s="18" t="n">
         <v>21</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>715</v>
-      </c>
-      <c r="G6" s="17" t="n">
+      <c r="F6" s="18" t="s">
+        <v>717</v>
+      </c>
+      <c r="G6" s="18" t="n">
         <v>100101</v>
       </c>
-      <c r="H6" s="17" t="n">
+      <c r="H6" s="18" t="n">
         <v>37</v>
       </c>
-      <c r="I6" s="17" t="s">
-        <v>716</v>
-      </c>
-      <c r="J6" s="17" t="n">
+      <c r="I6" s="18" t="s">
+        <v>718</v>
+      </c>
+      <c r="J6" s="18" t="n">
         <v>110101</v>
       </c>
-      <c r="K6" s="17" t="n">
+      <c r="K6" s="18" t="n">
         <v>53</v>
       </c>
-      <c r="L6" s="18" t="s">
-        <v>717</v>
+      <c r="L6" s="19" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="n">
+      <c r="A7" s="18" t="n">
         <v>110</v>
       </c>
-      <c r="B7" s="17" t="n">
+      <c r="B7" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>718</v>
-      </c>
-      <c r="D7" s="17" t="n">
+      <c r="C7" s="18" t="s">
+        <v>720</v>
+      </c>
+      <c r="D7" s="18" t="n">
         <v>10110</v>
       </c>
-      <c r="E7" s="17" t="n">
+      <c r="E7" s="18" t="n">
         <v>22</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>719</v>
-      </c>
-      <c r="G7" s="17" t="n">
+      <c r="F7" s="18" t="s">
+        <v>721</v>
+      </c>
+      <c r="G7" s="18" t="n">
         <v>100110</v>
       </c>
-      <c r="H7" s="17" t="n">
+      <c r="H7" s="18" t="n">
         <v>38</v>
       </c>
-      <c r="I7" s="17" t="s">
-        <v>720</v>
-      </c>
-      <c r="J7" s="17" t="n">
+      <c r="I7" s="18" t="s">
+        <v>722</v>
+      </c>
+      <c r="J7" s="18" t="n">
         <v>110110</v>
       </c>
-      <c r="K7" s="17" t="n">
+      <c r="K7" s="18" t="n">
         <v>54</v>
       </c>
-      <c r="L7" s="18" t="s">
-        <v>721</v>
+      <c r="L7" s="19" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="n">
+      <c r="A8" s="18" t="n">
         <v>111</v>
       </c>
-      <c r="B8" s="17" t="n">
+      <c r="B8" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>722</v>
-      </c>
-      <c r="D8" s="17" t="n">
+      <c r="C8" s="18" t="s">
+        <v>724</v>
+      </c>
+      <c r="D8" s="18" t="n">
         <v>10111</v>
       </c>
-      <c r="E8" s="17" t="n">
+      <c r="E8" s="18" t="n">
         <v>23</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>723</v>
-      </c>
-      <c r="G8" s="17" t="n">
+      <c r="F8" s="18" t="s">
+        <v>725</v>
+      </c>
+      <c r="G8" s="18" t="n">
         <v>100111</v>
       </c>
-      <c r="H8" s="17" t="n">
+      <c r="H8" s="18" t="n">
         <v>39</v>
       </c>
-      <c r="I8" s="17" t="s">
-        <v>724</v>
-      </c>
-      <c r="J8" s="17" t="n">
+      <c r="I8" s="18" t="s">
+        <v>726</v>
+      </c>
+      <c r="J8" s="18" t="n">
         <v>110111</v>
       </c>
-      <c r="K8" s="17" t="n">
+      <c r="K8" s="18" t="n">
         <v>55</v>
       </c>
-      <c r="L8" s="18" t="s">
-        <v>725</v>
+      <c r="L8" s="19" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="n">
+      <c r="A9" s="18" t="n">
         <v>1000</v>
       </c>
-      <c r="B9" s="17" t="n">
+      <c r="B9" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>726</v>
-      </c>
-      <c r="D9" s="17" t="n">
+      <c r="C9" s="18" t="s">
+        <v>728</v>
+      </c>
+      <c r="D9" s="18" t="n">
         <v>11000</v>
       </c>
-      <c r="E9" s="17" t="n">
+      <c r="E9" s="18" t="n">
         <v>24</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>727</v>
-      </c>
-      <c r="G9" s="17" t="n">
+      <c r="F9" s="18" t="s">
+        <v>729</v>
+      </c>
+      <c r="G9" s="18" t="n">
         <v>101000</v>
       </c>
-      <c r="H9" s="17" t="n">
+      <c r="H9" s="18" t="n">
         <v>40</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>728</v>
-      </c>
-      <c r="J9" s="17" t="n">
+      <c r="I9" s="18" t="s">
+        <v>730</v>
+      </c>
+      <c r="J9" s="18" t="n">
         <v>111000</v>
       </c>
-      <c r="K9" s="17" t="n">
+      <c r="K9" s="18" t="n">
         <v>56</v>
       </c>
-      <c r="L9" s="18" t="s">
-        <v>729</v>
+      <c r="L9" s="19" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="n">
+      <c r="A10" s="18" t="n">
         <v>1001</v>
       </c>
-      <c r="B10" s="17" t="n">
+      <c r="B10" s="18" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>730</v>
-      </c>
-      <c r="D10" s="17" t="n">
+      <c r="C10" s="18" t="s">
+        <v>732</v>
+      </c>
+      <c r="D10" s="18" t="n">
         <v>11001</v>
       </c>
-      <c r="E10" s="17" t="n">
+      <c r="E10" s="18" t="n">
         <v>25</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>731</v>
-      </c>
-      <c r="G10" s="17" t="n">
+      <c r="F10" s="18" t="s">
+        <v>733</v>
+      </c>
+      <c r="G10" s="18" t="n">
         <v>101001</v>
       </c>
-      <c r="H10" s="17" t="n">
+      <c r="H10" s="18" t="n">
         <v>41</v>
       </c>
-      <c r="I10" s="17" t="s">
-        <v>732</v>
-      </c>
-      <c r="J10" s="17" t="n">
+      <c r="I10" s="18" t="s">
+        <v>734</v>
+      </c>
+      <c r="J10" s="18" t="n">
         <v>111001</v>
       </c>
-      <c r="K10" s="17" t="n">
+      <c r="K10" s="18" t="n">
         <v>56</v>
       </c>
-      <c r="L10" s="18" t="s">
-        <v>733</v>
+      <c r="L10" s="19" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="n">
+      <c r="A11" s="18" t="n">
         <v>1010</v>
       </c>
-      <c r="B11" s="17" t="n">
+      <c r="B11" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>734</v>
-      </c>
-      <c r="D11" s="17" t="n">
+      <c r="C11" s="18" t="s">
+        <v>736</v>
+      </c>
+      <c r="D11" s="18" t="n">
         <v>11010</v>
       </c>
-      <c r="E11" s="17" t="n">
+      <c r="E11" s="18" t="n">
         <v>26</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>735</v>
-      </c>
-      <c r="G11" s="17" t="n">
+      <c r="F11" s="18" t="s">
+        <v>737</v>
+      </c>
+      <c r="G11" s="18" t="n">
         <v>101010</v>
       </c>
-      <c r="H11" s="17" t="n">
+      <c r="H11" s="18" t="n">
         <v>42</v>
       </c>
-      <c r="I11" s="17" t="s">
-        <v>736</v>
-      </c>
-      <c r="J11" s="17" t="n">
+      <c r="I11" s="18" t="s">
+        <v>738</v>
+      </c>
+      <c r="J11" s="18" t="n">
         <v>111010</v>
       </c>
-      <c r="K11" s="17" t="n">
+      <c r="K11" s="18" t="n">
         <v>58</v>
       </c>
-      <c r="L11" s="18" t="s">
-        <v>737</v>
+      <c r="L11" s="19" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="n">
+      <c r="A12" s="18" t="n">
         <v>1011</v>
       </c>
-      <c r="B12" s="17" t="n">
+      <c r="B12" s="18" t="n">
         <v>11</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>738</v>
-      </c>
-      <c r="D12" s="17" t="n">
+      <c r="C12" s="18" t="s">
+        <v>740</v>
+      </c>
+      <c r="D12" s="18" t="n">
         <v>11011</v>
       </c>
-      <c r="E12" s="17" t="n">
+      <c r="E12" s="18" t="n">
         <v>27</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="G12" s="17" t="n">
+      <c r="F12" s="18" t="s">
+        <v>741</v>
+      </c>
+      <c r="G12" s="18" t="n">
         <v>101011</v>
       </c>
-      <c r="H12" s="17" t="n">
+      <c r="H12" s="18" t="n">
         <v>43</v>
       </c>
-      <c r="I12" s="17" t="s">
-        <v>740</v>
-      </c>
-      <c r="J12" s="17" t="n">
+      <c r="I12" s="18" t="s">
+        <v>742</v>
+      </c>
+      <c r="J12" s="18" t="n">
         <v>111011</v>
       </c>
-      <c r="K12" s="17" t="n">
+      <c r="K12" s="18" t="n">
         <v>59</v>
       </c>
-      <c r="L12" s="18" t="s">
-        <v>741</v>
+      <c r="L12" s="19" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="n">
+      <c r="A13" s="18" t="n">
         <v>1100</v>
       </c>
-      <c r="B13" s="17" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>742</v>
-      </c>
-      <c r="D13" s="17" t="n">
+      <c r="B13" s="18" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>744</v>
+      </c>
+      <c r="D13" s="18" t="n">
         <v>11100</v>
       </c>
-      <c r="E13" s="17" t="n">
+      <c r="E13" s="18" t="n">
         <v>28</v>
       </c>
-      <c r="F13" s="17" t="s">
-        <v>743</v>
-      </c>
-      <c r="G13" s="17" t="n">
+      <c r="F13" s="18" t="s">
+        <v>745</v>
+      </c>
+      <c r="G13" s="18" t="n">
         <v>101100</v>
       </c>
-      <c r="H13" s="17" t="n">
+      <c r="H13" s="18" t="n">
         <v>44</v>
       </c>
-      <c r="I13" s="17" t="s">
-        <v>744</v>
-      </c>
-      <c r="J13" s="17" t="n">
+      <c r="I13" s="18" t="s">
+        <v>746</v>
+      </c>
+      <c r="J13" s="18" t="n">
         <v>111100</v>
       </c>
-      <c r="K13" s="17" t="n">
+      <c r="K13" s="18" t="n">
         <v>60</v>
       </c>
-      <c r="L13" s="18" t="s">
-        <v>745</v>
+      <c r="L13" s="19" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="n">
+      <c r="A14" s="18" t="n">
         <v>1101</v>
       </c>
-      <c r="B14" s="17" t="n">
+      <c r="B14" s="18" t="n">
         <v>13</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>746</v>
-      </c>
-      <c r="D14" s="17" t="n">
+      <c r="C14" s="18" t="s">
+        <v>748</v>
+      </c>
+      <c r="D14" s="18" t="n">
         <v>11101</v>
       </c>
-      <c r="E14" s="17" t="n">
+      <c r="E14" s="18" t="n">
         <v>29</v>
       </c>
-      <c r="F14" s="17" t="s">
-        <v>747</v>
-      </c>
-      <c r="G14" s="17" t="n">
+      <c r="F14" s="18" t="s">
+        <v>749</v>
+      </c>
+      <c r="G14" s="18" t="n">
         <v>101101</v>
       </c>
-      <c r="H14" s="17" t="n">
+      <c r="H14" s="18" t="n">
         <v>45</v>
       </c>
-      <c r="I14" s="17" t="s">
-        <v>748</v>
-      </c>
-      <c r="J14" s="17" t="n">
+      <c r="I14" s="18" t="s">
+        <v>750</v>
+      </c>
+      <c r="J14" s="18" t="n">
         <v>111101</v>
       </c>
-      <c r="K14" s="17" t="n">
+      <c r="K14" s="18" t="n">
         <v>61</v>
       </c>
-      <c r="L14" s="18" t="s">
-        <v>749</v>
+      <c r="L14" s="19" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17" t="n">
+      <c r="A15" s="18" t="n">
         <v>1110</v>
       </c>
-      <c r="B15" s="17" t="n">
+      <c r="B15" s="18" t="n">
         <v>14</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>750</v>
-      </c>
-      <c r="D15" s="17" t="n">
+      <c r="C15" s="18" t="s">
+        <v>752</v>
+      </c>
+      <c r="D15" s="18" t="n">
         <v>11110</v>
       </c>
-      <c r="E15" s="17" t="n">
+      <c r="E15" s="18" t="n">
         <v>30</v>
       </c>
-      <c r="F15" s="17" t="s">
-        <v>751</v>
-      </c>
-      <c r="G15" s="17" t="n">
+      <c r="F15" s="18" t="s">
+        <v>753</v>
+      </c>
+      <c r="G15" s="18" t="n">
         <v>101110</v>
       </c>
-      <c r="H15" s="17" t="n">
+      <c r="H15" s="18" t="n">
         <v>46</v>
       </c>
-      <c r="I15" s="17" t="s">
-        <v>752</v>
-      </c>
-      <c r="J15" s="17" t="n">
+      <c r="I15" s="18" t="s">
+        <v>754</v>
+      </c>
+      <c r="J15" s="18" t="n">
         <v>111110</v>
       </c>
-      <c r="K15" s="17" t="n">
+      <c r="K15" s="18" t="n">
         <v>62</v>
       </c>
-      <c r="L15" s="18" t="s">
-        <v>753</v>
+      <c r="L15" s="19" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17" t="n">
+      <c r="A16" s="18" t="n">
         <v>1111</v>
       </c>
-      <c r="B16" s="17" t="n">
+      <c r="B16" s="18" t="n">
         <v>15</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>754</v>
-      </c>
-      <c r="D16" s="17" t="n">
+      <c r="C16" s="18" t="s">
+        <v>756</v>
+      </c>
+      <c r="D16" s="18" t="n">
         <v>11111</v>
       </c>
-      <c r="E16" s="17" t="n">
+      <c r="E16" s="18" t="n">
         <v>31</v>
       </c>
-      <c r="F16" s="17" t="s">
-        <v>755</v>
-      </c>
-      <c r="G16" s="17" t="n">
+      <c r="F16" s="18" t="s">
+        <v>757</v>
+      </c>
+      <c r="G16" s="18" t="n">
         <v>101111</v>
       </c>
-      <c r="H16" s="17" t="n">
+      <c r="H16" s="18" t="n">
         <v>47</v>
       </c>
-      <c r="I16" s="17" t="s">
-        <v>756</v>
-      </c>
-      <c r="J16" s="17" t="n">
+      <c r="I16" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J16" s="18" t="n">
         <v>111111</v>
       </c>
-      <c r="K16" s="17" t="n">
+      <c r="K16" s="18" t="n">
         <v>63</v>
       </c>
-      <c r="L16" s="18" t="s">
-        <v>757</v>
+      <c r="L16" s="19" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="19"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="17"/>
-      <c r="B32" s="18"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="19"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="19"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="19"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="19"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="19"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="19"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="19"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="19"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="19"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="17"/>
-      <c r="B41" s="18"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="19"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="17"/>
-      <c r="B42" s="18"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="19"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="17"/>
-      <c r="B43" s="18"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="19"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="17"/>
-      <c r="B44" s="18"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="19"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="17"/>
-      <c r="B45" s="18"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="19"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="17"/>
-      <c r="B46" s="18"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="19"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="17"/>
-      <c r="B47" s="18"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="19"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="17"/>
-      <c r="B48" s="18"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="19"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="17"/>
-      <c r="B49" s="18"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="19"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="17"/>
-      <c r="B50" s="18"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="19"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="17"/>
-      <c r="B51" s="18"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="19"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="17"/>
-      <c r="B52" s="18"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="19"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="17"/>
-      <c r="B53" s="18"/>
+      <c r="A53" s="18"/>
+      <c r="B53" s="19"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="17"/>
-      <c r="B54" s="18"/>
+      <c r="A54" s="18"/>
+      <c r="B54" s="19"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="17"/>
-      <c r="B55" s="18"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="19"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="17"/>
-      <c r="B56" s="18"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="19"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="17"/>
-      <c r="B57" s="18"/>
+      <c r="A57" s="18"/>
+      <c r="B57" s="19"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="17"/>
-      <c r="B58" s="18"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="19"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="17"/>
-      <c r="B59" s="18"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="19"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="17"/>
-      <c r="B60" s="18"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="19"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="17"/>
-      <c r="B61" s="18"/>
+      <c r="A61" s="18"/>
+      <c r="B61" s="19"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="17"/>
-      <c r="B62" s="18"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="19"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="17"/>
-      <c r="B63" s="18"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="19"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="17"/>
-      <c r="B64" s="18"/>
+      <c r="A64" s="18"/>
+      <c r="B64" s="19"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="17"/>
-      <c r="B65" s="18"/>
+      <c r="A65" s="18"/>
+      <c r="B65" s="19"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="17"/>
-      <c r="B66" s="18"/>
+      <c r="A66" s="18"/>
+      <c r="B66" s="19"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="17"/>
-      <c r="B67" s="18"/>
+      <c r="A67" s="18"/>
+      <c r="B67" s="19"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="17"/>
-      <c r="B68" s="18"/>
+      <c r="A68" s="18"/>
+      <c r="B68" s="19"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="17"/>
-      <c r="B69" s="18"/>
+      <c r="A69" s="18"/>
+      <c r="B69" s="19"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="17"/>
-      <c r="B70" s="18"/>
+      <c r="A70" s="18"/>
+      <c r="B70" s="19"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="17"/>
-      <c r="B71" s="18"/>
+      <c r="A71" s="18"/>
+      <c r="B71" s="19"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="17"/>
-      <c r="B72" s="18"/>
+      <c r="A72" s="18"/>
+      <c r="B72" s="19"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="17"/>
-      <c r="B73" s="18"/>
+      <c r="A73" s="18"/>
+      <c r="B73" s="19"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="17"/>
-      <c r="B74" s="18"/>
+      <c r="A74" s="18"/>
+      <c r="B74" s="19"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="17"/>
-      <c r="B75" s="18"/>
+      <c r="A75" s="18"/>
+      <c r="B75" s="19"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="17"/>
-      <c r="B76" s="18"/>
+      <c r="A76" s="18"/>
+      <c r="B76" s="19"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="17"/>
-      <c r="B77" s="18"/>
+      <c r="A77" s="18"/>
+      <c r="B77" s="19"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="17"/>
-      <c r="B78" s="18"/>
+      <c r="A78" s="18"/>
+      <c r="B78" s="19"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="17"/>
-      <c r="B79" s="18"/>
+      <c r="A79" s="18"/>
+      <c r="B79" s="19"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="17"/>
-      <c r="B80" s="18"/>
+      <c r="A80" s="18"/>
+      <c r="B80" s="19"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="17"/>
-      <c r="B81" s="18"/>
+      <c r="A81" s="18"/>
+      <c r="B81" s="19"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="17"/>
-      <c r="B82" s="18"/>
+      <c r="A82" s="18"/>
+      <c r="B82" s="19"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/references/MessagePayloadBlockFormatter.xlsx
+++ b/references/MessagePayloadBlockFormatter.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="774">
   <si>
     <t>Start</t>
   </si>
@@ -2335,13 +2335,22 @@
   </si>
   <si>
     <t>gnssMessage</t>
+  </si>
+  <si>
+    <t>Data Link Management Message</t>
+  </si>
+  <si>
+    <t>Channel Management</t>
+  </si>
+  <si>
+    <t>Group Assignment Control</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2362,8 +2371,14 @@
       <name val="Inherit"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2380,12 +2395,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor rgb="FF3FBE3F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF7F00"/>
-        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
@@ -2428,6 +2437,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF00B050"/>
       </patternFill>
     </fill>
   </fills>
@@ -2487,7 +2508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2495,30 +2516,33 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2888,10 +2912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M454"/>
+  <dimension ref="A1:M450"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A246" sqref="A246"/>
+    <sheetView tabSelected="1" topLeftCell="A342" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A344" sqref="A344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5421,10 +5445,10 @@
       <c r="M88" s="4"/>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="23" t="s">
         <v>168</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -5666,7 +5690,7 @@
       <c r="H96" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I96" s="9" t="str">
+      <c r="I96" s="8" t="str">
         <f t="shared" si="13"/>
         <v>messageBlocks.add(new PayloadBlock(72, 101, 30, "MMSI number 2", "mmsi2", "u", "9 decimal digits"));</v>
       </c>
@@ -5700,7 +5724,7 @@
       <c r="H97" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I97" s="9" t="str">
+      <c r="I97" s="8" t="str">
         <f t="shared" si="13"/>
         <v>messageBlocks.add(new PayloadBlock(102, 103, 2, "Sequence for MMSI 2", "mmsiseq2", "u", "Not used"));</v>
       </c>
@@ -5734,7 +5758,7 @@
       <c r="H98" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I98" s="9" t="str">
+      <c r="I98" s="8" t="str">
         <f t="shared" si="13"/>
         <v>messageBlocks.add(new PayloadBlock(104, 133, 30, "MMSI number 3", "mmsi3", "u", "9 decimal digits"));</v>
       </c>
@@ -5768,7 +5792,7 @@
       <c r="H99" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I99" s="9" t="str">
+      <c r="I99" s="8" t="str">
         <f t="shared" si="13"/>
         <v>messageBlocks.add(new PayloadBlock(134, 135, 2, "Sequence for MMSI 3", "mmsiseq3", "u", "Not used"));</v>
       </c>
@@ -5802,7 +5826,7 @@
       <c r="H100" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I100" s="9" t="str">
+      <c r="I100" s="8" t="str">
         <f t="shared" si="13"/>
         <v>messageBlocks.add(new PayloadBlock(136, 165, 30, "MMSI number 4", "mmsi4", "u", "9 decimal digits"));</v>
       </c>
@@ -5836,7 +5860,7 @@
       <c r="H101" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I101" s="9" t="str">
+      <c r="I101" s="8" t="str">
         <f t="shared" si="13"/>
         <v>messageBlocks.add(new PayloadBlock(166, 167, 2, "Sequence for MMSI 4", "mmsiseq4", "u", "Not used"));</v>
       </c>
@@ -6154,10 +6178,10 @@
       <c r="M113" s="4"/>
     </row>
     <row r="114" spans="1:13">
-      <c r="A114" s="10" t="s">
+      <c r="A114" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="B114" s="10" t="s">
         <v>191</v>
       </c>
       <c r="C114" s="1" t="s">
@@ -6813,7 +6837,7 @@
       <c r="A135" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B135" s="8" t="s">
+      <c r="B135" s="7" t="s">
         <v>215</v>
       </c>
       <c r="C135" s="1" t="s">
@@ -7056,10 +7080,10 @@
       <c r="M143" s="4"/>
     </row>
     <row r="144" spans="1:13">
-      <c r="A144" s="10" t="s">
+      <c r="A144" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="B144" s="10" t="s">
         <v>218</v>
       </c>
       <c r="C144" s="1" t="s">
@@ -7068,7 +7092,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
-      <c r="H144" s="12" t="s">
+      <c r="H144" s="11" t="s">
         <v>220</v>
       </c>
       <c r="I144" s="4"/>
@@ -7678,10 +7702,10 @@
       <c r="M163" s="4"/>
     </row>
     <row r="164" spans="1:13">
-      <c r="A164" s="13" t="s">
+      <c r="A164" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B164" s="7" t="s">
         <v>221</v>
       </c>
       <c r="C164" s="1" t="s">
@@ -7994,10 +8018,10 @@
       <c r="M174" s="4"/>
     </row>
     <row r="175" spans="1:13">
-      <c r="A175" s="13" t="s">
+      <c r="A175" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B175" s="8" t="s">
+      <c r="B175" s="7" t="s">
         <v>228</v>
       </c>
       <c r="C175" s="1" t="s">
@@ -8006,7 +8030,7 @@
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
       <c r="G175" s="4"/>
-      <c r="H175" s="12" t="s">
+      <c r="H175" s="11" t="s">
         <v>230</v>
       </c>
       <c r="I175" s="4"/>
@@ -8449,10 +8473,10 @@
       <c r="M189" s="4"/>
     </row>
     <row r="190" spans="1:13">
-      <c r="A190" s="13" t="s">
+      <c r="A190" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B190" s="8" t="s">
+      <c r="B190" s="7" t="s">
         <v>231</v>
       </c>
       <c r="C190" s="1" t="s">
@@ -8663,10 +8687,10 @@
       <c r="M197" s="4"/>
     </row>
     <row r="198" spans="1:13">
-      <c r="A198" s="20" t="s">
+      <c r="A198" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B198" s="21" t="s">
+      <c r="B198" s="19" t="s">
         <v>235</v>
       </c>
       <c r="C198" s="1" t="s">
@@ -8940,7 +8964,7 @@
       <c r="H206" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I206" s="9" t="str">
+      <c r="I206" s="8" t="str">
         <f t="shared" si="33"/>
         <v>messageBlocks.add(new PayloadBlock(88, 89, 2, "Spare", "", "x", "Not used"));</v>
       </c>
@@ -8974,7 +8998,7 @@
       <c r="H207" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="I207" s="9" t="str">
+      <c r="I207" s="8" t="str">
         <f t="shared" si="33"/>
         <v>messageBlocks.add(new PayloadBlock(90, 95, 6, "Second message type", "type1_2", "u", "Unsigned integer"));</v>
       </c>
@@ -9008,7 +9032,7 @@
       <c r="H208" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="I208" s="9" t="str">
+      <c r="I208" s="8" t="str">
         <f t="shared" si="33"/>
         <v>messageBlocks.add(new PayloadBlock(96, 107, 12, "Second slot offset", "offset1_2", "u", "Unsigned integer"));</v>
       </c>
@@ -9040,7 +9064,7 @@
       <c r="H209" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I209" s="9" t="str">
+      <c r="I209" s="8" t="str">
         <f t="shared" si="33"/>
         <v>messageBlocks.add(new PayloadBlock(108, 109, 2, "Spare", "", "x", "Not used"));</v>
       </c>
@@ -9074,7 +9098,7 @@
       <c r="H210" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I210" s="9" t="str">
+      <c r="I210" s="8" t="str">
         <f t="shared" si="33"/>
         <v>messageBlocks.add(new PayloadBlock(110, 139, 30, "Interrogated MMSI", "mmsi2", "u", "9 decimal digits"));</v>
       </c>
@@ -9108,7 +9132,7 @@
       <c r="H211" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="I211" s="9" t="str">
+      <c r="I211" s="8" t="str">
         <f t="shared" si="33"/>
         <v>messageBlocks.add(new PayloadBlock(140, 145, 6, "First message type", "type2_1", "u", "Unsigned integer"));</v>
       </c>
@@ -9142,7 +9166,7 @@
       <c r="H212" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="I212" s="9" t="str">
+      <c r="I212" s="8" t="str">
         <f t="shared" si="33"/>
         <v>messageBlocks.add(new PayloadBlock(146, 157, 12, "First slot offset", "offset2_1", "u", "Unsigned integer"));</v>
       </c>
@@ -9174,7 +9198,7 @@
       <c r="H213" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I213" s="9" t="str">
+      <c r="I213" s="8" t="str">
         <f t="shared" si="33"/>
         <v>messageBlocks.add(new PayloadBlock(158, 159, 2, "Spare", "", "x", "Not used"));</v>
       </c>
@@ -9211,10 +9235,10 @@
       <c r="M215" s="4"/>
     </row>
     <row r="216" spans="1:13">
-      <c r="A216" s="20" t="s">
+      <c r="A216" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B216" s="21" t="s">
+      <c r="B216" s="19" t="s">
         <v>248</v>
       </c>
       <c r="C216" s="1" t="s">
@@ -9490,7 +9514,7 @@
       <c r="H224" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I224" s="9" t="str">
+      <c r="I224" s="8" t="str">
         <f t="shared" si="36"/>
         <v>messageBlocks.add(new PayloadBlock(92, 121, 30, "Destination B MMSI", "mmsi2", "u", "9 decimal digits"));</v>
       </c>
@@ -9524,7 +9548,7 @@
       <c r="H225" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="I225" s="9" t="str">
+      <c r="I225" s="8" t="str">
         <f t="shared" si="36"/>
         <v>messageBlocks.add(new PayloadBlock(122, 133, 12, "Offset B", "offset2", "u", "See [IALA]"));</v>
       </c>
@@ -9558,7 +9582,7 @@
       <c r="H226" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="I226" s="9" t="str">
+      <c r="I226" s="8" t="str">
         <f t="shared" si="36"/>
         <v>messageBlocks.add(new PayloadBlock(134, 143, 10, "Increment B", "increment2", "u", "See [IALA]"));</v>
       </c>
@@ -9590,7 +9614,7 @@
       <c r="H227" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="I227" s="9" t="str">
+      <c r="I227" s="8" t="str">
         <f t="shared" si="36"/>
         <v>messageBlocks.add(new PayloadBlock(144, 147, 4, "Spare", "", "x", "Spare is used for byte boundary to 96 bits"));</v>
       </c>
@@ -9626,10 +9650,10 @@
       <c r="M229" s="4"/>
     </row>
     <row r="230" spans="1:13">
-      <c r="A230" s="20" t="s">
+      <c r="A230" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B230" s="21" t="s">
+      <c r="B230" s="19" t="s">
         <v>263</v>
       </c>
       <c r="C230" s="1" t="s">
@@ -9972,7 +9996,7 @@
     <row r="242" spans="1:13">
       <c r="A242" s="4"/>
       <c r="B242" s="1">
-        <f t="shared" ref="B242:B245" si="44">B241+D241</f>
+        <f t="shared" ref="B242" si="44">B241+D241</f>
         <v>6</v>
       </c>
       <c r="C242" s="1">
@@ -10024,7 +10048,7 @@
         <v>12</v>
       </c>
       <c r="H243" s="4"/>
-      <c r="I243" s="22" t="str">
+      <c r="I243" s="20" t="str">
         <f t="shared" si="43"/>
         <v>messageBlocks.add(new PayloadBlock(16, 28, 13, "Zcount", "zCount", "u", ""));</v>
       </c>
@@ -10056,7 +10080,7 @@
         <v>12</v>
       </c>
       <c r="H244" s="4"/>
-      <c r="I244" s="22" t="str">
+      <c r="I244" s="20" t="str">
         <f t="shared" si="43"/>
         <v>messageBlocks.add(new PayloadBlock(29, 31, 3, "Sequence Number", "seqno", "u", ""));</v>
       </c>
@@ -10088,7 +10112,7 @@
         <v>12</v>
       </c>
       <c r="H245" s="4"/>
-      <c r="I245" s="22" t="str">
+      <c r="I245" s="20" t="str">
         <f t="shared" si="43"/>
         <v>messageBlocks.add(new PayloadBlock(32, 36, 5, "words", "words", "u", ""));</v>
       </c>
@@ -10120,7 +10144,7 @@
         <v>12</v>
       </c>
       <c r="H246" s="4"/>
-      <c r="I246" s="22" t="str">
+      <c r="I246" s="20" t="str">
         <f t="shared" si="43"/>
         <v>messageBlocks.add(new PayloadBlock(37, 39, 3, "health", "health", "u", ""));</v>
       </c>
@@ -10152,7 +10176,7 @@
         <v>12</v>
       </c>
       <c r="H247" s="4"/>
-      <c r="I247" s="22" t="str">
+      <c r="I247" s="20" t="str">
         <f t="shared" ref="I247" si="46">"messageBlocks.add(new PayloadBlock("&amp;B247&amp;", "&amp;C247&amp;", "&amp;D247&amp;", "&amp;CHAR(34)&amp;E247&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F247&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G247&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H247&amp;CHAR(34)&amp;"));"</f>
         <v>messageBlocks.add(new PayloadBlock(40, 45, 6, "GNSS Message", "gnssMessage", "u", ""));</v>
       </c>
@@ -10186,12 +10210,20 @@
       <c r="M249" s="4"/>
     </row>
     <row r="250" spans="1:13">
-      <c r="A250" s="4"/>
-      <c r="D250"/>
+      <c r="A250" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
       <c r="G250" s="4"/>
       <c r="H250" s="4"/>
+      <c r="I250" s="4"/>
       <c r="J250" s="4"/>
       <c r="K250" s="4"/>
       <c r="L250" s="4"/>
@@ -10199,11 +10231,32 @@
     </row>
     <row r="251" spans="1:13">
       <c r="A251" s="4"/>
-      <c r="D251"/>
-      <c r="E251" s="4"/>
-      <c r="F251" s="4"/>
-      <c r="G251" s="4"/>
-      <c r="H251" s="4"/>
+      <c r="B251" s="1">
+        <v>0</v>
+      </c>
+      <c r="C251" s="1">
+        <f t="shared" ref="C251:C271" si="47">B251+D251-1</f>
+        <v>5</v>
+      </c>
+      <c r="D251">
+        <v>6</v>
+      </c>
+      <c r="E251" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F251" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G251" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H251" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I251" t="str">
+        <f t="shared" ref="I251:I271" si="48">"messageBlocks.add(new PayloadBlock("&amp;B251&amp;", "&amp;C251&amp;", "&amp;D251&amp;", "&amp;CHAR(34)&amp;E251&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F251&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G251&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H251&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 18"));</v>
+      </c>
       <c r="J251" s="4"/>
       <c r="K251" s="4"/>
       <c r="L251" s="4"/>
@@ -10211,11 +10264,33 @@
     </row>
     <row r="252" spans="1:13">
       <c r="A252" s="4"/>
-      <c r="D252"/>
-      <c r="E252" s="4"/>
-      <c r="F252" s="4"/>
-      <c r="G252" s="4"/>
-      <c r="H252" s="4"/>
+      <c r="B252" s="1">
+        <f t="shared" ref="B252:B271" si="49">B251+D251</f>
+        <v>6</v>
+      </c>
+      <c r="C252" s="1">
+        <f t="shared" si="47"/>
+        <v>7</v>
+      </c>
+      <c r="D252">
+        <v>2</v>
+      </c>
+      <c r="E252" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F252" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G252" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H252" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I252" t="str">
+        <f t="shared" si="48"/>
+        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in Common Navigation Block"));</v>
+      </c>
       <c r="J252" s="4"/>
       <c r="K252" s="4"/>
       <c r="L252" s="4"/>
@@ -10223,31 +10298,67 @@
     </row>
     <row r="253" spans="1:13">
       <c r="A253" s="4"/>
-      <c r="E253" s="4"/>
-      <c r="F253" s="4"/>
-      <c r="G253" s="4"/>
-      <c r="H253" s="4"/>
-      <c r="I253" s="4"/>
+      <c r="B253" s="1">
+        <f t="shared" si="49"/>
+        <v>8</v>
+      </c>
+      <c r="C253" s="1">
+        <f t="shared" si="47"/>
+        <v>37</v>
+      </c>
+      <c r="D253">
+        <v>30</v>
+      </c>
+      <c r="E253" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F253" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G253" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H253" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I253" t="str">
+        <f t="shared" si="48"/>
+        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 decimal digits"));</v>
+      </c>
       <c r="J253" s="4"/>
       <c r="K253" s="4"/>
       <c r="L253" s="4"/>
       <c r="M253" s="4"/>
     </row>
     <row r="254" spans="1:13">
-      <c r="A254" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B254" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E254" s="4"/>
-      <c r="F254" s="4"/>
-      <c r="G254" s="4"/>
-      <c r="H254" s="4"/>
-      <c r="I254" s="4"/>
+      <c r="A254" s="4"/>
+      <c r="B254" s="1">
+        <f t="shared" si="49"/>
+        <v>38</v>
+      </c>
+      <c r="C254" s="1">
+        <f t="shared" si="47"/>
+        <v>45</v>
+      </c>
+      <c r="D254">
+        <v>8</v>
+      </c>
+      <c r="E254" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F254" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G254" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H254" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I254" t="str">
+        <f t="shared" si="48"/>
+        <v>messageBlocks.add(new PayloadBlock(38, 45, 8, "Regional Reserved", "reserved", "x", "Not used"));</v>
+      </c>
       <c r="J254" s="4"/>
       <c r="K254" s="4"/>
       <c r="L254" s="4"/>
@@ -10256,30 +10367,31 @@
     <row r="255" spans="1:13">
       <c r="A255" s="4"/>
       <c r="B255" s="1">
-        <v>0</v>
+        <f t="shared" si="49"/>
+        <v>46</v>
       </c>
       <c r="C255" s="1">
-        <f t="shared" ref="C255:C275" si="47">B255+D255-1</f>
-        <v>5</v>
+        <f t="shared" si="47"/>
+        <v>55</v>
       </c>
       <c r="D255">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>10</v>
+        <v>275</v>
       </c>
       <c r="F255" s="4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H255" s="4" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="I255" t="str">
-        <f t="shared" ref="I255:I275" si="48">"messageBlocks.add(new PayloadBlock("&amp;B255&amp;", "&amp;C255&amp;", "&amp;D255&amp;", "&amp;CHAR(34)&amp;E255&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F255&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G255&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H255&amp;CHAR(34)&amp;"));"</f>
-        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 18"));</v>
+        <f t="shared" si="48"/>
+        <v>messageBlocks.add(new PayloadBlock(46, 55, 10, "Speed Over Ground", "speed", "U1", "As in common navigation block"));</v>
       </c>
       <c r="J255" s="4"/>
       <c r="K255" s="4"/>
@@ -10289,31 +10401,31 @@
     <row r="256" spans="1:13">
       <c r="A256" s="4"/>
       <c r="B256" s="1">
-        <f t="shared" ref="B256:B275" si="49">B255+D255</f>
-        <v>6</v>
+        <f t="shared" si="49"/>
+        <v>56</v>
       </c>
       <c r="C256" s="1">
         <f t="shared" si="47"/>
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="D256">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F256" s="4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H256" s="4" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="I256" t="str">
         <f t="shared" si="48"/>
-        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in Common Navigation Block"));</v>
+        <v>messageBlocks.add(new PayloadBlock(56, 56, 1, "Position Accuracy", "accuracy", "b", "See below"));</v>
       </c>
       <c r="J256" s="4"/>
       <c r="K256" s="4"/>
@@ -10324,30 +10436,30 @@
       <c r="A257" s="4"/>
       <c r="B257" s="1">
         <f t="shared" si="49"/>
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C257" s="1">
         <f t="shared" si="47"/>
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D257">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F257" s="4" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H257" s="4" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="I257" t="str">
         <f t="shared" si="48"/>
-        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 decimal digits"));</v>
+        <v>messageBlocks.add(new PayloadBlock(57, 84, 28, "Longitude", "lon", "I4", "Minutes/10000 (as in CNB)"));</v>
       </c>
       <c r="J257" s="4"/>
       <c r="K257" s="4"/>
@@ -10358,30 +10470,30 @@
       <c r="A258" s="4"/>
       <c r="B258" s="1">
         <f t="shared" si="49"/>
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="C258" s="1">
         <f t="shared" si="47"/>
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="D258">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>273</v>
+        <v>38</v>
       </c>
       <c r="F258" s="4" t="s">
-        <v>274</v>
+        <v>39</v>
       </c>
       <c r="G258" s="4" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="H258" s="4" t="s">
-        <v>54</v>
+        <v>197</v>
       </c>
       <c r="I258" t="str">
         <f t="shared" si="48"/>
-        <v>messageBlocks.add(new PayloadBlock(38, 45, 8, "Regional Reserved", "reserved", "x", "Not used"));</v>
+        <v>messageBlocks.add(new PayloadBlock(85, 111, 27, "Latitude", "lat", "I4", "Minutes/10000 (as in CNB)"));</v>
       </c>
       <c r="J258" s="4"/>
       <c r="K258" s="4"/>
@@ -10392,30 +10504,30 @@
       <c r="A259" s="4"/>
       <c r="B259" s="1">
         <f t="shared" si="49"/>
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="C259" s="1">
         <f t="shared" si="47"/>
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="D259">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>275</v>
+        <v>198</v>
       </c>
       <c r="F259" s="4" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G259" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H259" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I259" t="str">
         <f t="shared" si="48"/>
-        <v>messageBlocks.add(new PayloadBlock(46, 55, 10, "Speed Over Ground", "speed", "U1", "As in common navigation block"));</v>
+        <v>messageBlocks.add(new PayloadBlock(112, 123, 12, "Course Over Ground", "course", "U1", "0.1 degrees from true north"));</v>
       </c>
       <c r="J259" s="4"/>
       <c r="K259" s="4"/>
@@ -10426,30 +10538,30 @@
       <c r="A260" s="4"/>
       <c r="B260" s="1">
         <f t="shared" si="49"/>
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="C260" s="1">
         <f t="shared" si="47"/>
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="D260">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>31</v>
+        <v>278</v>
       </c>
       <c r="F260" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H260" s="4" t="s">
-        <v>27</v>
+        <v>279</v>
       </c>
       <c r="I260" t="str">
         <f t="shared" si="48"/>
-        <v>messageBlocks.add(new PayloadBlock(56, 56, 1, "Position Accuracy", "accuracy", "b", "See below"));</v>
+        <v>messageBlocks.add(new PayloadBlock(124, 132, 9, "True Heading", "heading", "u", "0 to 359 degrees, 511 = N/A"));</v>
       </c>
       <c r="J260" s="4"/>
       <c r="K260" s="4"/>
@@ -10460,30 +10572,30 @@
       <c r="A261" s="4"/>
       <c r="B261" s="1">
         <f t="shared" si="49"/>
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="C261" s="1">
         <f t="shared" si="47"/>
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="D261">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F261" s="4" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G261" s="4" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H261" s="4" t="s">
-        <v>197</v>
+        <v>280</v>
       </c>
       <c r="I261" t="str">
         <f t="shared" si="48"/>
-        <v>messageBlocks.add(new PayloadBlock(57, 84, 28, "Longitude", "lon", "I4", "Minutes/10000 (as in CNB)"));</v>
+        <v>messageBlocks.add(new PayloadBlock(133, 138, 6, "Time Stamp", "second", "u", "Second of UTC timestamp."));</v>
       </c>
       <c r="J261" s="4"/>
       <c r="K261" s="4"/>
@@ -10494,30 +10606,30 @@
       <c r="A262" s="4"/>
       <c r="B262" s="1">
         <f t="shared" si="49"/>
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="C262" s="1">
         <f t="shared" si="47"/>
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="D262">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="F262" s="4" t="s">
-        <v>39</v>
+        <v>205</v>
       </c>
       <c r="G262" s="4" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H262" s="4" t="s">
-        <v>197</v>
+        <v>281</v>
       </c>
       <c r="I262" t="str">
         <f t="shared" si="48"/>
-        <v>messageBlocks.add(new PayloadBlock(85, 111, 27, "Latitude", "lat", "I4", "Minutes/10000 (as in CNB)"));</v>
+        <v>messageBlocks.add(new PayloadBlock(139, 140, 2, "Regional reserved", "regional", "u", "Uninterpreted"));</v>
       </c>
       <c r="J262" s="4"/>
       <c r="K262" s="4"/>
@@ -10528,30 +10640,30 @@
       <c r="A263" s="4"/>
       <c r="B263" s="1">
         <f t="shared" si="49"/>
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="C263" s="1">
         <f t="shared" si="47"/>
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="D263">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>198</v>
+        <v>282</v>
       </c>
       <c r="F263" s="4" t="s">
-        <v>41</v>
+        <v>283</v>
       </c>
       <c r="G263" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H263" s="4" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="I263" t="str">
         <f t="shared" si="48"/>
-        <v>messageBlocks.add(new PayloadBlock(112, 123, 12, "Course Over Ground", "course", "U1", "0.1 degrees from true north"));</v>
+        <v>messageBlocks.add(new PayloadBlock(141, 141, 1, "CS Unit", "cs", "b", "0=Class B SOTDMA unit 1=Class B CS (Carrier Sense) unit"));</v>
       </c>
       <c r="J263" s="4"/>
       <c r="K263" s="4"/>
@@ -10562,30 +10674,30 @@
       <c r="A264" s="4"/>
       <c r="B264" s="1">
         <f t="shared" si="49"/>
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C264" s="1">
         <f t="shared" si="47"/>
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="D264">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E264" s="4" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="F264" s="4" t="s">
-        <v>44</v>
+        <v>286</v>
       </c>
       <c r="G264" s="4" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H264" s="4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="I264" t="str">
         <f t="shared" si="48"/>
-        <v>messageBlocks.add(new PayloadBlock(124, 132, 9, "True Heading", "heading", "u", "0 to 359 degrees, 511 = N/A"));</v>
+        <v>messageBlocks.add(new PayloadBlock(142, 142, 1, "Display flag", "display", "b", "0=No visual display, 1=Has display, (Probably not reliable)."));</v>
       </c>
       <c r="J264" s="4"/>
       <c r="K264" s="4"/>
@@ -10596,30 +10708,30 @@
       <c r="A265" s="4"/>
       <c r="B265" s="1">
         <f t="shared" si="49"/>
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C265" s="1">
         <f t="shared" si="47"/>
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D265">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>46</v>
+        <v>288</v>
       </c>
       <c r="F265" s="4" t="s">
-        <v>47</v>
+        <v>289</v>
       </c>
       <c r="G265" s="4" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H265" s="4" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="I265" t="str">
         <f t="shared" si="48"/>
-        <v>messageBlocks.add(new PayloadBlock(133, 138, 6, "Time Stamp", "second", "u", "Second of UTC timestamp."));</v>
+        <v>messageBlocks.add(new PayloadBlock(143, 143, 1, "DSC Flag", "dsc", "b", "If 1, unit is attached to a VHF voice radio with DSC capability."));</v>
       </c>
       <c r="J265" s="4"/>
       <c r="K265" s="4"/>
@@ -10630,30 +10742,30 @@
       <c r="A266" s="4"/>
       <c r="B266" s="1">
         <f t="shared" si="49"/>
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C266" s="1">
         <f t="shared" si="47"/>
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D266">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>204</v>
+        <v>291</v>
       </c>
       <c r="F266" s="4" t="s">
-        <v>205</v>
+        <v>292</v>
       </c>
       <c r="G266" s="4" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H266" s="4" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="I266" t="str">
         <f t="shared" si="48"/>
-        <v>messageBlocks.add(new PayloadBlock(139, 140, 2, "Regional reserved", "regional", "u", "Uninterpreted"));</v>
+        <v>messageBlocks.add(new PayloadBlock(144, 144, 1, "Band flag", "band", "b", "Base stations can command units to switch frequency. If this flag is 1, the unit can use any part of the marine channel."));</v>
       </c>
       <c r="J266" s="4"/>
       <c r="K266" s="4"/>
@@ -10664,30 +10776,30 @@
       <c r="A267" s="4"/>
       <c r="B267" s="1">
         <f t="shared" si="49"/>
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C267" s="1">
         <f t="shared" si="47"/>
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D267">
         <v>1</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="F267" s="4" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="G267" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H267" s="4" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="I267" t="str">
         <f t="shared" si="48"/>
-        <v>messageBlocks.add(new PayloadBlock(141, 141, 1, "CS Unit", "cs", "b", "0=Class B SOTDMA unit 1=Class B CS (Carrier Sense) unit"));</v>
+        <v>messageBlocks.add(new PayloadBlock(145, 145, 1, "Message 22 flag", "msg22", "b", "If 1, unit can accept a channel assignment via Message Type 22."));</v>
       </c>
       <c r="J267" s="4"/>
       <c r="K267" s="4"/>
@@ -10698,30 +10810,30 @@
       <c r="A268" s="4"/>
       <c r="B268" s="1">
         <f t="shared" si="49"/>
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C268" s="1">
         <f t="shared" si="47"/>
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D268">
         <v>1</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>285</v>
+        <v>208</v>
       </c>
       <c r="F268" s="4" t="s">
-        <v>286</v>
+        <v>209</v>
       </c>
       <c r="G268" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H268" s="4" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="I268" t="str">
         <f t="shared" si="48"/>
-        <v>messageBlocks.add(new PayloadBlock(142, 142, 1, "Display flag", "display", "b", "0=No visual display, 1=Has display, (Probably not reliable)."));</v>
+        <v>messageBlocks.add(new PayloadBlock(146, 146, 1, "Assigned", "assigned", "b", "Assigned-mode flag: 0 = autonomous mode (default), 1 = assigned mode."));</v>
       </c>
       <c r="J268" s="4"/>
       <c r="K268" s="4"/>
@@ -10732,30 +10844,30 @@
       <c r="A269" s="4"/>
       <c r="B269" s="1">
         <f t="shared" si="49"/>
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C269" s="1">
         <f t="shared" si="47"/>
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D269">
         <v>1</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>288</v>
+        <v>55</v>
       </c>
       <c r="F269" s="4" t="s">
-        <v>289</v>
+        <v>56</v>
       </c>
       <c r="G269" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H269" s="4" t="s">
-        <v>290</v>
+        <v>94</v>
       </c>
       <c r="I269" t="str">
         <f t="shared" si="48"/>
-        <v>messageBlocks.add(new PayloadBlock(143, 143, 1, "DSC Flag", "dsc", "b", "If 1, unit is attached to a VHF voice radio with DSC capability."));</v>
+        <v>messageBlocks.add(new PayloadBlock(147, 147, 1, "RAIM flag", "raim", "b", "As for common navigation block"));</v>
       </c>
       <c r="J269" s="4"/>
       <c r="K269" s="4"/>
@@ -10766,30 +10878,30 @@
       <c r="A270" s="4"/>
       <c r="B270" s="1">
         <f t="shared" si="49"/>
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C270" s="1">
         <f t="shared" si="47"/>
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D270">
         <v>1</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>291</v>
+        <v>211</v>
       </c>
       <c r="F270" s="4" t="s">
-        <v>292</v>
+        <v>212</v>
       </c>
       <c r="G270" s="4" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H270" s="4" t="s">
-        <v>293</v>
+        <v>213</v>
       </c>
       <c r="I270" t="str">
         <f t="shared" si="48"/>
-        <v>messageBlocks.add(new PayloadBlock(144, 144, 1, "Band flag", "band", "b", "Base stations can command units to switch frequency. If this flag is 1, the unit can use any part of the marine channel."));</v>
+        <v>messageBlocks.add(new PayloadBlock(148, 148, 1, "Comm State Selector", "commflag", "u", "0=SOTDMA, 1=ITDMA"));</v>
       </c>
       <c r="J270" s="4"/>
       <c r="K270" s="4"/>
@@ -10800,30 +10912,30 @@
       <c r="A271" s="4"/>
       <c r="B271" s="1">
         <f t="shared" si="49"/>
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C271" s="1">
         <f t="shared" si="47"/>
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="D271">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>294</v>
+        <v>57</v>
       </c>
       <c r="F271" s="4" t="s">
-        <v>295</v>
+        <v>58</v>
       </c>
       <c r="G271" s="4" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H271" s="4" t="s">
-        <v>296</v>
+        <v>214</v>
       </c>
       <c r="I271" t="str">
         <f t="shared" si="48"/>
-        <v>messageBlocks.add(new PayloadBlock(145, 145, 1, "Message 22 flag", "msg22", "b", "If 1, unit can accept a channel assignment via Message Type 22."));</v>
+        <v>messageBlocks.add(new PayloadBlock(149, 167, 19, "Radio status", "radio", "u", "See [IALA] for details."));</v>
       </c>
       <c r="J271" s="4"/>
       <c r="K271" s="4"/>
@@ -10832,33 +10944,14 @@
     </row>
     <row r="272" spans="1:13">
       <c r="A272" s="4"/>
-      <c r="B272" s="1">
-        <f t="shared" si="49"/>
-        <v>146</v>
-      </c>
-      <c r="C272" s="1">
-        <f t="shared" si="47"/>
-        <v>146</v>
-      </c>
       <c r="D272">
-        <v>1</v>
-      </c>
-      <c r="E272" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="F272" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G272" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H272" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="I272" t="str">
-        <f t="shared" si="48"/>
-        <v>messageBlocks.add(new PayloadBlock(146, 146, 1, "Assigned", "assigned", "b", "Assigned-mode flag: 0 = autonomous mode (default), 1 = assigned mode."));</v>
-      </c>
+        <f>SUM(D251:D271)</f>
+        <v>168</v>
+      </c>
+      <c r="E272" s="4"/>
+      <c r="F272" s="4"/>
+      <c r="G272" s="4"/>
+      <c r="H272" s="4"/>
       <c r="J272" s="4"/>
       <c r="K272" s="4"/>
       <c r="L272" s="4"/>
@@ -10866,67 +10959,31 @@
     </row>
     <row r="273" spans="1:13">
       <c r="A273" s="4"/>
-      <c r="B273" s="1">
-        <f t="shared" si="49"/>
-        <v>147</v>
-      </c>
-      <c r="C273" s="1">
-        <f t="shared" si="47"/>
-        <v>147</v>
-      </c>
-      <c r="D273">
-        <v>1</v>
-      </c>
-      <c r="E273" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F273" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G273" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H273" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I273" t="str">
-        <f t="shared" si="48"/>
-        <v>messageBlocks.add(new PayloadBlock(147, 147, 1, "RAIM flag", "raim", "b", "As for common navigation block"));</v>
-      </c>
+      <c r="E273" s="4"/>
+      <c r="F273" s="4"/>
+      <c r="G273" s="4"/>
+      <c r="H273" s="4"/>
+      <c r="I273" s="4"/>
       <c r="J273" s="4"/>
       <c r="K273" s="4"/>
       <c r="L273" s="4"/>
       <c r="M273" s="4"/>
     </row>
     <row r="274" spans="1:13">
-      <c r="A274" s="4"/>
-      <c r="B274" s="1">
-        <f t="shared" si="49"/>
-        <v>148</v>
-      </c>
-      <c r="C274" s="1">
-        <f t="shared" si="47"/>
-        <v>148</v>
-      </c>
-      <c r="D274">
-        <v>1</v>
-      </c>
-      <c r="E274" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F274" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="G274" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H274" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I274" t="str">
-        <f t="shared" si="48"/>
-        <v>messageBlocks.add(new PayloadBlock(148, 148, 1, "Comm State Selector", "commflag", "u", "0=SOTDMA, 1=ITDMA"));</v>
-      </c>
+      <c r="A274" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E274" s="4"/>
+      <c r="F274" s="4"/>
+      <c r="G274" s="4"/>
+      <c r="H274" s="4"/>
+      <c r="I274" s="4"/>
       <c r="J274" s="4"/>
       <c r="K274" s="4"/>
       <c r="L274" s="4"/>
@@ -10935,31 +10992,30 @@
     <row r="275" spans="1:13">
       <c r="A275" s="4"/>
       <c r="B275" s="1">
-        <f t="shared" si="49"/>
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="C275" s="1">
-        <f t="shared" si="47"/>
-        <v>167</v>
+        <f t="shared" ref="C275:C294" si="50">B275+D275-1</f>
+        <v>5</v>
       </c>
       <c r="D275">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="F275" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="G275" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H275" s="4" t="s">
-        <v>214</v>
+        <v>300</v>
       </c>
       <c r="I275" t="str">
-        <f t="shared" si="48"/>
-        <v>messageBlocks.add(new PayloadBlock(149, 167, 19, "Radio status", "radio", "u", "See [IALA] for details."));</v>
+        <f t="shared" ref="I275:I288" si="51">"messageBlocks.add(new PayloadBlock("&amp;B275&amp;", "&amp;C275&amp;", "&amp;D275&amp;", "&amp;CHAR(34)&amp;E275&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F275&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G275&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H275&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 19"));</v>
       </c>
       <c r="J275" s="4"/>
       <c r="K275" s="4"/>
@@ -10968,14 +11024,33 @@
     </row>
     <row r="276" spans="1:13">
       <c r="A276" s="4"/>
+      <c r="B276" s="1">
+        <f t="shared" ref="B276:B294" si="52">B275+D275</f>
+        <v>6</v>
+      </c>
+      <c r="C276" s="1">
+        <f t="shared" si="50"/>
+        <v>7</v>
+      </c>
       <c r="D276">
-        <f>SUM(D255:D275)</f>
-        <v>168</v>
-      </c>
-      <c r="E276" s="4"/>
-      <c r="F276" s="4"/>
-      <c r="G276" s="4"/>
-      <c r="H276" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="E276" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F276" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G276" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H276" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="I276" t="str">
+        <f t="shared" si="51"/>
+        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNN"));</v>
+      </c>
       <c r="J276" s="4"/>
       <c r="K276" s="4"/>
       <c r="L276" s="4"/>
@@ -10983,31 +11058,65 @@
     </row>
     <row r="277" spans="1:13">
       <c r="A277" s="4"/>
-      <c r="E277" s="4"/>
-      <c r="F277" s="4"/>
-      <c r="G277" s="4"/>
-      <c r="H277" s="4"/>
-      <c r="I277" s="4"/>
+      <c r="B277" s="1">
+        <f t="shared" si="52"/>
+        <v>8</v>
+      </c>
+      <c r="C277" s="1">
+        <f t="shared" si="50"/>
+        <v>37</v>
+      </c>
+      <c r="D277">
+        <v>30</v>
+      </c>
+      <c r="E277" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F277" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G277" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H277" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I277" t="str">
+        <f t="shared" si="51"/>
+        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 digits"));</v>
+      </c>
       <c r="J277" s="4"/>
       <c r="K277" s="4"/>
       <c r="L277" s="4"/>
       <c r="M277" s="4"/>
     </row>
     <row r="278" spans="1:13">
-      <c r="A278" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B278" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E278" s="4"/>
-      <c r="F278" s="4"/>
-      <c r="G278" s="4"/>
+      <c r="A278" s="4"/>
+      <c r="B278" s="1">
+        <f t="shared" si="52"/>
+        <v>38</v>
+      </c>
+      <c r="C278" s="1">
+        <f t="shared" si="50"/>
+        <v>45</v>
+      </c>
+      <c r="D278">
+        <v>8</v>
+      </c>
+      <c r="E278" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F278" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G278" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="H278" s="4"/>
-      <c r="I278" s="4"/>
+      <c r="I278" t="str">
+        <f t="shared" si="51"/>
+        <v>messageBlocks.add(new PayloadBlock(38, 45, 8, "Regional Reserved", "reserved", "u", ""));</v>
+      </c>
       <c r="J278" s="4"/>
       <c r="K278" s="4"/>
       <c r="L278" s="4"/>
@@ -11016,30 +11125,31 @@
     <row r="279" spans="1:13">
       <c r="A279" s="4"/>
       <c r="B279" s="1">
-        <v>0</v>
+        <f t="shared" si="52"/>
+        <v>46</v>
       </c>
       <c r="C279" s="1">
-        <f t="shared" ref="C279:C298" si="50">B279+D279-1</f>
-        <v>5</v>
+        <f t="shared" si="50"/>
+        <v>55</v>
       </c>
       <c r="D279">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>10</v>
+        <v>275</v>
       </c>
       <c r="F279" s="4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G279" s="4" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H279" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I279" t="str">
-        <f t="shared" ref="I279:I292" si="51">"messageBlocks.add(new PayloadBlock("&amp;B279&amp;", "&amp;C279&amp;", "&amp;D279&amp;", "&amp;CHAR(34)&amp;E279&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F279&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G279&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H279&amp;CHAR(34)&amp;"));"</f>
-        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 19"));</v>
+        <f t="shared" si="51"/>
+        <v>messageBlocks.add(new PayloadBlock(46, 55, 10, "Speed Over Ground", "speed", "U1", "As in CNB."));</v>
       </c>
       <c r="J279" s="4"/>
       <c r="K279" s="4"/>
@@ -11049,31 +11159,31 @@
     <row r="280" spans="1:13">
       <c r="A280" s="4"/>
       <c r="B280" s="1">
-        <f t="shared" ref="B280:B298" si="52">B279+D279</f>
-        <v>6</v>
+        <f t="shared" si="52"/>
+        <v>56</v>
       </c>
       <c r="C280" s="1">
         <f t="shared" si="50"/>
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="D280">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F280" s="4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G280" s="4" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H280" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I280" t="str">
         <f t="shared" si="51"/>
-        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNN"));</v>
+        <v>messageBlocks.add(new PayloadBlock(56, 56, 1, "Position Accuracy", "accuracy", "b", "As in CNB."));</v>
       </c>
       <c r="J280" s="4"/>
       <c r="K280" s="4"/>
@@ -11084,30 +11194,30 @@
       <c r="A281" s="4"/>
       <c r="B281" s="1">
         <f t="shared" si="52"/>
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C281" s="1">
         <f t="shared" si="50"/>
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D281">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F281" s="4" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G281" s="4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H281" s="4" t="s">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="I281" t="str">
         <f t="shared" si="51"/>
-        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 digits"));</v>
+        <v>messageBlocks.add(new PayloadBlock(57, 84, 28, "Longitude", "lon", "I4", "Minutes/10000 (as in CNB)"));</v>
       </c>
       <c r="J281" s="4"/>
       <c r="K281" s="4"/>
@@ -11118,28 +11228,30 @@
       <c r="A282" s="4"/>
       <c r="B282" s="1">
         <f t="shared" si="52"/>
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="C282" s="1">
         <f t="shared" si="50"/>
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="D282">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>273</v>
+        <v>38</v>
       </c>
       <c r="F282" s="4" t="s">
-        <v>274</v>
+        <v>39</v>
       </c>
       <c r="G282" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H282" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="H282" s="4" t="s">
+        <v>197</v>
+      </c>
       <c r="I282" t="str">
         <f t="shared" si="51"/>
-        <v>messageBlocks.add(new PayloadBlock(38, 45, 8, "Regional Reserved", "reserved", "u", ""));</v>
+        <v>messageBlocks.add(new PayloadBlock(85, 111, 27, "Latitude", "lat", "I4", "Minutes/10000 (as in CNB)"));</v>
       </c>
       <c r="J282" s="4"/>
       <c r="K282" s="4"/>
@@ -11150,30 +11262,30 @@
       <c r="A283" s="4"/>
       <c r="B283" s="1">
         <f t="shared" si="52"/>
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="C283" s="1">
         <f t="shared" si="50"/>
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="D283">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E283" s="4" t="s">
-        <v>275</v>
+        <v>198</v>
       </c>
       <c r="F283" s="4" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G283" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H283" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I283" t="str">
         <f t="shared" si="51"/>
-        <v>messageBlocks.add(new PayloadBlock(46, 55, 10, "Speed Over Ground", "speed", "U1", "As in CNB."));</v>
+        <v>messageBlocks.add(new PayloadBlock(112, 123, 12, "Course Over Ground", "course", "U1", "Relative to true north, units of 0.1 degrees"));</v>
       </c>
       <c r="J283" s="4"/>
       <c r="K283" s="4"/>
@@ -11184,30 +11296,30 @@
       <c r="A284" s="4"/>
       <c r="B284" s="1">
         <f t="shared" si="52"/>
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="C284" s="1">
         <f t="shared" si="50"/>
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="D284">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>31</v>
+        <v>278</v>
       </c>
       <c r="F284" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G284" s="4" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H284" s="4" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="I284" t="str">
         <f t="shared" si="51"/>
-        <v>messageBlocks.add(new PayloadBlock(56, 56, 1, "Position Accuracy", "accuracy", "b", "As in CNB."));</v>
+        <v>messageBlocks.add(new PayloadBlock(124, 132, 9, "True Heading", "heading", "u", "0 to 359 degrees, 511 = N/A"));</v>
       </c>
       <c r="J284" s="4"/>
       <c r="K284" s="4"/>
@@ -11218,30 +11330,30 @@
       <c r="A285" s="4"/>
       <c r="B285" s="1">
         <f t="shared" si="52"/>
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="C285" s="1">
         <f t="shared" si="50"/>
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="D285">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F285" s="4" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G285" s="4" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H285" s="4" t="s">
-        <v>197</v>
+        <v>280</v>
       </c>
       <c r="I285" t="str">
         <f t="shared" si="51"/>
-        <v>messageBlocks.add(new PayloadBlock(57, 84, 28, "Longitude", "lon", "I4", "Minutes/10000 (as in CNB)"));</v>
+        <v>messageBlocks.add(new PayloadBlock(133, 138, 6, "Time Stamp", "second", "u", "Second of UTC timestamp."));</v>
       </c>
       <c r="J285" s="4"/>
       <c r="K285" s="4"/>
@@ -11252,30 +11364,30 @@
       <c r="A286" s="4"/>
       <c r="B286" s="1">
         <f t="shared" si="52"/>
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="C286" s="1">
         <f t="shared" si="50"/>
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="D286">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="F286" s="4" t="s">
-        <v>39</v>
+        <v>205</v>
       </c>
       <c r="G286" s="4" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H286" s="4" t="s">
-        <v>197</v>
+        <v>281</v>
       </c>
       <c r="I286" t="str">
         <f t="shared" si="51"/>
-        <v>messageBlocks.add(new PayloadBlock(85, 111, 27, "Latitude", "lat", "I4", "Minutes/10000 (as in CNB)"));</v>
+        <v>messageBlocks.add(new PayloadBlock(139, 142, 4, "Regional reserved", "regional", "u", "Uninterpreted"));</v>
       </c>
       <c r="J286" s="4"/>
       <c r="K286" s="4"/>
@@ -11286,30 +11398,30 @@
       <c r="A287" s="4"/>
       <c r="B287" s="1">
         <f t="shared" si="52"/>
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="C287" s="1">
         <f t="shared" si="50"/>
-        <v>123</v>
+        <v>262</v>
       </c>
       <c r="D287">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>198</v>
+        <v>3</v>
       </c>
       <c r="F287" s="4" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="G287" s="4" t="s">
-        <v>30</v>
+        <v>304</v>
       </c>
       <c r="H287" s="4" t="s">
-        <v>303</v>
+        <v>133</v>
       </c>
       <c r="I287" t="str">
         <f t="shared" si="51"/>
-        <v>messageBlocks.add(new PayloadBlock(112, 123, 12, "Course Over Ground", "course", "U1", "Relative to true north, units of 0.1 degrees"));</v>
+        <v>messageBlocks.add(new PayloadBlock(143, 262, 120, "Name", "shipname", "s", "20 6-bit characters"));</v>
       </c>
       <c r="J287" s="4"/>
       <c r="K287" s="4"/>
@@ -11320,30 +11432,30 @@
       <c r="A288" s="4"/>
       <c r="B288" s="1">
         <f t="shared" si="52"/>
-        <v>124</v>
+        <v>263</v>
       </c>
       <c r="C288" s="1">
         <f t="shared" si="50"/>
-        <v>132</v>
+        <v>270</v>
       </c>
       <c r="D288">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="F288" s="4" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="G288" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H288" s="4" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="I288" t="str">
         <f t="shared" si="51"/>
-        <v>messageBlocks.add(new PayloadBlock(124, 132, 9, "True Heading", "heading", "u", "0 to 359 degrees, 511 = N/A"));</v>
+        <v>messageBlocks.add(new PayloadBlock(263, 270, 8, "Type of ship and cargo", "shiptype", "u", "As in Message 5"));</v>
       </c>
       <c r="J288" s="4"/>
       <c r="K288" s="4"/>
@@ -11354,32 +11466,31 @@
       <c r="A289" s="4"/>
       <c r="B289" s="1">
         <f t="shared" si="52"/>
-        <v>133</v>
+        <v>271</v>
       </c>
       <c r="C289" s="1">
         <f t="shared" si="50"/>
-        <v>138</v>
+        <v>300</v>
       </c>
       <c r="D289">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E289" s="4" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="F289" s="4" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="G289" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H289" s="4" t="s">
-        <v>280</v>
+        <v>118</v>
       </c>
       <c r="I289" t="str">
-        <f t="shared" si="51"/>
-        <v>messageBlocks.add(new PayloadBlock(133, 138, 6, "Time Stamp", "second", "u", "Second of UTC timestamp."));</v>
-      </c>
-      <c r="J289" s="4"/>
+        <f>"messageBlocks.add(new PayloadBlock("&amp;C289&amp;", "&amp;D289&amp;", "&amp;D289&amp;", "&amp;CHAR(34)&amp;E289&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F289&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G289&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H289&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(300, 30, 30, "Vessel Dimensions", "dimension", "u", "Meters"));</v>
+      </c>
       <c r="K289" s="4"/>
       <c r="L289" s="4"/>
       <c r="M289" s="4"/>
@@ -11388,30 +11499,30 @@
       <c r="A290" s="4"/>
       <c r="B290" s="1">
         <f t="shared" si="52"/>
-        <v>139</v>
+        <v>301</v>
       </c>
       <c r="C290" s="1">
         <f t="shared" si="50"/>
-        <v>142</v>
+        <v>304</v>
       </c>
       <c r="D290">
         <v>4</v>
       </c>
       <c r="E290" s="4" t="s">
-        <v>204</v>
+        <v>119</v>
       </c>
       <c r="F290" s="4" t="s">
-        <v>205</v>
+        <v>90</v>
       </c>
       <c r="G290" s="4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H290" s="4" t="s">
-        <v>281</v>
+        <v>91</v>
       </c>
       <c r="I290" t="str">
-        <f t="shared" si="51"/>
-        <v>messageBlocks.add(new PayloadBlock(139, 142, 4, "Regional reserved", "regional", "u", "Uninterpreted"));</v>
+        <f>"messageBlocks.add(new PayloadBlock("&amp;B290&amp;", "&amp;C290&amp;", "&amp;D290&amp;", "&amp;CHAR(34)&amp;E290&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F290&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G290&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H290&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(301, 304, 4, "Position Fix Type", "epfd", "e", "See "EPFD Fix Types""));</v>
       </c>
       <c r="J290" s="4"/>
       <c r="K290" s="4"/>
@@ -11422,30 +11533,30 @@
       <c r="A291" s="4"/>
       <c r="B291" s="1">
         <f t="shared" si="52"/>
-        <v>143</v>
+        <v>305</v>
       </c>
       <c r="C291" s="1">
         <f t="shared" si="50"/>
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="D291">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="E291" s="4" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="F291" s="4" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="G291" s="4" t="s">
-        <v>304</v>
+        <v>33</v>
       </c>
       <c r="H291" s="4" t="s">
-        <v>133</v>
+        <v>302</v>
       </c>
       <c r="I291" t="str">
-        <f t="shared" si="51"/>
-        <v>messageBlocks.add(new PayloadBlock(143, 262, 120, "Name", "shipname", "s", "20 6-bit characters"));</v>
+        <f>"messageBlocks.add(new PayloadBlock("&amp;B291&amp;", "&amp;C291&amp;", "&amp;D291&amp;", "&amp;CHAR(34)&amp;E291&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F291&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G291&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H291&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(305, 305, 1, "RAIM flag", "raim", "b", "As in CNB."));</v>
       </c>
       <c r="J291" s="4"/>
       <c r="K291" s="4"/>
@@ -11456,30 +11567,30 @@
       <c r="A292" s="4"/>
       <c r="B292" s="1">
         <f t="shared" si="52"/>
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="C292" s="1">
         <f t="shared" si="50"/>
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="D292">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E292" s="4" t="s">
-        <v>305</v>
+        <v>134</v>
       </c>
       <c r="F292" s="4" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="G292" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H292" s="4" t="s">
-        <v>306</v>
+        <v>136</v>
       </c>
       <c r="I292" t="str">
-        <f t="shared" si="51"/>
-        <v>messageBlocks.add(new PayloadBlock(263, 270, 8, "Type of ship and cargo", "shiptype", "u", "As in Message 5"));</v>
+        <f>"messageBlocks.add(new PayloadBlock("&amp;B292&amp;", "&amp;C292&amp;", "&amp;D292&amp;", "&amp;CHAR(34)&amp;E292&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F292&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G292&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H292&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(306, 306, 1, "DTE", "dte", "u", "0=Data terminal ready, 1=Not ready (default)."));</v>
       </c>
       <c r="J292" s="4"/>
       <c r="K292" s="4"/>
@@ -11490,31 +11601,32 @@
       <c r="A293" s="4"/>
       <c r="B293" s="1">
         <f t="shared" si="52"/>
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="C293" s="1">
         <f t="shared" si="50"/>
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="D293">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E293" s="4" t="s">
-        <v>116</v>
+        <v>307</v>
       </c>
       <c r="F293" s="4" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="G293" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H293" s="4" t="s">
-        <v>118</v>
+        <v>308</v>
       </c>
       <c r="I293" t="str">
-        <f>"messageBlocks.add(new PayloadBlock("&amp;C293&amp;", "&amp;D293&amp;", "&amp;D293&amp;", "&amp;CHAR(34)&amp;E293&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F293&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G293&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H293&amp;CHAR(34)&amp;"));"</f>
-        <v>messageBlocks.add(new PayloadBlock(300, 30, 30, "Vessel Dimensions", "dimension", "u", "Meters"));</v>
-      </c>
+        <f>"messageBlocks.add(new PayloadBlock("&amp;B293&amp;", "&amp;C293&amp;", "&amp;D293&amp;", "&amp;CHAR(34)&amp;E293&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F293&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G293&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H293&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(307, 307, 1, "Assigned mode flag", "assigned", "u", "See [IALA] for details"));</v>
+      </c>
+      <c r="J293" s="4"/>
       <c r="K293" s="4"/>
       <c r="L293" s="4"/>
       <c r="M293" s="4"/>
@@ -11523,30 +11635,28 @@
       <c r="A294" s="4"/>
       <c r="B294" s="1">
         <f t="shared" si="52"/>
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="C294" s="1">
         <f t="shared" si="50"/>
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="D294">
         <v>4</v>
       </c>
       <c r="E294" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F294" s="4" t="s">
-        <v>90</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F294" s="4"/>
       <c r="G294" s="4" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="H294" s="4" t="s">
-        <v>91</v>
+        <v>309</v>
       </c>
       <c r="I294" t="str">
         <f>"messageBlocks.add(new PayloadBlock("&amp;B294&amp;", "&amp;C294&amp;", "&amp;D294&amp;", "&amp;CHAR(34)&amp;E294&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F294&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G294&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H294&amp;CHAR(34)&amp;"));"</f>
-        <v>messageBlocks.add(new PayloadBlock(301, 304, 4, "Position Fix Type", "epfd", "e", "See "EPFD Fix Types""));</v>
+        <v>messageBlocks.add(new PayloadBlock(308, 311, 4, "Spare", "", "x", "Unused, should be zero"));</v>
       </c>
       <c r="J294" s="4"/>
       <c r="K294" s="4"/>
@@ -11555,33 +11665,14 @@
     </row>
     <row r="295" spans="1:13">
       <c r="A295" s="4"/>
-      <c r="B295" s="1">
-        <f t="shared" si="52"/>
-        <v>305</v>
-      </c>
-      <c r="C295" s="1">
-        <f t="shared" si="50"/>
-        <v>305</v>
-      </c>
       <c r="D295">
-        <v>1</v>
-      </c>
-      <c r="E295" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F295" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G295" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H295" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="I295" t="str">
-        <f>"messageBlocks.add(new PayloadBlock("&amp;B295&amp;", "&amp;C295&amp;", "&amp;D295&amp;", "&amp;CHAR(34)&amp;E295&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F295&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G295&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H295&amp;CHAR(34)&amp;"));"</f>
-        <v>messageBlocks.add(new PayloadBlock(305, 305, 1, "RAIM flag", "raim", "b", "As in CNB."));</v>
-      </c>
+        <f>SUM(D275:D294)</f>
+        <v>312</v>
+      </c>
+      <c r="E295" s="4"/>
+      <c r="F295" s="4"/>
+      <c r="G295" s="4"/>
+      <c r="H295" s="4"/>
       <c r="J295" s="4"/>
       <c r="K295" s="4"/>
       <c r="L295" s="4"/>
@@ -11589,67 +11680,31 @@
     </row>
     <row r="296" spans="1:13">
       <c r="A296" s="4"/>
-      <c r="B296" s="1">
-        <f t="shared" si="52"/>
-        <v>306</v>
-      </c>
-      <c r="C296" s="1">
-        <f t="shared" si="50"/>
-        <v>306</v>
-      </c>
-      <c r="D296">
-        <v>1</v>
-      </c>
-      <c r="E296" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F296" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G296" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H296" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I296" t="str">
-        <f>"messageBlocks.add(new PayloadBlock("&amp;B296&amp;", "&amp;C296&amp;", "&amp;D296&amp;", "&amp;CHAR(34)&amp;E296&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F296&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G296&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H296&amp;CHAR(34)&amp;"));"</f>
-        <v>messageBlocks.add(new PayloadBlock(306, 306, 1, "DTE", "dte", "u", "0=Data terminal ready, 1=Not ready (default)."));</v>
-      </c>
+      <c r="E296" s="4"/>
+      <c r="F296" s="4"/>
+      <c r="G296" s="4"/>
+      <c r="H296" s="4"/>
+      <c r="I296" s="4"/>
       <c r="J296" s="4"/>
       <c r="K296" s="4"/>
       <c r="L296" s="4"/>
       <c r="M296" s="4"/>
     </row>
     <row r="297" spans="1:13">
-      <c r="A297" s="4"/>
-      <c r="B297" s="1">
-        <f t="shared" si="52"/>
-        <v>307</v>
-      </c>
-      <c r="C297" s="1">
-        <f t="shared" si="50"/>
-        <v>307</v>
-      </c>
-      <c r="D297">
-        <v>1</v>
-      </c>
-      <c r="E297" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="F297" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G297" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H297" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="I297" t="str">
-        <f>"messageBlocks.add(new PayloadBlock("&amp;B297&amp;", "&amp;C297&amp;", "&amp;D297&amp;", "&amp;CHAR(34)&amp;E297&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F297&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G297&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H297&amp;CHAR(34)&amp;"));"</f>
-        <v>messageBlocks.add(new PayloadBlock(307, 307, 1, "Assigned mode flag", "assigned", "u", "See [IALA] for details"));</v>
-      </c>
+      <c r="A297" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B297" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="E297" s="4"/>
+      <c r="F297" s="4"/>
+      <c r="G297" s="4"/>
+      <c r="H297" s="4"/>
+      <c r="I297" s="4"/>
       <c r="J297" s="4"/>
       <c r="K297" s="4"/>
       <c r="L297" s="4"/>
@@ -11658,29 +11713,30 @@
     <row r="298" spans="1:13">
       <c r="A298" s="4"/>
       <c r="B298" s="1">
-        <f t="shared" si="52"/>
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="C298" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" ref="C298:C317" si="53">B298+D298-1</f>
+        <v>5</v>
+      </c>
+      <c r="D298">
+        <v>6</v>
+      </c>
+      <c r="E298" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F298" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G298" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H298" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="D298">
-        <v>4</v>
-      </c>
-      <c r="E298" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F298" s="4"/>
-      <c r="G298" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H298" s="4" t="s">
-        <v>309</v>
-      </c>
       <c r="I298" t="str">
-        <f>"messageBlocks.add(new PayloadBlock("&amp;B298&amp;", "&amp;C298&amp;", "&amp;D298&amp;", "&amp;CHAR(34)&amp;E298&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F298&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G298&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H298&amp;CHAR(34)&amp;"));"</f>
-        <v>messageBlocks.add(new PayloadBlock(308, 311, 4, "Spare", "", "x", "Unused, should be zero"));</v>
+        <f t="shared" ref="I298:I317" si="54">"messageBlocks.add(new PayloadBlock("&amp;B298&amp;", "&amp;C298&amp;", "&amp;D298&amp;", "&amp;CHAR(34)&amp;E298&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F298&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G298&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H298&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 20"));</v>
       </c>
       <c r="J298" s="4"/>
       <c r="K298" s="4"/>
@@ -11689,14 +11745,33 @@
     </row>
     <row r="299" spans="1:13">
       <c r="A299" s="4"/>
+      <c r="B299" s="1">
+        <f t="shared" ref="B299:B317" si="55">B298+D298</f>
+        <v>6</v>
+      </c>
+      <c r="C299" s="1">
+        <f t="shared" si="53"/>
+        <v>7</v>
+      </c>
       <c r="D299">
-        <f>SUM(D279:D298)</f>
+        <v>2</v>
+      </c>
+      <c r="E299" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F299" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G299" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H299" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="E299" s="4"/>
-      <c r="F299" s="4"/>
-      <c r="G299" s="4"/>
-      <c r="H299" s="4"/>
+      <c r="I299" t="str">
+        <f t="shared" si="54"/>
+        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
+      </c>
       <c r="J299" s="4"/>
       <c r="K299" s="4"/>
       <c r="L299" s="4"/>
@@ -11704,28 +11779,65 @@
     </row>
     <row r="300" spans="1:13">
       <c r="A300" s="4"/>
-      <c r="E300" s="4"/>
-      <c r="F300" s="4"/>
-      <c r="G300" s="4"/>
-      <c r="H300" s="4"/>
-      <c r="I300" s="4"/>
+      <c r="B300" s="1">
+        <f t="shared" si="55"/>
+        <v>8</v>
+      </c>
+      <c r="C300" s="1">
+        <f t="shared" si="53"/>
+        <v>37</v>
+      </c>
+      <c r="D300">
+        <v>30</v>
+      </c>
+      <c r="E300" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G300" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H300" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I300" t="str">
+        <f t="shared" si="54"/>
+        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 decimal digits"));</v>
+      </c>
       <c r="J300" s="4"/>
       <c r="K300" s="4"/>
       <c r="L300" s="4"/>
       <c r="M300" s="4"/>
     </row>
     <row r="301" spans="1:13">
-      <c r="A301" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E301" s="4"/>
+      <c r="A301" s="4"/>
+      <c r="B301" s="1">
+        <f t="shared" si="55"/>
+        <v>38</v>
+      </c>
+      <c r="C301" s="1">
+        <f t="shared" si="53"/>
+        <v>39</v>
+      </c>
+      <c r="D301">
+        <v>2</v>
+      </c>
+      <c r="E301" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="F301" s="4"/>
-      <c r="G301" s="4"/>
-      <c r="H301" s="4"/>
-      <c r="I301" s="4"/>
+      <c r="G301" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H301" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I301" t="str">
+        <f t="shared" si="54"/>
+        <v>messageBlocks.add(new PayloadBlock(38, 39, 2, "Spare", "", "x", "Not used"));</v>
+      </c>
       <c r="J301" s="4"/>
       <c r="K301" s="4"/>
       <c r="L301" s="4"/>
@@ -11734,30 +11846,31 @@
     <row r="302" spans="1:13">
       <c r="A302" s="4"/>
       <c r="B302" s="1">
-        <v>0</v>
+        <f t="shared" si="55"/>
+        <v>40</v>
       </c>
       <c r="C302" s="1">
-        <f t="shared" ref="C302:C321" si="53">B302+D302-1</f>
-        <v>5</v>
+        <f t="shared" si="53"/>
+        <v>51</v>
       </c>
       <c r="D302">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E302" s="4" t="s">
-        <v>10</v>
+        <v>313</v>
       </c>
       <c r="F302" s="4" t="s">
-        <v>11</v>
+        <v>252</v>
       </c>
       <c r="G302" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H302" s="4" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I302" t="str">
-        <f t="shared" ref="I302:I321" si="54">"messageBlocks.add(new PayloadBlock("&amp;B302&amp;", "&amp;C302&amp;", "&amp;D302&amp;", "&amp;CHAR(34)&amp;E302&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F302&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G302&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H302&amp;CHAR(34)&amp;"));"</f>
-        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 20"));</v>
+        <f t="shared" si="54"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 51, 12, "Offset number 1", "offset1", "u", "Reserved offset number"));</v>
       </c>
       <c r="J302" s="4"/>
       <c r="K302" s="4"/>
@@ -11767,31 +11880,31 @@
     <row r="303" spans="1:13">
       <c r="A303" s="4"/>
       <c r="B303" s="1">
-        <f t="shared" ref="B303:B321" si="55">B302+D302</f>
-        <v>6</v>
+        <f t="shared" si="55"/>
+        <v>52</v>
       </c>
       <c r="C303" s="1">
         <f t="shared" si="53"/>
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="D303">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E303" s="4" t="s">
-        <v>14</v>
+        <v>315</v>
       </c>
       <c r="F303" s="4" t="s">
-        <v>15</v>
+        <v>316</v>
       </c>
       <c r="G303" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H303" s="4" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="I303" t="str">
         <f t="shared" si="54"/>
-        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
+        <v>messageBlocks.add(new PayloadBlock(52, 55, 4, "Reserved slots", "number1", "u", "Consecutive slots"));</v>
       </c>
       <c r="J303" s="4"/>
       <c r="K303" s="4"/>
@@ -11802,30 +11915,30 @@
       <c r="A304" s="4"/>
       <c r="B304" s="1">
         <f t="shared" si="55"/>
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C304" s="1">
         <f t="shared" si="53"/>
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="D304">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E304" s="4" t="s">
-        <v>17</v>
+        <v>318</v>
       </c>
       <c r="F304" s="4" t="s">
-        <v>18</v>
+        <v>319</v>
       </c>
       <c r="G304" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H304" s="4" t="s">
-        <v>19</v>
+        <v>320</v>
       </c>
       <c r="I304" t="str">
         <f t="shared" si="54"/>
-        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 decimal digits"));</v>
+        <v>messageBlocks.add(new PayloadBlock(56, 58, 3, "Time-out", "timeout1", "u", "Allocation timeout in minutes"));</v>
       </c>
       <c r="J304" s="4"/>
       <c r="K304" s="4"/>
@@ -11836,28 +11949,30 @@
       <c r="A305" s="4"/>
       <c r="B305" s="1">
         <f t="shared" si="55"/>
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C305" s="1">
         <f t="shared" si="53"/>
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="D305">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F305" s="4"/>
+        <v>321</v>
+      </c>
+      <c r="F305" s="4" t="s">
+        <v>255</v>
+      </c>
       <c r="G305" s="4" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="H305" s="4" t="s">
-        <v>54</v>
+        <v>322</v>
       </c>
       <c r="I305" t="str">
         <f t="shared" si="54"/>
-        <v>messageBlocks.add(new PayloadBlock(38, 39, 2, "Spare", "", "x", "Not used"));</v>
+        <v>messageBlocks.add(new PayloadBlock(59, 69, 11, "Increment", "increment1", "u", "Repeat increment"));</v>
       </c>
       <c r="J305" s="4"/>
       <c r="K305" s="4"/>
@@ -11868,20 +11983,20 @@
       <c r="A306" s="4"/>
       <c r="B306" s="1">
         <f t="shared" si="55"/>
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C306" s="1">
         <f t="shared" si="53"/>
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="D306">
         <v>12</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F306" s="4" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G306" s="4" t="s">
         <v>12</v>
@@ -11889,9 +12004,9 @@
       <c r="H306" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="I306" t="str">
+      <c r="I306" s="8" t="str">
         <f t="shared" si="54"/>
-        <v>messageBlocks.add(new PayloadBlock(40, 51, 12, "Offset number 1", "offset1", "u", "Reserved offset number"));</v>
+        <v>messageBlocks.add(new PayloadBlock(70, 81, 12, "Offset number 2", "offset2", "u", "Reserved offset number"));</v>
       </c>
       <c r="J306" s="4"/>
       <c r="K306" s="4"/>
@@ -11902,11 +12017,11 @@
       <c r="A307" s="4"/>
       <c r="B307" s="1">
         <f t="shared" si="55"/>
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C307" s="1">
         <f t="shared" si="53"/>
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="D307">
         <v>4</v>
@@ -11915,7 +12030,7 @@
         <v>315</v>
       </c>
       <c r="F307" s="4" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="G307" s="4" t="s">
         <v>12</v>
@@ -11923,9 +12038,9 @@
       <c r="H307" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="I307" t="str">
+      <c r="I307" s="8" t="str">
         <f t="shared" si="54"/>
-        <v>messageBlocks.add(new PayloadBlock(52, 55, 4, "Reserved slots", "number1", "u", "Consecutive slots"));</v>
+        <v>messageBlocks.add(new PayloadBlock(82, 85, 4, "Reserved slots", "number2", "u", "Consecutive slots"));</v>
       </c>
       <c r="J307" s="4"/>
       <c r="K307" s="4"/>
@@ -11936,11 +12051,11 @@
       <c r="A308" s="4"/>
       <c r="B308" s="1">
         <f t="shared" si="55"/>
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C308" s="1">
         <f t="shared" si="53"/>
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="D308">
         <v>3</v>
@@ -11949,7 +12064,7 @@
         <v>318</v>
       </c>
       <c r="F308" s="4" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="G308" s="4" t="s">
         <v>12</v>
@@ -11957,9 +12072,9 @@
       <c r="H308" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I308" t="str">
+      <c r="I308" s="8" t="str">
         <f t="shared" si="54"/>
-        <v>messageBlocks.add(new PayloadBlock(56, 58, 3, "Time-out", "timeout1", "u", "Allocation timeout in minutes"));</v>
+        <v>messageBlocks.add(new PayloadBlock(86, 88, 3, "Time-out", "timeout2", "u", "Allocation timeout in minutes"));</v>
       </c>
       <c r="J308" s="4"/>
       <c r="K308" s="4"/>
@@ -11970,11 +12085,11 @@
       <c r="A309" s="4"/>
       <c r="B309" s="1">
         <f t="shared" si="55"/>
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C309" s="1">
         <f t="shared" si="53"/>
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="D309">
         <v>11</v>
@@ -11983,7 +12098,7 @@
         <v>321</v>
       </c>
       <c r="F309" s="4" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="G309" s="4" t="s">
         <v>12</v>
@@ -11991,9 +12106,9 @@
       <c r="H309" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="I309" t="str">
+      <c r="I309" s="8" t="str">
         <f t="shared" si="54"/>
-        <v>messageBlocks.add(new PayloadBlock(59, 69, 11, "Increment", "increment1", "u", "Repeat increment"));</v>
+        <v>messageBlocks.add(new PayloadBlock(89, 99, 11, "Increment", "increment2", "u", "Repeat increment"));</v>
       </c>
       <c r="J309" s="4"/>
       <c r="K309" s="4"/>
@@ -12004,20 +12119,20 @@
       <c r="A310" s="4"/>
       <c r="B310" s="1">
         <f t="shared" si="55"/>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C310" s="1">
         <f t="shared" si="53"/>
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="D310">
         <v>12</v>
       </c>
       <c r="E310" s="4" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F310" s="4" t="s">
-        <v>258</v>
+        <v>327</v>
       </c>
       <c r="G310" s="4" t="s">
         <v>12</v>
@@ -12025,9 +12140,9 @@
       <c r="H310" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="I310" s="9" t="str">
+      <c r="I310" s="8" t="str">
         <f t="shared" si="54"/>
-        <v>messageBlocks.add(new PayloadBlock(70, 81, 12, "Offset number 2", "offset2", "u", "Reserved offset number"));</v>
+        <v>messageBlocks.add(new PayloadBlock(100, 111, 12, "Offset number 3", "offset3", "u", "Reserved offset number"));</v>
       </c>
       <c r="J310" s="4"/>
       <c r="K310" s="4"/>
@@ -12038,11 +12153,11 @@
       <c r="A311" s="4"/>
       <c r="B311" s="1">
         <f t="shared" si="55"/>
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="C311" s="1">
         <f t="shared" si="53"/>
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="D311">
         <v>4</v>
@@ -12051,7 +12166,7 @@
         <v>315</v>
       </c>
       <c r="F311" s="4" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G311" s="4" t="s">
         <v>12</v>
@@ -12059,9 +12174,9 @@
       <c r="H311" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="I311" s="9" t="str">
+      <c r="I311" s="8" t="str">
         <f t="shared" si="54"/>
-        <v>messageBlocks.add(new PayloadBlock(82, 85, 4, "Reserved slots", "number2", "u", "Consecutive slots"));</v>
+        <v>messageBlocks.add(new PayloadBlock(112, 115, 4, "Reserved slots", "number3", "u", "Consecutive slots"));</v>
       </c>
       <c r="J311" s="4"/>
       <c r="K311" s="4"/>
@@ -12072,11 +12187,11 @@
       <c r="A312" s="4"/>
       <c r="B312" s="1">
         <f t="shared" si="55"/>
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="C312" s="1">
         <f t="shared" si="53"/>
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="D312">
         <v>3</v>
@@ -12085,7 +12200,7 @@
         <v>318</v>
       </c>
       <c r="F312" s="4" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G312" s="4" t="s">
         <v>12</v>
@@ -12093,9 +12208,9 @@
       <c r="H312" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I312" s="9" t="str">
+      <c r="I312" s="8" t="str">
         <f t="shared" si="54"/>
-        <v>messageBlocks.add(new PayloadBlock(86, 88, 3, "Time-out", "timeout2", "u", "Allocation timeout in minutes"));</v>
+        <v>messageBlocks.add(new PayloadBlock(116, 118, 3, "Time-out", "timeout3", "u", "Allocation timeout in minutes"));</v>
       </c>
       <c r="J312" s="4"/>
       <c r="K312" s="4"/>
@@ -12106,11 +12221,11 @@
       <c r="A313" s="4"/>
       <c r="B313" s="1">
         <f t="shared" si="55"/>
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="C313" s="1">
         <f t="shared" si="53"/>
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="D313">
         <v>11</v>
@@ -12119,7 +12234,7 @@
         <v>321</v>
       </c>
       <c r="F313" s="4" t="s">
-        <v>260</v>
+        <v>330</v>
       </c>
       <c r="G313" s="4" t="s">
         <v>12</v>
@@ -12127,9 +12242,9 @@
       <c r="H313" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="I313" s="9" t="str">
+      <c r="I313" s="8" t="str">
         <f t="shared" si="54"/>
-        <v>messageBlocks.add(new PayloadBlock(89, 99, 11, "Increment", "increment2", "u", "Repeat increment"));</v>
+        <v>messageBlocks.add(new PayloadBlock(119, 129, 11, "Increment", "increment3", "u", "Repeat increment"));</v>
       </c>
       <c r="J313" s="4"/>
       <c r="K313" s="4"/>
@@ -12140,20 +12255,20 @@
       <c r="A314" s="4"/>
       <c r="B314" s="1">
         <f t="shared" si="55"/>
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C314" s="1">
         <f t="shared" si="53"/>
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="D314">
         <v>12</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="F314" s="4" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="G314" s="4" t="s">
         <v>12</v>
@@ -12161,9 +12276,9 @@
       <c r="H314" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="I314" s="9" t="str">
+      <c r="I314" s="8" t="str">
         <f t="shared" si="54"/>
-        <v>messageBlocks.add(new PayloadBlock(100, 111, 12, "Offset number 3", "offset3", "u", "Reserved offset number"));</v>
+        <v>messageBlocks.add(new PayloadBlock(130, 141, 12, "Offset number 4", "offset4", "u", "Reserved offset number"));</v>
       </c>
       <c r="J314" s="4"/>
       <c r="K314" s="4"/>
@@ -12174,11 +12289,11 @@
       <c r="A315" s="4"/>
       <c r="B315" s="1">
         <f t="shared" si="55"/>
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="C315" s="1">
         <f t="shared" si="53"/>
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="D315">
         <v>4</v>
@@ -12187,7 +12302,7 @@
         <v>315</v>
       </c>
       <c r="F315" s="4" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="G315" s="4" t="s">
         <v>12</v>
@@ -12195,9 +12310,9 @@
       <c r="H315" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="I315" s="9" t="str">
+      <c r="I315" s="8" t="str">
         <f t="shared" si="54"/>
-        <v>messageBlocks.add(new PayloadBlock(112, 115, 4, "Reserved slots", "number3", "u", "Consecutive slots"));</v>
+        <v>messageBlocks.add(new PayloadBlock(142, 145, 4, "Reserved slots", "number4", "u", "Consecutive slots"));</v>
       </c>
       <c r="J315" s="4"/>
       <c r="K315" s="4"/>
@@ -12208,11 +12323,11 @@
       <c r="A316" s="4"/>
       <c r="B316" s="1">
         <f t="shared" si="55"/>
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="C316" s="1">
         <f t="shared" si="53"/>
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="D316">
         <v>3</v>
@@ -12221,7 +12336,7 @@
         <v>318</v>
       </c>
       <c r="F316" s="4" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="G316" s="4" t="s">
         <v>12</v>
@@ -12229,9 +12344,9 @@
       <c r="H316" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I316" s="9" t="str">
+      <c r="I316" s="8" t="str">
         <f t="shared" si="54"/>
-        <v>messageBlocks.add(new PayloadBlock(116, 118, 3, "Time-out", "timeout3", "u", "Allocation timeout in minutes"));</v>
+        <v>messageBlocks.add(new PayloadBlock(146, 148, 3, "Time-out", "timeout4", "u", "Allocation timeout in minutes"));</v>
       </c>
       <c r="J316" s="4"/>
       <c r="K316" s="4"/>
@@ -12242,11 +12357,11 @@
       <c r="A317" s="4"/>
       <c r="B317" s="1">
         <f t="shared" si="55"/>
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="C317" s="1">
         <f t="shared" si="53"/>
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="D317">
         <v>11</v>
@@ -12255,7 +12370,7 @@
         <v>321</v>
       </c>
       <c r="F317" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G317" s="4" t="s">
         <v>12</v>
@@ -12263,9 +12378,9 @@
       <c r="H317" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="I317" s="9" t="str">
+      <c r="I317" s="8" t="str">
         <f t="shared" si="54"/>
-        <v>messageBlocks.add(new PayloadBlock(119, 129, 11, "Increment", "increment3", "u", "Repeat increment"));</v>
+        <v>messageBlocks.add(new PayloadBlock(149, 159, 11, "Increment", "increment4", "u", "Repeat increment"));</v>
       </c>
       <c r="J317" s="4"/>
       <c r="K317" s="4"/>
@@ -12274,33 +12389,20 @@
     </row>
     <row r="318" spans="1:13">
       <c r="A318" s="4"/>
-      <c r="B318" s="1">
-        <f t="shared" si="55"/>
-        <v>130</v>
-      </c>
-      <c r="C318" s="1">
-        <f t="shared" si="53"/>
-        <v>141</v>
-      </c>
       <c r="D318">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="F318" s="4" t="s">
-        <v>332</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F318" s="4"/>
       <c r="G318" s="4" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="H318" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="I318" s="9" t="str">
-        <f t="shared" si="54"/>
-        <v>messageBlocks.add(new PayloadBlock(130, 141, 12, "Offset number 4", "offset4", "u", "Reserved offset number"));</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="I318" s="8"/>
       <c r="J318" s="4"/>
       <c r="K318" s="4"/>
       <c r="L318" s="4"/>
@@ -12308,33 +12410,13 @@
     </row>
     <row r="319" spans="1:13">
       <c r="A319" s="4"/>
-      <c r="B319" s="1">
-        <f t="shared" si="55"/>
-        <v>142</v>
-      </c>
-      <c r="C319" s="1">
-        <f t="shared" si="53"/>
-        <v>145</v>
-      </c>
-      <c r="D319">
-        <v>4</v>
-      </c>
-      <c r="E319" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="F319" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="G319" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H319" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="I319" s="9" t="str">
-        <f t="shared" si="54"/>
-        <v>messageBlocks.add(new PayloadBlock(142, 145, 4, "Reserved slots", "number4", "u", "Consecutive slots"));</v>
-      </c>
+      <c r="D319" t="s">
+        <v>337</v>
+      </c>
+      <c r="E319" s="4"/>
+      <c r="F319" s="4"/>
+      <c r="G319" s="4"/>
+      <c r="H319" s="4"/>
       <c r="J319" s="4"/>
       <c r="K319" s="4"/>
       <c r="L319" s="4"/>
@@ -12342,67 +12424,31 @@
     </row>
     <row r="320" spans="1:13">
       <c r="A320" s="4"/>
-      <c r="B320" s="1">
-        <f t="shared" si="55"/>
-        <v>146</v>
-      </c>
-      <c r="C320" s="1">
-        <f t="shared" si="53"/>
-        <v>148</v>
-      </c>
-      <c r="D320">
-        <v>3</v>
-      </c>
-      <c r="E320" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="F320" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="G320" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H320" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="I320" s="9" t="str">
-        <f t="shared" si="54"/>
-        <v>messageBlocks.add(new PayloadBlock(146, 148, 3, "Time-out", "timeout4", "u", "Allocation timeout in minutes"));</v>
-      </c>
+      <c r="E320" s="4"/>
+      <c r="F320" s="4"/>
+      <c r="G320" s="4"/>
+      <c r="H320" s="4"/>
+      <c r="I320" s="4"/>
       <c r="J320" s="4"/>
       <c r="K320" s="4"/>
       <c r="L320" s="4"/>
       <c r="M320" s="4"/>
     </row>
     <row r="321" spans="1:13">
-      <c r="A321" s="4"/>
-      <c r="B321" s="1">
-        <f t="shared" si="55"/>
-        <v>149</v>
-      </c>
-      <c r="C321" s="1">
-        <f t="shared" si="53"/>
-        <v>159</v>
-      </c>
-      <c r="D321">
-        <v>11</v>
-      </c>
-      <c r="E321" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="F321" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="G321" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H321" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="I321" s="9" t="str">
-        <f t="shared" si="54"/>
-        <v>messageBlocks.add(new PayloadBlock(149, 159, 11, "Increment", "increment4", "u", "Repeat increment"));</v>
-      </c>
+      <c r="A321" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B321" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E321" s="4"/>
+      <c r="F321" s="4"/>
+      <c r="G321" s="4"/>
+      <c r="H321" s="4"/>
+      <c r="I321" s="4"/>
       <c r="J321" s="4"/>
       <c r="K321" s="4"/>
       <c r="L321" s="4"/>
@@ -12410,20 +12456,32 @@
     </row>
     <row r="322" spans="1:13">
       <c r="A322" s="4"/>
+      <c r="B322" s="1">
+        <v>0</v>
+      </c>
+      <c r="C322" s="1">
+        <f t="shared" ref="C322:C339" si="56">B322+D322-1</f>
+        <v>5</v>
+      </c>
       <c r="D322">
         <v>6</v>
       </c>
       <c r="E322" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F322" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="F322" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="G322" s="4" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="H322" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="I322" s="9"/>
+        <v>340</v>
+      </c>
+      <c r="I322" t="str">
+        <f t="shared" ref="I322:I329" si="57">"messageBlocks.add(new PayloadBlock("&amp;B322&amp;", "&amp;C322&amp;", "&amp;D322&amp;", "&amp;CHAR(34)&amp;E322&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F322&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G322&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H322&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 21"));</v>
+      </c>
       <c r="J322" s="4"/>
       <c r="K322" s="4"/>
       <c r="L322" s="4"/>
@@ -12431,13 +12489,33 @@
     </row>
     <row r="323" spans="1:13">
       <c r="A323" s="4"/>
-      <c r="D323" t="s">
-        <v>337</v>
-      </c>
-      <c r="E323" s="4"/>
-      <c r="F323" s="4"/>
-      <c r="G323" s="4"/>
-      <c r="H323" s="4"/>
+      <c r="B323" s="1">
+        <f t="shared" ref="B323:B339" si="58">B322+D322</f>
+        <v>6</v>
+      </c>
+      <c r="C323" s="1">
+        <f t="shared" si="56"/>
+        <v>7</v>
+      </c>
+      <c r="D323">
+        <v>2</v>
+      </c>
+      <c r="E323" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F323" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G323" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H323" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="I323" t="str">
+        <f t="shared" si="57"/>
+        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
+      </c>
       <c r="J323" s="4"/>
       <c r="K323" s="4"/>
       <c r="L323" s="4"/>
@@ -12445,31 +12523,67 @@
     </row>
     <row r="324" spans="1:13">
       <c r="A324" s="4"/>
-      <c r="E324" s="4"/>
-      <c r="F324" s="4"/>
-      <c r="G324" s="4"/>
-      <c r="H324" s="4"/>
-      <c r="I324" s="4"/>
+      <c r="B324" s="1">
+        <f t="shared" si="58"/>
+        <v>8</v>
+      </c>
+      <c r="C324" s="1">
+        <f t="shared" si="56"/>
+        <v>37</v>
+      </c>
+      <c r="D324">
+        <v>30</v>
+      </c>
+      <c r="E324" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F324" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G324" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H324" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I324" t="str">
+        <f t="shared" si="57"/>
+        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 digits"));</v>
+      </c>
       <c r="J324" s="4"/>
       <c r="K324" s="4"/>
       <c r="L324" s="4"/>
       <c r="M324" s="4"/>
     </row>
     <row r="325" spans="1:13">
-      <c r="A325" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B325" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="C325" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="E325" s="4"/>
-      <c r="F325" s="4"/>
-      <c r="G325" s="4"/>
-      <c r="H325" s="4"/>
-      <c r="I325" s="4"/>
+      <c r="A325" s="4"/>
+      <c r="B325" s="1">
+        <f t="shared" si="58"/>
+        <v>38</v>
+      </c>
+      <c r="C325" s="1">
+        <f t="shared" si="56"/>
+        <v>42</v>
+      </c>
+      <c r="D325">
+        <v>5</v>
+      </c>
+      <c r="E325" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="F325" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="G325" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H325" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="I325" t="str">
+        <f t="shared" si="57"/>
+        <v>messageBlocks.add(new PayloadBlock(38, 42, 5, "Aid type", "aid_type", "e", "See "Navaid Types""));</v>
+      </c>
       <c r="J325" s="4"/>
       <c r="K325" s="4"/>
       <c r="L325" s="4"/>
@@ -12478,30 +12592,31 @@
     <row r="326" spans="1:13">
       <c r="A326" s="4"/>
       <c r="B326" s="1">
-        <v>0</v>
+        <f t="shared" si="58"/>
+        <v>43</v>
       </c>
       <c r="C326" s="1">
-        <f t="shared" ref="C326:C343" si="56">B326+D326-1</f>
-        <v>5</v>
+        <f t="shared" si="56"/>
+        <v>162</v>
       </c>
       <c r="D326">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="E326" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F326" s="4" t="s">
-        <v>11</v>
+        <v>344</v>
       </c>
       <c r="G326" s="4" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="H326" s="4" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="I326" t="str">
-        <f t="shared" ref="I326:I333" si="57">"messageBlocks.add(new PayloadBlock("&amp;B326&amp;", "&amp;C326&amp;", "&amp;D326&amp;", "&amp;CHAR(34)&amp;E326&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F326&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G326&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H326&amp;CHAR(34)&amp;"));"</f>
-        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 21"));</v>
+        <f t="shared" si="57"/>
+        <v>messageBlocks.add(new PayloadBlock(43, 162, 120, "Name", "name", "t", "Name in sixbit chars"));</v>
       </c>
       <c r="J326" s="4"/>
       <c r="K326" s="4"/>
@@ -12511,31 +12626,31 @@
     <row r="327" spans="1:13">
       <c r="A327" s="4"/>
       <c r="B327" s="1">
-        <f t="shared" ref="B327:B343" si="58">B326+D326</f>
-        <v>6</v>
+        <f t="shared" si="58"/>
+        <v>163</v>
       </c>
       <c r="C327" s="1">
         <f t="shared" si="56"/>
-        <v>7</v>
+        <v>163</v>
       </c>
       <c r="D327">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E327" s="4" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F327" s="4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G327" s="4" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H327" s="4" t="s">
         <v>312</v>
       </c>
       <c r="I327" t="str">
         <f t="shared" si="57"/>
-        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
+        <v>messageBlocks.add(new PayloadBlock(163, 163, 1, "Position Accuracy", "accuracy", "b", "As in CNB"));</v>
       </c>
       <c r="J327" s="4"/>
       <c r="K327" s="4"/>
@@ -12546,30 +12661,30 @@
       <c r="A328" s="4"/>
       <c r="B328" s="1">
         <f t="shared" si="58"/>
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="C328" s="1">
         <f t="shared" si="56"/>
-        <v>37</v>
+        <v>191</v>
       </c>
       <c r="D328">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E328" s="4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F328" s="4" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G328" s="4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H328" s="4" t="s">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="I328" t="str">
         <f t="shared" si="57"/>
-        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 digits"));</v>
+        <v>messageBlocks.add(new PayloadBlock(164, 191, 28, "Longitude", "lon", "I4", "Minutes/10000 (as in CNB)"));</v>
       </c>
       <c r="J328" s="4"/>
       <c r="K328" s="4"/>
@@ -12580,30 +12695,30 @@
       <c r="A329" s="4"/>
       <c r="B329" s="1">
         <f t="shared" si="58"/>
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="C329" s="1">
         <f t="shared" si="56"/>
-        <v>42</v>
+        <v>218</v>
       </c>
       <c r="D329">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E329" s="4" t="s">
-        <v>341</v>
+        <v>38</v>
       </c>
       <c r="F329" s="4" t="s">
-        <v>342</v>
+        <v>39</v>
       </c>
       <c r="G329" s="4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="H329" s="4" t="s">
-        <v>343</v>
+        <v>197</v>
       </c>
       <c r="I329" t="str">
         <f t="shared" si="57"/>
-        <v>messageBlocks.add(new PayloadBlock(38, 42, 5, "Aid type", "aid_type", "e", "See "Navaid Types""));</v>
+        <v>messageBlocks.add(new PayloadBlock(192, 218, 27, "Latitude", "lat", "I4", "Minutes/10000 (as in CNB)"));</v>
       </c>
       <c r="J329" s="4"/>
       <c r="K329" s="4"/>
@@ -12614,30 +12729,30 @@
       <c r="A330" s="4"/>
       <c r="B330" s="1">
         <f t="shared" si="58"/>
-        <v>43</v>
+        <v>219</v>
       </c>
       <c r="C330" s="1">
         <f t="shared" si="56"/>
-        <v>162</v>
+        <v>248</v>
       </c>
       <c r="D330">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="E330" s="4" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="F330" s="4" t="s">
-        <v>344</v>
+        <v>117</v>
       </c>
       <c r="G330" s="4" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="H330" s="4" t="s">
-        <v>345</v>
+        <v>118</v>
       </c>
       <c r="I330" t="str">
-        <f t="shared" si="57"/>
-        <v>messageBlocks.add(new PayloadBlock(43, 162, 120, "Name", "name", "t", "Name in sixbit chars"));</v>
+        <f>"messageBlocks.add(new PayloadBlock("&amp;C330&amp;", "&amp;D330&amp;", "&amp;D330&amp;", "&amp;CHAR(34)&amp;E330&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F330&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G330&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H330&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(248, 30, 30, "Vessel Dimensions", "dimension", "u", "Meters"));</v>
       </c>
       <c r="J330" s="4"/>
       <c r="K330" s="4"/>
@@ -12648,30 +12763,30 @@
       <c r="A331" s="4"/>
       <c r="B331" s="1">
         <f t="shared" si="58"/>
-        <v>163</v>
+        <v>249</v>
       </c>
       <c r="C331" s="1">
         <f t="shared" si="56"/>
-        <v>163</v>
+        <v>252</v>
       </c>
       <c r="D331">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E331" s="4" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="F331" s="4" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="G331" s="4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H331" s="4" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="I331" t="str">
-        <f t="shared" si="57"/>
-        <v>messageBlocks.add(new PayloadBlock(163, 163, 1, "Position Accuracy", "accuracy", "b", "As in CNB"));</v>
+        <f t="shared" ref="I331:I339" si="59">"messageBlocks.add(new PayloadBlock("&amp;B331&amp;", "&amp;C331&amp;", "&amp;D331&amp;", "&amp;CHAR(34)&amp;E331&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F331&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G331&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H331&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(249, 252, 4, "Type of EPFD", "epfd", "e", "As in Message Type 4"));</v>
       </c>
       <c r="J331" s="4"/>
       <c r="K331" s="4"/>
@@ -12682,30 +12797,30 @@
       <c r="A332" s="4"/>
       <c r="B332" s="1">
         <f t="shared" si="58"/>
-        <v>164</v>
+        <v>253</v>
       </c>
       <c r="C332" s="1">
         <f t="shared" si="56"/>
-        <v>191</v>
+        <v>258</v>
       </c>
       <c r="D332">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E332" s="4" t="s">
-        <v>34</v>
+        <v>347</v>
       </c>
       <c r="F332" s="4" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G332" s="4" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H332" s="4" t="s">
-        <v>197</v>
+        <v>348</v>
       </c>
       <c r="I332" t="str">
-        <f t="shared" si="57"/>
-        <v>messageBlocks.add(new PayloadBlock(164, 191, 28, "Longitude", "lon", "I4", "Minutes/10000 (as in CNB)"));</v>
+        <f t="shared" si="59"/>
+        <v>messageBlocks.add(new PayloadBlock(253, 258, 6, "UTC second", "second", "u", "As in Message Types 1-3"));</v>
       </c>
       <c r="J332" s="4"/>
       <c r="K332" s="4"/>
@@ -12716,30 +12831,30 @@
       <c r="A333" s="4"/>
       <c r="B333" s="1">
         <f t="shared" si="58"/>
-        <v>192</v>
+        <v>259</v>
       </c>
       <c r="C333" s="1">
         <f t="shared" si="56"/>
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="D333">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E333" s="4" t="s">
-        <v>38</v>
+        <v>349</v>
       </c>
       <c r="F333" s="4" t="s">
-        <v>39</v>
+        <v>350</v>
       </c>
       <c r="G333" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H333" s="4" t="s">
-        <v>197</v>
+        <v>351</v>
       </c>
       <c r="I333" t="str">
-        <f t="shared" si="57"/>
-        <v>messageBlocks.add(new PayloadBlock(192, 218, 27, "Latitude", "lat", "I4", "Minutes/10000 (as in CNB)"));</v>
+        <f t="shared" si="59"/>
+        <v>messageBlocks.add(new PayloadBlock(259, 259, 1, "Off-Position Indicator", "off_position", "b", "See Below"));</v>
       </c>
       <c r="J333" s="4"/>
       <c r="K333" s="4"/>
@@ -12750,30 +12865,30 @@
       <c r="A334" s="4"/>
       <c r="B334" s="1">
         <f t="shared" si="58"/>
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="C334" s="1">
         <f t="shared" si="56"/>
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="D334">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E334" s="4" t="s">
-        <v>116</v>
+        <v>204</v>
       </c>
       <c r="F334" s="4" t="s">
-        <v>117</v>
+        <v>205</v>
       </c>
       <c r="G334" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H334" s="4" t="s">
-        <v>118</v>
+        <v>281</v>
       </c>
       <c r="I334" t="str">
-        <f>"messageBlocks.add(new PayloadBlock("&amp;C334&amp;", "&amp;D334&amp;", "&amp;D334&amp;", "&amp;CHAR(34)&amp;E334&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F334&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G334&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H334&amp;CHAR(34)&amp;"));"</f>
-        <v>messageBlocks.add(new PayloadBlock(248, 30, 30, "Vessel Dimensions", "dimension", "u", "Meters"));</v>
+        <f t="shared" si="59"/>
+        <v>messageBlocks.add(new PayloadBlock(260, 267, 8, "Regional reserved", "regional", "u", "Uninterpreted"));</v>
       </c>
       <c r="J334" s="4"/>
       <c r="K334" s="4"/>
@@ -12784,30 +12899,30 @@
       <c r="A335" s="4"/>
       <c r="B335" s="1">
         <f t="shared" si="58"/>
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="C335" s="1">
         <f t="shared" si="56"/>
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="D335">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E335" s="4" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="F335" s="4" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="G335" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H335" s="4" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="I335" t="str">
-        <f t="shared" ref="I335:I343" si="59">"messageBlocks.add(new PayloadBlock("&amp;B335&amp;", "&amp;C335&amp;", "&amp;D335&amp;", "&amp;CHAR(34)&amp;E335&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F335&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G335&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H335&amp;CHAR(34)&amp;"));"</f>
-        <v>messageBlocks.add(new PayloadBlock(249, 252, 4, "Type of EPFD", "epfd", "e", "As in Message Type 4"));</v>
+        <f t="shared" si="59"/>
+        <v>messageBlocks.add(new PayloadBlock(268, 268, 1, "RAIM flag", "raim", "b", "As in CNB"));</v>
       </c>
       <c r="J335" s="4"/>
       <c r="K335" s="4"/>
@@ -12818,30 +12933,30 @@
       <c r="A336" s="4"/>
       <c r="B336" s="1">
         <f t="shared" si="58"/>
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="C336" s="1">
         <f t="shared" si="56"/>
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="D336">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E336" s="4" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="F336" s="4" t="s">
-        <v>47</v>
+        <v>353</v>
       </c>
       <c r="G336" s="4" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H336" s="4" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="I336" t="str">
         <f t="shared" si="59"/>
-        <v>messageBlocks.add(new PayloadBlock(253, 258, 6, "UTC second", "second", "u", "As in Message Types 1-3"));</v>
+        <v>messageBlocks.add(new PayloadBlock(269, 269, 1, "Virtual-aid flag", "virtual_aid", "b", "See Below"));</v>
       </c>
       <c r="J336" s="4"/>
       <c r="K336" s="4"/>
@@ -12852,30 +12967,30 @@
       <c r="A337" s="4"/>
       <c r="B337" s="1">
         <f t="shared" si="58"/>
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="C337" s="1">
         <f t="shared" si="56"/>
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="D337">
         <v>1</v>
       </c>
       <c r="E337" s="4" t="s">
-        <v>349</v>
+        <v>210</v>
       </c>
       <c r="F337" s="4" t="s">
-        <v>350</v>
+        <v>209</v>
       </c>
       <c r="G337" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H337" s="4" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="I337" t="str">
         <f t="shared" si="59"/>
-        <v>messageBlocks.add(new PayloadBlock(259, 259, 1, "Off-Position Indicator", "off_position", "b", "See Below"));</v>
+        <v>messageBlocks.add(new PayloadBlock(270, 270, 1, "Assigned-mode flag", "assigned", "b", "See [IALA] for details"));</v>
       </c>
       <c r="J337" s="4"/>
       <c r="K337" s="4"/>
@@ -12886,30 +13001,28 @@
       <c r="A338" s="4"/>
       <c r="B338" s="1">
         <f t="shared" si="58"/>
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="C338" s="1">
         <f t="shared" si="56"/>
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D338">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E338" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F338" s="4" t="s">
-        <v>205</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F338" s="4"/>
       <c r="G338" s="4" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="H338" s="4" t="s">
-        <v>281</v>
+        <v>54</v>
       </c>
       <c r="I338" t="str">
         <f t="shared" si="59"/>
-        <v>messageBlocks.add(new PayloadBlock(260, 267, 8, "Regional reserved", "regional", "u", "Uninterpreted"));</v>
+        <v>messageBlocks.add(new PayloadBlock(271, 271, 1, "Spare", "", "x", "Not used"));</v>
       </c>
       <c r="J338" s="4"/>
       <c r="K338" s="4"/>
@@ -12920,30 +13033,28 @@
       <c r="A339" s="4"/>
       <c r="B339" s="1">
         <f t="shared" si="58"/>
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C339" s="1">
         <f t="shared" si="56"/>
-        <v>268</v>
+        <v>359</v>
       </c>
       <c r="D339">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="E339" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F339" s="4" t="s">
-        <v>56</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="F339" s="4"/>
       <c r="G339" s="4" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="H339" s="4" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="I339" t="str">
         <f t="shared" si="59"/>
-        <v>messageBlocks.add(new PayloadBlock(268, 268, 1, "RAIM flag", "raim", "b", "As in CNB"));</v>
+        <v>messageBlocks.add(new PayloadBlock(272, 359, 88, "Name Extension", "", "t", "See Below"));</v>
       </c>
       <c r="J339" s="4"/>
       <c r="K339" s="4"/>
@@ -12952,32 +13063,18 @@
     </row>
     <row r="340" spans="1:13">
       <c r="A340" s="4"/>
-      <c r="B340" s="1">
-        <f t="shared" si="58"/>
-        <v>269</v>
-      </c>
-      <c r="C340" s="1">
-        <f t="shared" si="56"/>
-        <v>269</v>
-      </c>
       <c r="D340">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E340" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="F340" s="4" t="s">
-        <v>353</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F340" s="4"/>
       <c r="G340" s="4" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="H340" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="I340" t="str">
-        <f t="shared" si="59"/>
-        <v>messageBlocks.add(new PayloadBlock(269, 269, 1, "Virtual-aid flag", "virtual_aid", "b", "See Below"));</v>
+        <v>336</v>
       </c>
       <c r="J340" s="4"/>
       <c r="K340" s="4"/>
@@ -12986,33 +13083,14 @@
     </row>
     <row r="341" spans="1:13">
       <c r="A341" s="4"/>
-      <c r="B341" s="1">
-        <f t="shared" si="58"/>
-        <v>270</v>
-      </c>
-      <c r="C341" s="1">
-        <f t="shared" si="56"/>
-        <v>270</v>
-      </c>
       <c r="D341">
-        <v>1</v>
-      </c>
-      <c r="E341" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F341" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G341" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H341" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="I341" t="str">
-        <f t="shared" si="59"/>
-        <v>messageBlocks.add(new PayloadBlock(270, 270, 1, "Assigned-mode flag", "assigned", "b", "See [IALA] for details"));</v>
-      </c>
+        <f>SUM(D322:D339)</f>
+        <v>360</v>
+      </c>
+      <c r="E341" s="4"/>
+      <c r="F341" s="4"/>
+      <c r="G341" s="4"/>
+      <c r="H341" s="4"/>
       <c r="J341" s="4"/>
       <c r="K341" s="4"/>
       <c r="L341" s="4"/>
@@ -13020,63 +13098,31 @@
     </row>
     <row r="342" spans="1:13">
       <c r="A342" s="4"/>
-      <c r="B342" s="1">
-        <f t="shared" si="58"/>
-        <v>271</v>
-      </c>
-      <c r="C342" s="1">
-        <f t="shared" si="56"/>
-        <v>271</v>
-      </c>
-      <c r="D342">
-        <v>1</v>
-      </c>
-      <c r="E342" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="E342" s="4"/>
       <c r="F342" s="4"/>
-      <c r="G342" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H342" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I342" t="str">
-        <f t="shared" si="59"/>
-        <v>messageBlocks.add(new PayloadBlock(271, 271, 1, "Spare", "", "x", "Not used"));</v>
-      </c>
+      <c r="G342" s="4"/>
+      <c r="H342" s="4"/>
+      <c r="I342" s="4"/>
       <c r="J342" s="4"/>
       <c r="K342" s="4"/>
       <c r="L342" s="4"/>
       <c r="M342" s="4"/>
     </row>
     <row r="343" spans="1:13">
-      <c r="A343" s="4"/>
-      <c r="B343" s="1">
-        <f t="shared" si="58"/>
-        <v>272</v>
-      </c>
-      <c r="C343" s="1">
-        <f t="shared" si="56"/>
-        <v>359</v>
-      </c>
-      <c r="D343">
-        <v>88</v>
-      </c>
-      <c r="E343" s="4" t="s">
-        <v>354</v>
-      </c>
+      <c r="A343" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B343" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="E343" s="4"/>
       <c r="F343" s="4"/>
-      <c r="G343" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H343" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="I343" t="str">
-        <f t="shared" si="59"/>
-        <v>messageBlocks.add(new PayloadBlock(272, 359, 88, "Name Extension", "", "t", "See Below"));</v>
-      </c>
+      <c r="G343" s="4"/>
+      <c r="H343" s="4"/>
+      <c r="I343" s="4"/>
       <c r="J343" s="4"/>
       <c r="K343" s="4"/>
       <c r="L343" s="4"/>
@@ -13084,18 +13130,31 @@
     </row>
     <row r="344" spans="1:13">
       <c r="A344" s="4"/>
+      <c r="B344" s="1">
+        <v>0</v>
+      </c>
+      <c r="C344" s="1">
+        <f t="shared" ref="C344:C360" si="60">B344+D344-1</f>
+        <v>5</v>
+      </c>
       <c r="D344">
         <v>6</v>
       </c>
       <c r="E344" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F344" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="F344" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="G344" s="4" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="H344" s="4" t="s">
-        <v>336</v>
+        <v>356</v>
+      </c>
+      <c r="I344" t="str">
+        <f t="shared" ref="I344:I360" si="61">"messageBlocks.add(new PayloadBlock("&amp;B344&amp;", "&amp;C344&amp;", "&amp;D344&amp;", "&amp;CHAR(34)&amp;E344&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F344&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G344&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H344&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 22"));</v>
       </c>
       <c r="J344" s="4"/>
       <c r="K344" s="4"/>
@@ -13104,14 +13163,33 @@
     </row>
     <row r="345" spans="1:13">
       <c r="A345" s="4"/>
+      <c r="B345" s="1">
+        <f t="shared" ref="B345:B360" si="62">B344+D344</f>
+        <v>6</v>
+      </c>
+      <c r="C345" s="1">
+        <f t="shared" si="60"/>
+        <v>7</v>
+      </c>
       <c r="D345">
-        <f>SUM(D326:D343)</f>
-        <v>360</v>
-      </c>
-      <c r="E345" s="4"/>
-      <c r="F345" s="4"/>
-      <c r="G345" s="4"/>
-      <c r="H345" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="E345" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F345" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G345" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H345" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I345" t="str">
+        <f t="shared" si="61"/>
+        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in Common Navigation Block"));</v>
+      </c>
       <c r="J345" s="4"/>
       <c r="K345" s="4"/>
       <c r="L345" s="4"/>
@@ -13119,28 +13197,65 @@
     </row>
     <row r="346" spans="1:13">
       <c r="A346" s="4"/>
-      <c r="E346" s="4"/>
-      <c r="F346" s="4"/>
-      <c r="G346" s="4"/>
-      <c r="H346" s="4"/>
-      <c r="I346" s="4"/>
+      <c r="B346" s="1">
+        <f t="shared" si="62"/>
+        <v>8</v>
+      </c>
+      <c r="C346" s="1">
+        <f t="shared" si="60"/>
+        <v>37</v>
+      </c>
+      <c r="D346">
+        <v>30</v>
+      </c>
+      <c r="E346" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F346" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G346" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H346" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I346" t="str">
+        <f t="shared" si="61"/>
+        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 decimal digits"));</v>
+      </c>
       <c r="J346" s="4"/>
       <c r="K346" s="4"/>
       <c r="L346" s="4"/>
       <c r="M346" s="4"/>
     </row>
     <row r="347" spans="1:13">
-      <c r="A347" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B347" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E347" s="4"/>
+      <c r="A347" s="4"/>
+      <c r="B347" s="1">
+        <f t="shared" si="62"/>
+        <v>38</v>
+      </c>
+      <c r="C347" s="1">
+        <f t="shared" si="60"/>
+        <v>39</v>
+      </c>
+      <c r="D347">
+        <v>2</v>
+      </c>
+      <c r="E347" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="F347" s="4"/>
-      <c r="G347" s="4"/>
-      <c r="H347" s="4"/>
-      <c r="I347" s="4"/>
+      <c r="G347" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H347" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I347" t="str">
+        <f t="shared" si="61"/>
+        <v>messageBlocks.add(new PayloadBlock(38, 39, 2, "Spare", "", "x", "Not used"));</v>
+      </c>
       <c r="J347" s="4"/>
       <c r="K347" s="4"/>
       <c r="L347" s="4"/>
@@ -13149,30 +13264,31 @@
     <row r="348" spans="1:13">
       <c r="A348" s="4"/>
       <c r="B348" s="1">
-        <v>0</v>
+        <f t="shared" si="62"/>
+        <v>40</v>
       </c>
       <c r="C348" s="1">
-        <f t="shared" ref="C348:C364" si="60">B348+D348-1</f>
-        <v>5</v>
+        <f t="shared" si="60"/>
+        <v>51</v>
       </c>
       <c r="D348">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E348" s="4" t="s">
-        <v>10</v>
+        <v>357</v>
       </c>
       <c r="F348" s="4" t="s">
-        <v>11</v>
+        <v>358</v>
       </c>
       <c r="G348" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H348" s="4" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="I348" t="str">
-        <f t="shared" ref="I348:I364" si="61">"messageBlocks.add(new PayloadBlock("&amp;B348&amp;", "&amp;C348&amp;", "&amp;D348&amp;", "&amp;CHAR(34)&amp;E348&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F348&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G348&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H348&amp;CHAR(34)&amp;"));"</f>
-        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 22"));</v>
+        <f t="shared" si="61"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 51, 12, "Channel A", "channel_a", "u", "Channel number"));</v>
       </c>
       <c r="J348" s="4"/>
       <c r="K348" s="4"/>
@@ -13182,31 +13298,31 @@
     <row r="349" spans="1:13">
       <c r="A349" s="4"/>
       <c r="B349" s="1">
-        <f t="shared" ref="B349:B364" si="62">B348+D348</f>
-        <v>6</v>
+        <f t="shared" si="62"/>
+        <v>52</v>
       </c>
       <c r="C349" s="1">
         <f t="shared" si="60"/>
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="D349">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E349" s="4" t="s">
-        <v>14</v>
+        <v>360</v>
       </c>
       <c r="F349" s="4" t="s">
-        <v>15</v>
+        <v>361</v>
       </c>
       <c r="G349" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H349" s="4" t="s">
-        <v>71</v>
+        <v>359</v>
       </c>
       <c r="I349" t="str">
         <f t="shared" si="61"/>
-        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in Common Navigation Block"));</v>
+        <v>messageBlocks.add(new PayloadBlock(52, 63, 12, "Channel B", "channel_b", "u", "Channel number"));</v>
       </c>
       <c r="J349" s="4"/>
       <c r="K349" s="4"/>
@@ -13217,30 +13333,30 @@
       <c r="A350" s="4"/>
       <c r="B350" s="1">
         <f t="shared" si="62"/>
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="C350" s="1">
         <f t="shared" si="60"/>
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D350">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E350" s="4" t="s">
-        <v>17</v>
+        <v>362</v>
       </c>
       <c r="F350" s="4" t="s">
-        <v>18</v>
+        <v>363</v>
       </c>
       <c r="G350" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H350" s="4" t="s">
-        <v>19</v>
+        <v>364</v>
       </c>
       <c r="I350" t="str">
         <f t="shared" si="61"/>
-        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 decimal digits"));</v>
+        <v>messageBlocks.add(new PayloadBlock(64, 67, 4, "Tx/Rx mode", "txrx", "u", "Transmit/receive mode"));</v>
       </c>
       <c r="J350" s="4"/>
       <c r="K350" s="4"/>
@@ -13251,28 +13367,30 @@
       <c r="A351" s="4"/>
       <c r="B351" s="1">
         <f t="shared" si="62"/>
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="C351" s="1">
         <f t="shared" si="60"/>
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="D351">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E351" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F351" s="4"/>
+        <v>365</v>
+      </c>
+      <c r="F351" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="G351" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H351" s="4" t="s">
-        <v>54</v>
+        <v>367</v>
       </c>
       <c r="I351" t="str">
         <f t="shared" si="61"/>
-        <v>messageBlocks.add(new PayloadBlock(38, 39, 2, "Spare", "", "x", "Not used"));</v>
+        <v>messageBlocks.add(new PayloadBlock(68, 68, 1, "Power", "power", "b", "Low=0, high=1"));</v>
       </c>
       <c r="J351" s="4"/>
       <c r="K351" s="4"/>
@@ -13283,30 +13401,30 @@
       <c r="A352" s="4"/>
       <c r="B352" s="1">
         <f t="shared" si="62"/>
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C352" s="1">
         <f t="shared" si="60"/>
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="D352">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E352" s="4" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="F352" s="4" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="G352" s="4" t="s">
-        <v>12</v>
+        <v>265</v>
       </c>
       <c r="H352" s="4" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="I352" t="str">
         <f t="shared" si="61"/>
-        <v>messageBlocks.add(new PayloadBlock(40, 51, 12, "Channel A", "channel_a", "u", "Channel number"));</v>
+        <v>messageBlocks.add(new PayloadBlock(69, 86, 18, "NE Longitude", "ne_lon", "I1", "NE longitude to 0.1 minutes"));</v>
       </c>
       <c r="J352" s="4"/>
       <c r="K352" s="4"/>
@@ -13317,30 +13435,30 @@
       <c r="A353" s="4"/>
       <c r="B353" s="1">
         <f t="shared" si="62"/>
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="C353" s="1">
         <f t="shared" si="60"/>
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="D353">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E353" s="4" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="F353" s="4" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="G353" s="4" t="s">
-        <v>12</v>
+        <v>265</v>
       </c>
       <c r="H353" s="4" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="I353" t="str">
         <f t="shared" si="61"/>
-        <v>messageBlocks.add(new PayloadBlock(52, 63, 12, "Channel B", "channel_b", "u", "Channel number"));</v>
+        <v>messageBlocks.add(new PayloadBlock(87, 103, 17, "NE Latitude", "ne_lat", "I1", "NE latitude to 0.1 minutes"));</v>
       </c>
       <c r="J353" s="4"/>
       <c r="K353" s="4"/>
@@ -13351,30 +13469,30 @@
       <c r="A354" s="4"/>
       <c r="B354" s="1">
         <f t="shared" si="62"/>
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="C354" s="1">
         <f t="shared" si="60"/>
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="D354">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E354" s="4" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="F354" s="4" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="G354" s="4" t="s">
-        <v>12</v>
+        <v>265</v>
       </c>
       <c r="H354" s="4" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="I354" t="str">
         <f t="shared" si="61"/>
-        <v>messageBlocks.add(new PayloadBlock(64, 67, 4, "Tx/Rx mode", "txrx", "u", "Transmit/receive mode"));</v>
+        <v>messageBlocks.add(new PayloadBlock(104, 121, 18, "SW Longitude", "sw_lon", "I1", "SW longitude to 0.1 minutes"));</v>
       </c>
       <c r="J354" s="4"/>
       <c r="K354" s="4"/>
@@ -13385,30 +13503,30 @@
       <c r="A355" s="4"/>
       <c r="B355" s="1">
         <f t="shared" si="62"/>
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="C355" s="1">
         <f t="shared" si="60"/>
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="D355">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E355" s="4" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="F355" s="4" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="G355" s="4" t="s">
-        <v>33</v>
+        <v>265</v>
       </c>
       <c r="H355" s="4" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="I355" t="str">
         <f t="shared" si="61"/>
-        <v>messageBlocks.add(new PayloadBlock(68, 68, 1, "Power", "power", "b", "Low=0, high=1"));</v>
+        <v>messageBlocks.add(new PayloadBlock(122, 138, 17, "SW Latitude", "sw_lat", "I1", "SW latitude to 0.1 minutes"));</v>
       </c>
       <c r="J355" s="4"/>
       <c r="K355" s="4"/>
@@ -13419,30 +13537,30 @@
       <c r="A356" s="4"/>
       <c r="B356" s="1">
         <f t="shared" si="62"/>
-        <v>69</v>
+        <v>139</v>
       </c>
       <c r="C356" s="1">
         <f t="shared" si="60"/>
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="D356">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E356" s="4" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="F356" s="4" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="G356" s="4" t="s">
-        <v>265</v>
+        <v>33</v>
       </c>
       <c r="H356" s="4" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="I356" t="str">
         <f t="shared" si="61"/>
-        <v>messageBlocks.add(new PayloadBlock(69, 86, 18, "NE Longitude", "ne_lon", "I1", "NE longitude to 0.1 minutes"));</v>
+        <v>messageBlocks.add(new PayloadBlock(139, 139, 1, "Addressed", "addressed", "b", "0=Broadcast, 1=Addressed"));</v>
       </c>
       <c r="J356" s="4"/>
       <c r="K356" s="4"/>
@@ -13453,30 +13571,30 @@
       <c r="A357" s="4"/>
       <c r="B357" s="1">
         <f t="shared" si="62"/>
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="C357" s="1">
         <f t="shared" si="60"/>
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="D357">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E357" s="4" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="F357" s="4" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="G357" s="4" t="s">
-        <v>265</v>
+        <v>33</v>
       </c>
       <c r="H357" s="4" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="I357" t="str">
         <f t="shared" si="61"/>
-        <v>messageBlocks.add(new PayloadBlock(87, 103, 17, "NE Latitude", "ne_lat", "I1", "NE latitude to 0.1 minutes"));</v>
+        <v>messageBlocks.add(new PayloadBlock(140, 140, 1, "Channel A Band", "band_a", "b", "0=Default, 1=12.5kHz"));</v>
       </c>
       <c r="J357" s="4"/>
       <c r="K357" s="4"/>
@@ -13487,30 +13605,30 @@
       <c r="A358" s="4"/>
       <c r="B358" s="1">
         <f t="shared" si="62"/>
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="C358" s="1">
         <f t="shared" si="60"/>
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="D358">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E358" s="4" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="F358" s="4" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="G358" s="4" t="s">
-        <v>265</v>
+        <v>33</v>
       </c>
       <c r="H358" s="4" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="I358" t="str">
         <f t="shared" si="61"/>
-        <v>messageBlocks.add(new PayloadBlock(104, 121, 18, "SW Longitude", "sw_lon", "I1", "SW longitude to 0.1 minutes"));</v>
+        <v>messageBlocks.add(new PayloadBlock(141, 141, 1, "Channel B Band", "band_b", "b", "0=Default, 1=12.5kHz"));</v>
       </c>
       <c r="J358" s="4"/>
       <c r="K358" s="4"/>
@@ -13521,30 +13639,30 @@
       <c r="A359" s="4"/>
       <c r="B359" s="1">
         <f t="shared" si="62"/>
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="C359" s="1">
         <f t="shared" si="60"/>
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D359">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E359" s="4" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="F359" s="4" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="G359" s="4" t="s">
-        <v>265</v>
+        <v>12</v>
       </c>
       <c r="H359" s="4" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="I359" t="str">
         <f t="shared" si="61"/>
-        <v>messageBlocks.add(new PayloadBlock(122, 138, 17, "SW Latitude", "sw_lat", "I1", "SW latitude to 0.1 minutes"));</v>
+        <v>messageBlocks.add(new PayloadBlock(142, 144, 3, "Zone size", "zonesize", "u", "Size of transitional zone"));</v>
       </c>
       <c r="J359" s="4"/>
       <c r="K359" s="4"/>
@@ -13555,30 +13673,28 @@
       <c r="A360" s="4"/>
       <c r="B360" s="1">
         <f t="shared" si="62"/>
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C360" s="1">
         <f t="shared" si="60"/>
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="D360">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E360" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="F360" s="4" t="s">
-        <v>381</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F360" s="4"/>
       <c r="G360" s="4" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="H360" s="4" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="I360" t="str">
         <f t="shared" si="61"/>
-        <v>messageBlocks.add(new PayloadBlock(139, 139, 1, "Addressed", "addressed", "b", "0=Broadcast, 1=Addressed"));</v>
+        <v>messageBlocks.add(new PayloadBlock(145, 167, 23, "Spare", "", "x", "Reserved for future use"));</v>
       </c>
       <c r="J360" s="4"/>
       <c r="K360" s="4"/>
@@ -13587,33 +13703,14 @@
     </row>
     <row r="361" spans="1:13">
       <c r="A361" s="4"/>
-      <c r="B361" s="1">
-        <f t="shared" si="62"/>
-        <v>140</v>
-      </c>
-      <c r="C361" s="1">
-        <f t="shared" si="60"/>
-        <v>140</v>
-      </c>
       <c r="D361">
-        <v>1</v>
-      </c>
-      <c r="E361" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="F361" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="G361" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H361" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="I361" t="str">
-        <f t="shared" si="61"/>
-        <v>messageBlocks.add(new PayloadBlock(140, 140, 1, "Channel A Band", "band_a", "b", "0=Default, 1=12.5kHz"));</v>
-      </c>
+        <f>SUM(D344:D360)</f>
+        <v>168</v>
+      </c>
+      <c r="E361" s="4"/>
+      <c r="F361" s="4"/>
+      <c r="G361" s="4"/>
+      <c r="H361" s="4"/>
       <c r="J361" s="4"/>
       <c r="K361" s="4"/>
       <c r="L361" s="4"/>
@@ -13621,67 +13718,31 @@
     </row>
     <row r="362" spans="1:13">
       <c r="A362" s="4"/>
-      <c r="B362" s="1">
-        <f t="shared" si="62"/>
-        <v>141</v>
-      </c>
-      <c r="C362" s="1">
-        <f t="shared" si="60"/>
-        <v>141</v>
-      </c>
-      <c r="D362">
-        <v>1</v>
-      </c>
-      <c r="E362" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="F362" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="G362" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H362" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="I362" t="str">
-        <f t="shared" si="61"/>
-        <v>messageBlocks.add(new PayloadBlock(141, 141, 1, "Channel B Band", "band_b", "b", "0=Default, 1=12.5kHz"));</v>
-      </c>
+      <c r="E362" s="4"/>
+      <c r="F362" s="4"/>
+      <c r="G362" s="4"/>
+      <c r="H362" s="4"/>
+      <c r="I362" s="4"/>
       <c r="J362" s="4"/>
       <c r="K362" s="4"/>
       <c r="L362" s="4"/>
       <c r="M362" s="4"/>
     </row>
     <row r="363" spans="1:13">
-      <c r="A363" s="4"/>
-      <c r="B363" s="1">
-        <f t="shared" si="62"/>
-        <v>142</v>
-      </c>
-      <c r="C363" s="1">
-        <f t="shared" si="60"/>
-        <v>144</v>
-      </c>
-      <c r="D363">
-        <v>3</v>
-      </c>
-      <c r="E363" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="F363" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="G363" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H363" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="I363" t="str">
-        <f t="shared" si="61"/>
-        <v>messageBlocks.add(new PayloadBlock(142, 144, 3, "Zone size", "zonesize", "u", "Size of transitional zone"));</v>
-      </c>
+      <c r="A363" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="E363" s="4"/>
+      <c r="F363" s="4"/>
+      <c r="G363" s="4"/>
+      <c r="H363" s="4"/>
+      <c r="I363" s="4"/>
       <c r="J363" s="4"/>
       <c r="K363" s="4"/>
       <c r="L363" s="4"/>
@@ -13690,29 +13751,30 @@
     <row r="364" spans="1:13">
       <c r="A364" s="4"/>
       <c r="B364" s="1">
-        <f t="shared" si="62"/>
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="C364" s="1">
-        <f t="shared" si="60"/>
-        <v>167</v>
+        <f t="shared" ref="C364:C378" si="63">B364+D364-1</f>
+        <v>5</v>
       </c>
       <c r="D364">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E364" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F364" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="F364" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="G364" s="4" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="H364" s="4" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="I364" t="str">
-        <f t="shared" si="61"/>
-        <v>messageBlocks.add(new PayloadBlock(145, 167, 23, "Spare", "", "x", "Reserved for future use"));</v>
+        <f t="shared" ref="I364:I378" si="64">"messageBlocks.add(new PayloadBlock("&amp;B364&amp;", "&amp;C364&amp;", "&amp;D364&amp;", "&amp;CHAR(34)&amp;E364&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F364&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G364&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H364&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Unsigned Integer: 23"));</v>
       </c>
       <c r="J364" s="4"/>
       <c r="K364" s="4"/>
@@ -13721,14 +13783,33 @@
     </row>
     <row r="365" spans="1:13">
       <c r="A365" s="4"/>
+      <c r="B365" s="1">
+        <f t="shared" ref="B365:B378" si="65">B364+D364</f>
+        <v>6</v>
+      </c>
+      <c r="C365" s="1">
+        <f t="shared" si="63"/>
+        <v>7</v>
+      </c>
       <c r="D365">
-        <f>SUM(D348:D364)</f>
-        <v>168</v>
-      </c>
-      <c r="E365" s="4"/>
-      <c r="F365" s="4"/>
-      <c r="G365" s="4"/>
-      <c r="H365" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="E365" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F365" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G365" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H365" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I365" t="str">
+        <f t="shared" si="64"/>
+        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in Common Navigation Block"));</v>
+      </c>
       <c r="J365" s="4"/>
       <c r="K365" s="4"/>
       <c r="L365" s="4"/>
@@ -13736,28 +13817,65 @@
     </row>
     <row r="366" spans="1:13">
       <c r="A366" s="4"/>
-      <c r="E366" s="4"/>
-      <c r="F366" s="4"/>
-      <c r="G366" s="4"/>
-      <c r="H366" s="4"/>
-      <c r="I366" s="4"/>
+      <c r="B366" s="1">
+        <f t="shared" si="65"/>
+        <v>8</v>
+      </c>
+      <c r="C366" s="1">
+        <f t="shared" si="63"/>
+        <v>37</v>
+      </c>
+      <c r="D366">
+        <v>30</v>
+      </c>
+      <c r="E366" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F366" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G366" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H366" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="I366" t="str">
+        <f t="shared" si="64"/>
+        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "Unsigned Integer: 9 digits"));</v>
+      </c>
       <c r="J366" s="4"/>
       <c r="K366" s="4"/>
       <c r="L366" s="4"/>
       <c r="M366" s="4"/>
     </row>
     <row r="367" spans="1:13">
-      <c r="A367" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B367" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="E367" s="4"/>
+      <c r="A367" s="4"/>
+      <c r="B367" s="1">
+        <f t="shared" si="65"/>
+        <v>38</v>
+      </c>
+      <c r="C367" s="1">
+        <f t="shared" si="63"/>
+        <v>39</v>
+      </c>
+      <c r="D367">
+        <v>2</v>
+      </c>
+      <c r="E367" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="F367" s="4"/>
-      <c r="G367" s="4"/>
-      <c r="H367" s="4"/>
-      <c r="I367" s="4"/>
+      <c r="G367" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H367" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I367" t="str">
+        <f t="shared" si="64"/>
+        <v>messageBlocks.add(new PayloadBlock(38, 39, 2, "Spare", "", "x", "Not used"));</v>
+      </c>
       <c r="J367" s="4"/>
       <c r="K367" s="4"/>
       <c r="L367" s="4"/>
@@ -13766,30 +13884,31 @@
     <row r="368" spans="1:13">
       <c r="A368" s="4"/>
       <c r="B368" s="1">
-        <v>0</v>
+        <f t="shared" si="65"/>
+        <v>40</v>
       </c>
       <c r="C368" s="1">
-        <f t="shared" ref="C368:C382" si="63">B368+D368-1</f>
-        <v>5</v>
+        <f t="shared" si="63"/>
+        <v>57</v>
       </c>
       <c r="D368">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E368" s="4" t="s">
-        <v>10</v>
+        <v>368</v>
       </c>
       <c r="F368" s="4" t="s">
-        <v>11</v>
+        <v>369</v>
       </c>
       <c r="G368" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H368" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="I368" t="str">
-        <f t="shared" ref="I368:I382" si="64">"messageBlocks.add(new PayloadBlock("&amp;B368&amp;", "&amp;C368&amp;", "&amp;D368&amp;", "&amp;CHAR(34)&amp;E368&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F368&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G368&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H368&amp;CHAR(34)&amp;"));"</f>
-        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Unsigned Integer: 23"));</v>
+        <f t="shared" si="64"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 57, 18, "NE Longitude", "ne_lon", "u", "Same as broadcast type 22"));</v>
       </c>
       <c r="J368" s="4"/>
       <c r="K368" s="4"/>
@@ -13799,31 +13918,31 @@
     <row r="369" spans="1:13">
       <c r="A369" s="4"/>
       <c r="B369" s="1">
-        <f t="shared" ref="B369:B382" si="65">B368+D368</f>
-        <v>6</v>
+        <f t="shared" si="65"/>
+        <v>58</v>
       </c>
       <c r="C369" s="1">
         <f t="shared" si="63"/>
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D369">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E369" s="4" t="s">
-        <v>14</v>
+        <v>371</v>
       </c>
       <c r="F369" s="4" t="s">
-        <v>15</v>
+        <v>372</v>
       </c>
       <c r="G369" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H369" s="4" t="s">
-        <v>71</v>
+        <v>395</v>
       </c>
       <c r="I369" t="str">
         <f t="shared" si="64"/>
-        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in Common Navigation Block"));</v>
+        <v>messageBlocks.add(new PayloadBlock(58, 74, 17, "NE Latitude", "ne_lat", "u", "Same as broadcast type 22"));</v>
       </c>
       <c r="J369" s="4"/>
       <c r="K369" s="4"/>
@@ -13834,30 +13953,30 @@
       <c r="A370" s="4"/>
       <c r="B370" s="1">
         <f t="shared" si="65"/>
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="C370" s="1">
         <f t="shared" si="63"/>
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="D370">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E370" s="4" t="s">
-        <v>17</v>
+        <v>374</v>
       </c>
       <c r="F370" s="4" t="s">
-        <v>18</v>
+        <v>375</v>
       </c>
       <c r="G370" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H370" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I370" t="str">
         <f t="shared" si="64"/>
-        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "Unsigned Integer: 9 digits"));</v>
+        <v>messageBlocks.add(new PayloadBlock(75, 92, 18, "SW Longitude", "sw_lon", "u", "Same as broadcast type 22"));</v>
       </c>
       <c r="J370" s="4"/>
       <c r="K370" s="4"/>
@@ -13868,28 +13987,30 @@
       <c r="A371" s="4"/>
       <c r="B371" s="1">
         <f t="shared" si="65"/>
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="C371" s="1">
         <f t="shared" si="63"/>
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="D371">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E371" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F371" s="4"/>
+        <v>377</v>
+      </c>
+      <c r="F371" s="4" t="s">
+        <v>378</v>
+      </c>
       <c r="G371" s="4" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="H371" s="4" t="s">
-        <v>54</v>
+        <v>395</v>
       </c>
       <c r="I371" t="str">
         <f t="shared" si="64"/>
-        <v>messageBlocks.add(new PayloadBlock(38, 39, 2, "Spare", "", "x", "Not used"));</v>
+        <v>messageBlocks.add(new PayloadBlock(93, 109, 17, "SW Latitude", "sw_lat", "u", "Same as broadcast type 22"));</v>
       </c>
       <c r="J371" s="4"/>
       <c r="K371" s="4"/>
@@ -13900,30 +14021,30 @@
       <c r="A372" s="4"/>
       <c r="B372" s="1">
         <f t="shared" si="65"/>
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="C372" s="1">
         <f t="shared" si="63"/>
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="D372">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E372" s="4" t="s">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="F372" s="4" t="s">
-        <v>369</v>
+        <v>397</v>
       </c>
       <c r="G372" s="4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H372" s="4" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="I372" t="str">
         <f t="shared" si="64"/>
-        <v>messageBlocks.add(new PayloadBlock(40, 57, 18, "NE Longitude", "ne_lon", "u", "Same as broadcast type 22"));</v>
+        <v>messageBlocks.add(new PayloadBlock(110, 113, 4, "Station Type", "station_type", "e", "See "Station Types""));</v>
       </c>
       <c r="J372" s="4"/>
       <c r="K372" s="4"/>
@@ -13934,30 +14055,30 @@
       <c r="A373" s="4"/>
       <c r="B373" s="1">
         <f t="shared" si="65"/>
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="C373" s="1">
         <f t="shared" si="63"/>
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="D373">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E373" s="4" t="s">
-        <v>371</v>
+        <v>113</v>
       </c>
       <c r="F373" s="4" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="G373" s="4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H373" s="4" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="I373" t="str">
         <f t="shared" si="64"/>
-        <v>messageBlocks.add(new PayloadBlock(58, 74, 17, "NE Latitude", "ne_lat", "u", "Same as broadcast type 22"));</v>
+        <v>messageBlocks.add(new PayloadBlock(114, 121, 8, "Ship Type", "ship_type", "e", "See "Ship Types""));</v>
       </c>
       <c r="J373" s="4"/>
       <c r="K373" s="4"/>
@@ -13968,30 +14089,28 @@
       <c r="A374" s="4"/>
       <c r="B374" s="1">
         <f t="shared" si="65"/>
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="C374" s="1">
         <f t="shared" si="63"/>
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="D374">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E374" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="F374" s="4" t="s">
-        <v>375</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F374" s="4"/>
       <c r="G374" s="4" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="H374" s="4" t="s">
-        <v>395</v>
+        <v>54</v>
       </c>
       <c r="I374" t="str">
         <f t="shared" si="64"/>
-        <v>messageBlocks.add(new PayloadBlock(75, 92, 18, "SW Longitude", "sw_lon", "u", "Same as broadcast type 22"));</v>
+        <v>messageBlocks.add(new PayloadBlock(122, 143, 22, "Spare", "", "x", "Not used"));</v>
       </c>
       <c r="J374" s="4"/>
       <c r="K374" s="4"/>
@@ -14002,30 +14121,30 @@
       <c r="A375" s="4"/>
       <c r="B375" s="1">
         <f t="shared" si="65"/>
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="C375" s="1">
         <f t="shared" si="63"/>
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="D375">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E375" s="4" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="F375" s="4" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="G375" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H375" s="4" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="I375" t="str">
         <f t="shared" si="64"/>
-        <v>messageBlocks.add(new PayloadBlock(93, 109, 17, "SW Latitude", "sw_lat", "u", "Same as broadcast type 22"));</v>
+        <v>messageBlocks.add(new PayloadBlock(144, 145, 2, "Tx/Rx Mode", "txrx", "u", "See "Transmit/Receive Modes""));</v>
       </c>
       <c r="J375" s="4"/>
       <c r="K375" s="4"/>
@@ -14036,30 +14155,30 @@
       <c r="A376" s="4"/>
       <c r="B376" s="1">
         <f t="shared" si="65"/>
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="C376" s="1">
         <f t="shared" si="63"/>
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="D376">
         <v>4</v>
       </c>
       <c r="E376" s="4" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="F376" s="4" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="G376" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H376" s="4" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="I376" t="str">
         <f t="shared" si="64"/>
-        <v>messageBlocks.add(new PayloadBlock(110, 113, 4, "Station Type", "station_type", "e", "See "Station Types""));</v>
+        <v>messageBlocks.add(new PayloadBlock(146, 149, 4, "Report Interval", "interval", "e", "See "Station Intervals""));</v>
       </c>
       <c r="J376" s="4"/>
       <c r="K376" s="4"/>
@@ -14070,30 +14189,30 @@
       <c r="A377" s="4"/>
       <c r="B377" s="1">
         <f t="shared" si="65"/>
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="C377" s="1">
         <f t="shared" si="63"/>
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="D377">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E377" s="4" t="s">
-        <v>113</v>
+        <v>406</v>
       </c>
       <c r="F377" s="4" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="G377" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H377" s="4" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="I377" t="str">
         <f t="shared" si="64"/>
-        <v>messageBlocks.add(new PayloadBlock(114, 121, 8, "Ship Type", "ship_type", "e", "See "Ship Types""));</v>
+        <v>messageBlocks.add(new PayloadBlock(150, 153, 4, "Quiet Time", "quiet", "u", "0 = none, 1-15 quiet time in minutes"));</v>
       </c>
       <c r="J377" s="4"/>
       <c r="K377" s="4"/>
@@ -14104,14 +14223,14 @@
       <c r="A378" s="4"/>
       <c r="B378" s="1">
         <f t="shared" si="65"/>
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="C378" s="1">
         <f t="shared" si="63"/>
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="D378">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E378" s="4" t="s">
         <v>52</v>
@@ -14125,7 +14244,7 @@
       </c>
       <c r="I378" t="str">
         <f t="shared" si="64"/>
-        <v>messageBlocks.add(new PayloadBlock(122, 143, 22, "Spare", "", "x", "Not used"));</v>
+        <v>messageBlocks.add(new PayloadBlock(154, 159, 6, "Spare", "", "x", "Not used"));</v>
       </c>
       <c r="J378" s="4"/>
       <c r="K378" s="4"/>
@@ -14134,33 +14253,14 @@
     </row>
     <row r="379" spans="1:13">
       <c r="A379" s="4"/>
-      <c r="B379" s="1">
-        <f t="shared" si="65"/>
-        <v>144</v>
-      </c>
-      <c r="C379" s="1">
-        <f t="shared" si="63"/>
-        <v>145</v>
-      </c>
       <c r="D379">
-        <v>2</v>
-      </c>
-      <c r="E379" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="F379" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="G379" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H379" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="I379" t="str">
-        <f t="shared" si="64"/>
-        <v>messageBlocks.add(new PayloadBlock(144, 145, 2, "Tx/Rx Mode", "txrx", "u", "See "Transmit/Receive Modes""));</v>
-      </c>
+        <f>SUM(D364:D378)</f>
+        <v>160</v>
+      </c>
+      <c r="E379" s="4"/>
+      <c r="F379" s="4"/>
+      <c r="G379" s="4"/>
+      <c r="H379" s="4"/>
       <c r="J379" s="4"/>
       <c r="K379" s="4"/>
       <c r="L379" s="4"/>
@@ -14168,67 +14268,31 @@
     </row>
     <row r="380" spans="1:13">
       <c r="A380" s="4"/>
-      <c r="B380" s="1">
-        <f t="shared" si="65"/>
-        <v>146</v>
-      </c>
-      <c r="C380" s="1">
-        <f t="shared" si="63"/>
-        <v>149</v>
-      </c>
-      <c r="D380">
-        <v>4</v>
-      </c>
-      <c r="E380" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="F380" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="G380" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H380" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="I380" t="str">
-        <f t="shared" si="64"/>
-        <v>messageBlocks.add(new PayloadBlock(146, 149, 4, "Report Interval", "interval", "e", "See "Station Intervals""));</v>
-      </c>
+      <c r="E380" s="4"/>
+      <c r="F380" s="4"/>
+      <c r="G380" s="4"/>
+      <c r="H380" s="4"/>
+      <c r="I380" s="4"/>
       <c r="J380" s="4"/>
       <c r="K380" s="4"/>
       <c r="L380" s="4"/>
       <c r="M380" s="4"/>
     </row>
     <row r="381" spans="1:13">
-      <c r="A381" s="4"/>
-      <c r="B381" s="1">
-        <f t="shared" si="65"/>
-        <v>150</v>
-      </c>
-      <c r="C381" s="1">
-        <f t="shared" si="63"/>
-        <v>153</v>
-      </c>
-      <c r="D381">
-        <v>4</v>
-      </c>
-      <c r="E381" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="F381" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="G381" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H381" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="I381" t="str">
-        <f t="shared" si="64"/>
-        <v>messageBlocks.add(new PayloadBlock(150, 153, 4, "Quiet Time", "quiet", "u", "0 = none, 1-15 quiet time in minutes"));</v>
-      </c>
+      <c r="A381" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B381" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E381" s="4"/>
+      <c r="F381" s="4"/>
+      <c r="G381" s="4"/>
+      <c r="H381" s="4"/>
+      <c r="I381" s="4"/>
       <c r="J381" s="4"/>
       <c r="K381" s="4"/>
       <c r="L381" s="4"/>
@@ -14237,29 +14301,30 @@
     <row r="382" spans="1:13">
       <c r="A382" s="4"/>
       <c r="B382" s="1">
-        <f t="shared" si="65"/>
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="C382" s="1">
-        <f t="shared" si="63"/>
-        <v>159</v>
+        <f t="shared" ref="C382:C394" si="66">B382+D382-1</f>
+        <v>5</v>
       </c>
       <c r="D382">
         <v>6</v>
       </c>
       <c r="E382" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F382" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="F382" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="G382" s="4" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="H382" s="4" t="s">
-        <v>54</v>
+        <v>411</v>
       </c>
       <c r="I382" t="str">
-        <f t="shared" si="64"/>
-        <v>messageBlocks.add(new PayloadBlock(154, 159, 6, "Spare", "", "x", "Not used"));</v>
+        <f t="shared" ref="I382:I391" si="67">"messageBlocks.add(new PayloadBlock("&amp;B382&amp;", "&amp;C382&amp;", "&amp;D382&amp;", "&amp;CHAR(34)&amp;E382&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F382&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G382&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H382&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 24"));</v>
       </c>
       <c r="J382" s="4"/>
       <c r="K382" s="4"/>
@@ -14268,14 +14333,33 @@
     </row>
     <row r="383" spans="1:13">
       <c r="A383" s="4"/>
+      <c r="B383" s="1">
+        <f t="shared" ref="B383:B394" si="68">B382+D382</f>
+        <v>6</v>
+      </c>
+      <c r="C383" s="1">
+        <f t="shared" si="66"/>
+        <v>7</v>
+      </c>
       <c r="D383">
-        <f>SUM(D368:D382)</f>
-        <v>160</v>
-      </c>
-      <c r="E383" s="4"/>
-      <c r="F383" s="4"/>
-      <c r="G383" s="4"/>
-      <c r="H383" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="E383" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F383" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G383" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H383" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="I383" t="str">
+        <f t="shared" si="67"/>
+        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
+      </c>
       <c r="J383" s="4"/>
       <c r="K383" s="4"/>
       <c r="L383" s="4"/>
@@ -14283,31 +14367,67 @@
     </row>
     <row r="384" spans="1:13">
       <c r="A384" s="4"/>
-      <c r="E384" s="4"/>
-      <c r="F384" s="4"/>
-      <c r="G384" s="4"/>
-      <c r="H384" s="4"/>
-      <c r="I384" s="4"/>
+      <c r="B384" s="1">
+        <f t="shared" si="68"/>
+        <v>8</v>
+      </c>
+      <c r="C384" s="1">
+        <f t="shared" si="66"/>
+        <v>37</v>
+      </c>
+      <c r="D384">
+        <v>30</v>
+      </c>
+      <c r="E384" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F384" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G384" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H384" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I384" t="str">
+        <f t="shared" si="67"/>
+        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 digits"));</v>
+      </c>
       <c r="J384" s="4"/>
       <c r="K384" s="4"/>
       <c r="L384" s="4"/>
       <c r="M384" s="4"/>
     </row>
     <row r="385" spans="1:13">
-      <c r="A385" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B385" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="C385" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="E385" s="4"/>
-      <c r="F385" s="4"/>
-      <c r="G385" s="4"/>
-      <c r="H385" s="4"/>
-      <c r="I385" s="4"/>
+      <c r="A385" s="4"/>
+      <c r="B385" s="1">
+        <f t="shared" si="68"/>
+        <v>38</v>
+      </c>
+      <c r="C385" s="1">
+        <f t="shared" si="66"/>
+        <v>39</v>
+      </c>
+      <c r="D385">
+        <v>2</v>
+      </c>
+      <c r="E385" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F385" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="G385" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H385" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="I385" t="str">
+        <f t="shared" si="67"/>
+        <v>messageBlocks.add(new PayloadBlock(38, 39, 2, "Part Number", "partno", "u", "0-1"));</v>
+      </c>
       <c r="J385" s="4"/>
       <c r="K385" s="4"/>
       <c r="L385" s="4"/>
@@ -14316,30 +14436,31 @@
     <row r="386" spans="1:13">
       <c r="A386" s="4"/>
       <c r="B386" s="1">
-        <v>0</v>
+        <f t="shared" si="68"/>
+        <v>40</v>
       </c>
       <c r="C386" s="1">
-        <f t="shared" ref="C386:C398" si="66">B386+D386-1</f>
-        <v>5</v>
+        <f t="shared" si="66"/>
+        <v>159</v>
       </c>
       <c r="D386">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="E386" s="4" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="F386" s="4" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="G386" s="4" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="H386" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="I386" t="str">
-        <f t="shared" ref="I386:I395" si="67">"messageBlocks.add(new PayloadBlock("&amp;B386&amp;", "&amp;C386&amp;", "&amp;D386&amp;", "&amp;CHAR(34)&amp;E386&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F386&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G386&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H386&amp;CHAR(34)&amp;"));"</f>
-        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 24"));</v>
+        <v>415</v>
+      </c>
+      <c r="I386" s="13" t="str">
+        <f t="shared" si="67"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 159, 120, "Vessel Name", "shipname", "t", "(Part A) 20 sixbit chars"));</v>
       </c>
       <c r="J386" s="4"/>
       <c r="K386" s="4"/>
@@ -14349,31 +14470,31 @@
     <row r="387" spans="1:13">
       <c r="A387" s="4"/>
       <c r="B387" s="1">
-        <f t="shared" ref="B387:B398" si="68">B386+D386</f>
-        <v>6</v>
+        <f t="shared" si="68"/>
+        <v>160</v>
       </c>
       <c r="C387" s="1">
         <f t="shared" si="66"/>
-        <v>7</v>
+        <v>167</v>
       </c>
       <c r="D387">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E387" s="4" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="F387" s="4" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="G387" s="4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H387" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="I387" t="str">
+        <v>416</v>
+      </c>
+      <c r="I387" s="8" t="str">
         <f t="shared" si="67"/>
-        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
+        <v>messageBlocks.add(new PayloadBlock(160, 167, 8, "Ship Type", "shiptype", "e", "(Part B) See "Ship Types""));</v>
       </c>
       <c r="J387" s="4"/>
       <c r="K387" s="4"/>
@@ -14384,30 +14505,30 @@
       <c r="A388" s="4"/>
       <c r="B388" s="1">
         <f t="shared" si="68"/>
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="C388" s="1">
         <f t="shared" si="66"/>
-        <v>37</v>
+        <v>185</v>
       </c>
       <c r="D388">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E388" s="4" t="s">
-        <v>17</v>
+        <v>417</v>
       </c>
       <c r="F388" s="4" t="s">
-        <v>18</v>
+        <v>418</v>
       </c>
       <c r="G388" s="4" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="H388" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I388" t="str">
+        <v>419</v>
+      </c>
+      <c r="I388" s="8" t="str">
         <f t="shared" si="67"/>
-        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 digits"));</v>
+        <v>messageBlocks.add(new PayloadBlock(168, 185, 18, "Vendor ID", "vendorid", "t", "(Part B) 3 six-bit chars"));</v>
       </c>
       <c r="J388" s="4"/>
       <c r="K388" s="4"/>
@@ -14418,30 +14539,30 @@
       <c r="A389" s="4"/>
       <c r="B389" s="1">
         <f t="shared" si="68"/>
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="C389" s="1">
         <f t="shared" si="66"/>
-        <v>39</v>
+        <v>189</v>
       </c>
       <c r="D389">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E389" s="4" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="F389" s="4" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G389" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H389" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="I389" t="str">
+        <v>422</v>
+      </c>
+      <c r="I389" s="8" t="str">
         <f t="shared" si="67"/>
-        <v>messageBlocks.add(new PayloadBlock(38, 39, 2, "Part Number", "partno", "u", "0-1"));</v>
+        <v>messageBlocks.add(new PayloadBlock(186, 189, 4, "Unit Model Code", "model", "u", "(Part B)"));</v>
       </c>
       <c r="J389" s="4"/>
       <c r="K389" s="4"/>
@@ -14452,30 +14573,30 @@
       <c r="A390" s="4"/>
       <c r="B390" s="1">
         <f t="shared" si="68"/>
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="C390" s="1">
         <f t="shared" si="66"/>
-        <v>159</v>
+        <v>209</v>
       </c>
       <c r="D390">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="E390" s="4" t="s">
-        <v>110</v>
+        <v>423</v>
       </c>
       <c r="F390" s="4" t="s">
-        <v>111</v>
+        <v>424</v>
       </c>
       <c r="G390" s="4" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="H390" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="I390" s="14" t="str">
+        <v>422</v>
+      </c>
+      <c r="I390" s="8" t="str">
         <f t="shared" si="67"/>
-        <v>messageBlocks.add(new PayloadBlock(40, 159, 120, "Vessel Name", "shipname", "t", "(Part A) 20 sixbit chars"));</v>
+        <v>messageBlocks.add(new PayloadBlock(190, 209, 20, "Serial Number", "serial", "u", "(Part B)"));</v>
       </c>
       <c r="J390" s="4"/>
       <c r="K390" s="4"/>
@@ -14486,30 +14607,30 @@
       <c r="A391" s="4"/>
       <c r="B391" s="1">
         <f t="shared" si="68"/>
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="C391" s="1">
         <f t="shared" si="66"/>
-        <v>167</v>
+        <v>251</v>
       </c>
       <c r="D391">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E391" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F391" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G391" s="4" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="H391" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="I391" s="9" t="str">
+        <v>425</v>
+      </c>
+      <c r="I391" s="8" t="str">
         <f t="shared" si="67"/>
-        <v>messageBlocks.add(new PayloadBlock(160, 167, 8, "Ship Type", "shiptype", "e", "(Part B) See "Ship Types""));</v>
+        <v>messageBlocks.add(new PayloadBlock(210, 251, 42, "Call Sign", "callsign", "t", "(Part B) As in Message Type 5"));</v>
       </c>
       <c r="J391" s="4"/>
       <c r="K391" s="4"/>
@@ -14520,30 +14641,30 @@
       <c r="A392" s="4"/>
       <c r="B392" s="1">
         <f t="shared" si="68"/>
-        <v>168</v>
+        <v>252</v>
       </c>
       <c r="C392" s="1">
         <f t="shared" si="66"/>
-        <v>185</v>
+        <v>281</v>
       </c>
       <c r="D392">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E392" s="4" t="s">
-        <v>417</v>
+        <v>116</v>
       </c>
       <c r="F392" s="4" t="s">
-        <v>418</v>
+        <v>117</v>
       </c>
       <c r="G392" s="4" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="H392" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="I392" s="9" t="str">
-        <f t="shared" si="67"/>
-        <v>messageBlocks.add(new PayloadBlock(168, 185, 18, "Vendor ID", "vendorid", "t", "(Part B) 3 six-bit chars"));</v>
+        <v>118</v>
+      </c>
+      <c r="I392" t="str">
+        <f>"messageBlocks.add(new PayloadBlock("&amp;C392&amp;", "&amp;D392&amp;", "&amp;D392&amp;", "&amp;CHAR(34)&amp;E392&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F392&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G392&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H392&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(281, 30, 30, "Vessel Dimensions", "dimension", "u", "Meters"));</v>
       </c>
       <c r="J392" s="4"/>
       <c r="K392" s="4"/>
@@ -14554,30 +14675,30 @@
       <c r="A393" s="4"/>
       <c r="B393" s="1">
         <f t="shared" si="68"/>
-        <v>186</v>
+        <v>282</v>
       </c>
       <c r="C393" s="1">
         <f t="shared" si="66"/>
-        <v>189</v>
+        <v>285</v>
       </c>
       <c r="D393">
         <v>4</v>
       </c>
       <c r="E393" s="4" t="s">
-        <v>420</v>
+        <v>119</v>
       </c>
       <c r="F393" s="4" t="s">
-        <v>421</v>
+        <v>90</v>
       </c>
       <c r="G393" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H393" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="I393" s="9" t="str">
-        <f t="shared" si="67"/>
-        <v>messageBlocks.add(new PayloadBlock(186, 189, 4, "Unit Model Code", "model", "u", "(Part B)"));</v>
+        <v>426</v>
+      </c>
+      <c r="I393" s="8" t="str">
+        <f>"messageBlocks.add(new PayloadBlock("&amp;B393&amp;", "&amp;C393&amp;", "&amp;D393&amp;", "&amp;CHAR(34)&amp;E393&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F393&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G393&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H393&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(282, 285, 4, "Position Fix Type", "epfd", "u", "(Part B) See below"));</v>
       </c>
       <c r="J393" s="4"/>
       <c r="K393" s="4"/>
@@ -14588,30 +14709,28 @@
       <c r="A394" s="4"/>
       <c r="B394" s="1">
         <f t="shared" si="68"/>
-        <v>190</v>
+        <v>286</v>
       </c>
       <c r="C394" s="1">
         <f t="shared" si="66"/>
-        <v>209</v>
+        <v>287</v>
       </c>
       <c r="D394">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E394" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="F394" s="4" t="s">
-        <v>424</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F394" s="4"/>
       <c r="G394" s="4" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="H394" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="I394" s="9" t="str">
-        <f t="shared" si="67"/>
-        <v>messageBlocks.add(new PayloadBlock(190, 209, 20, "Serial Number", "serial", "u", "(Part B)"));</v>
+        <v>427</v>
+      </c>
+      <c r="I394" s="8" t="str">
+        <f>"messageBlocks.add(new PayloadBlock("&amp;B394&amp;", "&amp;C394&amp;", "&amp;D394&amp;", "&amp;CHAR(34)&amp;E394&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F394&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G394&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H394&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(286, 287, 2, "Spare", "", "x", "(Part B) Not used"));</v>
       </c>
       <c r="J394" s="4"/>
       <c r="K394" s="4"/>
@@ -14620,33 +14739,13 @@
     </row>
     <row r="395" spans="1:13">
       <c r="A395" s="4"/>
-      <c r="B395" s="1">
-        <f t="shared" si="68"/>
-        <v>210</v>
-      </c>
-      <c r="C395" s="1">
-        <f t="shared" si="66"/>
-        <v>251</v>
-      </c>
-      <c r="D395">
-        <v>42</v>
-      </c>
-      <c r="E395" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F395" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G395" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H395" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="I395" s="9" t="str">
-        <f t="shared" si="67"/>
-        <v>messageBlocks.add(new PayloadBlock(210, 251, 42, "Call Sign", "callsign", "t", "(Part B) As in Message Type 5"));</v>
-      </c>
+      <c r="D395" t="s">
+        <v>428</v>
+      </c>
+      <c r="E395" s="4"/>
+      <c r="F395" s="4"/>
+      <c r="G395" s="4"/>
+      <c r="H395" s="4"/>
       <c r="J395" s="4"/>
       <c r="K395" s="4"/>
       <c r="L395" s="4"/>
@@ -14654,67 +14753,28 @@
     </row>
     <row r="396" spans="1:13">
       <c r="A396" s="4"/>
-      <c r="B396" s="1">
-        <f t="shared" si="68"/>
-        <v>252</v>
-      </c>
-      <c r="C396" s="1">
-        <f t="shared" si="66"/>
-        <v>281</v>
-      </c>
-      <c r="D396">
-        <v>30</v>
-      </c>
-      <c r="E396" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F396" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G396" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H396" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I396" t="str">
-        <f>"messageBlocks.add(new PayloadBlock("&amp;C396&amp;", "&amp;D396&amp;", "&amp;D396&amp;", "&amp;CHAR(34)&amp;E396&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F396&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G396&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H396&amp;CHAR(34)&amp;"));"</f>
-        <v>messageBlocks.add(new PayloadBlock(281, 30, 30, "Vessel Dimensions", "dimension", "u", "Meters"));</v>
-      </c>
+      <c r="E396" s="4"/>
+      <c r="F396" s="4"/>
+      <c r="G396" s="4"/>
+      <c r="H396" s="4"/>
+      <c r="I396" s="4"/>
       <c r="J396" s="4"/>
       <c r="K396" s="4"/>
       <c r="L396" s="4"/>
       <c r="M396" s="4"/>
     </row>
     <row r="397" spans="1:13">
-      <c r="A397" s="4"/>
-      <c r="B397" s="1">
-        <f t="shared" si="68"/>
-        <v>282</v>
-      </c>
-      <c r="C397" s="1">
-        <f t="shared" si="66"/>
-        <v>285</v>
-      </c>
-      <c r="D397">
-        <v>4</v>
-      </c>
-      <c r="E397" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F397" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G397" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H397" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="I397" s="9" t="str">
-        <f>"messageBlocks.add(new PayloadBlock("&amp;B397&amp;", "&amp;C397&amp;", "&amp;D397&amp;", "&amp;CHAR(34)&amp;E397&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F397&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G397&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H397&amp;CHAR(34)&amp;"));"</f>
-        <v>messageBlocks.add(new PayloadBlock(282, 285, 4, "Position Fix Type", "epfd", "u", "(Part B) See below"));</v>
-      </c>
+      <c r="A397" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E397" s="4"/>
+      <c r="F397" s="4"/>
+      <c r="G397" s="4"/>
+      <c r="H397" s="4"/>
+      <c r="I397" s="4"/>
       <c r="J397" s="4"/>
       <c r="K397" s="4"/>
       <c r="L397" s="4"/>
@@ -14723,29 +14783,30 @@
     <row r="398" spans="1:13">
       <c r="A398" s="4"/>
       <c r="B398" s="1">
-        <f t="shared" si="68"/>
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="C398" s="1">
-        <f t="shared" si="66"/>
-        <v>287</v>
+        <f t="shared" ref="C398:C406" si="69">B398+D398-1</f>
+        <v>5</v>
       </c>
       <c r="D398">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E398" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F398" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="F398" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="G398" s="4" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="H398" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="I398" s="9" t="str">
-        <f>"messageBlocks.add(new PayloadBlock("&amp;B398&amp;", "&amp;C398&amp;", "&amp;D398&amp;", "&amp;CHAR(34)&amp;E398&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F398&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G398&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H398&amp;CHAR(34)&amp;"));"</f>
-        <v>messageBlocks.add(new PayloadBlock(286, 287, 2, "Spare", "", "x", "(Part B) Not used"));</v>
+        <v>430</v>
+      </c>
+      <c r="I398" t="str">
+        <f t="shared" ref="I398:I406" si="70">"messageBlocks.add(new PayloadBlock("&amp;B398&amp;", "&amp;C398&amp;", "&amp;D398&amp;", "&amp;CHAR(34)&amp;E398&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F398&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G398&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H398&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 25"));</v>
       </c>
       <c r="J398" s="4"/>
       <c r="K398" s="4"/>
@@ -14754,13 +14815,33 @@
     </row>
     <row r="399" spans="1:13">
       <c r="A399" s="4"/>
-      <c r="D399" t="s">
-        <v>428</v>
-      </c>
-      <c r="E399" s="4"/>
-      <c r="F399" s="4"/>
-      <c r="G399" s="4"/>
-      <c r="H399" s="4"/>
+      <c r="B399" s="1">
+        <f t="shared" ref="B399:B406" si="71">B398+D398</f>
+        <v>6</v>
+      </c>
+      <c r="C399" s="1">
+        <f t="shared" si="69"/>
+        <v>7</v>
+      </c>
+      <c r="D399">
+        <v>2</v>
+      </c>
+      <c r="E399" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F399" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G399" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H399" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="I399" t="str">
+        <f t="shared" si="70"/>
+        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
+      </c>
       <c r="J399" s="4"/>
       <c r="K399" s="4"/>
       <c r="L399" s="4"/>
@@ -14768,28 +14849,67 @@
     </row>
     <row r="400" spans="1:13">
       <c r="A400" s="4"/>
-      <c r="E400" s="4"/>
-      <c r="F400" s="4"/>
-      <c r="G400" s="4"/>
-      <c r="H400" s="4"/>
-      <c r="I400" s="4"/>
+      <c r="B400" s="1">
+        <f t="shared" si="71"/>
+        <v>8</v>
+      </c>
+      <c r="C400" s="1">
+        <f t="shared" si="69"/>
+        <v>37</v>
+      </c>
+      <c r="D400">
+        <v>30</v>
+      </c>
+      <c r="E400" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F400" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G400" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H400" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I400" t="str">
+        <f t="shared" si="70"/>
+        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 digits"));</v>
+      </c>
       <c r="J400" s="4"/>
       <c r="K400" s="4"/>
       <c r="L400" s="4"/>
       <c r="M400" s="4"/>
     </row>
     <row r="401" spans="1:13">
-      <c r="A401" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B401" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="E401" s="4"/>
-      <c r="F401" s="4"/>
-      <c r="G401" s="4"/>
-      <c r="H401" s="4"/>
-      <c r="I401" s="4"/>
+      <c r="A401" s="4"/>
+      <c r="B401" s="1">
+        <f t="shared" si="71"/>
+        <v>38</v>
+      </c>
+      <c r="C401" s="1">
+        <f t="shared" si="69"/>
+        <v>38</v>
+      </c>
+      <c r="D401">
+        <v>1</v>
+      </c>
+      <c r="E401" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="F401" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="G401" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H401" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="I401" t="str">
+        <f t="shared" si="70"/>
+        <v>messageBlocks.add(new PayloadBlock(38, 38, 1, "Destination indicator", "addressed", "b", "0=broadcast, 1=addressed."));</v>
+      </c>
       <c r="J401" s="4"/>
       <c r="K401" s="4"/>
       <c r="L401" s="4"/>
@@ -14798,30 +14918,31 @@
     <row r="402" spans="1:13">
       <c r="A402" s="4"/>
       <c r="B402" s="1">
-        <v>0</v>
+        <f t="shared" si="71"/>
+        <v>39</v>
       </c>
       <c r="C402" s="1">
-        <f t="shared" ref="C402:C410" si="69">B402+D402-1</f>
-        <v>5</v>
+        <f t="shared" si="69"/>
+        <v>39</v>
       </c>
       <c r="D402">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E402" s="4" t="s">
-        <v>10</v>
+        <v>433</v>
       </c>
       <c r="F402" s="4" t="s">
-        <v>11</v>
+        <v>434</v>
       </c>
       <c r="G402" s="4" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H402" s="4" t="s">
-        <v>430</v>
+        <v>27</v>
       </c>
       <c r="I402" t="str">
-        <f t="shared" ref="I402:I410" si="70">"messageBlocks.add(new PayloadBlock("&amp;B402&amp;", "&amp;C402&amp;", "&amp;D402&amp;", "&amp;CHAR(34)&amp;E402&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F402&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G402&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H402&amp;CHAR(34)&amp;"));"</f>
-        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 25"));</v>
+        <f t="shared" si="70"/>
+        <v>messageBlocks.add(new PayloadBlock(39, 39, 1, "Binary data flag", "structured", "b", "See below"));</v>
       </c>
       <c r="J402" s="4"/>
       <c r="K402" s="4"/>
@@ -14831,31 +14952,31 @@
     <row r="403" spans="1:13">
       <c r="A403" s="4"/>
       <c r="B403" s="1">
-        <f t="shared" ref="B403:B410" si="71">B402+D402</f>
-        <v>6</v>
+        <f t="shared" si="71"/>
+        <v>40</v>
       </c>
       <c r="C403" s="1">
         <f t="shared" si="69"/>
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="D403">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E403" s="4" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="F403" s="4" t="s">
-        <v>15</v>
+        <v>154</v>
       </c>
       <c r="G403" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H403" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="I403" t="str">
+        <v>435</v>
+      </c>
+      <c r="I403" s="8" t="str">
         <f t="shared" si="70"/>
-        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
+        <v>messageBlocks.add(new PayloadBlock(40, 69, 30, "Destination MMSI", "dest_mmsi", "u", "Message destination"));</v>
       </c>
       <c r="J403" s="4"/>
       <c r="K403" s="4"/>
@@ -14866,30 +14987,28 @@
       <c r="A404" s="4"/>
       <c r="B404" s="1">
         <f t="shared" si="71"/>
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="C404" s="1">
         <f t="shared" si="69"/>
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="D404">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E404" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F404" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F404" s="4"/>
       <c r="G404" s="4" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="H404" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I404" t="str">
+        <v>436</v>
+      </c>
+      <c r="I404" s="8" t="str">
         <f t="shared" si="70"/>
-        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 digits"));</v>
+        <v>messageBlocks.add(new PayloadBlock(70, 71, 2, "Spare", "", "x", "Byte Alignment"));</v>
       </c>
       <c r="J404" s="4"/>
       <c r="K404" s="4"/>
@@ -14900,30 +15019,30 @@
       <c r="A405" s="4"/>
       <c r="B405" s="1">
         <f t="shared" si="71"/>
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="C405" s="1">
         <f t="shared" si="69"/>
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="D405">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E405" s="4" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="F405" s="4" t="s">
-        <v>381</v>
+        <v>438</v>
       </c>
       <c r="G405" s="4" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H405" s="4" t="s">
-        <v>432</v>
+        <v>160</v>
       </c>
       <c r="I405" t="str">
         <f t="shared" si="70"/>
-        <v>messageBlocks.add(new PayloadBlock(38, 38, 1, "Destination indicator", "addressed", "b", "0=broadcast, 1=addressed."));</v>
+        <v>messageBlocks.add(new PayloadBlock(72, 87, 16, "Application ID", "app_id", "u", "Unsigned integer"));</v>
       </c>
       <c r="J405" s="4"/>
       <c r="K405" s="4"/>
@@ -14934,30 +15053,30 @@
       <c r="A406" s="4"/>
       <c r="B406" s="1">
         <f t="shared" si="71"/>
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="C406" s="1">
         <f t="shared" si="69"/>
-        <v>39</v>
+        <v>199</v>
       </c>
       <c r="D406">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="E406" s="4" t="s">
-        <v>433</v>
+        <v>164</v>
       </c>
       <c r="F406" s="4" t="s">
-        <v>434</v>
+        <v>165</v>
       </c>
       <c r="G406" s="4" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="H406" s="4" t="s">
-        <v>27</v>
+        <v>439</v>
       </c>
       <c r="I406" t="str">
         <f t="shared" si="70"/>
-        <v>messageBlocks.add(new PayloadBlock(39, 39, 1, "Binary data flag", "structured", "b", "See below"));</v>
+        <v>messageBlocks.add(new PayloadBlock(88, 199, 112, "Data", "data", "d", "Binary data"));</v>
       </c>
       <c r="J406" s="4"/>
       <c r="K406" s="4"/>
@@ -14966,33 +15085,14 @@
     </row>
     <row r="407" spans="1:13">
       <c r="A407" s="4"/>
-      <c r="B407" s="1">
-        <f t="shared" si="71"/>
-        <v>40</v>
-      </c>
-      <c r="C407" s="1">
-        <f t="shared" si="69"/>
-        <v>69</v>
-      </c>
       <c r="D407">
-        <v>30</v>
-      </c>
-      <c r="E407" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F407" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G407" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H407" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="I407" s="9" t="str">
-        <f t="shared" si="70"/>
-        <v>messageBlocks.add(new PayloadBlock(40, 69, 30, "Destination MMSI", "dest_mmsi", "u", "Message destination"));</v>
-      </c>
+        <f>SUM(D398:D406)</f>
+        <v>200</v>
+      </c>
+      <c r="E407" s="4"/>
+      <c r="F407" s="4"/>
+      <c r="G407" s="4"/>
+      <c r="H407" s="4"/>
       <c r="J407" s="4"/>
       <c r="K407" s="4"/>
       <c r="L407" s="4"/>
@@ -15000,65 +15100,28 @@
     </row>
     <row r="408" spans="1:13">
       <c r="A408" s="4"/>
-      <c r="B408" s="1">
-        <f t="shared" si="71"/>
-        <v>70</v>
-      </c>
-      <c r="C408" s="1">
-        <f t="shared" si="69"/>
-        <v>71</v>
-      </c>
-      <c r="D408">
-        <v>2</v>
-      </c>
-      <c r="E408" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="E408" s="4"/>
       <c r="F408" s="4"/>
-      <c r="G408" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H408" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="I408" s="9" t="str">
-        <f t="shared" si="70"/>
-        <v>messageBlocks.add(new PayloadBlock(70, 71, 2, "Spare", "", "x", "Byte Alignment"));</v>
-      </c>
+      <c r="G408" s="4"/>
+      <c r="H408" s="4"/>
+      <c r="I408" s="4"/>
       <c r="J408" s="4"/>
       <c r="K408" s="4"/>
       <c r="L408" s="4"/>
       <c r="M408" s="4"/>
     </row>
     <row r="409" spans="1:13">
-      <c r="A409" s="4"/>
-      <c r="B409" s="1">
-        <f t="shared" si="71"/>
-        <v>72</v>
-      </c>
-      <c r="C409" s="1">
-        <f t="shared" si="69"/>
-        <v>87</v>
-      </c>
-      <c r="D409">
-        <v>16</v>
-      </c>
-      <c r="E409" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="F409" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="G409" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H409" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="I409" t="str">
-        <f t="shared" si="70"/>
-        <v>messageBlocks.add(new PayloadBlock(72, 87, 16, "Application ID", "app_id", "u", "Unsigned integer"));</v>
-      </c>
+      <c r="A409" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E409" s="4"/>
+      <c r="F409" s="4"/>
+      <c r="G409" s="4"/>
+      <c r="H409" s="4"/>
+      <c r="I409" s="4"/>
       <c r="J409" s="4"/>
       <c r="K409" s="4"/>
       <c r="L409" s="4"/>
@@ -15067,31 +15130,30 @@
     <row r="410" spans="1:13">
       <c r="A410" s="4"/>
       <c r="B410" s="1">
-        <f t="shared" si="71"/>
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="C410" s="1">
-        <f t="shared" si="69"/>
-        <v>199</v>
+        <f t="shared" ref="C410:C424" si="72">B410+D410-1</f>
+        <v>5</v>
       </c>
       <c r="D410">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="E410" s="4" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="F410" s="4" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="G410" s="4" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="H410" s="4" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="I410" t="str">
-        <f t="shared" si="70"/>
-        <v>messageBlocks.add(new PayloadBlock(88, 199, 112, "Data", "data", "d", "Binary data"));</v>
+        <f t="shared" ref="I410:I424" si="73">"messageBlocks.add(new PayloadBlock("&amp;B410&amp;", "&amp;C410&amp;", "&amp;D410&amp;", "&amp;CHAR(34)&amp;E410&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F410&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G410&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H410&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 26"));</v>
       </c>
       <c r="J410" s="4"/>
       <c r="K410" s="4"/>
@@ -15100,14 +15162,33 @@
     </row>
     <row r="411" spans="1:13">
       <c r="A411" s="4"/>
+      <c r="B411" s="1">
+        <f t="shared" ref="B411:B424" si="74">B410+D410</f>
+        <v>6</v>
+      </c>
+      <c r="C411" s="1">
+        <f t="shared" si="72"/>
+        <v>7</v>
+      </c>
       <c r="D411">
-        <f>SUM(D402:D410)</f>
-        <v>200</v>
-      </c>
-      <c r="E411" s="4"/>
-      <c r="F411" s="4"/>
-      <c r="G411" s="4"/>
-      <c r="H411" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="E411" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F411" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G411" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H411" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="I411" t="str">
+        <f t="shared" si="73"/>
+        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
+      </c>
       <c r="J411" s="4"/>
       <c r="K411" s="4"/>
       <c r="L411" s="4"/>
@@ -15115,28 +15196,67 @@
     </row>
     <row r="412" spans="1:13">
       <c r="A412" s="4"/>
-      <c r="E412" s="4"/>
-      <c r="F412" s="4"/>
-      <c r="G412" s="4"/>
-      <c r="H412" s="4"/>
-      <c r="I412" s="4"/>
+      <c r="B412" s="1">
+        <f t="shared" si="74"/>
+        <v>8</v>
+      </c>
+      <c r="C412" s="1">
+        <f t="shared" si="72"/>
+        <v>37</v>
+      </c>
+      <c r="D412">
+        <v>30</v>
+      </c>
+      <c r="E412" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F412" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G412" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H412" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I412" t="str">
+        <f t="shared" si="73"/>
+        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 digits"));</v>
+      </c>
       <c r="J412" s="4"/>
       <c r="K412" s="4"/>
       <c r="L412" s="4"/>
       <c r="M412" s="4"/>
     </row>
     <row r="413" spans="1:13">
-      <c r="A413" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B413" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="E413" s="4"/>
-      <c r="F413" s="4"/>
-      <c r="G413" s="4"/>
-      <c r="H413" s="4"/>
-      <c r="I413" s="4"/>
+      <c r="A413" s="4"/>
+      <c r="B413" s="1">
+        <f t="shared" si="74"/>
+        <v>38</v>
+      </c>
+      <c r="C413" s="1">
+        <f t="shared" si="72"/>
+        <v>38</v>
+      </c>
+      <c r="D413">
+        <v>1</v>
+      </c>
+      <c r="E413" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="F413" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="G413" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H413" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="I413" t="str">
+        <f t="shared" si="73"/>
+        <v>messageBlocks.add(new PayloadBlock(38, 38, 1, "Destination indicator", "addressed", "b", "0=broadcast, 1=addressed."));</v>
+      </c>
       <c r="J413" s="4"/>
       <c r="K413" s="4"/>
       <c r="L413" s="4"/>
@@ -15145,30 +15265,31 @@
     <row r="414" spans="1:13">
       <c r="A414" s="4"/>
       <c r="B414" s="1">
-        <v>0</v>
+        <f t="shared" si="74"/>
+        <v>39</v>
       </c>
       <c r="C414" s="1">
-        <f t="shared" ref="C414:C428" si="72">B414+D414-1</f>
-        <v>5</v>
+        <f t="shared" si="72"/>
+        <v>39</v>
       </c>
       <c r="D414">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E414" s="4" t="s">
-        <v>10</v>
+        <v>433</v>
       </c>
       <c r="F414" s="4" t="s">
-        <v>11</v>
+        <v>434</v>
       </c>
       <c r="G414" s="4" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H414" s="4" t="s">
-        <v>441</v>
+        <v>27</v>
       </c>
       <c r="I414" t="str">
-        <f t="shared" ref="I414:I428" si="73">"messageBlocks.add(new PayloadBlock("&amp;B414&amp;", "&amp;C414&amp;", "&amp;D414&amp;", "&amp;CHAR(34)&amp;E414&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F414&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G414&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H414&amp;CHAR(34)&amp;"));"</f>
-        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 26"));</v>
+        <f t="shared" si="73"/>
+        <v>messageBlocks.add(new PayloadBlock(39, 39, 1, "Binary data flag", "structured", "b", "See below"));</v>
       </c>
       <c r="J414" s="4"/>
       <c r="K414" s="4"/>
@@ -15178,31 +15299,31 @@
     <row r="415" spans="1:13">
       <c r="A415" s="4"/>
       <c r="B415" s="1">
-        <f t="shared" ref="B415:B428" si="74">B414+D414</f>
-        <v>6</v>
+        <f t="shared" si="74"/>
+        <v>40</v>
       </c>
       <c r="C415" s="1">
         <f t="shared" si="72"/>
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="D415">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E415" s="4" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="F415" s="4" t="s">
-        <v>15</v>
+        <v>154</v>
       </c>
       <c r="G415" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H415" s="4" t="s">
-        <v>312</v>
+        <v>435</v>
       </c>
       <c r="I415" t="str">
         <f t="shared" si="73"/>
-        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
+        <v>messageBlocks.add(new PayloadBlock(40, 69, 30, "Destination MMSI", "dest_mmsi", "u", "Message destination"));</v>
       </c>
       <c r="J415" s="4"/>
       <c r="K415" s="4"/>
@@ -15213,30 +15334,28 @@
       <c r="A416" s="4"/>
       <c r="B416" s="1">
         <f t="shared" si="74"/>
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="C416" s="1">
         <f t="shared" si="72"/>
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="D416">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E416" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F416" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F416" s="4"/>
       <c r="G416" s="4" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="H416" s="4" t="s">
-        <v>99</v>
+        <v>436</v>
       </c>
       <c r="I416" t="str">
         <f t="shared" si="73"/>
-        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 digits"));</v>
+        <v>messageBlocks.add(new PayloadBlock(70, 71, 2, "Spare", "", "x", "Byte Alignment"));</v>
       </c>
       <c r="J416" s="4"/>
       <c r="K416" s="4"/>
@@ -15247,30 +15366,30 @@
       <c r="A417" s="4"/>
       <c r="B417" s="1">
         <f t="shared" si="74"/>
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="C417" s="1">
         <f t="shared" si="72"/>
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="D417">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E417" s="4" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="F417" s="4" t="s">
-        <v>381</v>
+        <v>438</v>
       </c>
       <c r="G417" s="4" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H417" s="4" t="s">
-        <v>432</v>
+        <v>160</v>
       </c>
       <c r="I417" t="str">
         <f t="shared" si="73"/>
-        <v>messageBlocks.add(new PayloadBlock(38, 38, 1, "Destination indicator", "addressed", "b", "0=broadcast, 1=addressed."));</v>
+        <v>messageBlocks.add(new PayloadBlock(72, 87, 16, "Application ID", "app_id", "u", "Unsigned integer"));</v>
       </c>
       <c r="J417" s="4"/>
       <c r="K417" s="4"/>
@@ -15281,30 +15400,30 @@
       <c r="A418" s="4"/>
       <c r="B418" s="1">
         <f t="shared" si="74"/>
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="C418" s="1">
         <f t="shared" si="72"/>
-        <v>39</v>
+        <v>175</v>
       </c>
       <c r="D418">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="E418" s="4" t="s">
-        <v>433</v>
+        <v>164</v>
       </c>
       <c r="F418" s="4" t="s">
-        <v>434</v>
+        <v>165</v>
       </c>
       <c r="G418" s="4" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="H418" s="4" t="s">
-        <v>27</v>
+        <v>439</v>
       </c>
       <c r="I418" t="str">
         <f t="shared" si="73"/>
-        <v>messageBlocks.add(new PayloadBlock(39, 39, 1, "Binary data flag", "structured", "b", "See below"));</v>
+        <v>messageBlocks.add(new PayloadBlock(88, 175, 88, "Data", "data", "d", "Binary data"));</v>
       </c>
       <c r="J418" s="4"/>
       <c r="K418" s="4"/>
@@ -15315,30 +15434,30 @@
       <c r="A419" s="4"/>
       <c r="B419" s="1">
         <f t="shared" si="74"/>
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="C419" s="1">
         <f t="shared" si="72"/>
-        <v>69</v>
+        <v>399</v>
       </c>
       <c r="D419">
-        <v>30</v>
+        <v>224</v>
       </c>
       <c r="E419" s="4" t="s">
-        <v>153</v>
+        <v>442</v>
       </c>
       <c r="F419" s="4" t="s">
-        <v>154</v>
+        <v>443</v>
       </c>
       <c r="G419" s="4" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="H419" s="4" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="I419" t="str">
         <f t="shared" si="73"/>
-        <v>messageBlocks.add(new PayloadBlock(40, 69, 30, "Destination MMSI", "dest_mmsi", "u", "Message destination"));</v>
+        <v>messageBlocks.add(new PayloadBlock(176, 399, 224, "Data Slot2", "data2", "d", "Binary data"));</v>
       </c>
       <c r="J419" s="4"/>
       <c r="K419" s="4"/>
@@ -15349,28 +15468,30 @@
       <c r="A420" s="4"/>
       <c r="B420" s="1">
         <f t="shared" si="74"/>
-        <v>70</v>
+        <v>400</v>
       </c>
       <c r="C420" s="1">
         <f t="shared" si="72"/>
-        <v>71</v>
+        <v>643</v>
       </c>
       <c r="D420">
-        <v>2</v>
+        <v>244</v>
       </c>
       <c r="E420" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F420" s="4"/>
+        <v>444</v>
+      </c>
+      <c r="F420" s="4" t="s">
+        <v>445</v>
+      </c>
       <c r="G420" s="4" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="H420" s="4" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="I420" t="str">
         <f t="shared" si="73"/>
-        <v>messageBlocks.add(new PayloadBlock(70, 71, 2, "Spare", "", "x", "Byte Alignment"));</v>
+        <v>messageBlocks.add(new PayloadBlock(400, 643, 244, "Data Slot3", "data3", "d", "Binary data"));</v>
       </c>
       <c r="J420" s="4"/>
       <c r="K420" s="4"/>
@@ -15381,30 +15502,30 @@
       <c r="A421" s="4"/>
       <c r="B421" s="1">
         <f t="shared" si="74"/>
-        <v>72</v>
+        <v>644</v>
       </c>
       <c r="C421" s="1">
         <f t="shared" si="72"/>
-        <v>87</v>
+        <v>887</v>
       </c>
       <c r="D421">
-        <v>16</v>
+        <v>244</v>
       </c>
       <c r="E421" s="4" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="F421" s="4" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="G421" s="4" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="H421" s="4" t="s">
-        <v>160</v>
+        <v>439</v>
       </c>
       <c r="I421" t="str">
         <f t="shared" si="73"/>
-        <v>messageBlocks.add(new PayloadBlock(72, 87, 16, "Application ID", "app_id", "u", "Unsigned integer"));</v>
+        <v>messageBlocks.add(new PayloadBlock(644, 887, 244, "Data Slot4", "data4", "d", "Binary data"));</v>
       </c>
       <c r="J421" s="4"/>
       <c r="K421" s="4"/>
@@ -15415,20 +15536,20 @@
       <c r="A422" s="4"/>
       <c r="B422" s="1">
         <f t="shared" si="74"/>
-        <v>88</v>
+        <v>888</v>
       </c>
       <c r="C422" s="1">
         <f t="shared" si="72"/>
-        <v>175</v>
+        <v>1131</v>
       </c>
       <c r="D422">
-        <v>88</v>
+        <v>244</v>
       </c>
       <c r="E422" s="4" t="s">
-        <v>164</v>
+        <v>448</v>
       </c>
       <c r="F422" s="4" t="s">
-        <v>165</v>
+        <v>449</v>
       </c>
       <c r="G422" s="4" t="s">
         <v>166</v>
@@ -15438,7 +15559,7 @@
       </c>
       <c r="I422" t="str">
         <f t="shared" si="73"/>
-        <v>messageBlocks.add(new PayloadBlock(88, 175, 88, "Data", "data", "d", "Binary data"));</v>
+        <v>messageBlocks.add(new PayloadBlock(888, 1131, 244, "Data Slot5", "data5", "d", "Binary data"));</v>
       </c>
       <c r="J422" s="4"/>
       <c r="K422" s="4"/>
@@ -15449,30 +15570,30 @@
       <c r="A423" s="4"/>
       <c r="B423" s="1">
         <f t="shared" si="74"/>
-        <v>176</v>
+        <v>1132</v>
       </c>
       <c r="C423" s="1">
         <f t="shared" si="72"/>
-        <v>399</v>
+        <v>1132</v>
       </c>
       <c r="D423">
-        <v>224</v>
+        <v>1</v>
       </c>
       <c r="E423" s="4" t="s">
-        <v>442</v>
+        <v>211</v>
       </c>
       <c r="F423" s="4" t="s">
-        <v>443</v>
+        <v>212</v>
       </c>
       <c r="G423" s="4" t="s">
         <v>166</v>
       </c>
       <c r="H423" s="4" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="I423" t="str">
         <f t="shared" si="73"/>
-        <v>messageBlocks.add(new PayloadBlock(176, 399, 224, "Data Slot2", "data2", "d", "Binary data"));</v>
+        <v>messageBlocks.add(new PayloadBlock(1132, 1132, 1, "Comm State Selector", "commflag", "d", "Communication state selector flag"));</v>
       </c>
       <c r="J423" s="4"/>
       <c r="K423" s="4"/>
@@ -15483,30 +15604,30 @@
       <c r="A424" s="4"/>
       <c r="B424" s="1">
         <f t="shared" si="74"/>
-        <v>400</v>
+        <v>1133</v>
       </c>
       <c r="C424" s="1">
         <f t="shared" si="72"/>
-        <v>643</v>
+        <v>1151</v>
       </c>
       <c r="D424">
-        <v>244</v>
+        <v>19</v>
       </c>
       <c r="E424" s="4" t="s">
-        <v>444</v>
+        <v>57</v>
       </c>
       <c r="F424" s="4" t="s">
-        <v>445</v>
+        <v>58</v>
       </c>
       <c r="G424" s="4" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="H424" s="4" t="s">
-        <v>439</v>
+        <v>214</v>
       </c>
       <c r="I424" t="str">
         <f t="shared" si="73"/>
-        <v>messageBlocks.add(new PayloadBlock(400, 643, 244, "Data Slot3", "data3", "d", "Binary data"));</v>
+        <v>messageBlocks.add(new PayloadBlock(1133, 1151, 19, "Radio status", "radio", "u", "See [IALA] for details."));</v>
       </c>
       <c r="J424" s="4"/>
       <c r="K424" s="4"/>
@@ -15515,33 +15636,14 @@
     </row>
     <row r="425" spans="1:13">
       <c r="A425" s="4"/>
-      <c r="B425" s="1">
-        <f t="shared" si="74"/>
-        <v>644</v>
-      </c>
-      <c r="C425" s="1">
-        <f t="shared" si="72"/>
-        <v>887</v>
-      </c>
-      <c r="D425">
-        <v>244</v>
-      </c>
-      <c r="E425" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="F425" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="G425" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H425" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="I425" t="str">
-        <f t="shared" si="73"/>
-        <v>messageBlocks.add(new PayloadBlock(644, 887, 244, "Data Slot4", "data4", "d", "Binary data"));</v>
-      </c>
+      <c r="D425" s="21">
+        <f>SUM(D410:D424)</f>
+        <v>1152</v>
+      </c>
+      <c r="E425" s="4"/>
+      <c r="F425" s="4"/>
+      <c r="G425" s="4"/>
+      <c r="H425" s="4"/>
       <c r="J425" s="4"/>
       <c r="K425" s="4"/>
       <c r="L425" s="4"/>
@@ -15549,67 +15651,28 @@
     </row>
     <row r="426" spans="1:13">
       <c r="A426" s="4"/>
-      <c r="B426" s="1">
-        <f t="shared" si="74"/>
-        <v>888</v>
-      </c>
-      <c r="C426" s="1">
-        <f t="shared" si="72"/>
-        <v>1131</v>
-      </c>
-      <c r="D426">
-        <v>244</v>
-      </c>
-      <c r="E426" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="F426" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="G426" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H426" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="I426" t="str">
-        <f t="shared" si="73"/>
-        <v>messageBlocks.add(new PayloadBlock(888, 1131, 244, "Data Slot5", "data5", "d", "Binary data"));</v>
-      </c>
+      <c r="E426" s="4"/>
+      <c r="F426" s="4"/>
+      <c r="G426" s="4"/>
+      <c r="H426" s="4"/>
+      <c r="I426" s="4"/>
       <c r="J426" s="4"/>
       <c r="K426" s="4"/>
       <c r="L426" s="4"/>
       <c r="M426" s="4"/>
     </row>
     <row r="427" spans="1:13">
-      <c r="A427" s="4"/>
-      <c r="B427" s="1">
-        <f t="shared" si="74"/>
-        <v>1132</v>
-      </c>
-      <c r="C427" s="1">
-        <f t="shared" si="72"/>
-        <v>1132</v>
-      </c>
-      <c r="D427">
-        <v>1</v>
-      </c>
-      <c r="E427" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F427" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="G427" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H427" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="I427" t="str">
-        <f t="shared" si="73"/>
-        <v>messageBlocks.add(new PayloadBlock(1132, 1132, 1, "Comm State Selector", "commflag", "d", "Communication state selector flag"));</v>
-      </c>
+      <c r="A427" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E427" s="4"/>
+      <c r="F427" s="4"/>
+      <c r="G427" s="4"/>
+      <c r="H427" s="4"/>
+      <c r="I427" s="4"/>
       <c r="J427" s="4"/>
       <c r="K427" s="4"/>
       <c r="L427" s="4"/>
@@ -15618,31 +15681,30 @@
     <row r="428" spans="1:13">
       <c r="A428" s="4"/>
       <c r="B428" s="1">
-        <f t="shared" si="74"/>
-        <v>1133</v>
+        <v>0</v>
       </c>
       <c r="C428" s="1">
-        <f t="shared" si="72"/>
-        <v>1151</v>
+        <f t="shared" ref="C428:C439" si="75">B428+D428-1</f>
+        <v>5</v>
       </c>
       <c r="D428">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E428" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="F428" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="G428" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H428" s="4" t="s">
-        <v>214</v>
+        <v>452</v>
       </c>
       <c r="I428" t="str">
-        <f t="shared" si="73"/>
-        <v>messageBlocks.add(new PayloadBlock(1133, 1151, 19, "Radio status", "radio", "u", "See [IALA] for details."));</v>
+        <f t="shared" ref="I428:I439" si="76">"messageBlocks.add(new PayloadBlock("&amp;B428&amp;", "&amp;C428&amp;", "&amp;D428&amp;", "&amp;CHAR(34)&amp;E428&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F428&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G428&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H428&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 27"));</v>
       </c>
       <c r="J428" s="4"/>
       <c r="K428" s="4"/>
@@ -15651,14 +15713,33 @@
     </row>
     <row r="429" spans="1:13">
       <c r="A429" s="4"/>
-      <c r="D429" s="15">
-        <f>SUM(D414:D428)</f>
-        <v>1152</v>
-      </c>
-      <c r="E429" s="4"/>
-      <c r="F429" s="4"/>
-      <c r="G429" s="4"/>
-      <c r="H429" s="4"/>
+      <c r="B429" s="1">
+        <f t="shared" ref="B429:B439" si="77">B428+D428</f>
+        <v>6</v>
+      </c>
+      <c r="C429" s="1">
+        <f t="shared" si="75"/>
+        <v>7</v>
+      </c>
+      <c r="D429">
+        <v>2</v>
+      </c>
+      <c r="E429" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F429" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G429" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H429" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="I429" t="str">
+        <f t="shared" si="76"/>
+        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
+      </c>
       <c r="J429" s="4"/>
       <c r="K429" s="4"/>
       <c r="L429" s="4"/>
@@ -15666,28 +15747,67 @@
     </row>
     <row r="430" spans="1:13">
       <c r="A430" s="4"/>
-      <c r="E430" s="4"/>
-      <c r="F430" s="4"/>
-      <c r="G430" s="4"/>
-      <c r="H430" s="4"/>
-      <c r="I430" s="4"/>
+      <c r="B430" s="1">
+        <f t="shared" si="77"/>
+        <v>8</v>
+      </c>
+      <c r="C430" s="1">
+        <f t="shared" si="75"/>
+        <v>37</v>
+      </c>
+      <c r="D430">
+        <v>30</v>
+      </c>
+      <c r="E430" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F430" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G430" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H430" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I430" t="str">
+        <f t="shared" si="76"/>
+        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 decimal digits"));</v>
+      </c>
       <c r="J430" s="4"/>
       <c r="K430" s="4"/>
       <c r="L430" s="4"/>
       <c r="M430" s="4"/>
     </row>
     <row r="431" spans="1:13">
-      <c r="A431" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B431" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E431" s="4"/>
-      <c r="F431" s="4"/>
-      <c r="G431" s="4"/>
-      <c r="H431" s="4"/>
-      <c r="I431" s="4"/>
+      <c r="A431" s="4"/>
+      <c r="B431" s="1">
+        <f t="shared" si="77"/>
+        <v>38</v>
+      </c>
+      <c r="C431" s="1">
+        <f t="shared" si="75"/>
+        <v>38</v>
+      </c>
+      <c r="D431">
+        <v>1</v>
+      </c>
+      <c r="E431" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F431" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G431" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H431" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="I431" t="str">
+        <f t="shared" si="76"/>
+        <v>messageBlocks.add(new PayloadBlock(38, 38, 1, "Position Accuracy", "accuracy", "u", "See Common Navigation Block"));</v>
+      </c>
       <c r="J431" s="4"/>
       <c r="K431" s="4"/>
       <c r="L431" s="4"/>
@@ -15696,30 +15816,31 @@
     <row r="432" spans="1:13">
       <c r="A432" s="4"/>
       <c r="B432" s="1">
-        <v>0</v>
+        <f t="shared" si="77"/>
+        <v>39</v>
       </c>
       <c r="C432" s="1">
-        <f t="shared" ref="C432:C443" si="75">B432+D432-1</f>
-        <v>5</v>
+        <f t="shared" si="75"/>
+        <v>39</v>
       </c>
       <c r="D432">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E432" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="F432" s="4" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="G432" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H432" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="I432" t="str">
-        <f t="shared" ref="I432:I443" si="76">"messageBlocks.add(new PayloadBlock("&amp;B432&amp;", "&amp;C432&amp;", "&amp;D432&amp;", "&amp;CHAR(34)&amp;E432&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F432&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G432&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H432&amp;CHAR(34)&amp;"));"</f>
-        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 27"));</v>
+        <f t="shared" si="76"/>
+        <v>messageBlocks.add(new PayloadBlock(39, 39, 1, "RAIM flag", "raim", "u", "See Common Navigation Block"));</v>
       </c>
       <c r="J432" s="4"/>
       <c r="K432" s="4"/>
@@ -15729,31 +15850,31 @@
     <row r="433" spans="1:13">
       <c r="A433" s="4"/>
       <c r="B433" s="1">
-        <f t="shared" ref="B433:B443" si="77">B432+D432</f>
-        <v>6</v>
+        <f t="shared" si="77"/>
+        <v>40</v>
       </c>
       <c r="C433" s="1">
         <f t="shared" si="75"/>
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D433">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E433" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F433" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G433" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H433" s="4" t="s">
-        <v>312</v>
+        <v>453</v>
       </c>
       <c r="I433" t="str">
         <f t="shared" si="76"/>
-        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
+        <v>messageBlocks.add(new PayloadBlock(40, 43, 4, "Navigation Status", "status", "u", "See Common Navigation Block"));</v>
       </c>
       <c r="J433" s="4"/>
       <c r="K433" s="4"/>
@@ -15764,30 +15885,30 @@
       <c r="A434" s="4"/>
       <c r="B434" s="1">
         <f t="shared" si="77"/>
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C434" s="1">
         <f t="shared" si="75"/>
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D434">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E434" s="4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F434" s="4" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G434" s="4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H434" s="4" t="s">
-        <v>19</v>
+        <v>454</v>
       </c>
       <c r="I434" t="str">
         <f t="shared" si="76"/>
-        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 decimal digits"));</v>
+        <v>messageBlocks.add(new PayloadBlock(44, 61, 18, "Longitude", "lon", "I4", "minutes/10 East positive, West negative 181000 = N/A (default)"));</v>
       </c>
       <c r="J434" s="4"/>
       <c r="K434" s="4"/>
@@ -15798,30 +15919,30 @@
       <c r="A435" s="4"/>
       <c r="B435" s="1">
         <f t="shared" si="77"/>
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="C435" s="1">
         <f t="shared" si="75"/>
+        <v>78</v>
+      </c>
+      <c r="D435">
+        <v>17</v>
+      </c>
+      <c r="E435" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D435">
-        <v>1</v>
-      </c>
-      <c r="E435" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="F435" s="4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G435" s="4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H435" s="4" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="I435" t="str">
         <f t="shared" si="76"/>
-        <v>messageBlocks.add(new PayloadBlock(38, 38, 1, "Position Accuracy", "accuracy", "u", "See Common Navigation Block"));</v>
+        <v>messageBlocks.add(new PayloadBlock(62, 78, 17, "Latitude", "lat", "I4", "minutes/10 North positive, South negative 91000 = N/A (default)"));</v>
       </c>
       <c r="J435" s="4"/>
       <c r="K435" s="4"/>
@@ -15832,30 +15953,30 @@
       <c r="A436" s="4"/>
       <c r="B436" s="1">
         <f t="shared" si="77"/>
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C436" s="1">
         <f t="shared" si="75"/>
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="D436">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E436" s="4" t="s">
-        <v>55</v>
+        <v>275</v>
       </c>
       <c r="F436" s="4" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="G436" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H436" s="4" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="I436" t="str">
         <f t="shared" si="76"/>
-        <v>messageBlocks.add(new PayloadBlock(39, 39, 1, "RAIM flag", "raim", "u", "See Common Navigation Block"));</v>
+        <v>messageBlocks.add(new PayloadBlock(79, 84, 6, "Speed Over Ground", "speed", "u", "Knots (0-62); 63 = N/A (default)"));</v>
       </c>
       <c r="J436" s="4"/>
       <c r="K436" s="4"/>
@@ -15866,30 +15987,30 @@
       <c r="A437" s="4"/>
       <c r="B437" s="1">
         <f t="shared" si="77"/>
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C437" s="1">
         <f t="shared" si="75"/>
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="D437">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E437" s="4" t="s">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="F437" s="4" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="G437" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H437" s="4" t="s">
-        <v>453</v>
+        <v>45</v>
       </c>
       <c r="I437" t="str">
         <f t="shared" si="76"/>
-        <v>messageBlocks.add(new PayloadBlock(40, 43, 4, "Navigation Status", "status", "u", "See Common Navigation Block"));</v>
+        <v>messageBlocks.add(new PayloadBlock(85, 93, 9, "Course Over Ground", "course", "u", "0 to 359 degrees, 511 = not available."));</v>
       </c>
       <c r="J437" s="4"/>
       <c r="K437" s="4"/>
@@ -15900,30 +16021,30 @@
       <c r="A438" s="4"/>
       <c r="B438" s="1">
         <f t="shared" si="77"/>
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="C438" s="1">
         <f t="shared" si="75"/>
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="D438">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E438" s="4" t="s">
-        <v>34</v>
+        <v>457</v>
       </c>
       <c r="F438" s="4" t="s">
-        <v>35</v>
+        <v>458</v>
       </c>
       <c r="G438" s="4" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H438" s="4" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="I438" t="str">
         <f t="shared" si="76"/>
-        <v>messageBlocks.add(new PayloadBlock(44, 61, 18, "Longitude", "lon", "I4", "minutes/10 East positive, West negative 181000 = N/A (default)"));</v>
+        <v>messageBlocks.add(new PayloadBlock(94, 94, 1, "GNSS Position status", "gnss", "u", "0 = current GNSS position 1 = not GNSS position (default)"));</v>
       </c>
       <c r="J438" s="4"/>
       <c r="K438" s="4"/>
@@ -15934,30 +16055,28 @@
       <c r="A439" s="4"/>
       <c r="B439" s="1">
         <f t="shared" si="77"/>
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="C439" s="1">
         <f t="shared" si="75"/>
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D439">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E439" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F439" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F439" s="4"/>
       <c r="G439" s="4" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H439" s="4" t="s">
-        <v>455</v>
+        <v>54</v>
       </c>
       <c r="I439" t="str">
         <f t="shared" si="76"/>
-        <v>messageBlocks.add(new PayloadBlock(62, 78, 17, "Latitude", "lat", "I4", "minutes/10 North positive, South negative 91000 = N/A (default)"));</v>
+        <v>messageBlocks.add(new PayloadBlock(95, 95, 1, "Spare", "", "x", "Not used"));</v>
       </c>
       <c r="J439" s="4"/>
       <c r="K439" s="4"/>
@@ -15966,33 +16085,14 @@
     </row>
     <row r="440" spans="1:13">
       <c r="A440" s="4"/>
-      <c r="B440" s="1">
-        <f t="shared" si="77"/>
-        <v>79</v>
-      </c>
-      <c r="C440" s="1">
-        <f t="shared" si="75"/>
-        <v>84</v>
-      </c>
       <c r="D440">
-        <v>6</v>
-      </c>
-      <c r="E440" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="F440" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G440" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H440" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="I440" t="str">
-        <f t="shared" si="76"/>
-        <v>messageBlocks.add(new PayloadBlock(79, 84, 6, "Speed Over Ground", "speed", "u", "Knots (0-62); 63 = N/A (default)"));</v>
-      </c>
+        <f>SUM(D428:D439)</f>
+        <v>96</v>
+      </c>
+      <c r="E440" s="4"/>
+      <c r="F440" s="4"/>
+      <c r="G440" s="4"/>
+      <c r="H440" s="4"/>
       <c r="J440" s="4"/>
       <c r="K440" s="4"/>
       <c r="L440" s="4"/>
@@ -16000,121 +16100,89 @@
     </row>
     <row r="441" spans="1:13">
       <c r="A441" s="4"/>
-      <c r="B441" s="1">
-        <f t="shared" si="77"/>
-        <v>85</v>
-      </c>
-      <c r="C441" s="1">
-        <f t="shared" si="75"/>
-        <v>93</v>
-      </c>
-      <c r="D441">
-        <v>9</v>
-      </c>
-      <c r="E441" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="F441" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G441" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H441" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I441" t="str">
-        <f t="shared" si="76"/>
-        <v>messageBlocks.add(new PayloadBlock(85, 93, 9, "Course Over Ground", "course", "u", "0 to 359 degrees, 511 = not available."));</v>
-      </c>
+      <c r="E441" s="4"/>
+      <c r="F441" s="4"/>
+      <c r="G441" s="4"/>
+      <c r="H441" s="4"/>
+      <c r="I441" s="4"/>
       <c r="J441" s="4"/>
       <c r="K441" s="4"/>
       <c r="L441" s="4"/>
       <c r="M441" s="4"/>
     </row>
     <row r="442" spans="1:13">
-      <c r="A442" s="4"/>
-      <c r="B442" s="1">
-        <f t="shared" si="77"/>
-        <v>94</v>
-      </c>
-      <c r="C442" s="1">
-        <f t="shared" si="75"/>
-        <v>94</v>
-      </c>
-      <c r="D442">
-        <v>1</v>
-      </c>
-      <c r="E442" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="F442" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="G442" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H442" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="I442" t="str">
-        <f t="shared" si="76"/>
-        <v>messageBlocks.add(new PayloadBlock(94, 94, 1, "GNSS Position status", "gnss", "u", "0 = current GNSS position 1 = not GNSS position (default)"));</v>
-      </c>
+      <c r="A442" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="E442" s="4"/>
+      <c r="F442" s="4"/>
+      <c r="G442" s="4"/>
+      <c r="H442" s="4"/>
+      <c r="I442" s="4"/>
       <c r="J442" s="4"/>
       <c r="K442" s="4"/>
       <c r="L442" s="4"/>
       <c r="M442" s="4"/>
     </row>
     <row r="443" spans="1:13">
-      <c r="A443" s="4"/>
-      <c r="B443" s="1">
-        <f t="shared" si="77"/>
-        <v>95</v>
-      </c>
-      <c r="C443" s="1">
-        <f t="shared" si="75"/>
-        <v>95</v>
-      </c>
-      <c r="D443">
-        <v>1</v>
-      </c>
-      <c r="E443" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="A443" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D443" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E443" s="4"/>
       <c r="F443" s="4"/>
-      <c r="G443" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H443" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I443" t="str">
-        <f t="shared" si="76"/>
-        <v>messageBlocks.add(new PayloadBlock(95, 95, 1, "Spare", "", "x", "Not used"));</v>
-      </c>
+      <c r="G443" s="4"/>
+      <c r="H443" s="4"/>
+      <c r="I443" s="4"/>
       <c r="J443" s="4"/>
       <c r="K443" s="4"/>
       <c r="L443" s="4"/>
       <c r="M443" s="4"/>
     </row>
     <row r="444" spans="1:13">
-      <c r="A444" s="4"/>
-      <c r="D444">
-        <f>SUM(D432:D443)</f>
-        <v>96</v>
+      <c r="A444" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>465</v>
       </c>
       <c r="E444" s="4"/>
       <c r="F444" s="4"/>
       <c r="G444" s="4"/>
       <c r="H444" s="4"/>
+      <c r="I444" s="4"/>
       <c r="J444" s="4"/>
       <c r="K444" s="4"/>
       <c r="L444" s="4"/>
       <c r="M444" s="4"/>
     </row>
     <row r="445" spans="1:13">
-      <c r="A445" s="4"/>
+      <c r="A445" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D445" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="E445" s="4"/>
       <c r="F445" s="4"/>
       <c r="G445" s="4"/>
@@ -16127,7 +16195,16 @@
     </row>
     <row r="446" spans="1:13">
       <c r="A446" s="4" t="s">
-        <v>460</v>
+        <v>468</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D446" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="E446" s="4"/>
       <c r="F446" s="4"/>
@@ -16141,16 +16218,16 @@
     </row>
     <row r="447" spans="1:13">
       <c r="A447" s="4" t="s">
-        <v>461</v>
+        <v>53</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>5</v>
+        <v>464</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>6</v>
+        <v>473</v>
       </c>
       <c r="E447" s="4"/>
       <c r="F447" s="4"/>
@@ -16163,17 +16240,15 @@
       <c r="M447" s="4"/>
     </row>
     <row r="448" spans="1:13">
-      <c r="A448" s="4" t="s">
-        <v>463</v>
-      </c>
+      <c r="A448" s="4"/>
       <c r="B448" s="1" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>464</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="E448" s="4"/>
       <c r="F448" s="4"/>
@@ -16187,16 +16262,16 @@
     </row>
     <row r="449" spans="1:13">
       <c r="A449" s="4" t="s">
-        <v>166</v>
+        <v>304</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>166</v>
+        <v>304</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>466</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="E449" s="4"/>
       <c r="F449" s="4"/>
@@ -16210,16 +16285,16 @@
     </row>
     <row r="450" spans="1:13">
       <c r="A450" s="4" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>469</v>
+        <v>108</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="E450" s="4"/>
       <c r="F450" s="4"/>
@@ -16231,99 +16306,9 @@
       <c r="L450" s="4"/>
       <c r="M450" s="4"/>
     </row>
-    <row r="451" spans="1:13">
-      <c r="A451" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B451" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C451" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="D451" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E451" s="4"/>
-      <c r="F451" s="4"/>
-      <c r="G451" s="4"/>
-      <c r="H451" s="4"/>
-      <c r="I451" s="4"/>
-      <c r="J451" s="4"/>
-      <c r="K451" s="4"/>
-      <c r="L451" s="4"/>
-      <c r="M451" s="4"/>
-    </row>
-    <row r="452" spans="1:13">
-      <c r="A452" s="4"/>
-      <c r="B452" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C452" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="D452" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="E452" s="4"/>
-      <c r="F452" s="4"/>
-      <c r="G452" s="4"/>
-      <c r="H452" s="4"/>
-      <c r="I452" s="4"/>
-      <c r="J452" s="4"/>
-      <c r="K452" s="4"/>
-      <c r="L452" s="4"/>
-      <c r="M452" s="4"/>
-    </row>
-    <row r="453" spans="1:13">
-      <c r="A453" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="B453" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C453" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="D453" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="E453" s="4"/>
-      <c r="F453" s="4"/>
-      <c r="G453" s="4"/>
-      <c r="H453" s="4"/>
-      <c r="I453" s="4"/>
-      <c r="J453" s="4"/>
-      <c r="K453" s="4"/>
-      <c r="L453" s="4"/>
-      <c r="M453" s="4"/>
-    </row>
-    <row r="454" spans="1:13">
-      <c r="A454" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="B454" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C454" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="D454" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="E454" s="4"/>
-      <c r="F454" s="4"/>
-      <c r="G454" s="4"/>
-      <c r="H454" s="4"/>
-      <c r="I454" s="4"/>
-      <c r="J454" s="4"/>
-      <c r="K454" s="4"/>
-      <c r="L454" s="4"/>
-      <c r="M454" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18966,876 +18951,876 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="16">
+      <c r="A1" s="14">
         <v>0</v>
       </c>
-      <c r="B1" s="16">
+      <c r="B1" s="14">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>696</v>
       </c>
-      <c r="D1" s="16">
+      <c r="D1" s="14">
         <v>10000</v>
       </c>
-      <c r="E1" s="16">
+      <c r="E1" s="14">
         <v>16</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>697</v>
       </c>
-      <c r="G1" s="16">
+      <c r="G1" s="14">
         <v>100000</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="14">
         <v>32</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>698</v>
       </c>
-      <c r="J1" s="16">
+      <c r="J1" s="14">
         <v>110000</v>
       </c>
-      <c r="K1" s="16">
+      <c r="K1" s="14">
         <v>48</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="15" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="18">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="16">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>700</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="16">
         <v>10001</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="16">
         <v>17</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>701</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="16">
         <v>100001</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="16">
         <v>33</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="16" t="s">
         <v>702</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="16">
         <v>110001</v>
       </c>
-      <c r="K2" s="18">
+      <c r="K2" s="16">
         <v>49</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="17" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="18">
+      <c r="A3" s="16">
         <v>10</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="16">
         <v>2</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>704</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="16">
         <v>10010</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="16">
         <v>18</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="16" t="s">
         <v>705</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="16">
         <v>100010</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="16">
         <v>34</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="16" t="s">
         <v>706</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="16">
         <v>110010</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="16">
         <v>50</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="17" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="18">
+      <c r="A4" s="16">
         <v>11</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="16">
         <v>3</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>708</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="16">
         <v>10011</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="16">
         <v>19</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="16" t="s">
         <v>709</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="16">
         <v>100011</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="16">
         <v>35</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="16" t="s">
         <v>710</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="16">
         <v>110011</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="16">
         <v>51</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="17" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="18">
+      <c r="A5" s="16">
         <v>100</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="16">
         <v>4</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>712</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="16">
         <v>10100</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="16">
         <v>20</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="16" t="s">
         <v>713</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="16">
         <v>100100</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="16">
         <v>36</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="16" t="s">
         <v>714</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="16">
         <v>110100</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="16">
         <v>52</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="17" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="18">
+      <c r="A6" s="16">
         <v>101</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="16">
         <v>5</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>716</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="16">
         <v>10101</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="16">
         <v>21</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="16" t="s">
         <v>717</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="16">
         <v>100101</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="16">
         <v>37</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="16" t="s">
         <v>718</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="16">
         <v>110101</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="16">
         <v>53</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="17" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="18">
+      <c r="A7" s="16">
         <v>110</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="16">
         <v>6</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>720</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="16">
         <v>10110</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="16">
         <v>22</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="16" t="s">
         <v>721</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="16">
         <v>100110</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="16">
         <v>38</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="16" t="s">
         <v>722</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="16">
         <v>110110</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="16">
         <v>54</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="17" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="18">
+      <c r="A8" s="16">
         <v>111</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="16">
         <v>7</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>724</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="16">
         <v>10111</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="16">
         <v>23</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="16" t="s">
         <v>725</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="16">
         <v>100111</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="16">
         <v>39</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="16" t="s">
         <v>726</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="16">
         <v>110111</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="16">
         <v>55</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="17" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="18">
+      <c r="A9" s="16">
         <v>1000</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="16">
         <v>8</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>728</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="16">
         <v>11000</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="16">
         <v>24</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="16" t="s">
         <v>729</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="16">
         <v>101000</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="16">
         <v>40</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="16" t="s">
         <v>730</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="16">
         <v>111000</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="16">
         <v>56</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="17" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="18">
+      <c r="A10" s="16">
         <v>1001</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="16">
         <v>9</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>732</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="16">
         <v>11001</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="16">
         <v>25</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="16" t="s">
         <v>733</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="16">
         <v>101001</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="16">
         <v>41</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="16" t="s">
         <v>734</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="16">
         <v>111001</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="16">
         <v>56</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="17" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="18">
+      <c r="A11" s="16">
         <v>1010</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="16">
         <v>10</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>736</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="16">
         <v>11010</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="16">
         <v>26</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="16" t="s">
         <v>737</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="16">
         <v>101010</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="16">
         <v>42</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="16" t="s">
         <v>738</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="16">
         <v>111010</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="16">
         <v>58</v>
       </c>
-      <c r="L11" s="19" t="s">
+      <c r="L11" s="17" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="18">
+      <c r="A12" s="16">
         <v>1011</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="16">
         <v>11</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>740</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="16">
         <v>11011</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="16">
         <v>27</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="16" t="s">
         <v>741</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="16">
         <v>101011</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="16">
         <v>43</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="16" t="s">
         <v>742</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="16">
         <v>111011</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="16">
         <v>59</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="L12" s="17" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="18">
+      <c r="A13" s="16">
         <v>1100</v>
       </c>
-      <c r="B13" s="18">
-        <v>12</v>
-      </c>
-      <c r="C13" s="18" t="s">
+      <c r="B13" s="16">
+        <v>12</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>744</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="16">
         <v>11100</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="16">
         <v>28</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="16" t="s">
         <v>745</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="16">
         <v>101100</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="16">
         <v>44</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="16" t="s">
         <v>746</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="16">
         <v>111100</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="16">
         <v>60</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="17" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="18">
+      <c r="A14" s="16">
         <v>1101</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="16">
         <v>13</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>748</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="16">
         <v>11101</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="16">
         <v>29</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>749</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="16">
         <v>101101</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="16">
         <v>45</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="16" t="s">
         <v>750</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="16">
         <v>111101</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14" s="16">
         <v>61</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L14" s="17" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="18">
+      <c r="A15" s="16">
         <v>1110</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="16">
         <v>14</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>752</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="16">
         <v>11110</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="16">
         <v>30</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="16" t="s">
         <v>753</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="16">
         <v>101110</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="16">
         <v>46</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="16" t="s">
         <v>754</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="16">
         <v>111110</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="16">
         <v>62</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="L15" s="17" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="18">
+      <c r="A16" s="16">
         <v>1111</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="16">
         <v>15</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>756</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="16">
         <v>11111</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="16">
         <v>31</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="16" t="s">
         <v>757</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="16">
         <v>101111</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="16">
         <v>47</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="16" t="s">
         <v>758</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="16">
         <v>111111</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="16">
         <v>63</v>
       </c>
-      <c r="L16" s="19" t="s">
+      <c r="L16" s="17" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="18"/>
-      <c r="B30" s="19"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="19"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="18"/>
-      <c r="B33" s="19"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="18"/>
-      <c r="B34" s="19"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="18"/>
-      <c r="B35" s="19"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="18"/>
-      <c r="B36" s="19"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="17"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="18"/>
-      <c r="B37" s="19"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="18"/>
-      <c r="B39" s="19"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="18"/>
-      <c r="B40" s="19"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="18"/>
-      <c r="B41" s="19"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="17"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="18"/>
-      <c r="B42" s="19"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="17"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="18"/>
-      <c r="B43" s="19"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="17"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="18"/>
-      <c r="B44" s="19"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="17"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="18"/>
-      <c r="B45" s="19"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="17"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="18"/>
-      <c r="B46" s="19"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="17"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="18"/>
-      <c r="B47" s="19"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="17"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="18"/>
-      <c r="B48" s="19"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="17"/>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="18"/>
-      <c r="B49" s="19"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="17"/>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="18"/>
-      <c r="B50" s="19"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="17"/>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="18"/>
-      <c r="B51" s="19"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="17"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="18"/>
-      <c r="B52" s="19"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="17"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="18"/>
-      <c r="B53" s="19"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="17"/>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="18"/>
-      <c r="B54" s="19"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="17"/>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="18"/>
-      <c r="B55" s="19"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="17"/>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="18"/>
-      <c r="B56" s="19"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="17"/>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="18"/>
-      <c r="B57" s="19"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="17"/>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="18"/>
-      <c r="B58" s="19"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="17"/>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="18"/>
-      <c r="B59" s="19"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="17"/>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="18"/>
-      <c r="B60" s="19"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="17"/>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="18"/>
-      <c r="B61" s="19"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="17"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="18"/>
-      <c r="B62" s="19"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="17"/>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="18"/>
-      <c r="B63" s="19"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="17"/>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="18"/>
-      <c r="B64" s="19"/>
+      <c r="A64" s="16"/>
+      <c r="B64" s="17"/>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="18"/>
-      <c r="B65" s="19"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="17"/>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="18"/>
-      <c r="B66" s="19"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="17"/>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="18"/>
-      <c r="B67" s="19"/>
+      <c r="A67" s="16"/>
+      <c r="B67" s="17"/>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="18"/>
-      <c r="B68" s="19"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="17"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="18"/>
-      <c r="B69" s="19"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="17"/>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="18"/>
-      <c r="B70" s="19"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="17"/>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="18"/>
-      <c r="B71" s="19"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="17"/>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="18"/>
-      <c r="B72" s="19"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="17"/>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="18"/>
-      <c r="B73" s="19"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="17"/>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="18"/>
-      <c r="B74" s="19"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="17"/>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="18"/>
-      <c r="B75" s="19"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="17"/>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="18"/>
-      <c r="B76" s="19"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="17"/>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="18"/>
-      <c r="B77" s="19"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="17"/>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="18"/>
-      <c r="B78" s="19"/>
+      <c r="A78" s="16"/>
+      <c r="B78" s="17"/>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="18"/>
-      <c r="B79" s="19"/>
+      <c r="A79" s="16"/>
+      <c r="B79" s="17"/>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="18"/>
-      <c r="B80" s="19"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="17"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="18"/>
-      <c r="B81" s="19"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="17"/>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="18"/>
-      <c r="B82" s="19"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/references/MessagePayloadBlockFormatter.xlsx
+++ b/references/MessagePayloadBlockFormatter.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="777">
   <si>
     <t>Start</t>
   </si>
@@ -2344,6 +2344,15 @@
   </si>
   <si>
     <t>Group Assignment Control</t>
+  </si>
+  <si>
+    <t>Single Slot Binary Message</t>
+  </si>
+  <si>
+    <t>Multiple Slot Binary Message with Communitation State</t>
+  </si>
+  <si>
+    <t>Long-range Automatic Identification System Broadcast Message</t>
   </si>
 </sst>
 </file>
@@ -2508,7 +2517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2541,8 +2550,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2914,8 +2921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M450"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A342" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A344" sqref="A344"/>
+    <sheetView tabSelected="1" topLeftCell="A391" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C428" sqref="C428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13109,10 +13116,10 @@
       <c r="M342" s="4"/>
     </row>
     <row r="343" spans="1:13">
-      <c r="A343" s="24" t="s">
+      <c r="A343" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B343" s="25" t="s">
+      <c r="B343" s="19" t="s">
         <v>355</v>
       </c>
       <c r="C343" s="1" t="s">
@@ -13729,10 +13736,10 @@
       <c r="M362" s="4"/>
     </row>
     <row r="363" spans="1:13">
-      <c r="A363" s="4" t="s">
+      <c r="A363" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B363" s="1" t="s">
+      <c r="B363" s="19" t="s">
         <v>392</v>
       </c>
       <c r="C363" s="1" t="s">
@@ -14770,6 +14777,9 @@
       <c r="B397" s="1" t="s">
         <v>429</v>
       </c>
+      <c r="C397" s="1" t="s">
+        <v>774</v>
+      </c>
       <c r="E397" s="4"/>
       <c r="F397" s="4"/>
       <c r="G397" s="4"/>
@@ -15117,6 +15127,9 @@
       <c r="B409" s="1" t="s">
         <v>440</v>
       </c>
+      <c r="C409" s="1" t="s">
+        <v>775</v>
+      </c>
       <c r="E409" s="4"/>
       <c r="F409" s="4"/>
       <c r="G409" s="4"/>
@@ -15321,7 +15334,7 @@
       <c r="H415" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="I415" t="str">
+      <c r="I415" s="20" t="str">
         <f t="shared" si="73"/>
         <v>messageBlocks.add(new PayloadBlock(40, 69, 30, "Destination MMSI", "dest_mmsi", "u", "Message destination"));</v>
       </c>
@@ -15353,7 +15366,7 @@
       <c r="H416" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="I416" t="str">
+      <c r="I416" s="20" t="str">
         <f t="shared" si="73"/>
         <v>messageBlocks.add(new PayloadBlock(70, 71, 2, "Spare", "", "x", "Byte Alignment"));</v>
       </c>
@@ -15667,6 +15680,9 @@
       </c>
       <c r="B427" s="1" t="s">
         <v>451</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>776</v>
       </c>
       <c r="E427" s="4"/>
       <c r="F427" s="4"/>

--- a/references/MessagePayloadBlockFormatter.xlsx
+++ b/references/MessagePayloadBlockFormatter.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="772">
   <si>
     <t>Start</t>
   </si>
@@ -1308,9 +1308,6 @@
     <t>(Part B) Not used</t>
   </si>
   <si>
-    <t>160 : 168</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
@@ -1350,30 +1347,6 @@
     <t>Constant: 26</t>
   </si>
   <si>
-    <t>Data Slot2</t>
-  </si>
-  <si>
-    <t>data2</t>
-  </si>
-  <si>
-    <t>Data Slot3</t>
-  </si>
-  <si>
-    <t>data3</t>
-  </si>
-  <si>
-    <t>Data Slot4</t>
-  </si>
-  <si>
-    <t>data4</t>
-  </si>
-  <si>
-    <t>Data Slot5</t>
-  </si>
-  <si>
-    <t>data5</t>
-  </si>
-  <si>
     <t>Communication state selector flag</t>
   </si>
   <si>
@@ -2353,6 +2326,18 @@
   </si>
   <si>
     <t>Long-range Automatic Identification System Broadcast Message</t>
+  </si>
+  <si>
+    <t>w/-Destination</t>
+  </si>
+  <si>
+    <t>w/-Destination -ApplicationData</t>
+  </si>
+  <si>
+    <t>w/Destination -ApplicationId</t>
+  </si>
+  <si>
+    <t>Part B</t>
   </si>
 </sst>
 </file>
@@ -2517,7 +2502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2550,6 +2535,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2919,10 +2905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M450"/>
+  <dimension ref="A1:M536"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A391" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C428" sqref="C428"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A524" sqref="A524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8701,7 +8687,7 @@
         <v>235</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
@@ -9249,7 +9235,7 @@
         <v>248</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="E216" s="4"/>
       <c r="F216" s="4"/>
@@ -9664,7 +9650,7 @@
         <v>263</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="E230" s="4"/>
       <c r="F230" s="4"/>
@@ -10014,10 +10000,10 @@
         <v>10</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="F242" s="4" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="G242" s="4" t="s">
         <v>12</v>
@@ -10046,10 +10032,10 @@
         <v>13</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="F243" s="4" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="G243" s="4" t="s">
         <v>12</v>
@@ -10110,10 +10096,10 @@
         <v>5</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="G245" s="4" t="s">
         <v>12</v>
@@ -10142,10 +10128,10 @@
         <v>3</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="F246" s="4" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="G246" s="4" t="s">
         <v>12</v>
@@ -10174,10 +10160,10 @@
         <v>6</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="F247" s="4" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="G247" s="4" t="s">
         <v>12</v>
@@ -11705,7 +11691,7 @@
         <v>310</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="E297" s="4"/>
       <c r="F297" s="4"/>
@@ -13123,7 +13109,7 @@
         <v>355</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="E343" s="4"/>
       <c r="F343" s="4"/>
@@ -13743,7 +13729,7 @@
         <v>392</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="E363" s="4"/>
       <c r="F363" s="4"/>
@@ -14311,7 +14297,7 @@
         <v>0</v>
       </c>
       <c r="C382" s="1">
-        <f t="shared" ref="C382:C394" si="66">B382+D382-1</f>
+        <f t="shared" ref="C382:C386" si="66">B382+D382-1</f>
         <v>5</v>
       </c>
       <c r="D382">
@@ -14330,7 +14316,7 @@
         <v>411</v>
       </c>
       <c r="I382" t="str">
-        <f t="shared" ref="I382:I391" si="67">"messageBlocks.add(new PayloadBlock("&amp;B382&amp;", "&amp;C382&amp;", "&amp;D382&amp;", "&amp;CHAR(34)&amp;E382&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F382&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G382&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H382&amp;CHAR(34)&amp;"));"</f>
+        <f t="shared" ref="I382:I386" si="67">"messageBlocks.add(new PayloadBlock("&amp;B382&amp;", "&amp;C382&amp;", "&amp;D382&amp;", "&amp;CHAR(34)&amp;E382&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F382&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G382&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H382&amp;CHAR(34)&amp;"));"</f>
         <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 24"));</v>
       </c>
       <c r="J382" s="4"/>
@@ -14341,7 +14327,7 @@
     <row r="383" spans="1:13">
       <c r="A383" s="4"/>
       <c r="B383" s="1">
-        <f t="shared" ref="B383:B394" si="68">B382+D382</f>
+        <f t="shared" ref="B383:B386" si="68">B382+D382</f>
         <v>6</v>
       </c>
       <c r="C383" s="1">
@@ -14476,33 +14462,14 @@
     </row>
     <row r="387" spans="1:13">
       <c r="A387" s="4"/>
-      <c r="B387" s="1">
-        <f t="shared" si="68"/>
+      <c r="D387">
+        <f>SUM(D382:D386)</f>
         <v>160</v>
       </c>
-      <c r="C387" s="1">
-        <f t="shared" si="66"/>
-        <v>167</v>
-      </c>
-      <c r="D387">
-        <v>8</v>
-      </c>
-      <c r="E387" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F387" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G387" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H387" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="I387" s="8" t="str">
-        <f t="shared" si="67"/>
-        <v>messageBlocks.add(new PayloadBlock(160, 167, 8, "Ship Type", "shiptype", "e", "(Part B) See "Ship Types""));</v>
-      </c>
+      <c r="E387" s="4"/>
+      <c r="F387" s="4"/>
+      <c r="G387" s="4"/>
+      <c r="H387" s="4"/>
       <c r="J387" s="4"/>
       <c r="K387" s="4"/>
       <c r="L387" s="4"/>
@@ -14510,33 +14477,11 @@
     </row>
     <row r="388" spans="1:13">
       <c r="A388" s="4"/>
-      <c r="B388" s="1">
-        <f t="shared" si="68"/>
-        <v>168</v>
-      </c>
-      <c r="C388" s="1">
-        <f t="shared" si="66"/>
-        <v>185</v>
-      </c>
-      <c r="D388">
-        <v>18</v>
-      </c>
-      <c r="E388" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="F388" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="G388" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H388" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="I388" s="8" t="str">
-        <f t="shared" si="67"/>
-        <v>messageBlocks.add(new PayloadBlock(168, 185, 18, "Vendor ID", "vendorid", "t", "(Part B) 3 six-bit chars"));</v>
-      </c>
+      <c r="D388"/>
+      <c r="E388" s="4"/>
+      <c r="F388" s="4"/>
+      <c r="G388" s="4"/>
+      <c r="H388" s="4"/>
       <c r="J388" s="4"/>
       <c r="K388" s="4"/>
       <c r="L388" s="4"/>
@@ -14544,33 +14489,14 @@
     </row>
     <row r="389" spans="1:13">
       <c r="A389" s="4"/>
-      <c r="B389" s="1">
-        <f t="shared" si="68"/>
-        <v>186</v>
-      </c>
-      <c r="C389" s="1">
-        <f t="shared" si="66"/>
-        <v>189</v>
-      </c>
-      <c r="D389">
-        <v>4</v>
-      </c>
-      <c r="E389" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="F389" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="G389" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H389" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="I389" s="8" t="str">
-        <f t="shared" si="67"/>
-        <v>messageBlocks.add(new PayloadBlock(186, 189, 4, "Unit Model Code", "model", "u", "(Part B)"));</v>
-      </c>
+      <c r="C389" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="D389"/>
+      <c r="E389" s="4"/>
+      <c r="F389" s="4"/>
+      <c r="G389" s="4"/>
+      <c r="H389" s="4"/>
       <c r="J389" s="4"/>
       <c r="K389" s="4"/>
       <c r="L389" s="4"/>
@@ -14579,31 +14505,30 @@
     <row r="390" spans="1:13">
       <c r="A390" s="4"/>
       <c r="B390" s="1">
-        <f t="shared" si="68"/>
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="C390" s="1">
-        <f t="shared" si="66"/>
-        <v>209</v>
+        <f t="shared" ref="C390:C401" si="69">B390+D390-1</f>
+        <v>5</v>
       </c>
       <c r="D390">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E390" s="4" t="s">
-        <v>423</v>
+        <v>10</v>
       </c>
       <c r="F390" s="4" t="s">
-        <v>424</v>
+        <v>11</v>
       </c>
       <c r="G390" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H390" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="I390" s="8" t="str">
-        <f t="shared" si="67"/>
-        <v>messageBlocks.add(new PayloadBlock(190, 209, 20, "Serial Number", "serial", "u", "(Part B)"));</v>
+        <v>411</v>
+      </c>
+      <c r="I390" t="str">
+        <f t="shared" ref="I390:I398" si="70">"messageBlocks.add(new PayloadBlock("&amp;B390&amp;", "&amp;C390&amp;", "&amp;D390&amp;", "&amp;CHAR(34)&amp;E390&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F390&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G390&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H390&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 24"));</v>
       </c>
       <c r="J390" s="4"/>
       <c r="K390" s="4"/>
@@ -14613,31 +14538,31 @@
     <row r="391" spans="1:13">
       <c r="A391" s="4"/>
       <c r="B391" s="1">
-        <f t="shared" si="68"/>
-        <v>210</v>
+        <f t="shared" ref="B391:B401" si="71">B390+D390</f>
+        <v>6</v>
       </c>
       <c r="C391" s="1">
-        <f t="shared" si="66"/>
-        <v>251</v>
+        <f t="shared" si="69"/>
+        <v>7</v>
       </c>
       <c r="D391">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="E391" s="4" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="F391" s="4" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="G391" s="4" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="H391" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="I391" s="8" t="str">
-        <f t="shared" si="67"/>
-        <v>messageBlocks.add(new PayloadBlock(210, 251, 42, "Call Sign", "callsign", "t", "(Part B) As in Message Type 5"));</v>
+        <v>312</v>
+      </c>
+      <c r="I391" t="str">
+        <f t="shared" si="70"/>
+        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
       </c>
       <c r="J391" s="4"/>
       <c r="K391" s="4"/>
@@ -14647,31 +14572,31 @@
     <row r="392" spans="1:13">
       <c r="A392" s="4"/>
       <c r="B392" s="1">
-        <f t="shared" si="68"/>
-        <v>252</v>
+        <f t="shared" si="71"/>
+        <v>8</v>
       </c>
       <c r="C392" s="1">
-        <f t="shared" si="66"/>
-        <v>281</v>
+        <f t="shared" si="69"/>
+        <v>37</v>
       </c>
       <c r="D392">
         <v>30</v>
       </c>
       <c r="E392" s="4" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="F392" s="4" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="G392" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H392" s="4" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="I392" t="str">
-        <f>"messageBlocks.add(new PayloadBlock("&amp;C392&amp;", "&amp;D392&amp;", "&amp;D392&amp;", "&amp;CHAR(34)&amp;E392&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F392&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G392&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H392&amp;CHAR(34)&amp;"));"</f>
-        <v>messageBlocks.add(new PayloadBlock(281, 30, 30, "Vessel Dimensions", "dimension", "u", "Meters"));</v>
+        <f t="shared" si="70"/>
+        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 digits"));</v>
       </c>
       <c r="J392" s="4"/>
       <c r="K392" s="4"/>
@@ -14681,31 +14606,31 @@
     <row r="393" spans="1:13">
       <c r="A393" s="4"/>
       <c r="B393" s="1">
-        <f t="shared" si="68"/>
-        <v>282</v>
+        <f t="shared" si="71"/>
+        <v>38</v>
       </c>
       <c r="C393" s="1">
-        <f t="shared" si="66"/>
-        <v>285</v>
+        <f t="shared" si="69"/>
+        <v>39</v>
       </c>
       <c r="D393">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E393" s="4" t="s">
-        <v>119</v>
+        <v>412</v>
       </c>
       <c r="F393" s="4" t="s">
-        <v>90</v>
+        <v>413</v>
       </c>
       <c r="G393" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H393" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="I393" s="8" t="str">
-        <f>"messageBlocks.add(new PayloadBlock("&amp;B393&amp;", "&amp;C393&amp;", "&amp;D393&amp;", "&amp;CHAR(34)&amp;E393&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F393&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G393&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H393&amp;CHAR(34)&amp;"));"</f>
-        <v>messageBlocks.add(new PayloadBlock(282, 285, 4, "Position Fix Type", "epfd", "u", "(Part B) See below"));</v>
+        <v>414</v>
+      </c>
+      <c r="I393" t="str">
+        <f t="shared" si="70"/>
+        <v>messageBlocks.add(new PayloadBlock(38, 39, 2, "Part Number", "partno", "u", "0-1"));</v>
       </c>
       <c r="J393" s="4"/>
       <c r="K393" s="4"/>
@@ -14715,29 +14640,31 @@
     <row r="394" spans="1:13">
       <c r="A394" s="4"/>
       <c r="B394" s="1">
-        <f t="shared" si="68"/>
-        <v>286</v>
+        <f t="shared" ref="B394:B401" si="72">B393+D393</f>
+        <v>40</v>
       </c>
       <c r="C394" s="1">
-        <f t="shared" si="66"/>
-        <v>287</v>
+        <f t="shared" ref="C394:C401" si="73">B394+D394-1</f>
+        <v>47</v>
       </c>
       <c r="D394">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E394" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F394" s="4"/>
+        <v>113</v>
+      </c>
+      <c r="F394" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="G394" s="4" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="H394" s="4" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="I394" s="8" t="str">
-        <f>"messageBlocks.add(new PayloadBlock("&amp;B394&amp;", "&amp;C394&amp;", "&amp;D394&amp;", "&amp;CHAR(34)&amp;E394&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F394&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G394&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H394&amp;CHAR(34)&amp;"));"</f>
-        <v>messageBlocks.add(new PayloadBlock(286, 287, 2, "Spare", "", "x", "(Part B) Not used"));</v>
+        <f t="shared" si="70"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 47, 8, "Ship Type", "shiptype", "e", "(Part B) See "Ship Types""));</v>
       </c>
       <c r="J394" s="4"/>
       <c r="K394" s="4"/>
@@ -14746,13 +14673,33 @@
     </row>
     <row r="395" spans="1:13">
       <c r="A395" s="4"/>
-      <c r="D395" t="s">
-        <v>428</v>
-      </c>
-      <c r="E395" s="4"/>
-      <c r="F395" s="4"/>
-      <c r="G395" s="4"/>
-      <c r="H395" s="4"/>
+      <c r="B395" s="1">
+        <f t="shared" si="72"/>
+        <v>48</v>
+      </c>
+      <c r="C395" s="1">
+        <f t="shared" si="73"/>
+        <v>65</v>
+      </c>
+      <c r="D395">
+        <v>18</v>
+      </c>
+      <c r="E395" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="F395" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="G395" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H395" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="I395" s="8" t="str">
+        <f t="shared" si="70"/>
+        <v>messageBlocks.add(new PayloadBlock(48, 65, 18, "Vendor ID", "vendorid", "t", "(Part B) 3 six-bit chars"));</v>
+      </c>
       <c r="J395" s="4"/>
       <c r="K395" s="4"/>
       <c r="L395" s="4"/>
@@ -14760,31 +14707,67 @@
     </row>
     <row r="396" spans="1:13">
       <c r="A396" s="4"/>
-      <c r="E396" s="4"/>
-      <c r="F396" s="4"/>
-      <c r="G396" s="4"/>
-      <c r="H396" s="4"/>
-      <c r="I396" s="4"/>
+      <c r="B396" s="1">
+        <f t="shared" si="72"/>
+        <v>66</v>
+      </c>
+      <c r="C396" s="1">
+        <f t="shared" si="73"/>
+        <v>69</v>
+      </c>
+      <c r="D396">
+        <v>4</v>
+      </c>
+      <c r="E396" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="F396" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G396" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H396" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="I396" s="8" t="str">
+        <f t="shared" si="70"/>
+        <v>messageBlocks.add(new PayloadBlock(66, 69, 4, "Unit Model Code", "model", "u", "(Part B)"));</v>
+      </c>
       <c r="J396" s="4"/>
       <c r="K396" s="4"/>
       <c r="L396" s="4"/>
       <c r="M396" s="4"/>
     </row>
     <row r="397" spans="1:13">
-      <c r="A397" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B397" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C397" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="E397" s="4"/>
-      <c r="F397" s="4"/>
-      <c r="G397" s="4"/>
-      <c r="H397" s="4"/>
-      <c r="I397" s="4"/>
+      <c r="A397" s="4"/>
+      <c r="B397" s="1">
+        <f t="shared" si="72"/>
+        <v>70</v>
+      </c>
+      <c r="C397" s="1">
+        <f t="shared" si="73"/>
+        <v>89</v>
+      </c>
+      <c r="D397">
+        <v>20</v>
+      </c>
+      <c r="E397" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="F397" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="G397" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H397" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="I397" s="8" t="str">
+        <f t="shared" si="70"/>
+        <v>messageBlocks.add(new PayloadBlock(70, 89, 20, "Serial Number", "serial", "u", "(Part B)"));</v>
+      </c>
       <c r="J397" s="4"/>
       <c r="K397" s="4"/>
       <c r="L397" s="4"/>
@@ -14793,30 +14776,31 @@
     <row r="398" spans="1:13">
       <c r="A398" s="4"/>
       <c r="B398" s="1">
-        <v>0</v>
+        <f t="shared" si="72"/>
+        <v>90</v>
       </c>
       <c r="C398" s="1">
-        <f t="shared" ref="C398:C406" si="69">B398+D398-1</f>
-        <v>5</v>
+        <f t="shared" si="73"/>
+        <v>131</v>
       </c>
       <c r="D398">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E398" s="4" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="F398" s="4" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="G398" s="4" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="H398" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="I398" t="str">
-        <f t="shared" ref="I398:I406" si="70">"messageBlocks.add(new PayloadBlock("&amp;B398&amp;", "&amp;C398&amp;", "&amp;D398&amp;", "&amp;CHAR(34)&amp;E398&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F398&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G398&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H398&amp;CHAR(34)&amp;"));"</f>
-        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 25"));</v>
+        <v>425</v>
+      </c>
+      <c r="I398" s="8" t="str">
+        <f t="shared" si="70"/>
+        <v>messageBlocks.add(new PayloadBlock(90, 131, 42, "Call Sign", "callsign", "t", "(Part B) As in Message Type 5"));</v>
       </c>
       <c r="J398" s="4"/>
       <c r="K398" s="4"/>
@@ -14826,31 +14810,31 @@
     <row r="399" spans="1:13">
       <c r="A399" s="4"/>
       <c r="B399" s="1">
-        <f t="shared" ref="B399:B406" si="71">B398+D398</f>
-        <v>6</v>
+        <f t="shared" si="72"/>
+        <v>132</v>
       </c>
       <c r="C399" s="1">
-        <f t="shared" si="69"/>
-        <v>7</v>
+        <f t="shared" si="73"/>
+        <v>161</v>
       </c>
       <c r="D399">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E399" s="4" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="F399" s="4" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="G399" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H399" s="4" t="s">
-        <v>312</v>
+        <v>118</v>
       </c>
       <c r="I399" t="str">
-        <f t="shared" si="70"/>
-        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
+        <f>"messageBlocks.add(new PayloadBlock("&amp;C399&amp;", "&amp;D399&amp;", "&amp;D399&amp;", "&amp;CHAR(34)&amp;E399&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F399&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G399&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H399&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(161, 30, 30, "Vessel Dimensions", "dimension", "u", "Meters"));</v>
       </c>
       <c r="J399" s="4"/>
       <c r="K399" s="4"/>
@@ -14860,31 +14844,31 @@
     <row r="400" spans="1:13">
       <c r="A400" s="4"/>
       <c r="B400" s="1">
-        <f t="shared" si="71"/>
-        <v>8</v>
+        <f t="shared" si="72"/>
+        <v>162</v>
       </c>
       <c r="C400" s="1">
-        <f t="shared" si="69"/>
-        <v>37</v>
+        <f t="shared" si="73"/>
+        <v>165</v>
       </c>
       <c r="D400">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E400" s="4" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="F400" s="4" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="G400" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H400" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I400" t="str">
-        <f t="shared" si="70"/>
-        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 digits"));</v>
+        <v>426</v>
+      </c>
+      <c r="I400" s="8" t="str">
+        <f>"messageBlocks.add(new PayloadBlock("&amp;B400&amp;", "&amp;C400&amp;", "&amp;D400&amp;", "&amp;CHAR(34)&amp;E400&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F400&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G400&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H400&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(162, 165, 4, "Position Fix Type", "epfd", "u", "(Part B) See below"));</v>
       </c>
       <c r="J400" s="4"/>
       <c r="K400" s="4"/>
@@ -14894,31 +14878,29 @@
     <row r="401" spans="1:13">
       <c r="A401" s="4"/>
       <c r="B401" s="1">
-        <f t="shared" si="71"/>
-        <v>38</v>
+        <f t="shared" si="72"/>
+        <v>166</v>
       </c>
       <c r="C401" s="1">
-        <f t="shared" si="69"/>
-        <v>38</v>
+        <f t="shared" si="73"/>
+        <v>167</v>
       </c>
       <c r="D401">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E401" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="F401" s="4" t="s">
-        <v>381</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F401" s="4"/>
       <c r="G401" s="4" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="H401" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="I401" t="str">
-        <f t="shared" si="70"/>
-        <v>messageBlocks.add(new PayloadBlock(38, 38, 1, "Destination indicator", "addressed", "b", "0=broadcast, 1=addressed."));</v>
+        <v>427</v>
+      </c>
+      <c r="I401" s="8" t="str">
+        <f>"messageBlocks.add(new PayloadBlock("&amp;B401&amp;", "&amp;C401&amp;", "&amp;D401&amp;", "&amp;CHAR(34)&amp;E401&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F401&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G401&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H401&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(166, 167, 2, "Spare", "", "x", "(Part B) Not used"));</v>
       </c>
       <c r="J401" s="4"/>
       <c r="K401" s="4"/>
@@ -14927,33 +14909,14 @@
     </row>
     <row r="402" spans="1:13">
       <c r="A402" s="4"/>
-      <c r="B402" s="1">
-        <f t="shared" si="71"/>
-        <v>39</v>
-      </c>
-      <c r="C402" s="1">
-        <f t="shared" si="69"/>
-        <v>39</v>
-      </c>
       <c r="D402">
-        <v>1</v>
-      </c>
-      <c r="E402" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="F402" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="G402" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H402" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I402" t="str">
-        <f t="shared" si="70"/>
-        <v>messageBlocks.add(new PayloadBlock(39, 39, 1, "Binary data flag", "structured", "b", "See below"));</v>
-      </c>
+        <f>SUM(D390:D401)</f>
+        <v>168</v>
+      </c>
+      <c r="E402" s="4"/>
+      <c r="F402" s="4"/>
+      <c r="G402" s="4"/>
+      <c r="H402" s="4"/>
       <c r="J402" s="4"/>
       <c r="K402" s="4"/>
       <c r="L402" s="4"/>
@@ -14961,65 +14924,31 @@
     </row>
     <row r="403" spans="1:13">
       <c r="A403" s="4"/>
-      <c r="B403" s="1">
-        <f t="shared" si="71"/>
-        <v>40</v>
-      </c>
-      <c r="C403" s="1">
-        <f t="shared" si="69"/>
-        <v>69</v>
-      </c>
-      <c r="D403">
-        <v>30</v>
-      </c>
-      <c r="E403" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F403" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G403" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H403" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="I403" s="8" t="str">
-        <f t="shared" si="70"/>
-        <v>messageBlocks.add(new PayloadBlock(40, 69, 30, "Destination MMSI", "dest_mmsi", "u", "Message destination"));</v>
-      </c>
+      <c r="E403" s="4"/>
+      <c r="F403" s="4"/>
+      <c r="G403" s="4"/>
+      <c r="H403" s="4"/>
+      <c r="I403" s="4"/>
       <c r="J403" s="4"/>
       <c r="K403" s="4"/>
       <c r="L403" s="4"/>
       <c r="M403" s="4"/>
     </row>
     <row r="404" spans="1:13">
-      <c r="A404" s="4"/>
-      <c r="B404" s="1">
-        <f t="shared" si="71"/>
-        <v>70</v>
-      </c>
-      <c r="C404" s="1">
-        <f t="shared" si="69"/>
-        <v>71</v>
-      </c>
-      <c r="D404">
-        <v>2</v>
-      </c>
-      <c r="E404" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="A404" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B404" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="E404" s="4"/>
       <c r="F404" s="4"/>
-      <c r="G404" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H404" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="I404" s="8" t="str">
-        <f t="shared" si="70"/>
-        <v>messageBlocks.add(new PayloadBlock(70, 71, 2, "Spare", "", "x", "Byte Alignment"));</v>
-      </c>
+      <c r="G404" s="4"/>
+      <c r="H404" s="4"/>
+      <c r="I404" s="4"/>
       <c r="J404" s="4"/>
       <c r="K404" s="4"/>
       <c r="L404" s="4"/>
@@ -15028,31 +14957,30 @@
     <row r="405" spans="1:13">
       <c r="A405" s="4"/>
       <c r="B405" s="1">
-        <f t="shared" si="71"/>
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="C405" s="1">
-        <f t="shared" si="69"/>
-        <v>87</v>
+        <f t="shared" ref="C405:C412" si="74">B405+D405-1</f>
+        <v>5</v>
       </c>
       <c r="D405">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E405" s="4" t="s">
-        <v>437</v>
+        <v>10</v>
       </c>
       <c r="F405" s="4" t="s">
-        <v>438</v>
+        <v>11</v>
       </c>
       <c r="G405" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H405" s="4" t="s">
-        <v>160</v>
+        <v>429</v>
       </c>
       <c r="I405" t="str">
-        <f t="shared" si="70"/>
-        <v>messageBlocks.add(new PayloadBlock(72, 87, 16, "Application ID", "app_id", "u", "Unsigned integer"));</v>
+        <f t="shared" ref="I405:I413" si="75">"messageBlocks.add(new PayloadBlock("&amp;B405&amp;", "&amp;C405&amp;", "&amp;D405&amp;", "&amp;CHAR(34)&amp;E405&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F405&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G405&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H405&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 25"));</v>
       </c>
       <c r="J405" s="4"/>
       <c r="K405" s="4"/>
@@ -15062,31 +14990,31 @@
     <row r="406" spans="1:13">
       <c r="A406" s="4"/>
       <c r="B406" s="1">
-        <f t="shared" si="71"/>
-        <v>88</v>
+        <f t="shared" ref="B406:B412" si="76">B405+D405</f>
+        <v>6</v>
       </c>
       <c r="C406" s="1">
-        <f t="shared" si="69"/>
-        <v>199</v>
+        <f t="shared" si="74"/>
+        <v>7</v>
       </c>
       <c r="D406">
-        <v>112</v>
+        <v>2</v>
       </c>
       <c r="E406" s="4" t="s">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="F406" s="4" t="s">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="G406" s="4" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="H406" s="4" t="s">
-        <v>439</v>
+        <v>312</v>
       </c>
       <c r="I406" t="str">
-        <f t="shared" si="70"/>
-        <v>messageBlocks.add(new PayloadBlock(88, 199, 112, "Data", "data", "d", "Binary data"));</v>
+        <f t="shared" si="75"/>
+        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
       </c>
       <c r="J406" s="4"/>
       <c r="K406" s="4"/>
@@ -15095,14 +15023,33 @@
     </row>
     <row r="407" spans="1:13">
       <c r="A407" s="4"/>
+      <c r="B407" s="1">
+        <f t="shared" si="76"/>
+        <v>8</v>
+      </c>
+      <c r="C407" s="1">
+        <f t="shared" si="74"/>
+        <v>37</v>
+      </c>
       <c r="D407">
-        <f>SUM(D398:D406)</f>
-        <v>200</v>
-      </c>
-      <c r="E407" s="4"/>
-      <c r="F407" s="4"/>
-      <c r="G407" s="4"/>
-      <c r="H407" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="E407" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F407" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G407" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H407" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I407" t="str">
+        <f t="shared" si="75"/>
+        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 digits"));</v>
+      </c>
       <c r="J407" s="4"/>
       <c r="K407" s="4"/>
       <c r="L407" s="4"/>
@@ -15110,31 +15057,67 @@
     </row>
     <row r="408" spans="1:13">
       <c r="A408" s="4"/>
-      <c r="E408" s="4"/>
-      <c r="F408" s="4"/>
-      <c r="G408" s="4"/>
-      <c r="H408" s="4"/>
-      <c r="I408" s="4"/>
+      <c r="B408" s="1">
+        <f t="shared" si="76"/>
+        <v>38</v>
+      </c>
+      <c r="C408" s="1">
+        <f t="shared" si="74"/>
+        <v>38</v>
+      </c>
+      <c r="D408">
+        <v>1</v>
+      </c>
+      <c r="E408" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="F408" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="G408" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H408" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="I408" t="str">
+        <f t="shared" si="75"/>
+        <v>messageBlocks.add(new PayloadBlock(38, 38, 1, "Destination indicator", "addressed", "b", "0=broadcast, 1=addressed."));</v>
+      </c>
       <c r="J408" s="4"/>
       <c r="K408" s="4"/>
       <c r="L408" s="4"/>
       <c r="M408" s="4"/>
     </row>
     <row r="409" spans="1:13">
-      <c r="A409" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B409" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C409" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="E409" s="4"/>
-      <c r="F409" s="4"/>
-      <c r="G409" s="4"/>
-      <c r="H409" s="4"/>
-      <c r="I409" s="4"/>
+      <c r="A409" s="4"/>
+      <c r="B409" s="1">
+        <f t="shared" si="76"/>
+        <v>39</v>
+      </c>
+      <c r="C409" s="1">
+        <f t="shared" si="74"/>
+        <v>39</v>
+      </c>
+      <c r="D409">
+        <v>1</v>
+      </c>
+      <c r="E409" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="F409" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="G409" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H409" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I409" t="str">
+        <f t="shared" si="75"/>
+        <v>messageBlocks.add(new PayloadBlock(39, 39, 1, "Binary data flag", "structured", "b", "See below"));</v>
+      </c>
       <c r="J409" s="4"/>
       <c r="K409" s="4"/>
       <c r="L409" s="4"/>
@@ -15143,30 +15126,31 @@
     <row r="410" spans="1:13">
       <c r="A410" s="4"/>
       <c r="B410" s="1">
-        <v>0</v>
+        <f t="shared" si="76"/>
+        <v>40</v>
       </c>
       <c r="C410" s="1">
-        <f t="shared" ref="C410:C424" si="72">B410+D410-1</f>
-        <v>5</v>
+        <f t="shared" si="74"/>
+        <v>69</v>
       </c>
       <c r="D410">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E410" s="4" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="F410" s="4" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="G410" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H410" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="I410" t="str">
-        <f t="shared" ref="I410:I424" si="73">"messageBlocks.add(new PayloadBlock("&amp;B410&amp;", "&amp;C410&amp;", "&amp;D410&amp;", "&amp;CHAR(34)&amp;E410&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F410&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G410&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H410&amp;CHAR(34)&amp;"));"</f>
-        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 26"));</v>
+        <v>434</v>
+      </c>
+      <c r="I410" s="8" t="str">
+        <f t="shared" si="75"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 69, 30, "Destination MMSI", "dest_mmsi", "u", "Message destination"));</v>
       </c>
       <c r="J410" s="4"/>
       <c r="K410" s="4"/>
@@ -15176,31 +15160,29 @@
     <row r="411" spans="1:13">
       <c r="A411" s="4"/>
       <c r="B411" s="1">
-        <f t="shared" ref="B411:B424" si="74">B410+D410</f>
-        <v>6</v>
+        <f t="shared" si="76"/>
+        <v>70</v>
       </c>
       <c r="C411" s="1">
-        <f t="shared" si="72"/>
-        <v>7</v>
+        <f t="shared" si="74"/>
+        <v>71</v>
       </c>
       <c r="D411">
         <v>2</v>
       </c>
       <c r="E411" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F411" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F411" s="4"/>
       <c r="G411" s="4" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="H411" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="I411" t="str">
-        <f t="shared" si="73"/>
-        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
+        <v>435</v>
+      </c>
+      <c r="I411" s="8" t="str">
+        <f t="shared" si="75"/>
+        <v>messageBlocks.add(new PayloadBlock(70, 71, 2, "Spare", "", "x", "Byte Alignment"));</v>
       </c>
       <c r="J411" s="4"/>
       <c r="K411" s="4"/>
@@ -15210,31 +15192,31 @@
     <row r="412" spans="1:13">
       <c r="A412" s="4"/>
       <c r="B412" s="1">
+        <f t="shared" si="76"/>
+        <v>72</v>
+      </c>
+      <c r="C412" s="1">
         <f t="shared" si="74"/>
-        <v>8</v>
-      </c>
-      <c r="C412" s="1">
-        <f t="shared" si="72"/>
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="D412">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E412" s="4" t="s">
-        <v>17</v>
+        <v>436</v>
       </c>
       <c r="F412" s="4" t="s">
-        <v>18</v>
+        <v>437</v>
       </c>
       <c r="G412" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H412" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I412" t="str">
-        <f t="shared" si="73"/>
-        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 digits"));</v>
+        <v>160</v>
+      </c>
+      <c r="I412" s="20" t="str">
+        <f t="shared" si="75"/>
+        <v>messageBlocks.add(new PayloadBlock(72, 87, 16, "Application ID", "app_id", "u", "Unsigned integer"));</v>
       </c>
       <c r="J412" s="4"/>
       <c r="K412" s="4"/>
@@ -15244,31 +15226,31 @@
     <row r="413" spans="1:13">
       <c r="A413" s="4"/>
       <c r="B413" s="1">
-        <f t="shared" si="74"/>
-        <v>38</v>
+        <f t="shared" ref="B413" si="77">B412+D412</f>
+        <v>88</v>
       </c>
       <c r="C413" s="1">
-        <f t="shared" si="72"/>
-        <v>38</v>
+        <f t="shared" ref="C413" si="78">B413+D413-1</f>
+        <v>167</v>
       </c>
       <c r="D413">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="E413" s="4" t="s">
-        <v>431</v>
+        <v>164</v>
       </c>
       <c r="F413" s="4" t="s">
-        <v>381</v>
+        <v>165</v>
       </c>
       <c r="G413" s="4" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="H413" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="I413" t="str">
-        <f t="shared" si="73"/>
-        <v>messageBlocks.add(new PayloadBlock(38, 38, 1, "Destination indicator", "addressed", "b", "0=broadcast, 1=addressed."));</v>
+        <v>438</v>
+      </c>
+      <c r="I413" s="20" t="str">
+        <f t="shared" si="75"/>
+        <v>messageBlocks.add(new PayloadBlock(88, 167, 80, "Data", "data", "d", "Binary data"));</v>
       </c>
       <c r="J413" s="4"/>
       <c r="K413" s="4"/>
@@ -15277,33 +15259,14 @@
     </row>
     <row r="414" spans="1:13">
       <c r="A414" s="4"/>
-      <c r="B414" s="1">
-        <f t="shared" si="74"/>
-        <v>39</v>
-      </c>
-      <c r="C414" s="1">
-        <f t="shared" si="72"/>
-        <v>39</v>
-      </c>
       <c r="D414">
-        <v>1</v>
-      </c>
-      <c r="E414" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="F414" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="G414" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H414" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I414" t="str">
-        <f t="shared" si="73"/>
-        <v>messageBlocks.add(new PayloadBlock(39, 39, 1, "Binary data flag", "structured", "b", "See below"));</v>
-      </c>
+        <f>SUM(D405:D413)</f>
+        <v>168</v>
+      </c>
+      <c r="E414" s="4"/>
+      <c r="F414" s="4"/>
+      <c r="G414" s="4"/>
+      <c r="H414" s="4"/>
       <c r="J414" s="4"/>
       <c r="K414" s="4"/>
       <c r="L414" s="4"/>
@@ -15311,33 +15274,11 @@
     </row>
     <row r="415" spans="1:13">
       <c r="A415" s="4"/>
-      <c r="B415" s="1">
-        <f t="shared" si="74"/>
-        <v>40</v>
-      </c>
-      <c r="C415" s="1">
-        <f t="shared" si="72"/>
-        <v>69</v>
-      </c>
-      <c r="D415">
-        <v>30</v>
-      </c>
-      <c r="E415" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F415" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G415" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H415" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="I415" s="20" t="str">
-        <f t="shared" si="73"/>
-        <v>messageBlocks.add(new PayloadBlock(40, 69, 30, "Destination MMSI", "dest_mmsi", "u", "Message destination"));</v>
-      </c>
+      <c r="D415"/>
+      <c r="E415" s="4"/>
+      <c r="F415" s="4"/>
+      <c r="G415" s="4"/>
+      <c r="H415" s="4"/>
       <c r="J415" s="4"/>
       <c r="K415" s="4"/>
       <c r="L415" s="4"/>
@@ -15345,31 +15286,14 @@
     </row>
     <row r="416" spans="1:13">
       <c r="A416" s="4"/>
-      <c r="B416" s="1">
-        <f t="shared" si="74"/>
-        <v>70</v>
-      </c>
-      <c r="C416" s="1">
-        <f t="shared" si="72"/>
-        <v>71</v>
-      </c>
-      <c r="D416">
-        <v>2</v>
-      </c>
-      <c r="E416" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="C416" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="D416"/>
+      <c r="E416" s="4"/>
       <c r="F416" s="4"/>
-      <c r="G416" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H416" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="I416" s="20" t="str">
-        <f t="shared" si="73"/>
-        <v>messageBlocks.add(new PayloadBlock(70, 71, 2, "Spare", "", "x", "Byte Alignment"));</v>
-      </c>
+      <c r="G416" s="4"/>
+      <c r="H416" s="4"/>
       <c r="J416" s="4"/>
       <c r="K416" s="4"/>
       <c r="L416" s="4"/>
@@ -15378,31 +15302,30 @@
     <row r="417" spans="1:13">
       <c r="A417" s="4"/>
       <c r="B417" s="1">
-        <f t="shared" si="74"/>
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="C417" s="1">
-        <f t="shared" si="72"/>
-        <v>87</v>
+        <f t="shared" ref="C417:C425" si="79">B417+D417-1</f>
+        <v>5</v>
       </c>
       <c r="D417">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E417" s="4" t="s">
-        <v>437</v>
+        <v>10</v>
       </c>
       <c r="F417" s="4" t="s">
-        <v>438</v>
+        <v>11</v>
       </c>
       <c r="G417" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H417" s="4" t="s">
-        <v>160</v>
+        <v>429</v>
       </c>
       <c r="I417" t="str">
-        <f t="shared" si="73"/>
-        <v>messageBlocks.add(new PayloadBlock(72, 87, 16, "Application ID", "app_id", "u", "Unsigned integer"));</v>
+        <f t="shared" ref="I417:I425" si="80">"messageBlocks.add(new PayloadBlock("&amp;B417&amp;", "&amp;C417&amp;", "&amp;D417&amp;", "&amp;CHAR(34)&amp;E417&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F417&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G417&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H417&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 25"));</v>
       </c>
       <c r="J417" s="4"/>
       <c r="K417" s="4"/>
@@ -15412,31 +15335,31 @@
     <row r="418" spans="1:13">
       <c r="A418" s="4"/>
       <c r="B418" s="1">
-        <f t="shared" si="74"/>
-        <v>88</v>
+        <f t="shared" ref="B418:B425" si="81">B417+D417</f>
+        <v>6</v>
       </c>
       <c r="C418" s="1">
-        <f t="shared" si="72"/>
-        <v>175</v>
+        <f t="shared" si="79"/>
+        <v>7</v>
       </c>
       <c r="D418">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="E418" s="4" t="s">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="F418" s="4" t="s">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="G418" s="4" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="H418" s="4" t="s">
-        <v>439</v>
+        <v>312</v>
       </c>
       <c r="I418" t="str">
-        <f t="shared" si="73"/>
-        <v>messageBlocks.add(new PayloadBlock(88, 175, 88, "Data", "data", "d", "Binary data"));</v>
+        <f t="shared" si="80"/>
+        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
       </c>
       <c r="J418" s="4"/>
       <c r="K418" s="4"/>
@@ -15446,31 +15369,31 @@
     <row r="419" spans="1:13">
       <c r="A419" s="4"/>
       <c r="B419" s="1">
-        <f t="shared" si="74"/>
-        <v>176</v>
+        <f t="shared" si="81"/>
+        <v>8</v>
       </c>
       <c r="C419" s="1">
-        <f t="shared" si="72"/>
-        <v>399</v>
+        <f t="shared" si="79"/>
+        <v>37</v>
       </c>
       <c r="D419">
-        <v>224</v>
+        <v>30</v>
       </c>
       <c r="E419" s="4" t="s">
-        <v>442</v>
+        <v>17</v>
       </c>
       <c r="F419" s="4" t="s">
-        <v>443</v>
+        <v>18</v>
       </c>
       <c r="G419" s="4" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="H419" s="4" t="s">
-        <v>439</v>
+        <v>99</v>
       </c>
       <c r="I419" t="str">
-        <f t="shared" si="73"/>
-        <v>messageBlocks.add(new PayloadBlock(176, 399, 224, "Data Slot2", "data2", "d", "Binary data"));</v>
+        <f t="shared" si="80"/>
+        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 digits"));</v>
       </c>
       <c r="J419" s="4"/>
       <c r="K419" s="4"/>
@@ -15480,31 +15403,31 @@
     <row r="420" spans="1:13">
       <c r="A420" s="4"/>
       <c r="B420" s="1">
-        <f t="shared" si="74"/>
-        <v>400</v>
+        <f t="shared" si="81"/>
+        <v>38</v>
       </c>
       <c r="C420" s="1">
-        <f t="shared" si="72"/>
-        <v>643</v>
+        <f t="shared" si="79"/>
+        <v>38</v>
       </c>
       <c r="D420">
-        <v>244</v>
+        <v>1</v>
       </c>
       <c r="E420" s="4" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="F420" s="4" t="s">
-        <v>445</v>
+        <v>381</v>
       </c>
       <c r="G420" s="4" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
       <c r="H420" s="4" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="I420" t="str">
-        <f t="shared" si="73"/>
-        <v>messageBlocks.add(new PayloadBlock(400, 643, 244, "Data Slot3", "data3", "d", "Binary data"));</v>
+        <f t="shared" si="80"/>
+        <v>messageBlocks.add(new PayloadBlock(38, 38, 1, "Destination indicator", "addressed", "b", "0=broadcast, 1=addressed."));</v>
       </c>
       <c r="J420" s="4"/>
       <c r="K420" s="4"/>
@@ -15514,31 +15437,31 @@
     <row r="421" spans="1:13">
       <c r="A421" s="4"/>
       <c r="B421" s="1">
-        <f t="shared" si="74"/>
-        <v>644</v>
+        <f t="shared" si="81"/>
+        <v>39</v>
       </c>
       <c r="C421" s="1">
-        <f t="shared" si="72"/>
-        <v>887</v>
+        <f t="shared" si="79"/>
+        <v>39</v>
       </c>
       <c r="D421">
-        <v>244</v>
+        <v>1</v>
       </c>
       <c r="E421" s="4" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="F421" s="4" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="G421" s="4" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
       <c r="H421" s="4" t="s">
-        <v>439</v>
+        <v>27</v>
       </c>
       <c r="I421" t="str">
-        <f t="shared" si="73"/>
-        <v>messageBlocks.add(new PayloadBlock(644, 887, 244, "Data Slot4", "data4", "d", "Binary data"));</v>
+        <f t="shared" si="80"/>
+        <v>messageBlocks.add(new PayloadBlock(39, 39, 1, "Binary data flag", "structured", "b", "See below"));</v>
       </c>
       <c r="J421" s="4"/>
       <c r="K421" s="4"/>
@@ -15548,31 +15471,31 @@
     <row r="422" spans="1:13">
       <c r="A422" s="4"/>
       <c r="B422" s="1">
-        <f t="shared" si="74"/>
-        <v>888</v>
+        <f t="shared" si="81"/>
+        <v>40</v>
       </c>
       <c r="C422" s="1">
-        <f t="shared" si="72"/>
-        <v>1131</v>
+        <f t="shared" si="79"/>
+        <v>69</v>
       </c>
       <c r="D422">
-        <v>244</v>
+        <v>30</v>
       </c>
       <c r="E422" s="4" t="s">
-        <v>448</v>
+        <v>153</v>
       </c>
       <c r="F422" s="4" t="s">
-        <v>449</v>
+        <v>154</v>
       </c>
       <c r="G422" s="4" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="H422" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="I422" t="str">
-        <f t="shared" si="73"/>
-        <v>messageBlocks.add(new PayloadBlock(888, 1131, 244, "Data Slot5", "data5", "d", "Binary data"));</v>
+        <v>434</v>
+      </c>
+      <c r="I422" s="8" t="str">
+        <f t="shared" si="80"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 69, 30, "Destination MMSI", "dest_mmsi", "u", "Message destination"));</v>
       </c>
       <c r="J422" s="4"/>
       <c r="K422" s="4"/>
@@ -15582,31 +15505,29 @@
     <row r="423" spans="1:13">
       <c r="A423" s="4"/>
       <c r="B423" s="1">
-        <f t="shared" si="74"/>
-        <v>1132</v>
+        <f t="shared" si="81"/>
+        <v>70</v>
       </c>
       <c r="C423" s="1">
-        <f t="shared" si="72"/>
-        <v>1132</v>
+        <f t="shared" si="79"/>
+        <v>71</v>
       </c>
       <c r="D423">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E423" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F423" s="4" t="s">
-        <v>212</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F423" s="4"/>
       <c r="G423" s="4" t="s">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="H423" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="I423" t="str">
-        <f t="shared" si="73"/>
-        <v>messageBlocks.add(new PayloadBlock(1132, 1132, 1, "Comm State Selector", "commflag", "d", "Communication state selector flag"));</v>
+        <v>435</v>
+      </c>
+      <c r="I423" s="8" t="str">
+        <f t="shared" si="80"/>
+        <v>messageBlocks.add(new PayloadBlock(70, 71, 2, "Spare", "", "x", "Byte Alignment"));</v>
       </c>
       <c r="J423" s="4"/>
       <c r="K423" s="4"/>
@@ -15616,31 +15537,31 @@
     <row r="424" spans="1:13">
       <c r="A424" s="4"/>
       <c r="B424" s="1">
-        <f t="shared" si="74"/>
-        <v>1133</v>
+        <f t="shared" si="81"/>
+        <v>72</v>
       </c>
       <c r="C424" s="1">
-        <f t="shared" si="72"/>
-        <v>1151</v>
+        <f t="shared" si="79"/>
+        <v>71</v>
       </c>
       <c r="D424">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E424" s="4" t="s">
-        <v>57</v>
+        <v>436</v>
       </c>
       <c r="F424" s="4" t="s">
-        <v>58</v>
+        <v>437</v>
       </c>
       <c r="G424" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H424" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="I424" t="str">
-        <f t="shared" si="73"/>
-        <v>messageBlocks.add(new PayloadBlock(1133, 1151, 19, "Radio status", "radio", "u", "See [IALA] for details."));</v>
+        <v>160</v>
+      </c>
+      <c r="I424" s="20" t="str">
+        <f t="shared" si="80"/>
+        <v>messageBlocks.add(new PayloadBlock(72, 71, 0, "Application ID", "app_id", "u", "Unsigned integer"));</v>
       </c>
       <c r="J424" s="4"/>
       <c r="K424" s="4"/>
@@ -15649,14 +15570,33 @@
     </row>
     <row r="425" spans="1:13">
       <c r="A425" s="4"/>
-      <c r="D425" s="21">
-        <f>SUM(D410:D424)</f>
-        <v>1152</v>
-      </c>
-      <c r="E425" s="4"/>
-      <c r="F425" s="4"/>
-      <c r="G425" s="4"/>
-      <c r="H425" s="4"/>
+      <c r="B425" s="1">
+        <f t="shared" si="81"/>
+        <v>72</v>
+      </c>
+      <c r="C425" s="1">
+        <f t="shared" si="79"/>
+        <v>167</v>
+      </c>
+      <c r="D425">
+        <v>96</v>
+      </c>
+      <c r="E425" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F425" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G425" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H425" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="I425" s="20" t="str">
+        <f t="shared" si="80"/>
+        <v>messageBlocks.add(new PayloadBlock(72, 167, 96, "Data", "data", "d", "Binary data"));</v>
+      </c>
       <c r="J425" s="4"/>
       <c r="K425" s="4"/>
       <c r="L425" s="4"/>
@@ -15664,31 +15604,26 @@
     </row>
     <row r="426" spans="1:13">
       <c r="A426" s="4"/>
+      <c r="D426">
+        <f>SUM(D417:D425)</f>
+        <v>168</v>
+      </c>
       <c r="E426" s="4"/>
       <c r="F426" s="4"/>
       <c r="G426" s="4"/>
       <c r="H426" s="4"/>
-      <c r="I426" s="4"/>
       <c r="J426" s="4"/>
       <c r="K426" s="4"/>
       <c r="L426" s="4"/>
       <c r="M426" s="4"/>
     </row>
     <row r="427" spans="1:13">
-      <c r="A427" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B427" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="C427" s="1" t="s">
-        <v>776</v>
-      </c>
+      <c r="A427" s="4"/>
+      <c r="D427"/>
       <c r="E427" s="4"/>
       <c r="F427" s="4"/>
       <c r="G427" s="4"/>
       <c r="H427" s="4"/>
-      <c r="I427" s="4"/>
       <c r="J427" s="4"/>
       <c r="K427" s="4"/>
       <c r="L427" s="4"/>
@@ -15696,32 +15631,14 @@
     </row>
     <row r="428" spans="1:13">
       <c r="A428" s="4"/>
-      <c r="B428" s="1">
-        <v>0</v>
-      </c>
-      <c r="C428" s="1">
-        <f t="shared" ref="C428:C439" si="75">B428+D428-1</f>
-        <v>5</v>
-      </c>
-      <c r="D428">
-        <v>6</v>
-      </c>
-      <c r="E428" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F428" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G428" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H428" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="I428" t="str">
-        <f t="shared" ref="I428:I439" si="76">"messageBlocks.add(new PayloadBlock("&amp;B428&amp;", "&amp;C428&amp;", "&amp;D428&amp;", "&amp;CHAR(34)&amp;E428&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F428&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G428&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H428&amp;CHAR(34)&amp;"));"</f>
-        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 27"));</v>
-      </c>
+      <c r="C428" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D428"/>
+      <c r="E428" s="4"/>
+      <c r="F428" s="4"/>
+      <c r="G428" s="4"/>
+      <c r="H428" s="4"/>
       <c r="J428" s="4"/>
       <c r="K428" s="4"/>
       <c r="L428" s="4"/>
@@ -15730,31 +15647,30 @@
     <row r="429" spans="1:13">
       <c r="A429" s="4"/>
       <c r="B429" s="1">
-        <f t="shared" ref="B429:B439" si="77">B428+D428</f>
+        <v>0</v>
+      </c>
+      <c r="C429" s="1">
+        <f t="shared" ref="C429:C437" si="82">B429+D429-1</f>
+        <v>5</v>
+      </c>
+      <c r="D429">
         <v>6</v>
       </c>
-      <c r="C429" s="1">
-        <f t="shared" si="75"/>
-        <v>7</v>
-      </c>
-      <c r="D429">
-        <v>2</v>
-      </c>
       <c r="E429" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F429" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G429" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H429" s="4" t="s">
-        <v>312</v>
+        <v>429</v>
       </c>
       <c r="I429" t="str">
-        <f t="shared" si="76"/>
-        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
+        <f t="shared" ref="I429:I437" si="83">"messageBlocks.add(new PayloadBlock("&amp;B429&amp;", "&amp;C429&amp;", "&amp;D429&amp;", "&amp;CHAR(34)&amp;E429&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F429&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G429&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H429&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 25"));</v>
       </c>
       <c r="J429" s="4"/>
       <c r="K429" s="4"/>
@@ -15764,31 +15680,31 @@
     <row r="430" spans="1:13">
       <c r="A430" s="4"/>
       <c r="B430" s="1">
-        <f t="shared" si="77"/>
-        <v>8</v>
+        <f t="shared" ref="B430:B437" si="84">B429+D429</f>
+        <v>6</v>
       </c>
       <c r="C430" s="1">
-        <f t="shared" si="75"/>
-        <v>37</v>
+        <f t="shared" si="82"/>
+        <v>7</v>
       </c>
       <c r="D430">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E430" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F430" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G430" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H430" s="4" t="s">
-        <v>19</v>
+        <v>312</v>
       </c>
       <c r="I430" t="str">
-        <f t="shared" si="76"/>
-        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 decimal digits"));</v>
+        <f t="shared" si="83"/>
+        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
       </c>
       <c r="J430" s="4"/>
       <c r="K430" s="4"/>
@@ -15798,31 +15714,31 @@
     <row r="431" spans="1:13">
       <c r="A431" s="4"/>
       <c r="B431" s="1">
-        <f t="shared" si="77"/>
-        <v>38</v>
+        <f t="shared" si="84"/>
+        <v>8</v>
       </c>
       <c r="C431" s="1">
-        <f t="shared" si="75"/>
-        <v>38</v>
+        <f t="shared" si="82"/>
+        <v>37</v>
       </c>
       <c r="D431">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E431" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F431" s="4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G431" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H431" s="4" t="s">
-        <v>453</v>
+        <v>99</v>
       </c>
       <c r="I431" t="str">
-        <f t="shared" si="76"/>
-        <v>messageBlocks.add(new PayloadBlock(38, 38, 1, "Position Accuracy", "accuracy", "u", "See Common Navigation Block"));</v>
+        <f t="shared" si="83"/>
+        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 digits"));</v>
       </c>
       <c r="J431" s="4"/>
       <c r="K431" s="4"/>
@@ -15832,31 +15748,31 @@
     <row r="432" spans="1:13">
       <c r="A432" s="4"/>
       <c r="B432" s="1">
-        <f t="shared" si="77"/>
-        <v>39</v>
+        <f t="shared" si="84"/>
+        <v>38</v>
       </c>
       <c r="C432" s="1">
-        <f t="shared" si="75"/>
-        <v>39</v>
+        <f t="shared" si="82"/>
+        <v>38</v>
       </c>
       <c r="D432">
         <v>1</v>
       </c>
       <c r="E432" s="4" t="s">
-        <v>55</v>
+        <v>430</v>
       </c>
       <c r="F432" s="4" t="s">
-        <v>56</v>
+        <v>381</v>
       </c>
       <c r="G432" s="4" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H432" s="4" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="I432" t="str">
-        <f t="shared" si="76"/>
-        <v>messageBlocks.add(new PayloadBlock(39, 39, 1, "RAIM flag", "raim", "u", "See Common Navigation Block"));</v>
+        <f t="shared" si="83"/>
+        <v>messageBlocks.add(new PayloadBlock(38, 38, 1, "Destination indicator", "addressed", "b", "0=broadcast, 1=addressed."));</v>
       </c>
       <c r="J432" s="4"/>
       <c r="K432" s="4"/>
@@ -15866,31 +15782,31 @@
     <row r="433" spans="1:13">
       <c r="A433" s="4"/>
       <c r="B433" s="1">
-        <f t="shared" si="77"/>
-        <v>40</v>
+        <f t="shared" si="84"/>
+        <v>39</v>
       </c>
       <c r="C433" s="1">
-        <f t="shared" si="75"/>
-        <v>43</v>
+        <f t="shared" si="82"/>
+        <v>39</v>
       </c>
       <c r="D433">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E433" s="4" t="s">
-        <v>20</v>
+        <v>432</v>
       </c>
       <c r="F433" s="4" t="s">
-        <v>21</v>
+        <v>433</v>
       </c>
       <c r="G433" s="4" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H433" s="4" t="s">
-        <v>453</v>
+        <v>27</v>
       </c>
       <c r="I433" t="str">
-        <f t="shared" si="76"/>
-        <v>messageBlocks.add(new PayloadBlock(40, 43, 4, "Navigation Status", "status", "u", "See Common Navigation Block"));</v>
+        <f t="shared" si="83"/>
+        <v>messageBlocks.add(new PayloadBlock(39, 39, 1, "Binary data flag", "structured", "b", "See below"));</v>
       </c>
       <c r="J433" s="4"/>
       <c r="K433" s="4"/>
@@ -15900,31 +15816,31 @@
     <row r="434" spans="1:13">
       <c r="A434" s="4"/>
       <c r="B434" s="1">
-        <f t="shared" si="77"/>
-        <v>44</v>
+        <f t="shared" si="84"/>
+        <v>40</v>
       </c>
       <c r="C434" s="1">
-        <f t="shared" si="75"/>
-        <v>61</v>
+        <f t="shared" si="82"/>
+        <v>39</v>
       </c>
       <c r="D434">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E434" s="4" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="F434" s="4" t="s">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="G434" s="4" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H434" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="I434" t="str">
-        <f t="shared" si="76"/>
-        <v>messageBlocks.add(new PayloadBlock(44, 61, 18, "Longitude", "lon", "I4", "minutes/10 East positive, West negative 181000 = N/A (default)"));</v>
+        <v>434</v>
+      </c>
+      <c r="I434" s="8" t="str">
+        <f t="shared" si="83"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 39, 0, "Destination MMSI", "dest_mmsi", "u", "Message destination"));</v>
       </c>
       <c r="J434" s="4"/>
       <c r="K434" s="4"/>
@@ -15934,31 +15850,29 @@
     <row r="435" spans="1:13">
       <c r="A435" s="4"/>
       <c r="B435" s="1">
-        <f t="shared" si="77"/>
-        <v>62</v>
+        <f t="shared" si="84"/>
+        <v>40</v>
       </c>
       <c r="C435" s="1">
-        <f t="shared" si="75"/>
-        <v>78</v>
+        <f t="shared" si="82"/>
+        <v>39</v>
       </c>
       <c r="D435">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E435" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F435" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F435" s="4"/>
       <c r="G435" s="4" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H435" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="I435" t="str">
-        <f t="shared" si="76"/>
-        <v>messageBlocks.add(new PayloadBlock(62, 78, 17, "Latitude", "lat", "I4", "minutes/10 North positive, South negative 91000 = N/A (default)"));</v>
+        <v>435</v>
+      </c>
+      <c r="I435" s="8" t="str">
+        <f t="shared" si="83"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 39, 0, "Spare", "", "x", "Byte Alignment"));</v>
       </c>
       <c r="J435" s="4"/>
       <c r="K435" s="4"/>
@@ -15968,31 +15882,31 @@
     <row r="436" spans="1:13">
       <c r="A436" s="4"/>
       <c r="B436" s="1">
-        <f t="shared" si="77"/>
-        <v>79</v>
+        <f t="shared" si="84"/>
+        <v>40</v>
       </c>
       <c r="C436" s="1">
-        <f t="shared" si="75"/>
-        <v>84</v>
+        <f t="shared" si="82"/>
+        <v>55</v>
       </c>
       <c r="D436">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E436" s="4" t="s">
-        <v>275</v>
+        <v>436</v>
       </c>
       <c r="F436" s="4" t="s">
-        <v>29</v>
+        <v>437</v>
       </c>
       <c r="G436" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H436" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="I436" t="str">
-        <f t="shared" si="76"/>
-        <v>messageBlocks.add(new PayloadBlock(79, 84, 6, "Speed Over Ground", "speed", "u", "Knots (0-62); 63 = N/A (default)"));</v>
+        <v>160</v>
+      </c>
+      <c r="I436" s="20" t="str">
+        <f t="shared" si="83"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 55, 16, "Application ID", "app_id", "u", "Unsigned integer"));</v>
       </c>
       <c r="J436" s="4"/>
       <c r="K436" s="4"/>
@@ -16002,31 +15916,31 @@
     <row r="437" spans="1:13">
       <c r="A437" s="4"/>
       <c r="B437" s="1">
-        <f t="shared" si="77"/>
-        <v>85</v>
+        <f t="shared" si="84"/>
+        <v>56</v>
       </c>
       <c r="C437" s="1">
-        <f t="shared" si="75"/>
-        <v>93</v>
+        <f t="shared" si="82"/>
+        <v>167</v>
       </c>
       <c r="D437">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="E437" s="4" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="F437" s="4" t="s">
-        <v>41</v>
+        <v>165</v>
       </c>
       <c r="G437" s="4" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="H437" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I437" t="str">
-        <f t="shared" si="76"/>
-        <v>messageBlocks.add(new PayloadBlock(85, 93, 9, "Course Over Ground", "course", "u", "0 to 359 degrees, 511 = not available."));</v>
+        <v>438</v>
+      </c>
+      <c r="I437" s="20" t="str">
+        <f t="shared" si="83"/>
+        <v>messageBlocks.add(new PayloadBlock(56, 167, 112, "Data", "data", "d", "Binary data"));</v>
       </c>
       <c r="J437" s="4"/>
       <c r="K437" s="4"/>
@@ -16035,33 +15949,14 @@
     </row>
     <row r="438" spans="1:13">
       <c r="A438" s="4"/>
-      <c r="B438" s="1">
-        <f t="shared" si="77"/>
-        <v>94</v>
-      </c>
-      <c r="C438" s="1">
-        <f t="shared" si="75"/>
-        <v>94</v>
-      </c>
       <c r="D438">
-        <v>1</v>
-      </c>
-      <c r="E438" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="F438" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="G438" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H438" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="I438" t="str">
-        <f t="shared" si="76"/>
-        <v>messageBlocks.add(new PayloadBlock(94, 94, 1, "GNSS Position status", "gnss", "u", "0 = current GNSS position 1 = not GNSS position (default)"));</v>
-      </c>
+        <f>SUM(D429:D437)</f>
+        <v>168</v>
+      </c>
+      <c r="E438" s="4"/>
+      <c r="F438" s="4"/>
+      <c r="G438" s="4"/>
+      <c r="H438" s="4"/>
       <c r="J438" s="4"/>
       <c r="K438" s="4"/>
       <c r="L438" s="4"/>
@@ -16069,31 +15964,11 @@
     </row>
     <row r="439" spans="1:13">
       <c r="A439" s="4"/>
-      <c r="B439" s="1">
-        <f t="shared" si="77"/>
-        <v>95</v>
-      </c>
-      <c r="C439" s="1">
-        <f t="shared" si="75"/>
-        <v>95</v>
-      </c>
-      <c r="D439">
-        <v>1</v>
-      </c>
-      <c r="E439" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="D439"/>
+      <c r="E439" s="4"/>
       <c r="F439" s="4"/>
-      <c r="G439" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H439" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I439" t="str">
-        <f t="shared" si="76"/>
-        <v>messageBlocks.add(new PayloadBlock(95, 95, 1, "Spare", "", "x", "Not used"));</v>
-      </c>
+      <c r="G439" s="4"/>
+      <c r="H439" s="4"/>
       <c r="J439" s="4"/>
       <c r="K439" s="4"/>
       <c r="L439" s="4"/>
@@ -16101,10 +15976,10 @@
     </row>
     <row r="440" spans="1:13">
       <c r="A440" s="4"/>
-      <c r="D440">
-        <f>SUM(D428:D439)</f>
-        <v>96</v>
-      </c>
+      <c r="C440" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="D440"/>
       <c r="E440" s="4"/>
       <c r="F440" s="4"/>
       <c r="G440" s="4"/>
@@ -16116,140 +15991,234 @@
     </row>
     <row r="441" spans="1:13">
       <c r="A441" s="4"/>
-      <c r="E441" s="4"/>
-      <c r="F441" s="4"/>
-      <c r="G441" s="4"/>
-      <c r="H441" s="4"/>
-      <c r="I441" s="4"/>
+      <c r="B441" s="1">
+        <v>0</v>
+      </c>
+      <c r="C441" s="1">
+        <f t="shared" ref="C441:C449" si="85">B441+D441-1</f>
+        <v>5</v>
+      </c>
+      <c r="D441">
+        <v>6</v>
+      </c>
+      <c r="E441" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F441" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G441" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H441" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="I441" t="str">
+        <f t="shared" ref="I441:I449" si="86">"messageBlocks.add(new PayloadBlock("&amp;B441&amp;", "&amp;C441&amp;", "&amp;D441&amp;", "&amp;CHAR(34)&amp;E441&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F441&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G441&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H441&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 25"));</v>
+      </c>
       <c r="J441" s="4"/>
       <c r="K441" s="4"/>
       <c r="L441" s="4"/>
       <c r="M441" s="4"/>
     </row>
     <row r="442" spans="1:13">
-      <c r="A442" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="E442" s="4"/>
-      <c r="F442" s="4"/>
-      <c r="G442" s="4"/>
-      <c r="H442" s="4"/>
-      <c r="I442" s="4"/>
+      <c r="A442" s="4"/>
+      <c r="B442" s="1">
+        <f t="shared" ref="B442:B449" si="87">B441+D441</f>
+        <v>6</v>
+      </c>
+      <c r="C442" s="1">
+        <f t="shared" si="85"/>
+        <v>7</v>
+      </c>
+      <c r="D442">
+        <v>2</v>
+      </c>
+      <c r="E442" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F442" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G442" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H442" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="I442" t="str">
+        <f t="shared" si="86"/>
+        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
+      </c>
       <c r="J442" s="4"/>
       <c r="K442" s="4"/>
       <c r="L442" s="4"/>
       <c r="M442" s="4"/>
     </row>
     <row r="443" spans="1:13">
-      <c r="A443" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="B443" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C443" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D443" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E443" s="4"/>
-      <c r="F443" s="4"/>
-      <c r="G443" s="4"/>
-      <c r="H443" s="4"/>
-      <c r="I443" s="4"/>
+      <c r="A443" s="4"/>
+      <c r="B443" s="1">
+        <f t="shared" si="87"/>
+        <v>8</v>
+      </c>
+      <c r="C443" s="1">
+        <f t="shared" si="85"/>
+        <v>37</v>
+      </c>
+      <c r="D443">
+        <v>30</v>
+      </c>
+      <c r="E443" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F443" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G443" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H443" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I443" t="str">
+        <f t="shared" si="86"/>
+        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 digits"));</v>
+      </c>
       <c r="J443" s="4"/>
       <c r="K443" s="4"/>
       <c r="L443" s="4"/>
       <c r="M443" s="4"/>
     </row>
     <row r="444" spans="1:13">
-      <c r="A444" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="B444" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="C444" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="D444" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="E444" s="4"/>
-      <c r="F444" s="4"/>
-      <c r="G444" s="4"/>
-      <c r="H444" s="4"/>
-      <c r="I444" s="4"/>
+      <c r="A444" s="4"/>
+      <c r="B444" s="1">
+        <f t="shared" si="87"/>
+        <v>38</v>
+      </c>
+      <c r="C444" s="1">
+        <f t="shared" si="85"/>
+        <v>38</v>
+      </c>
+      <c r="D444">
+        <v>1</v>
+      </c>
+      <c r="E444" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="F444" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="G444" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H444" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="I444" t="str">
+        <f t="shared" si="86"/>
+        <v>messageBlocks.add(new PayloadBlock(38, 38, 1, "Destination indicator", "addressed", "b", "0=broadcast, 1=addressed."));</v>
+      </c>
       <c r="J444" s="4"/>
       <c r="K444" s="4"/>
       <c r="L444" s="4"/>
       <c r="M444" s="4"/>
     </row>
     <row r="445" spans="1:13">
-      <c r="A445" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B445" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C445" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="D445" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="E445" s="4"/>
-      <c r="F445" s="4"/>
-      <c r="G445" s="4"/>
-      <c r="H445" s="4"/>
-      <c r="I445" s="4"/>
+      <c r="A445" s="4"/>
+      <c r="B445" s="1">
+        <f t="shared" si="87"/>
+        <v>39</v>
+      </c>
+      <c r="C445" s="1">
+        <f t="shared" si="85"/>
+        <v>39</v>
+      </c>
+      <c r="D445">
+        <v>1</v>
+      </c>
+      <c r="E445" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="F445" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="G445" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H445" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I445" t="str">
+        <f t="shared" si="86"/>
+        <v>messageBlocks.add(new PayloadBlock(39, 39, 1, "Binary data flag", "structured", "b", "See below"));</v>
+      </c>
       <c r="J445" s="4"/>
       <c r="K445" s="4"/>
       <c r="L445" s="4"/>
       <c r="M445" s="4"/>
     </row>
     <row r="446" spans="1:13">
-      <c r="A446" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="B446" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C446" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="D446" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="E446" s="4"/>
-      <c r="F446" s="4"/>
-      <c r="G446" s="4"/>
-      <c r="H446" s="4"/>
-      <c r="I446" s="4"/>
+      <c r="A446" s="4"/>
+      <c r="B446" s="1">
+        <f t="shared" si="87"/>
+        <v>40</v>
+      </c>
+      <c r="C446" s="1">
+        <f t="shared" si="85"/>
+        <v>39</v>
+      </c>
+      <c r="D446">
+        <v>0</v>
+      </c>
+      <c r="E446" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F446" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G446" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H446" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="I446" s="8" t="str">
+        <f t="shared" si="86"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 39, 0, "Destination MMSI", "dest_mmsi", "u", "Message destination"));</v>
+      </c>
       <c r="J446" s="4"/>
       <c r="K446" s="4"/>
       <c r="L446" s="4"/>
       <c r="M446" s="4"/>
     </row>
     <row r="447" spans="1:13">
-      <c r="A447" s="4" t="s">
+      <c r="A447" s="4"/>
+      <c r="B447" s="1">
+        <f t="shared" si="87"/>
+        <v>40</v>
+      </c>
+      <c r="C447" s="1">
+        <f t="shared" si="85"/>
+        <v>39</v>
+      </c>
+      <c r="D447">
+        <v>0</v>
+      </c>
+      <c r="E447" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F447" s="4"/>
+      <c r="G447" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B447" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C447" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="D447" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E447" s="4"/>
-      <c r="F447" s="4"/>
-      <c r="G447" s="4"/>
-      <c r="H447" s="4"/>
-      <c r="I447" s="4"/>
+      <c r="H447" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="I447" s="8" t="str">
+        <f t="shared" si="86"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 39, 0, "Spare", "", "x", "Byte Alignment"));</v>
+      </c>
       <c r="J447" s="4"/>
       <c r="K447" s="4"/>
       <c r="L447" s="4"/>
@@ -16257,70 +16226,2543 @@
     </row>
     <row r="448" spans="1:13">
       <c r="A448" s="4"/>
-      <c r="B448" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C448" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="D448" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="E448" s="4"/>
-      <c r="F448" s="4"/>
-      <c r="G448" s="4"/>
-      <c r="H448" s="4"/>
-      <c r="I448" s="4"/>
+      <c r="B448" s="1">
+        <f t="shared" si="87"/>
+        <v>40</v>
+      </c>
+      <c r="C448" s="1">
+        <f t="shared" si="85"/>
+        <v>39</v>
+      </c>
+      <c r="D448">
+        <v>0</v>
+      </c>
+      <c r="E448" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F448" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G448" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H448" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I448" s="20" t="str">
+        <f t="shared" si="86"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 39, 0, "Application ID", "app_id", "u", "Unsigned integer"));</v>
+      </c>
       <c r="J448" s="4"/>
       <c r="K448" s="4"/>
       <c r="L448" s="4"/>
       <c r="M448" s="4"/>
     </row>
     <row r="449" spans="1:13">
-      <c r="A449" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="B449" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C449" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="D449" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="E449" s="4"/>
-      <c r="F449" s="4"/>
-      <c r="G449" s="4"/>
-      <c r="H449" s="4"/>
-      <c r="I449" s="4"/>
+      <c r="A449" s="4"/>
+      <c r="B449" s="1">
+        <f t="shared" si="87"/>
+        <v>40</v>
+      </c>
+      <c r="C449" s="1">
+        <f t="shared" si="85"/>
+        <v>167</v>
+      </c>
+      <c r="D449">
+        <v>128</v>
+      </c>
+      <c r="E449" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F449" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G449" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H449" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="I449" s="20" t="str">
+        <f t="shared" si="86"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 167, 128, "Data", "data", "d", "Binary data"));</v>
+      </c>
       <c r="J449" s="4"/>
       <c r="K449" s="4"/>
       <c r="L449" s="4"/>
       <c r="M449" s="4"/>
     </row>
     <row r="450" spans="1:13">
-      <c r="A450" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="B450" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C450" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="D450" s="1" t="s">
-        <v>478</v>
+      <c r="A450" s="4"/>
+      <c r="D450">
+        <f>SUM(D441:D449)</f>
+        <v>168</v>
       </c>
       <c r="E450" s="4"/>
       <c r="F450" s="4"/>
       <c r="G450" s="4"/>
       <c r="H450" s="4"/>
-      <c r="I450" s="4"/>
       <c r="J450" s="4"/>
       <c r="K450" s="4"/>
       <c r="L450" s="4"/>
       <c r="M450" s="4"/>
+    </row>
+    <row r="451" spans="1:13">
+      <c r="A451" s="4"/>
+      <c r="D451"/>
+      <c r="E451" s="4"/>
+      <c r="F451" s="4"/>
+      <c r="G451" s="4"/>
+      <c r="H451" s="4"/>
+      <c r="J451" s="4"/>
+      <c r="K451" s="4"/>
+      <c r="L451" s="4"/>
+      <c r="M451" s="4"/>
+    </row>
+    <row r="452" spans="1:13">
+      <c r="A452" s="4"/>
+      <c r="E452" s="4"/>
+      <c r="F452" s="4"/>
+      <c r="G452" s="4"/>
+      <c r="H452" s="4"/>
+      <c r="I452" s="4"/>
+      <c r="J452" s="4"/>
+      <c r="K452" s="4"/>
+      <c r="L452" s="4"/>
+      <c r="M452" s="4"/>
+    </row>
+    <row r="453" spans="1:13">
+      <c r="A453" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B453" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="E453" s="4"/>
+      <c r="F453" s="4"/>
+      <c r="G453" s="4"/>
+      <c r="H453" s="4"/>
+      <c r="I453" s="4"/>
+      <c r="J453" s="4"/>
+      <c r="K453" s="4"/>
+      <c r="L453" s="4"/>
+      <c r="M453" s="4"/>
+    </row>
+    <row r="454" spans="1:13">
+      <c r="A454" s="4"/>
+      <c r="B454" s="1">
+        <v>0</v>
+      </c>
+      <c r="C454" s="1">
+        <f t="shared" ref="C454:C455" si="88">B454+D454-1</f>
+        <v>5</v>
+      </c>
+      <c r="D454">
+        <v>6</v>
+      </c>
+      <c r="E454" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F454" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G454" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H454" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="I454" t="str">
+        <f t="shared" ref="I454:I465" si="89">"messageBlocks.add(new PayloadBlock("&amp;B454&amp;", "&amp;C454&amp;", "&amp;D454&amp;", "&amp;CHAR(34)&amp;E454&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F454&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G454&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H454&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 26"));</v>
+      </c>
+      <c r="J454" s="4"/>
+      <c r="K454" s="4"/>
+      <c r="L454" s="4"/>
+      <c r="M454" s="4"/>
+    </row>
+    <row r="455" spans="1:13">
+      <c r="A455" s="4"/>
+      <c r="B455" s="1">
+        <f t="shared" ref="B455" si="90">B454+D454</f>
+        <v>6</v>
+      </c>
+      <c r="C455" s="1">
+        <f t="shared" si="88"/>
+        <v>7</v>
+      </c>
+      <c r="D455">
+        <v>2</v>
+      </c>
+      <c r="E455" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F455" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G455" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H455" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="I455" t="str">
+        <f t="shared" si="89"/>
+        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
+      </c>
+      <c r="J455" s="4"/>
+      <c r="K455" s="4"/>
+      <c r="L455" s="4"/>
+      <c r="M455" s="4"/>
+    </row>
+    <row r="456" spans="1:13">
+      <c r="A456" s="4"/>
+      <c r="B456" s="1">
+        <f t="shared" ref="B456:B465" si="91">B455+D455</f>
+        <v>8</v>
+      </c>
+      <c r="C456" s="1">
+        <f t="shared" ref="C456:C465" si="92">B456+D456-1</f>
+        <v>37</v>
+      </c>
+      <c r="D456">
+        <v>30</v>
+      </c>
+      <c r="E456" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F456" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G456" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H456" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I456" t="str">
+        <f t="shared" si="89"/>
+        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 digits"));</v>
+      </c>
+      <c r="J456" s="4"/>
+      <c r="K456" s="4"/>
+      <c r="L456" s="4"/>
+      <c r="M456" s="4"/>
+    </row>
+    <row r="457" spans="1:13">
+      <c r="A457" s="4"/>
+      <c r="B457" s="1">
+        <f t="shared" si="91"/>
+        <v>38</v>
+      </c>
+      <c r="C457" s="1">
+        <f t="shared" si="92"/>
+        <v>38</v>
+      </c>
+      <c r="D457">
+        <v>1</v>
+      </c>
+      <c r="E457" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="F457" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="G457" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H457" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="I457" t="str">
+        <f t="shared" si="89"/>
+        <v>messageBlocks.add(new PayloadBlock(38, 38, 1, "Destination indicator", "addressed", "b", "0=broadcast, 1=addressed."));</v>
+      </c>
+      <c r="J457" s="4"/>
+      <c r="K457" s="4"/>
+      <c r="L457" s="4"/>
+      <c r="M457" s="4"/>
+    </row>
+    <row r="458" spans="1:13">
+      <c r="A458" s="4"/>
+      <c r="B458" s="1">
+        <f t="shared" si="91"/>
+        <v>39</v>
+      </c>
+      <c r="C458" s="1">
+        <f t="shared" si="92"/>
+        <v>39</v>
+      </c>
+      <c r="D458">
+        <v>1</v>
+      </c>
+      <c r="E458" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="F458" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="G458" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H458" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I458" t="str">
+        <f t="shared" si="89"/>
+        <v>messageBlocks.add(new PayloadBlock(39, 39, 1, "Binary data flag", "structured", "b", "See below"));</v>
+      </c>
+      <c r="J458" s="4"/>
+      <c r="K458" s="4"/>
+      <c r="L458" s="4"/>
+      <c r="M458" s="4"/>
+    </row>
+    <row r="459" spans="1:13">
+      <c r="A459" s="4"/>
+      <c r="B459" s="1">
+        <f t="shared" si="91"/>
+        <v>40</v>
+      </c>
+      <c r="C459" s="1">
+        <f t="shared" si="92"/>
+        <v>69</v>
+      </c>
+      <c r="D459">
+        <v>30</v>
+      </c>
+      <c r="E459" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F459" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G459" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H459" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="I459" s="20" t="str">
+        <f t="shared" si="89"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 69, 30, "Destination MMSI", "dest_mmsi", "u", "Message destination"));</v>
+      </c>
+      <c r="J459" s="4"/>
+      <c r="K459" s="4"/>
+      <c r="L459" s="4"/>
+      <c r="M459" s="4"/>
+    </row>
+    <row r="460" spans="1:13">
+      <c r="A460" s="4"/>
+      <c r="B460" s="1">
+        <f t="shared" si="91"/>
+        <v>70</v>
+      </c>
+      <c r="C460" s="1">
+        <f t="shared" si="92"/>
+        <v>71</v>
+      </c>
+      <c r="D460">
+        <v>2</v>
+      </c>
+      <c r="E460" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F460" s="4"/>
+      <c r="G460" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H460" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="I460" s="20" t="str">
+        <f t="shared" si="89"/>
+        <v>messageBlocks.add(new PayloadBlock(70, 71, 2, "Spare", "", "x", "Byte Alignment"));</v>
+      </c>
+      <c r="J460" s="4"/>
+      <c r="K460" s="4"/>
+      <c r="L460" s="4"/>
+      <c r="M460" s="4"/>
+    </row>
+    <row r="461" spans="1:13">
+      <c r="A461" s="4"/>
+      <c r="B461" s="1">
+        <f t="shared" si="91"/>
+        <v>72</v>
+      </c>
+      <c r="C461" s="1">
+        <f t="shared" si="92"/>
+        <v>87</v>
+      </c>
+      <c r="D461">
+        <v>16</v>
+      </c>
+      <c r="E461" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F461" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G461" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H461" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I461" s="20" t="str">
+        <f t="shared" si="89"/>
+        <v>messageBlocks.add(new PayloadBlock(72, 87, 16, "Application ID", "app_id", "u", "Unsigned integer"));</v>
+      </c>
+      <c r="J461" s="4"/>
+      <c r="K461" s="4"/>
+      <c r="L461" s="4"/>
+      <c r="M461" s="4"/>
+    </row>
+    <row r="462" spans="1:13">
+      <c r="A462" s="4"/>
+      <c r="B462" s="1">
+        <f t="shared" si="91"/>
+        <v>88</v>
+      </c>
+      <c r="C462" s="1">
+        <f t="shared" si="92"/>
+        <v>1039</v>
+      </c>
+      <c r="D462">
+        <v>952</v>
+      </c>
+      <c r="E462" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F462" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G462" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H462" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="I462" s="20" t="str">
+        <f t="shared" si="89"/>
+        <v>messageBlocks.add(new PayloadBlock(88, 1039, 952, "Data", "data", "d", "Binary data"));</v>
+      </c>
+      <c r="J462" s="4"/>
+      <c r="K462" s="4"/>
+      <c r="L462" s="4"/>
+      <c r="M462" s="4"/>
+    </row>
+    <row r="463" spans="1:13">
+      <c r="A463" s="4"/>
+      <c r="B463" s="1">
+        <f t="shared" ref="B463" si="93">B462+D462</f>
+        <v>1040</v>
+      </c>
+      <c r="C463" s="1">
+        <f t="shared" ref="C463" si="94">B463+D463-1</f>
+        <v>1043</v>
+      </c>
+      <c r="D463">
+        <v>4</v>
+      </c>
+      <c r="E463" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F463" s="4"/>
+      <c r="G463" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H463" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="I463" s="24" t="str">
+        <f t="shared" ref="I463" si="95">"messageBlocks.add(new PayloadBlock("&amp;B463&amp;", "&amp;C463&amp;", "&amp;D463&amp;", "&amp;CHAR(34)&amp;E463&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F463&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G463&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H463&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(1040, 1043, 4, "Spare", "", "x", "Byte Alignment"));</v>
+      </c>
+      <c r="J463" s="4"/>
+      <c r="K463" s="4"/>
+      <c r="L463" s="4"/>
+      <c r="M463" s="4"/>
+    </row>
+    <row r="464" spans="1:13">
+      <c r="A464" s="4"/>
+      <c r="B464" s="1">
+        <f t="shared" si="91"/>
+        <v>1044</v>
+      </c>
+      <c r="C464" s="1">
+        <f t="shared" si="92"/>
+        <v>1044</v>
+      </c>
+      <c r="D464">
+        <v>1</v>
+      </c>
+      <c r="E464" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F464" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="G464" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H464" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="I464" t="str">
+        <f t="shared" si="89"/>
+        <v>messageBlocks.add(new PayloadBlock(1044, 1044, 1, "Comm State Selector", "commflag", "d", "Communication state selector flag"));</v>
+      </c>
+      <c r="J464" s="4"/>
+      <c r="K464" s="4"/>
+      <c r="L464" s="4"/>
+      <c r="M464" s="4"/>
+    </row>
+    <row r="465" spans="1:13">
+      <c r="A465" s="4"/>
+      <c r="B465" s="1">
+        <f t="shared" si="91"/>
+        <v>1045</v>
+      </c>
+      <c r="C465" s="1">
+        <f t="shared" si="92"/>
+        <v>1063</v>
+      </c>
+      <c r="D465">
+        <v>19</v>
+      </c>
+      <c r="E465" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F465" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G465" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H465" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I465" t="str">
+        <f t="shared" si="89"/>
+        <v>messageBlocks.add(new PayloadBlock(1045, 1063, 19, "Radio status", "radio", "u", "See [IALA] for details."));</v>
+      </c>
+      <c r="J465" s="4"/>
+      <c r="K465" s="4"/>
+      <c r="L465" s="4"/>
+      <c r="M465" s="4"/>
+    </row>
+    <row r="466" spans="1:13">
+      <c r="A466" s="4"/>
+      <c r="D466" s="21">
+        <f>SUM(D454:D465)</f>
+        <v>1064</v>
+      </c>
+      <c r="E466" s="4"/>
+      <c r="F466" s="4"/>
+      <c r="G466" s="4"/>
+      <c r="H466" s="4"/>
+      <c r="J466" s="4"/>
+      <c r="K466" s="4"/>
+      <c r="L466" s="4"/>
+      <c r="M466" s="4"/>
+    </row>
+    <row r="467" spans="1:13">
+      <c r="A467" s="4"/>
+      <c r="D467" s="21"/>
+      <c r="E467" s="4"/>
+      <c r="F467" s="4"/>
+      <c r="G467" s="4"/>
+      <c r="H467" s="4"/>
+      <c r="J467" s="4"/>
+      <c r="K467" s="4"/>
+      <c r="L467" s="4"/>
+      <c r="M467" s="4"/>
+    </row>
+    <row r="468" spans="1:13">
+      <c r="A468" s="4"/>
+      <c r="C468" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E468" s="4"/>
+      <c r="F468" s="4"/>
+      <c r="G468" s="4"/>
+      <c r="H468" s="4"/>
+      <c r="I468" s="4"/>
+      <c r="J468" s="4"/>
+      <c r="K468" s="4"/>
+      <c r="L468" s="4"/>
+      <c r="M468" s="4"/>
+    </row>
+    <row r="469" spans="1:13">
+      <c r="A469" s="4"/>
+      <c r="B469" s="1">
+        <v>0</v>
+      </c>
+      <c r="C469" s="1">
+        <f t="shared" ref="C469:C477" si="96">B469+D469-1</f>
+        <v>5</v>
+      </c>
+      <c r="D469">
+        <v>6</v>
+      </c>
+      <c r="E469" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F469" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G469" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H469" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="I469" t="str">
+        <f t="shared" ref="I469:I480" si="97">"messageBlocks.add(new PayloadBlock("&amp;B469&amp;", "&amp;C469&amp;", "&amp;D469&amp;", "&amp;CHAR(34)&amp;E469&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F469&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G469&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H469&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 26"));</v>
+      </c>
+      <c r="J469" s="4"/>
+      <c r="K469" s="4"/>
+      <c r="L469" s="4"/>
+      <c r="M469" s="4"/>
+    </row>
+    <row r="470" spans="1:13">
+      <c r="A470" s="4"/>
+      <c r="B470" s="1">
+        <f t="shared" ref="B470:B477" si="98">B469+D469</f>
+        <v>6</v>
+      </c>
+      <c r="C470" s="1">
+        <f t="shared" si="96"/>
+        <v>7</v>
+      </c>
+      <c r="D470">
+        <v>2</v>
+      </c>
+      <c r="E470" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F470" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G470" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H470" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="I470" t="str">
+        <f t="shared" si="97"/>
+        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
+      </c>
+      <c r="J470" s="4"/>
+      <c r="K470" s="4"/>
+      <c r="L470" s="4"/>
+      <c r="M470" s="4"/>
+    </row>
+    <row r="471" spans="1:13">
+      <c r="A471" s="4"/>
+      <c r="B471" s="1">
+        <f t="shared" si="98"/>
+        <v>8</v>
+      </c>
+      <c r="C471" s="1">
+        <f t="shared" si="96"/>
+        <v>37</v>
+      </c>
+      <c r="D471">
+        <v>30</v>
+      </c>
+      <c r="E471" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F471" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G471" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H471" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I471" t="str">
+        <f t="shared" si="97"/>
+        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 digits"));</v>
+      </c>
+      <c r="J471" s="4"/>
+      <c r="K471" s="4"/>
+      <c r="L471" s="4"/>
+      <c r="M471" s="4"/>
+    </row>
+    <row r="472" spans="1:13">
+      <c r="A472" s="4"/>
+      <c r="B472" s="1">
+        <f t="shared" si="98"/>
+        <v>38</v>
+      </c>
+      <c r="C472" s="1">
+        <f t="shared" si="96"/>
+        <v>38</v>
+      </c>
+      <c r="D472">
+        <v>1</v>
+      </c>
+      <c r="E472" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="F472" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="G472" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H472" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="I472" t="str">
+        <f t="shared" si="97"/>
+        <v>messageBlocks.add(new PayloadBlock(38, 38, 1, "Destination indicator", "addressed", "b", "0=broadcast, 1=addressed."));</v>
+      </c>
+      <c r="J472" s="4"/>
+      <c r="K472" s="4"/>
+      <c r="L472" s="4"/>
+      <c r="M472" s="4"/>
+    </row>
+    <row r="473" spans="1:13">
+      <c r="A473" s="4"/>
+      <c r="B473" s="1">
+        <f t="shared" si="98"/>
+        <v>39</v>
+      </c>
+      <c r="C473" s="1">
+        <f t="shared" si="96"/>
+        <v>39</v>
+      </c>
+      <c r="D473">
+        <v>1</v>
+      </c>
+      <c r="E473" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="F473" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="G473" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H473" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I473" t="str">
+        <f t="shared" si="97"/>
+        <v>messageBlocks.add(new PayloadBlock(39, 39, 1, "Binary data flag", "structured", "b", "See below"));</v>
+      </c>
+      <c r="J473" s="4"/>
+      <c r="K473" s="4"/>
+      <c r="L473" s="4"/>
+      <c r="M473" s="4"/>
+    </row>
+    <row r="474" spans="1:13">
+      <c r="A474" s="4"/>
+      <c r="B474" s="1">
+        <f t="shared" si="98"/>
+        <v>40</v>
+      </c>
+      <c r="C474" s="1">
+        <f t="shared" si="96"/>
+        <v>69</v>
+      </c>
+      <c r="D474">
+        <v>30</v>
+      </c>
+      <c r="E474" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F474" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G474" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H474" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="I474" s="20" t="str">
+        <f t="shared" si="97"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 69, 30, "Destination MMSI", "dest_mmsi", "u", "Message destination"));</v>
+      </c>
+      <c r="J474" s="4"/>
+      <c r="K474" s="4"/>
+      <c r="L474" s="4"/>
+      <c r="M474" s="4"/>
+    </row>
+    <row r="475" spans="1:13">
+      <c r="A475" s="4"/>
+      <c r="B475" s="1">
+        <f t="shared" si="98"/>
+        <v>70</v>
+      </c>
+      <c r="C475" s="1">
+        <f t="shared" si="96"/>
+        <v>71</v>
+      </c>
+      <c r="D475">
+        <v>2</v>
+      </c>
+      <c r="E475" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F475" s="4"/>
+      <c r="G475" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H475" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="I475" s="20" t="str">
+        <f t="shared" si="97"/>
+        <v>messageBlocks.add(new PayloadBlock(70, 71, 2, "Spare", "", "x", "Byte Alignment"));</v>
+      </c>
+      <c r="J475" s="4"/>
+      <c r="K475" s="4"/>
+      <c r="L475" s="4"/>
+      <c r="M475" s="4"/>
+    </row>
+    <row r="476" spans="1:13">
+      <c r="A476" s="4"/>
+      <c r="B476" s="1">
+        <f t="shared" si="98"/>
+        <v>72</v>
+      </c>
+      <c r="C476" s="1">
+        <f t="shared" si="96"/>
+        <v>71</v>
+      </c>
+      <c r="D476">
+        <v>0</v>
+      </c>
+      <c r="E476" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F476" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G476" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H476" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I476" s="20" t="str">
+        <f t="shared" si="97"/>
+        <v>messageBlocks.add(new PayloadBlock(72, 71, 0, "Application ID", "app_id", "u", "Unsigned integer"));</v>
+      </c>
+      <c r="J476" s="4"/>
+      <c r="K476" s="4"/>
+      <c r="L476" s="4"/>
+      <c r="M476" s="4"/>
+    </row>
+    <row r="477" spans="1:13">
+      <c r="A477" s="4"/>
+      <c r="B477" s="1">
+        <f t="shared" si="98"/>
+        <v>72</v>
+      </c>
+      <c r="C477" s="1">
+        <f t="shared" si="96"/>
+        <v>1039</v>
+      </c>
+      <c r="D477">
+        <v>968</v>
+      </c>
+      <c r="E477" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F477" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G477" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H477" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="I477" s="20" t="str">
+        <f t="shared" si="97"/>
+        <v>messageBlocks.add(new PayloadBlock(72, 1039, 968, "Data", "data", "d", "Binary data"));</v>
+      </c>
+      <c r="J477" s="4"/>
+      <c r="K477" s="4"/>
+      <c r="L477" s="4"/>
+      <c r="M477" s="4"/>
+    </row>
+    <row r="478" spans="1:13">
+      <c r="A478" s="4"/>
+      <c r="B478" s="1">
+        <f t="shared" ref="B478:B480" si="99">B477+D477</f>
+        <v>1040</v>
+      </c>
+      <c r="C478" s="1">
+        <f t="shared" ref="C478:C480" si="100">B478+D478-1</f>
+        <v>1043</v>
+      </c>
+      <c r="D478">
+        <v>4</v>
+      </c>
+      <c r="E478" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F478" s="4"/>
+      <c r="G478" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H478" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="I478" s="24" t="str">
+        <f t="shared" si="97"/>
+        <v>messageBlocks.add(new PayloadBlock(1040, 1043, 4, "Spare", "", "x", "Byte Alignment"));</v>
+      </c>
+      <c r="J478" s="4"/>
+      <c r="K478" s="4"/>
+      <c r="L478" s="4"/>
+      <c r="M478" s="4"/>
+    </row>
+    <row r="479" spans="1:13">
+      <c r="A479" s="4"/>
+      <c r="B479" s="1">
+        <f t="shared" si="99"/>
+        <v>1044</v>
+      </c>
+      <c r="C479" s="1">
+        <f t="shared" si="100"/>
+        <v>1044</v>
+      </c>
+      <c r="D479">
+        <v>1</v>
+      </c>
+      <c r="E479" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F479" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="G479" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H479" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="I479" t="str">
+        <f t="shared" si="97"/>
+        <v>messageBlocks.add(new PayloadBlock(1044, 1044, 1, "Comm State Selector", "commflag", "d", "Communication state selector flag"));</v>
+      </c>
+      <c r="J479" s="4"/>
+      <c r="K479" s="4"/>
+      <c r="L479" s="4"/>
+      <c r="M479" s="4"/>
+    </row>
+    <row r="480" spans="1:13">
+      <c r="A480" s="4"/>
+      <c r="B480" s="1">
+        <f t="shared" si="99"/>
+        <v>1045</v>
+      </c>
+      <c r="C480" s="1">
+        <f t="shared" si="100"/>
+        <v>1063</v>
+      </c>
+      <c r="D480">
+        <v>19</v>
+      </c>
+      <c r="E480" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F480" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G480" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H480" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I480" t="str">
+        <f t="shared" si="97"/>
+        <v>messageBlocks.add(new PayloadBlock(1045, 1063, 19, "Radio status", "radio", "u", "See [IALA] for details."));</v>
+      </c>
+      <c r="J480" s="4"/>
+      <c r="K480" s="4"/>
+      <c r="L480" s="4"/>
+      <c r="M480" s="4"/>
+    </row>
+    <row r="481" spans="1:13">
+      <c r="A481" s="4"/>
+      <c r="D481" s="21">
+        <f>SUM(D469:D480)</f>
+        <v>1064</v>
+      </c>
+      <c r="E481" s="4"/>
+      <c r="F481" s="4"/>
+      <c r="G481" s="4"/>
+      <c r="H481" s="4"/>
+      <c r="J481" s="4"/>
+      <c r="K481" s="4"/>
+      <c r="L481" s="4"/>
+      <c r="M481" s="4"/>
+    </row>
+    <row r="482" spans="1:13">
+      <c r="A482" s="4"/>
+      <c r="D482" s="21"/>
+      <c r="E482" s="4"/>
+      <c r="F482" s="4"/>
+      <c r="G482" s="4"/>
+      <c r="H482" s="4"/>
+      <c r="J482" s="4"/>
+      <c r="K482" s="4"/>
+      <c r="L482" s="4"/>
+      <c r="M482" s="4"/>
+    </row>
+    <row r="483" spans="1:13">
+      <c r="A483" s="4"/>
+      <c r="C483" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E483" s="4"/>
+      <c r="F483" s="4"/>
+      <c r="G483" s="4"/>
+      <c r="H483" s="4"/>
+      <c r="I483" s="4"/>
+      <c r="J483" s="4"/>
+      <c r="K483" s="4"/>
+      <c r="L483" s="4"/>
+      <c r="M483" s="4"/>
+    </row>
+    <row r="484" spans="1:13">
+      <c r="A484" s="4"/>
+      <c r="B484" s="1">
+        <v>0</v>
+      </c>
+      <c r="C484" s="1">
+        <f t="shared" ref="C484:C495" si="101">B484+D484-1</f>
+        <v>5</v>
+      </c>
+      <c r="D484">
+        <v>6</v>
+      </c>
+      <c r="E484" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F484" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G484" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H484" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="I484" t="str">
+        <f t="shared" ref="I484:I495" si="102">"messageBlocks.add(new PayloadBlock("&amp;B484&amp;", "&amp;C484&amp;", "&amp;D484&amp;", "&amp;CHAR(34)&amp;E484&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F484&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G484&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H484&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 26"));</v>
+      </c>
+      <c r="J484" s="4"/>
+      <c r="K484" s="4"/>
+      <c r="L484" s="4"/>
+      <c r="M484" s="4"/>
+    </row>
+    <row r="485" spans="1:13">
+      <c r="A485" s="4"/>
+      <c r="B485" s="1">
+        <f t="shared" ref="B485:B495" si="103">B484+D484</f>
+        <v>6</v>
+      </c>
+      <c r="C485" s="1">
+        <f t="shared" si="101"/>
+        <v>7</v>
+      </c>
+      <c r="D485">
+        <v>2</v>
+      </c>
+      <c r="E485" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F485" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G485" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H485" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="I485" t="str">
+        <f t="shared" si="102"/>
+        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
+      </c>
+      <c r="J485" s="4"/>
+      <c r="K485" s="4"/>
+      <c r="L485" s="4"/>
+      <c r="M485" s="4"/>
+    </row>
+    <row r="486" spans="1:13">
+      <c r="A486" s="4"/>
+      <c r="B486" s="1">
+        <f t="shared" si="103"/>
+        <v>8</v>
+      </c>
+      <c r="C486" s="1">
+        <f t="shared" si="101"/>
+        <v>37</v>
+      </c>
+      <c r="D486">
+        <v>30</v>
+      </c>
+      <c r="E486" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F486" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G486" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H486" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I486" t="str">
+        <f t="shared" si="102"/>
+        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 digits"));</v>
+      </c>
+      <c r="J486" s="4"/>
+      <c r="K486" s="4"/>
+      <c r="L486" s="4"/>
+      <c r="M486" s="4"/>
+    </row>
+    <row r="487" spans="1:13">
+      <c r="A487" s="4"/>
+      <c r="B487" s="1">
+        <f t="shared" si="103"/>
+        <v>38</v>
+      </c>
+      <c r="C487" s="1">
+        <f t="shared" si="101"/>
+        <v>38</v>
+      </c>
+      <c r="D487">
+        <v>1</v>
+      </c>
+      <c r="E487" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="F487" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="G487" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H487" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="I487" t="str">
+        <f t="shared" si="102"/>
+        <v>messageBlocks.add(new PayloadBlock(38, 38, 1, "Destination indicator", "addressed", "b", "0=broadcast, 1=addressed."));</v>
+      </c>
+      <c r="J487" s="4"/>
+      <c r="K487" s="4"/>
+      <c r="L487" s="4"/>
+      <c r="M487" s="4"/>
+    </row>
+    <row r="488" spans="1:13">
+      <c r="A488" s="4"/>
+      <c r="B488" s="1">
+        <f t="shared" si="103"/>
+        <v>39</v>
+      </c>
+      <c r="C488" s="1">
+        <f t="shared" si="101"/>
+        <v>39</v>
+      </c>
+      <c r="D488">
+        <v>1</v>
+      </c>
+      <c r="E488" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="F488" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="G488" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H488" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I488" t="str">
+        <f t="shared" si="102"/>
+        <v>messageBlocks.add(new PayloadBlock(39, 39, 1, "Binary data flag", "structured", "b", "See below"));</v>
+      </c>
+      <c r="J488" s="4"/>
+      <c r="K488" s="4"/>
+      <c r="L488" s="4"/>
+      <c r="M488" s="4"/>
+    </row>
+    <row r="489" spans="1:13">
+      <c r="A489" s="4"/>
+      <c r="B489" s="1">
+        <f t="shared" si="103"/>
+        <v>40</v>
+      </c>
+      <c r="C489" s="1">
+        <f t="shared" si="101"/>
+        <v>39</v>
+      </c>
+      <c r="D489">
+        <v>0</v>
+      </c>
+      <c r="E489" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F489" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G489" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H489" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="I489" s="20" t="str">
+        <f t="shared" si="102"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 39, 0, "Destination MMSI", "dest_mmsi", "u", "Message destination"));</v>
+      </c>
+      <c r="J489" s="4"/>
+      <c r="K489" s="4"/>
+      <c r="L489" s="4"/>
+      <c r="M489" s="4"/>
+    </row>
+    <row r="490" spans="1:13">
+      <c r="A490" s="4"/>
+      <c r="B490" s="1">
+        <f t="shared" si="103"/>
+        <v>40</v>
+      </c>
+      <c r="C490" s="1">
+        <f t="shared" si="101"/>
+        <v>39</v>
+      </c>
+      <c r="D490">
+        <v>0</v>
+      </c>
+      <c r="E490" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F490" s="4"/>
+      <c r="G490" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H490" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="I490" s="20" t="str">
+        <f t="shared" si="102"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 39, 0, "Spare", "", "x", "Byte Alignment"));</v>
+      </c>
+      <c r="J490" s="4"/>
+      <c r="K490" s="4"/>
+      <c r="L490" s="4"/>
+      <c r="M490" s="4"/>
+    </row>
+    <row r="491" spans="1:13">
+      <c r="A491" s="4"/>
+      <c r="B491" s="1">
+        <f t="shared" si="103"/>
+        <v>40</v>
+      </c>
+      <c r="C491" s="1">
+        <f t="shared" si="101"/>
+        <v>55</v>
+      </c>
+      <c r="D491">
+        <v>16</v>
+      </c>
+      <c r="E491" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F491" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G491" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H491" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I491" s="20" t="str">
+        <f t="shared" si="102"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 55, 16, "Application ID", "app_id", "u", "Unsigned integer"));</v>
+      </c>
+      <c r="J491" s="4"/>
+      <c r="K491" s="4"/>
+      <c r="L491" s="4"/>
+      <c r="M491" s="4"/>
+    </row>
+    <row r="492" spans="1:13">
+      <c r="A492" s="4"/>
+      <c r="B492" s="1">
+        <f t="shared" si="103"/>
+        <v>56</v>
+      </c>
+      <c r="C492" s="1">
+        <f t="shared" si="101"/>
+        <v>1039</v>
+      </c>
+      <c r="D492">
+        <v>984</v>
+      </c>
+      <c r="E492" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F492" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G492" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H492" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="I492" s="20" t="str">
+        <f t="shared" si="102"/>
+        <v>messageBlocks.add(new PayloadBlock(56, 1039, 984, "Data", "data", "d", "Binary data"));</v>
+      </c>
+      <c r="J492" s="4"/>
+      <c r="K492" s="4"/>
+      <c r="L492" s="4"/>
+      <c r="M492" s="4"/>
+    </row>
+    <row r="493" spans="1:13">
+      <c r="A493" s="4"/>
+      <c r="B493" s="1">
+        <f t="shared" si="103"/>
+        <v>1040</v>
+      </c>
+      <c r="C493" s="1">
+        <f t="shared" si="101"/>
+        <v>1043</v>
+      </c>
+      <c r="D493">
+        <v>4</v>
+      </c>
+      <c r="E493" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F493" s="4"/>
+      <c r="G493" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H493" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="I493" s="24" t="str">
+        <f t="shared" si="102"/>
+        <v>messageBlocks.add(new PayloadBlock(1040, 1043, 4, "Spare", "", "x", "Byte Alignment"));</v>
+      </c>
+      <c r="J493" s="4"/>
+      <c r="K493" s="4"/>
+      <c r="L493" s="4"/>
+      <c r="M493" s="4"/>
+    </row>
+    <row r="494" spans="1:13">
+      <c r="A494" s="4"/>
+      <c r="B494" s="1">
+        <f t="shared" si="103"/>
+        <v>1044</v>
+      </c>
+      <c r="C494" s="1">
+        <f t="shared" si="101"/>
+        <v>1044</v>
+      </c>
+      <c r="D494">
+        <v>1</v>
+      </c>
+      <c r="E494" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F494" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="G494" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H494" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="I494" t="str">
+        <f t="shared" si="102"/>
+        <v>messageBlocks.add(new PayloadBlock(1044, 1044, 1, "Comm State Selector", "commflag", "d", "Communication state selector flag"));</v>
+      </c>
+      <c r="J494" s="4"/>
+      <c r="K494" s="4"/>
+      <c r="L494" s="4"/>
+      <c r="M494" s="4"/>
+    </row>
+    <row r="495" spans="1:13">
+      <c r="A495" s="4"/>
+      <c r="B495" s="1">
+        <f t="shared" si="103"/>
+        <v>1045</v>
+      </c>
+      <c r="C495" s="1">
+        <f t="shared" si="101"/>
+        <v>1063</v>
+      </c>
+      <c r="D495">
+        <v>19</v>
+      </c>
+      <c r="E495" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F495" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G495" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H495" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I495" t="str">
+        <f t="shared" si="102"/>
+        <v>messageBlocks.add(new PayloadBlock(1045, 1063, 19, "Radio status", "radio", "u", "See [IALA] for details."));</v>
+      </c>
+      <c r="J495" s="4"/>
+      <c r="K495" s="4"/>
+      <c r="L495" s="4"/>
+      <c r="M495" s="4"/>
+    </row>
+    <row r="496" spans="1:13">
+      <c r="A496" s="4"/>
+      <c r="D496" s="21">
+        <f>SUM(D484:D495)</f>
+        <v>1064</v>
+      </c>
+      <c r="E496" s="4"/>
+      <c r="F496" s="4"/>
+      <c r="G496" s="4"/>
+      <c r="H496" s="4"/>
+      <c r="J496" s="4"/>
+      <c r="K496" s="4"/>
+      <c r="L496" s="4"/>
+      <c r="M496" s="4"/>
+    </row>
+    <row r="497" spans="1:13">
+      <c r="A497" s="4"/>
+      <c r="D497" s="21"/>
+      <c r="E497" s="4"/>
+      <c r="F497" s="4"/>
+      <c r="G497" s="4"/>
+      <c r="H497" s="4"/>
+      <c r="J497" s="4"/>
+      <c r="K497" s="4"/>
+      <c r="L497" s="4"/>
+      <c r="M497" s="4"/>
+    </row>
+    <row r="498" spans="1:13">
+      <c r="A498" s="4"/>
+      <c r="C498" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E498" s="4"/>
+      <c r="F498" s="4"/>
+      <c r="G498" s="4"/>
+      <c r="H498" s="4"/>
+      <c r="I498" s="4"/>
+      <c r="J498" s="4"/>
+      <c r="K498" s="4"/>
+      <c r="L498" s="4"/>
+      <c r="M498" s="4"/>
+    </row>
+    <row r="499" spans="1:13">
+      <c r="A499" s="4"/>
+      <c r="B499" s="1">
+        <v>0</v>
+      </c>
+      <c r="C499" s="1">
+        <f t="shared" ref="C499:C510" si="104">B499+D499-1</f>
+        <v>5</v>
+      </c>
+      <c r="D499">
+        <v>6</v>
+      </c>
+      <c r="E499" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F499" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G499" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H499" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="I499" t="str">
+        <f t="shared" ref="I499:I510" si="105">"messageBlocks.add(new PayloadBlock("&amp;B499&amp;", "&amp;C499&amp;", "&amp;D499&amp;", "&amp;CHAR(34)&amp;E499&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F499&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G499&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H499&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 26"));</v>
+      </c>
+      <c r="J499" s="4"/>
+      <c r="K499" s="4"/>
+      <c r="L499" s="4"/>
+      <c r="M499" s="4"/>
+    </row>
+    <row r="500" spans="1:13">
+      <c r="A500" s="4"/>
+      <c r="B500" s="1">
+        <f t="shared" ref="B500:B510" si="106">B499+D499</f>
+        <v>6</v>
+      </c>
+      <c r="C500" s="1">
+        <f t="shared" si="104"/>
+        <v>7</v>
+      </c>
+      <c r="D500">
+        <v>2</v>
+      </c>
+      <c r="E500" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F500" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G500" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H500" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="I500" t="str">
+        <f t="shared" si="105"/>
+        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
+      </c>
+      <c r="J500" s="4"/>
+      <c r="K500" s="4"/>
+      <c r="L500" s="4"/>
+      <c r="M500" s="4"/>
+    </row>
+    <row r="501" spans="1:13">
+      <c r="A501" s="4"/>
+      <c r="B501" s="1">
+        <f t="shared" si="106"/>
+        <v>8</v>
+      </c>
+      <c r="C501" s="1">
+        <f t="shared" si="104"/>
+        <v>37</v>
+      </c>
+      <c r="D501">
+        <v>30</v>
+      </c>
+      <c r="E501" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F501" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G501" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H501" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I501" t="str">
+        <f t="shared" si="105"/>
+        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 digits"));</v>
+      </c>
+      <c r="J501" s="4"/>
+      <c r="K501" s="4"/>
+      <c r="L501" s="4"/>
+      <c r="M501" s="4"/>
+    </row>
+    <row r="502" spans="1:13">
+      <c r="A502" s="4"/>
+      <c r="B502" s="1">
+        <f t="shared" si="106"/>
+        <v>38</v>
+      </c>
+      <c r="C502" s="1">
+        <f t="shared" si="104"/>
+        <v>38</v>
+      </c>
+      <c r="D502">
+        <v>1</v>
+      </c>
+      <c r="E502" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="F502" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="G502" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H502" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="I502" t="str">
+        <f t="shared" si="105"/>
+        <v>messageBlocks.add(new PayloadBlock(38, 38, 1, "Destination indicator", "addressed", "b", "0=broadcast, 1=addressed."));</v>
+      </c>
+      <c r="J502" s="4"/>
+      <c r="K502" s="4"/>
+      <c r="L502" s="4"/>
+      <c r="M502" s="4"/>
+    </row>
+    <row r="503" spans="1:13">
+      <c r="A503" s="4"/>
+      <c r="B503" s="1">
+        <f t="shared" si="106"/>
+        <v>39</v>
+      </c>
+      <c r="C503" s="1">
+        <f t="shared" si="104"/>
+        <v>39</v>
+      </c>
+      <c r="D503">
+        <v>1</v>
+      </c>
+      <c r="E503" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="F503" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="G503" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H503" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I503" t="str">
+        <f t="shared" si="105"/>
+        <v>messageBlocks.add(new PayloadBlock(39, 39, 1, "Binary data flag", "structured", "b", "See below"));</v>
+      </c>
+      <c r="J503" s="4"/>
+      <c r="K503" s="4"/>
+      <c r="L503" s="4"/>
+      <c r="M503" s="4"/>
+    </row>
+    <row r="504" spans="1:13">
+      <c r="A504" s="4"/>
+      <c r="B504" s="1">
+        <f t="shared" si="106"/>
+        <v>40</v>
+      </c>
+      <c r="C504" s="1">
+        <f t="shared" si="104"/>
+        <v>39</v>
+      </c>
+      <c r="D504">
+        <v>0</v>
+      </c>
+      <c r="E504" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F504" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G504" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H504" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="I504" s="20" t="str">
+        <f t="shared" si="105"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 39, 0, "Destination MMSI", "dest_mmsi", "u", "Message destination"));</v>
+      </c>
+      <c r="J504" s="4"/>
+      <c r="K504" s="4"/>
+      <c r="L504" s="4"/>
+      <c r="M504" s="4"/>
+    </row>
+    <row r="505" spans="1:13">
+      <c r="A505" s="4"/>
+      <c r="B505" s="1">
+        <f t="shared" si="106"/>
+        <v>40</v>
+      </c>
+      <c r="C505" s="1">
+        <f t="shared" si="104"/>
+        <v>39</v>
+      </c>
+      <c r="D505">
+        <v>0</v>
+      </c>
+      <c r="E505" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F505" s="4"/>
+      <c r="G505" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H505" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="I505" s="20" t="str">
+        <f t="shared" si="105"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 39, 0, "Spare", "", "x", "Byte Alignment"));</v>
+      </c>
+      <c r="J505" s="4"/>
+      <c r="K505" s="4"/>
+      <c r="L505" s="4"/>
+      <c r="M505" s="4"/>
+    </row>
+    <row r="506" spans="1:13">
+      <c r="A506" s="4"/>
+      <c r="B506" s="1">
+        <f t="shared" si="106"/>
+        <v>40</v>
+      </c>
+      <c r="C506" s="1">
+        <f t="shared" si="104"/>
+        <v>39</v>
+      </c>
+      <c r="D506">
+        <v>0</v>
+      </c>
+      <c r="E506" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F506" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G506" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H506" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I506" s="20" t="str">
+        <f t="shared" si="105"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 39, 0, "Application ID", "app_id", "u", "Unsigned integer"));</v>
+      </c>
+      <c r="J506" s="4"/>
+      <c r="K506" s="4"/>
+      <c r="L506" s="4"/>
+      <c r="M506" s="4"/>
+    </row>
+    <row r="507" spans="1:13">
+      <c r="A507" s="4"/>
+      <c r="B507" s="1">
+        <f t="shared" si="106"/>
+        <v>40</v>
+      </c>
+      <c r="C507" s="1">
+        <f t="shared" si="104"/>
+        <v>1039</v>
+      </c>
+      <c r="D507">
+        <v>1000</v>
+      </c>
+      <c r="E507" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F507" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G507" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H507" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="I507" s="20" t="str">
+        <f t="shared" si="105"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 1039, 1000, "Data", "data", "d", "Binary data"));</v>
+      </c>
+      <c r="J507" s="4"/>
+      <c r="K507" s="4"/>
+      <c r="L507" s="4"/>
+      <c r="M507" s="4"/>
+    </row>
+    <row r="508" spans="1:13">
+      <c r="A508" s="4"/>
+      <c r="B508" s="1">
+        <f t="shared" si="106"/>
+        <v>1040</v>
+      </c>
+      <c r="C508" s="1">
+        <f t="shared" si="104"/>
+        <v>1043</v>
+      </c>
+      <c r="D508">
+        <v>4</v>
+      </c>
+      <c r="E508" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F508" s="4"/>
+      <c r="G508" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H508" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="I508" s="24" t="str">
+        <f t="shared" si="105"/>
+        <v>messageBlocks.add(new PayloadBlock(1040, 1043, 4, "Spare", "", "x", "Byte Alignment"));</v>
+      </c>
+      <c r="J508" s="4"/>
+      <c r="K508" s="4"/>
+      <c r="L508" s="4"/>
+      <c r="M508" s="4"/>
+    </row>
+    <row r="509" spans="1:13">
+      <c r="A509" s="4"/>
+      <c r="B509" s="1">
+        <f t="shared" si="106"/>
+        <v>1044</v>
+      </c>
+      <c r="C509" s="1">
+        <f t="shared" si="104"/>
+        <v>1044</v>
+      </c>
+      <c r="D509">
+        <v>1</v>
+      </c>
+      <c r="E509" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F509" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="G509" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H509" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="I509" t="str">
+        <f t="shared" si="105"/>
+        <v>messageBlocks.add(new PayloadBlock(1044, 1044, 1, "Comm State Selector", "commflag", "d", "Communication state selector flag"));</v>
+      </c>
+      <c r="J509" s="4"/>
+      <c r="K509" s="4"/>
+      <c r="L509" s="4"/>
+      <c r="M509" s="4"/>
+    </row>
+    <row r="510" spans="1:13">
+      <c r="A510" s="4"/>
+      <c r="B510" s="1">
+        <f t="shared" si="106"/>
+        <v>1045</v>
+      </c>
+      <c r="C510" s="1">
+        <f t="shared" si="104"/>
+        <v>1063</v>
+      </c>
+      <c r="D510">
+        <v>19</v>
+      </c>
+      <c r="E510" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F510" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G510" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H510" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I510" t="str">
+        <f t="shared" si="105"/>
+        <v>messageBlocks.add(new PayloadBlock(1045, 1063, 19, "Radio status", "radio", "u", "See [IALA] for details."));</v>
+      </c>
+      <c r="J510" s="4"/>
+      <c r="K510" s="4"/>
+      <c r="L510" s="4"/>
+      <c r="M510" s="4"/>
+    </row>
+    <row r="511" spans="1:13">
+      <c r="A511" s="4"/>
+      <c r="D511" s="21">
+        <f>SUM(D499:D510)</f>
+        <v>1064</v>
+      </c>
+      <c r="E511" s="4"/>
+      <c r="F511" s="4"/>
+      <c r="G511" s="4"/>
+      <c r="H511" s="4"/>
+      <c r="J511" s="4"/>
+      <c r="K511" s="4"/>
+      <c r="L511" s="4"/>
+      <c r="M511" s="4"/>
+    </row>
+    <row r="512" spans="1:13">
+      <c r="A512" s="4"/>
+      <c r="D512" s="21"/>
+      <c r="E512" s="4"/>
+      <c r="F512" s="4"/>
+      <c r="G512" s="4"/>
+      <c r="H512" s="4"/>
+      <c r="J512" s="4"/>
+      <c r="K512" s="4"/>
+      <c r="L512" s="4"/>
+      <c r="M512" s="4"/>
+    </row>
+    <row r="513" spans="1:13">
+      <c r="A513" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B513" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="E513" s="4"/>
+      <c r="F513" s="4"/>
+      <c r="G513" s="4"/>
+      <c r="H513" s="4"/>
+      <c r="I513" s="4"/>
+      <c r="J513" s="4"/>
+      <c r="K513" s="4"/>
+      <c r="L513" s="4"/>
+      <c r="M513" s="4"/>
+    </row>
+    <row r="514" spans="1:13">
+      <c r="A514" s="4"/>
+      <c r="B514" s="1">
+        <v>0</v>
+      </c>
+      <c r="C514" s="1">
+        <f t="shared" ref="C514:C525" si="107">B514+D514-1</f>
+        <v>5</v>
+      </c>
+      <c r="D514">
+        <v>6</v>
+      </c>
+      <c r="E514" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F514" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G514" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H514" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="I514" t="str">
+        <f t="shared" ref="I514:I525" si="108">"messageBlocks.add(new PayloadBlock("&amp;B514&amp;", "&amp;C514&amp;", "&amp;D514&amp;", "&amp;CHAR(34)&amp;E514&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F514&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G514&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H514&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 27"));</v>
+      </c>
+      <c r="J514" s="4"/>
+      <c r="K514" s="4"/>
+      <c r="L514" s="4"/>
+      <c r="M514" s="4"/>
+    </row>
+    <row r="515" spans="1:13">
+      <c r="A515" s="4"/>
+      <c r="B515" s="1">
+        <f t="shared" ref="B515:B525" si="109">B514+D514</f>
+        <v>6</v>
+      </c>
+      <c r="C515" s="1">
+        <f t="shared" si="107"/>
+        <v>7</v>
+      </c>
+      <c r="D515">
+        <v>2</v>
+      </c>
+      <c r="E515" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F515" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G515" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H515" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="I515" t="str">
+        <f t="shared" si="108"/>
+        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
+      </c>
+      <c r="J515" s="4"/>
+      <c r="K515" s="4"/>
+      <c r="L515" s="4"/>
+      <c r="M515" s="4"/>
+    </row>
+    <row r="516" spans="1:13">
+      <c r="A516" s="4"/>
+      <c r="B516" s="1">
+        <f t="shared" si="109"/>
+        <v>8</v>
+      </c>
+      <c r="C516" s="1">
+        <f t="shared" si="107"/>
+        <v>37</v>
+      </c>
+      <c r="D516">
+        <v>30</v>
+      </c>
+      <c r="E516" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F516" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G516" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H516" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I516" t="str">
+        <f t="shared" si="108"/>
+        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 decimal digits"));</v>
+      </c>
+      <c r="J516" s="4"/>
+      <c r="K516" s="4"/>
+      <c r="L516" s="4"/>
+      <c r="M516" s="4"/>
+    </row>
+    <row r="517" spans="1:13">
+      <c r="A517" s="4"/>
+      <c r="B517" s="1">
+        <f t="shared" si="109"/>
+        <v>38</v>
+      </c>
+      <c r="C517" s="1">
+        <f t="shared" si="107"/>
+        <v>38</v>
+      </c>
+      <c r="D517">
+        <v>1</v>
+      </c>
+      <c r="E517" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F517" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G517" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H517" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="I517" t="str">
+        <f t="shared" si="108"/>
+        <v>messageBlocks.add(new PayloadBlock(38, 38, 1, "Position Accuracy", "accuracy", "b", "See Common Navigation Block"));</v>
+      </c>
+      <c r="J517" s="4"/>
+      <c r="K517" s="4"/>
+      <c r="L517" s="4"/>
+      <c r="M517" s="4"/>
+    </row>
+    <row r="518" spans="1:13">
+      <c r="A518" s="4"/>
+      <c r="B518" s="1">
+        <f t="shared" si="109"/>
+        <v>39</v>
+      </c>
+      <c r="C518" s="1">
+        <f t="shared" si="107"/>
+        <v>39</v>
+      </c>
+      <c r="D518">
+        <v>1</v>
+      </c>
+      <c r="E518" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F518" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G518" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H518" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="I518" t="str">
+        <f t="shared" si="108"/>
+        <v>messageBlocks.add(new PayloadBlock(39, 39, 1, "RAIM flag", "raim", "b", "See Common Navigation Block"));</v>
+      </c>
+      <c r="J518" s="4"/>
+      <c r="K518" s="4"/>
+      <c r="L518" s="4"/>
+      <c r="M518" s="4"/>
+    </row>
+    <row r="519" spans="1:13">
+      <c r="A519" s="4"/>
+      <c r="B519" s="1">
+        <f t="shared" si="109"/>
+        <v>40</v>
+      </c>
+      <c r="C519" s="1">
+        <f t="shared" si="107"/>
+        <v>43</v>
+      </c>
+      <c r="D519">
+        <v>4</v>
+      </c>
+      <c r="E519" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F519" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G519" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H519" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="I519" t="str">
+        <f t="shared" si="108"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 43, 4, "Navigation Status", "status", "e", "See Common Navigation Block"));</v>
+      </c>
+      <c r="J519" s="4"/>
+      <c r="K519" s="4"/>
+      <c r="L519" s="4"/>
+      <c r="M519" s="4"/>
+    </row>
+    <row r="520" spans="1:13">
+      <c r="A520" s="4"/>
+      <c r="B520" s="1">
+        <f t="shared" si="109"/>
+        <v>44</v>
+      </c>
+      <c r="C520" s="1">
+        <f t="shared" si="107"/>
+        <v>61</v>
+      </c>
+      <c r="D520">
+        <v>18</v>
+      </c>
+      <c r="E520" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F520" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G520" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H520" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="I520" t="str">
+        <f t="shared" si="108"/>
+        <v>messageBlocks.add(new PayloadBlock(44, 61, 18, "Longitude", "lon", "I4", "minutes/10 East positive, West negative 181000 = N/A (default)"));</v>
+      </c>
+      <c r="J520" s="4"/>
+      <c r="K520" s="4"/>
+      <c r="L520" s="4"/>
+      <c r="M520" s="4"/>
+    </row>
+    <row r="521" spans="1:13">
+      <c r="A521" s="4"/>
+      <c r="B521" s="1">
+        <f t="shared" si="109"/>
+        <v>62</v>
+      </c>
+      <c r="C521" s="1">
+        <f t="shared" si="107"/>
+        <v>78</v>
+      </c>
+      <c r="D521">
+        <v>17</v>
+      </c>
+      <c r="E521" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F521" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G521" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H521" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="I521" t="str">
+        <f t="shared" si="108"/>
+        <v>messageBlocks.add(new PayloadBlock(62, 78, 17, "Latitude", "lat", "I4", "minutes/10 North positive, South negative 91000 = N/A (default)"));</v>
+      </c>
+      <c r="J521" s="4"/>
+      <c r="K521" s="4"/>
+      <c r="L521" s="4"/>
+      <c r="M521" s="4"/>
+    </row>
+    <row r="522" spans="1:13">
+      <c r="A522" s="4"/>
+      <c r="B522" s="1">
+        <f t="shared" si="109"/>
+        <v>79</v>
+      </c>
+      <c r="C522" s="1">
+        <f t="shared" si="107"/>
+        <v>84</v>
+      </c>
+      <c r="D522">
+        <v>6</v>
+      </c>
+      <c r="E522" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F522" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G522" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H522" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="I522" t="str">
+        <f t="shared" si="108"/>
+        <v>messageBlocks.add(new PayloadBlock(79, 84, 6, "Speed Over Ground", "speed", "u", "Knots (0-62); 63 = N/A (default)"));</v>
+      </c>
+      <c r="J522" s="4"/>
+      <c r="K522" s="4"/>
+      <c r="L522" s="4"/>
+      <c r="M522" s="4"/>
+    </row>
+    <row r="523" spans="1:13">
+      <c r="A523" s="4"/>
+      <c r="B523" s="1">
+        <f t="shared" si="109"/>
+        <v>85</v>
+      </c>
+      <c r="C523" s="1">
+        <f t="shared" si="107"/>
+        <v>93</v>
+      </c>
+      <c r="D523">
+        <v>9</v>
+      </c>
+      <c r="E523" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F523" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G523" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H523" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I523" t="str">
+        <f t="shared" si="108"/>
+        <v>messageBlocks.add(new PayloadBlock(85, 93, 9, "Course Over Ground", "course", "u", "0 to 359 degrees, 511 = not available."));</v>
+      </c>
+      <c r="J523" s="4"/>
+      <c r="K523" s="4"/>
+      <c r="L523" s="4"/>
+      <c r="M523" s="4"/>
+    </row>
+    <row r="524" spans="1:13">
+      <c r="A524" s="4"/>
+      <c r="B524" s="1">
+        <f t="shared" si="109"/>
+        <v>94</v>
+      </c>
+      <c r="C524" s="1">
+        <f t="shared" si="107"/>
+        <v>94</v>
+      </c>
+      <c r="D524">
+        <v>1</v>
+      </c>
+      <c r="E524" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="F524" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="G524" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H524" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="I524" t="str">
+        <f t="shared" si="108"/>
+        <v>messageBlocks.add(new PayloadBlock(94, 94, 1, "GNSS Position status", "gnss", "u", "0 = current GNSS position 1 = not GNSS position (default)"));</v>
+      </c>
+      <c r="J524" s="4"/>
+      <c r="K524" s="4"/>
+      <c r="L524" s="4"/>
+      <c r="M524" s="4"/>
+    </row>
+    <row r="525" spans="1:13">
+      <c r="A525" s="4"/>
+      <c r="B525" s="1">
+        <f t="shared" si="109"/>
+        <v>95</v>
+      </c>
+      <c r="C525" s="1">
+        <f t="shared" si="107"/>
+        <v>95</v>
+      </c>
+      <c r="D525">
+        <v>1</v>
+      </c>
+      <c r="E525" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F525" s="4"/>
+      <c r="G525" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H525" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I525" t="str">
+        <f t="shared" si="108"/>
+        <v>messageBlocks.add(new PayloadBlock(95, 95, 1, "Spare", "", "x", "Not used"));</v>
+      </c>
+      <c r="J525" s="4"/>
+      <c r="K525" s="4"/>
+      <c r="L525" s="4"/>
+      <c r="M525" s="4"/>
+    </row>
+    <row r="526" spans="1:13">
+      <c r="A526" s="4"/>
+      <c r="D526">
+        <f>SUM(D514:D525)</f>
+        <v>96</v>
+      </c>
+      <c r="E526" s="4"/>
+      <c r="F526" s="4"/>
+      <c r="G526" s="4"/>
+      <c r="H526" s="4"/>
+      <c r="J526" s="4"/>
+      <c r="K526" s="4"/>
+      <c r="L526" s="4"/>
+      <c r="M526" s="4"/>
+    </row>
+    <row r="527" spans="1:13">
+      <c r="A527" s="4"/>
+      <c r="E527" s="4"/>
+      <c r="F527" s="4"/>
+      <c r="G527" s="4"/>
+      <c r="H527" s="4"/>
+      <c r="I527" s="4"/>
+      <c r="J527" s="4"/>
+      <c r="K527" s="4"/>
+      <c r="L527" s="4"/>
+      <c r="M527" s="4"/>
+    </row>
+    <row r="528" spans="1:13">
+      <c r="A528" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="E528" s="4"/>
+      <c r="F528" s="4"/>
+      <c r="G528" s="4"/>
+      <c r="H528" s="4"/>
+      <c r="I528" s="4"/>
+      <c r="J528" s="4"/>
+      <c r="K528" s="4"/>
+      <c r="L528" s="4"/>
+      <c r="M528" s="4"/>
+    </row>
+    <row r="529" spans="1:13">
+      <c r="A529" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D529" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E529" s="4"/>
+      <c r="F529" s="4"/>
+      <c r="G529" s="4"/>
+      <c r="H529" s="4"/>
+      <c r="I529" s="4"/>
+      <c r="J529" s="4"/>
+      <c r="K529" s="4"/>
+      <c r="L529" s="4"/>
+      <c r="M529" s="4"/>
+    </row>
+    <row r="530" spans="1:13">
+      <c r="A530" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D530" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E530" s="4"/>
+      <c r="F530" s="4"/>
+      <c r="G530" s="4"/>
+      <c r="H530" s="4"/>
+      <c r="I530" s="4"/>
+      <c r="J530" s="4"/>
+      <c r="K530" s="4"/>
+      <c r="L530" s="4"/>
+      <c r="M530" s="4"/>
+    </row>
+    <row r="531" spans="1:13">
+      <c r="A531" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D531" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E531" s="4"/>
+      <c r="F531" s="4"/>
+      <c r="G531" s="4"/>
+      <c r="H531" s="4"/>
+      <c r="I531" s="4"/>
+      <c r="J531" s="4"/>
+      <c r="K531" s="4"/>
+      <c r="L531" s="4"/>
+      <c r="M531" s="4"/>
+    </row>
+    <row r="532" spans="1:13">
+      <c r="A532" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D532" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E532" s="4"/>
+      <c r="F532" s="4"/>
+      <c r="G532" s="4"/>
+      <c r="H532" s="4"/>
+      <c r="I532" s="4"/>
+      <c r="J532" s="4"/>
+      <c r="K532" s="4"/>
+      <c r="L532" s="4"/>
+      <c r="M532" s="4"/>
+    </row>
+    <row r="533" spans="1:13">
+      <c r="A533" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D533" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E533" s="4"/>
+      <c r="F533" s="4"/>
+      <c r="G533" s="4"/>
+      <c r="H533" s="4"/>
+      <c r="I533" s="4"/>
+      <c r="J533" s="4"/>
+      <c r="K533" s="4"/>
+      <c r="L533" s="4"/>
+      <c r="M533" s="4"/>
+    </row>
+    <row r="534" spans="1:13">
+      <c r="A534" s="4"/>
+      <c r="B534" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D534" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E534" s="4"/>
+      <c r="F534" s="4"/>
+      <c r="G534" s="4"/>
+      <c r="H534" s="4"/>
+      <c r="I534" s="4"/>
+      <c r="J534" s="4"/>
+      <c r="K534" s="4"/>
+      <c r="L534" s="4"/>
+      <c r="M534" s="4"/>
+    </row>
+    <row r="535" spans="1:13">
+      <c r="A535" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D535" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E535" s="4"/>
+      <c r="F535" s="4"/>
+      <c r="G535" s="4"/>
+      <c r="H535" s="4"/>
+      <c r="I535" s="4"/>
+      <c r="J535" s="4"/>
+      <c r="K535" s="4"/>
+      <c r="L535" s="4"/>
+      <c r="M535" s="4"/>
+    </row>
+    <row r="536" spans="1:13">
+      <c r="A536" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D536" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E536" s="4"/>
+      <c r="F536" s="4"/>
+      <c r="G536" s="4"/>
+      <c r="H536" s="4"/>
+      <c r="I536" s="4"/>
+      <c r="J536" s="4"/>
+      <c r="K536" s="4"/>
+      <c r="L536" s="4"/>
+      <c r="M536" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -16352,15 +18794,15 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B44" si="0">LEFT(A2,FIND("-",A2)-1)</f>
@@ -16392,7 +18834,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
@@ -16403,7 +18845,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>14</v>
@@ -16424,7 +18866,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -16435,7 +18877,7 @@
         <v>37</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>149</v>
@@ -16456,7 +18898,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -16467,7 +18909,7 @@
         <v>39</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>52</v>
@@ -16485,7 +18927,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -16499,7 +18941,7 @@
         <v>215</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>159</v>
@@ -16508,7 +18950,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="2"/>
@@ -16517,7 +18959,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -16531,7 +18973,7 @@
         <v>146</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>162</v>
@@ -16540,7 +18982,7 @@
         <v>12</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="2"/>
@@ -16549,7 +18991,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -16572,7 +19014,7 @@
         <v>26</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="2"/>
@@ -16581,7 +19023,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -16592,7 +19034,7 @@
         <v>104</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>34</v>
@@ -16604,7 +19046,7 @@
         <v>26</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="2"/>
@@ -16613,7 +19055,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="4" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -16636,7 +19078,7 @@
         <v>12</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="2"/>
@@ -16645,7 +19087,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -16668,7 +19110,7 @@
         <v>12</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="2"/>
@@ -16677,7 +19119,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="4" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
@@ -16700,7 +19142,7 @@
         <v>12</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="2"/>
@@ -16709,7 +19151,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -16723,16 +19165,16 @@
         <v>168</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="2"/>
@@ -16741,7 +19183,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
@@ -16755,16 +19197,16 @@
         <v>168</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="2"/>
@@ -16773,7 +19215,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="4" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
@@ -16787,16 +19229,16 @@
         <v>191</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="2"/>
@@ -16805,7 +19247,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
@@ -16819,16 +19261,16 @@
         <v>191</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="2"/>
@@ -16837,7 +19279,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
@@ -16851,16 +19293,16 @@
         <v>218</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="2"/>
@@ -16869,7 +19311,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
@@ -16883,16 +19325,16 @@
         <v>168</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="2"/>
@@ -16901,7 +19343,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
@@ -16915,16 +19357,16 @@
         <v>215</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="2"/>
@@ -16933,7 +19375,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
@@ -16947,16 +19389,16 @@
         <v>191</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="2"/>
@@ -16965,7 +19407,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
@@ -16976,19 +19418,19 @@
         <v>191</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="2"/>
@@ -16997,7 +19439,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
@@ -17011,16 +19453,16 @@
         <v>187</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="2"/>
@@ -17029,7 +19471,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
@@ -17043,16 +19485,16 @@
         <v>191</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>265</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="2"/>
@@ -17061,7 +19503,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
@@ -17072,19 +19514,19 @@
         <v>210</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="2"/>
@@ -17093,7 +19535,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="4" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
@@ -17107,16 +19549,16 @@
         <v>187</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="2"/>
@@ -17125,7 +19567,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="4" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
@@ -17139,16 +19581,16 @@
         <v>191</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="2"/>
@@ -17157,7 +19599,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="4" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
@@ -17171,16 +19613,16 @@
         <v>187</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="2"/>
@@ -17189,7 +19631,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="4" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
@@ -17203,16 +19645,16 @@
         <v>191</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="2"/>
@@ -17221,7 +19663,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="4" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
@@ -17235,16 +19677,16 @@
         <v>96</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="2"/>
@@ -17253,7 +19695,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
@@ -17267,16 +19709,16 @@
         <v>187</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="2"/>
@@ -17285,7 +19727,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="4" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
@@ -17299,16 +19741,16 @@
         <v>191</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="2"/>
@@ -17317,7 +19759,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="4" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
@@ -17331,16 +19773,16 @@
         <v>96</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="2"/>
@@ -17349,7 +19791,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="4" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
@@ -17363,16 +19805,16 @@
         <v>187</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="2"/>
@@ -17381,7 +19823,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="4" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
@@ -17395,16 +19837,16 @@
         <v>146</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="2"/>
@@ -17413,7 +19855,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="4" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
@@ -17427,16 +19869,16 @@
         <v>191</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="2"/>
@@ -17445,7 +19887,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="4" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
@@ -17459,16 +19901,16 @@
         <v>187</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="2"/>
@@ -17477,7 +19919,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="4" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
@@ -17491,16 +19933,16 @@
         <v>146</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="2"/>
@@ -17509,7 +19951,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="4" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
@@ -17523,16 +19965,16 @@
         <v>191</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="2"/>
@@ -17541,7 +19983,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="4" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
@@ -17555,16 +19997,16 @@
         <v>68</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="2"/>
@@ -17573,7 +20015,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="4" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
@@ -17587,16 +20029,16 @@
         <v>215</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="2"/>
@@ -17605,7 +20047,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="4" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
@@ -17616,19 +20058,19 @@
         <v>334</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="2"/>
@@ -17637,7 +20079,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="4" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
@@ -17651,16 +20093,16 @@
         <v>191</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="2"/>
@@ -17669,7 +20111,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="4" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
@@ -17680,19 +20122,19 @@
         <v>345</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="2"/>
@@ -17701,7 +20143,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="4" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="0"/>
@@ -17752,7 +20194,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="E1" t="str">
         <f t="shared" ref="E1:E32" si="0">"put("&amp;A1&amp;","&amp;CHAR(34)&amp;B1&amp;CHAR(34)&amp;");"</f>
@@ -17764,7 +20206,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="E2" t="str">
         <f t="shared" si="0"/>
@@ -17776,7 +20218,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" si="0"/>
@@ -17788,7 +20230,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
@@ -17800,7 +20242,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
@@ -17812,7 +20254,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
@@ -17824,7 +20266,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
@@ -17836,7 +20278,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
@@ -17848,7 +20290,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
@@ -17860,7 +20302,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
@@ -17872,7 +20314,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
@@ -17920,7 +20362,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
@@ -17932,7 +20374,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
@@ -17992,7 +20434,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
@@ -18004,7 +20446,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
@@ -18016,7 +20458,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
@@ -18028,7 +20470,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
@@ -18040,7 +20482,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
@@ -18052,7 +20494,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
@@ -18064,7 +20506,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
@@ -18076,7 +20518,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
@@ -18088,7 +20530,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
@@ -18100,7 +20542,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
@@ -18112,7 +20554,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
@@ -18124,7 +20566,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
@@ -18136,7 +20578,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" ref="E33:E64" si="1">"put("&amp;A33&amp;","&amp;CHAR(34)&amp;B33&amp;CHAR(34)&amp;");"</f>
@@ -18148,7 +20590,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="1"/>
@@ -18160,7 +20602,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="1"/>
@@ -18172,7 +20614,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="1"/>
@@ -18184,7 +20626,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="1"/>
@@ -18196,7 +20638,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="1"/>
@@ -18232,7 +20674,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="1"/>
@@ -18244,7 +20686,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="1"/>
@@ -18256,7 +20698,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="1"/>
@@ -18268,7 +20710,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="1"/>
@@ -18280,7 +20722,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="1"/>
@@ -18292,7 +20734,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="1"/>
@@ -18304,7 +20746,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="1"/>
@@ -18316,7 +20758,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="1"/>
@@ -18328,7 +20770,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="1"/>
@@ -18340,7 +20782,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="1"/>
@@ -18352,7 +20794,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="1"/>
@@ -18364,7 +20806,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="1"/>
@@ -18376,7 +20818,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="1"/>
@@ -18388,7 +20830,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="1"/>
@@ -18400,7 +20842,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="1"/>
@@ -18412,7 +20854,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="1"/>
@@ -18424,7 +20866,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="1"/>
@@ -18436,7 +20878,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="1"/>
@@ -18448,7 +20890,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="1"/>
@@ -18460,7 +20902,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="1"/>
@@ -18472,7 +20914,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="1"/>
@@ -18484,7 +20926,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="1"/>
@@ -18496,7 +20938,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="1"/>
@@ -18508,7 +20950,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="1"/>
@@ -18520,7 +20962,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" ref="E65:E100" si="2">"put("&amp;A65&amp;","&amp;CHAR(34)&amp;B65&amp;CHAR(34)&amp;");"</f>
@@ -18532,7 +20974,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="2"/>
@@ -18544,7 +20986,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="2"/>
@@ -18556,7 +20998,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="2"/>
@@ -18568,7 +21010,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" si="2"/>
@@ -18580,7 +21022,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="2"/>
@@ -18592,7 +21034,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="2"/>
@@ -18604,7 +21046,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" si="2"/>
@@ -18616,7 +21058,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="2"/>
@@ -18628,7 +21070,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="2"/>
@@ -18640,7 +21082,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" si="2"/>
@@ -18652,7 +21094,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" si="2"/>
@@ -18664,7 +21106,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="2"/>
@@ -18676,7 +21118,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" si="2"/>
@@ -18688,7 +21130,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="2"/>
@@ -18700,7 +21142,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" si="2"/>
@@ -18712,7 +21154,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="E81" t="str">
         <f t="shared" si="2"/>
@@ -18724,7 +21166,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="2"/>
@@ -18736,7 +21178,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="E83" t="str">
         <f t="shared" si="2"/>
@@ -18748,7 +21190,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="E84" t="str">
         <f t="shared" si="2"/>
@@ -18760,7 +21202,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="E85" t="str">
         <f t="shared" si="2"/>
@@ -18772,7 +21214,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" si="2"/>
@@ -18784,7 +21226,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" si="2"/>
@@ -18796,7 +21238,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="2"/>
@@ -18808,7 +21250,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" si="2"/>
@@ -18820,7 +21262,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="E90" t="str">
         <f t="shared" si="2"/>
@@ -18832,7 +21274,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" si="2"/>
@@ -18844,7 +21286,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="E92" t="str">
         <f t="shared" si="2"/>
@@ -18856,7 +21298,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" si="2"/>
@@ -18868,7 +21310,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" si="2"/>
@@ -18880,7 +21322,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="E95" t="str">
         <f t="shared" si="2"/>
@@ -18892,7 +21334,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="E96" t="str">
         <f t="shared" si="2"/>
@@ -18904,7 +21346,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="2"/>
@@ -18916,7 +21358,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" si="2"/>
@@ -18928,7 +21370,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" si="2"/>
@@ -18940,7 +21382,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="2"/>
@@ -18974,7 +21416,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="D1" s="14">
         <v>10000</v>
@@ -18983,7 +21425,7 @@
         <v>16</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="G1" s="14">
         <v>100000</v>
@@ -18992,7 +21434,7 @@
         <v>32</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="J1" s="14">
         <v>110000</v>
@@ -19001,7 +21443,7 @@
         <v>48</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -19012,7 +21454,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="D2" s="16">
         <v>10001</v>
@@ -19021,7 +21463,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="G2" s="16">
         <v>100001</v>
@@ -19030,7 +21472,7 @@
         <v>33</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="J2" s="16">
         <v>110001</v>
@@ -19039,7 +21481,7 @@
         <v>49</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -19050,7 +21492,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="D3" s="16">
         <v>10010</v>
@@ -19059,7 +21501,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="G3" s="16">
         <v>100010</v>
@@ -19068,7 +21510,7 @@
         <v>34</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="J3" s="16">
         <v>110010</v>
@@ -19077,7 +21519,7 @@
         <v>50</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -19088,7 +21530,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="D4" s="16">
         <v>10011</v>
@@ -19097,7 +21539,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="G4" s="16">
         <v>100011</v>
@@ -19106,7 +21548,7 @@
         <v>35</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J4" s="16">
         <v>110011</v>
@@ -19115,7 +21557,7 @@
         <v>51</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -19126,7 +21568,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="D5" s="16">
         <v>10100</v>
@@ -19135,7 +21577,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="G5" s="16">
         <v>100100</v>
@@ -19144,7 +21586,7 @@
         <v>36</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="J5" s="16">
         <v>110100</v>
@@ -19153,7 +21595,7 @@
         <v>52</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -19164,7 +21606,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="D6" s="16">
         <v>10101</v>
@@ -19173,7 +21615,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="G6" s="16">
         <v>100101</v>
@@ -19182,7 +21624,7 @@
         <v>37</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="J6" s="16">
         <v>110101</v>
@@ -19191,7 +21633,7 @@
         <v>53</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -19202,7 +21644,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="D7" s="16">
         <v>10110</v>
@@ -19211,7 +21653,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="G7" s="16">
         <v>100110</v>
@@ -19220,7 +21662,7 @@
         <v>38</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="J7" s="16">
         <v>110110</v>
@@ -19229,7 +21671,7 @@
         <v>54</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -19240,7 +21682,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="D8" s="16">
         <v>10111</v>
@@ -19249,7 +21691,7 @@
         <v>23</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="G8" s="16">
         <v>100111</v>
@@ -19258,7 +21700,7 @@
         <v>39</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="J8" s="16">
         <v>110111</v>
@@ -19267,7 +21709,7 @@
         <v>55</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -19278,7 +21720,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="D9" s="16">
         <v>11000</v>
@@ -19287,7 +21729,7 @@
         <v>24</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="G9" s="16">
         <v>101000</v>
@@ -19296,7 +21738,7 @@
         <v>40</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="J9" s="16">
         <v>111000</v>
@@ -19305,7 +21747,7 @@
         <v>56</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -19316,7 +21758,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="D10" s="16">
         <v>11001</v>
@@ -19325,7 +21767,7 @@
         <v>25</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="G10" s="16">
         <v>101001</v>
@@ -19334,7 +21776,7 @@
         <v>41</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="J10" s="16">
         <v>111001</v>
@@ -19343,7 +21785,7 @@
         <v>56</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -19354,7 +21796,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="D11" s="16">
         <v>11010</v>
@@ -19363,7 +21805,7 @@
         <v>26</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="G11" s="16">
         <v>101010</v>
@@ -19372,7 +21814,7 @@
         <v>42</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="J11" s="16">
         <v>111010</v>
@@ -19381,7 +21823,7 @@
         <v>58</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -19392,7 +21834,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="D12" s="16">
         <v>11011</v>
@@ -19401,7 +21843,7 @@
         <v>27</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="G12" s="16">
         <v>101011</v>
@@ -19410,7 +21852,7 @@
         <v>43</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="J12" s="16">
         <v>111011</v>
@@ -19419,7 +21861,7 @@
         <v>59</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -19430,7 +21872,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="D13" s="16">
         <v>11100</v>
@@ -19439,7 +21881,7 @@
         <v>28</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="G13" s="16">
         <v>101100</v>
@@ -19448,7 +21890,7 @@
         <v>44</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="J13" s="16">
         <v>111100</v>
@@ -19457,7 +21899,7 @@
         <v>60</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -19468,7 +21910,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="D14" s="16">
         <v>11101</v>
@@ -19477,7 +21919,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="G14" s="16">
         <v>101101</v>
@@ -19486,7 +21928,7 @@
         <v>45</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="J14" s="16">
         <v>111101</v>
@@ -19495,7 +21937,7 @@
         <v>61</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -19506,7 +21948,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="D15" s="16">
         <v>11110</v>
@@ -19515,7 +21957,7 @@
         <v>30</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="G15" s="16">
         <v>101110</v>
@@ -19524,7 +21966,7 @@
         <v>46</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="J15" s="16">
         <v>111110</v>
@@ -19533,7 +21975,7 @@
         <v>62</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -19544,7 +21986,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="D16" s="16">
         <v>11111</v>
@@ -19553,7 +21995,7 @@
         <v>31</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="G16" s="16">
         <v>101111</v>
@@ -19562,7 +22004,7 @@
         <v>47</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="J16" s="16">
         <v>111111</v>
@@ -19571,7 +22013,7 @@
         <v>63</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
     </row>
     <row r="17" spans="1:2">

--- a/references/MessagePayloadBlockFormatter.xlsx
+++ b/references/MessagePayloadBlockFormatter.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2191" uniqueCount="772">
   <si>
     <t>Start</t>
   </si>
@@ -2905,10 +2905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M536"/>
+  <dimension ref="A1:M540"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A524" sqref="A524"/>
+    <sheetView tabSelected="1" topLeftCell="A430" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B433" sqref="B433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14508,7 +14508,7 @@
         <v>0</v>
       </c>
       <c r="C390" s="1">
-        <f t="shared" ref="C390:C401" si="69">B390+D390-1</f>
+        <f t="shared" ref="C390:C393" si="69">B390+D390-1</f>
         <v>5</v>
       </c>
       <c r="D390">
@@ -14538,7 +14538,7 @@
     <row r="391" spans="1:13">
       <c r="A391" s="4"/>
       <c r="B391" s="1">
-        <f t="shared" ref="B391:B401" si="71">B390+D390</f>
+        <f t="shared" ref="B391:B393" si="71">B390+D390</f>
         <v>6</v>
       </c>
       <c r="C391" s="1">
@@ -14960,7 +14960,7 @@
         <v>0</v>
       </c>
       <c r="C405" s="1">
-        <f t="shared" ref="C405:C412" si="74">B405+D405-1</f>
+        <f t="shared" ref="C405:C413" si="74">B405+D405-1</f>
         <v>5</v>
       </c>
       <c r="D405">
@@ -14979,7 +14979,7 @@
         <v>429</v>
       </c>
       <c r="I405" t="str">
-        <f t="shared" ref="I405:I413" si="75">"messageBlocks.add(new PayloadBlock("&amp;B405&amp;", "&amp;C405&amp;", "&amp;D405&amp;", "&amp;CHAR(34)&amp;E405&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F405&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G405&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H405&amp;CHAR(34)&amp;"));"</f>
+        <f t="shared" ref="I405:I414" si="75">"messageBlocks.add(new PayloadBlock("&amp;B405&amp;", "&amp;C405&amp;", "&amp;D405&amp;", "&amp;CHAR(34)&amp;E405&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F405&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G405&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H405&amp;CHAR(34)&amp;"));"</f>
         <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 25"));</v>
       </c>
       <c r="J405" s="4"/>
@@ -14990,7 +14990,7 @@
     <row r="406" spans="1:13">
       <c r="A406" s="4"/>
       <c r="B406" s="1">
-        <f t="shared" ref="B406:B412" si="76">B405+D405</f>
+        <f t="shared" ref="B406:B413" si="76">B405+D405</f>
         <v>6</v>
       </c>
       <c r="C406" s="1">
@@ -15192,21 +15192,21 @@
     <row r="412" spans="1:13">
       <c r="A412" s="4"/>
       <c r="B412" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" ref="B412" si="77">B411+D411</f>
         <v>72</v>
       </c>
       <c r="C412" s="1">
-        <f t="shared" si="74"/>
-        <v>87</v>
+        <f t="shared" ref="C412" si="78">B412+D412-1</f>
+        <v>81</v>
       </c>
       <c r="D412">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E412" s="4" t="s">
-        <v>436</v>
+        <v>158</v>
       </c>
       <c r="F412" s="4" t="s">
-        <v>437</v>
+        <v>159</v>
       </c>
       <c r="G412" s="4" t="s">
         <v>12</v>
@@ -15216,7 +15216,7 @@
       </c>
       <c r="I412" s="20" t="str">
         <f t="shared" si="75"/>
-        <v>messageBlocks.add(new PayloadBlock(72, 87, 16, "Application ID", "app_id", "u", "Unsigned integer"));</v>
+        <v>messageBlocks.add(new PayloadBlock(72, 81, 10, "Designated Area Code", "dac", "u", "Unsigned integer"));</v>
       </c>
       <c r="J412" s="4"/>
       <c r="K412" s="4"/>
@@ -15226,31 +15226,31 @@
     <row r="413" spans="1:13">
       <c r="A413" s="4"/>
       <c r="B413" s="1">
-        <f t="shared" ref="B413" si="77">B412+D412</f>
-        <v>88</v>
+        <f t="shared" si="76"/>
+        <v>82</v>
       </c>
       <c r="C413" s="1">
-        <f t="shared" ref="C413" si="78">B413+D413-1</f>
-        <v>167</v>
+        <f t="shared" si="74"/>
+        <v>87</v>
       </c>
       <c r="D413">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="E413" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F413" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G413" s="4" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="H413" s="4" t="s">
-        <v>438</v>
+        <v>160</v>
       </c>
       <c r="I413" s="20" t="str">
         <f t="shared" si="75"/>
-        <v>messageBlocks.add(new PayloadBlock(88, 167, 80, "Data", "data", "d", "Binary data"));</v>
+        <v>messageBlocks.add(new PayloadBlock(82, 87, 6, "Functional ID", "fid", "u", "Unsigned integer"));</v>
       </c>
       <c r="J413" s="4"/>
       <c r="K413" s="4"/>
@@ -15259,14 +15259,33 @@
     </row>
     <row r="414" spans="1:13">
       <c r="A414" s="4"/>
+      <c r="B414" s="1">
+        <f t="shared" ref="B414" si="79">B413+D413</f>
+        <v>88</v>
+      </c>
+      <c r="C414" s="1">
+        <f t="shared" ref="C414" si="80">B414+D414-1</f>
+        <v>167</v>
+      </c>
       <c r="D414">
-        <f>SUM(D405:D413)</f>
-        <v>168</v>
-      </c>
-      <c r="E414" s="4"/>
-      <c r="F414" s="4"/>
-      <c r="G414" s="4"/>
-      <c r="H414" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="E414" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F414" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G414" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H414" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="I414" s="20" t="str">
+        <f t="shared" si="75"/>
+        <v>messageBlocks.add(new PayloadBlock(88, 167, 80, "Data", "data", "d", "Binary data"));</v>
+      </c>
       <c r="J414" s="4"/>
       <c r="K414" s="4"/>
       <c r="L414" s="4"/>
@@ -15274,7 +15293,10 @@
     </row>
     <row r="415" spans="1:13">
       <c r="A415" s="4"/>
-      <c r="D415"/>
+      <c r="D415">
+        <f>SUM(D405:D414)</f>
+        <v>168</v>
+      </c>
       <c r="E415" s="4"/>
       <c r="F415" s="4"/>
       <c r="G415" s="4"/>
@@ -15286,9 +15308,6 @@
     </row>
     <row r="416" spans="1:13">
       <c r="A416" s="4"/>
-      <c r="C416" s="1" t="s">
-        <v>770</v>
-      </c>
       <c r="D416"/>
       <c r="E416" s="4"/>
       <c r="F416" s="4"/>
@@ -15301,32 +15320,14 @@
     </row>
     <row r="417" spans="1:13">
       <c r="A417" s="4"/>
-      <c r="B417" s="1">
-        <v>0</v>
-      </c>
-      <c r="C417" s="1">
-        <f t="shared" ref="C417:C425" si="79">B417+D417-1</f>
-        <v>5</v>
-      </c>
-      <c r="D417">
-        <v>6</v>
-      </c>
-      <c r="E417" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F417" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G417" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H417" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="I417" t="str">
-        <f t="shared" ref="I417:I425" si="80">"messageBlocks.add(new PayloadBlock("&amp;B417&amp;", "&amp;C417&amp;", "&amp;D417&amp;", "&amp;CHAR(34)&amp;E417&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F417&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G417&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H417&amp;CHAR(34)&amp;"));"</f>
-        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 25"));</v>
-      </c>
+      <c r="C417" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="D417"/>
+      <c r="E417" s="4"/>
+      <c r="F417" s="4"/>
+      <c r="G417" s="4"/>
+      <c r="H417" s="4"/>
       <c r="J417" s="4"/>
       <c r="K417" s="4"/>
       <c r="L417" s="4"/>
@@ -15335,31 +15336,30 @@
     <row r="418" spans="1:13">
       <c r="A418" s="4"/>
       <c r="B418" s="1">
-        <f t="shared" ref="B418:B425" si="81">B417+D417</f>
+        <v>0</v>
+      </c>
+      <c r="C418" s="1">
+        <f t="shared" ref="C418:C426" si="81">B418+D418-1</f>
+        <v>5</v>
+      </c>
+      <c r="D418">
         <v>6</v>
       </c>
-      <c r="C418" s="1">
-        <f t="shared" si="79"/>
-        <v>7</v>
-      </c>
-      <c r="D418">
-        <v>2</v>
-      </c>
       <c r="E418" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F418" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G418" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H418" s="4" t="s">
-        <v>312</v>
+        <v>429</v>
       </c>
       <c r="I418" t="str">
-        <f t="shared" si="80"/>
-        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
+        <f t="shared" ref="I418:I426" si="82">"messageBlocks.add(new PayloadBlock("&amp;B418&amp;", "&amp;C418&amp;", "&amp;D418&amp;", "&amp;CHAR(34)&amp;E418&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F418&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G418&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H418&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 25"));</v>
       </c>
       <c r="J418" s="4"/>
       <c r="K418" s="4"/>
@@ -15369,31 +15369,31 @@
     <row r="419" spans="1:13">
       <c r="A419" s="4"/>
       <c r="B419" s="1">
+        <f t="shared" ref="B419:B426" si="83">B418+D418</f>
+        <v>6</v>
+      </c>
+      <c r="C419" s="1">
         <f t="shared" si="81"/>
-        <v>8</v>
-      </c>
-      <c r="C419" s="1">
-        <f t="shared" si="79"/>
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D419">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E419" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F419" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G419" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H419" s="4" t="s">
-        <v>99</v>
+        <v>312</v>
       </c>
       <c r="I419" t="str">
-        <f t="shared" si="80"/>
-        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 digits"));</v>
+        <f t="shared" si="82"/>
+        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
       </c>
       <c r="J419" s="4"/>
       <c r="K419" s="4"/>
@@ -15403,31 +15403,31 @@
     <row r="420" spans="1:13">
       <c r="A420" s="4"/>
       <c r="B420" s="1">
+        <f t="shared" si="83"/>
+        <v>8</v>
+      </c>
+      <c r="C420" s="1">
         <f t="shared" si="81"/>
-        <v>38</v>
-      </c>
-      <c r="C420" s="1">
-        <f t="shared" si="79"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D420">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E420" s="4" t="s">
-        <v>430</v>
+        <v>17</v>
       </c>
       <c r="F420" s="4" t="s">
-        <v>381</v>
+        <v>18</v>
       </c>
       <c r="G420" s="4" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H420" s="4" t="s">
-        <v>431</v>
+        <v>99</v>
       </c>
       <c r="I420" t="str">
-        <f t="shared" si="80"/>
-        <v>messageBlocks.add(new PayloadBlock(38, 38, 1, "Destination indicator", "addressed", "b", "0=broadcast, 1=addressed."));</v>
+        <f t="shared" si="82"/>
+        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 digits"));</v>
       </c>
       <c r="J420" s="4"/>
       <c r="K420" s="4"/>
@@ -15437,31 +15437,31 @@
     <row r="421" spans="1:13">
       <c r="A421" s="4"/>
       <c r="B421" s="1">
+        <f t="shared" si="83"/>
+        <v>38</v>
+      </c>
+      <c r="C421" s="1">
         <f t="shared" si="81"/>
-        <v>39</v>
-      </c>
-      <c r="C421" s="1">
-        <f t="shared" si="79"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D421">
         <v>1</v>
       </c>
       <c r="E421" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F421" s="4" t="s">
-        <v>433</v>
+        <v>381</v>
       </c>
       <c r="G421" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H421" s="4" t="s">
-        <v>27</v>
+        <v>431</v>
       </c>
       <c r="I421" t="str">
-        <f t="shared" si="80"/>
-        <v>messageBlocks.add(new PayloadBlock(39, 39, 1, "Binary data flag", "structured", "b", "See below"));</v>
+        <f t="shared" si="82"/>
+        <v>messageBlocks.add(new PayloadBlock(38, 38, 1, "Destination indicator", "addressed", "b", "0=broadcast, 1=addressed."));</v>
       </c>
       <c r="J421" s="4"/>
       <c r="K421" s="4"/>
@@ -15471,31 +15471,31 @@
     <row r="422" spans="1:13">
       <c r="A422" s="4"/>
       <c r="B422" s="1">
+        <f t="shared" si="83"/>
+        <v>39</v>
+      </c>
+      <c r="C422" s="1">
         <f t="shared" si="81"/>
-        <v>40</v>
-      </c>
-      <c r="C422" s="1">
-        <f t="shared" si="79"/>
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D422">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E422" s="4" t="s">
-        <v>153</v>
+        <v>432</v>
       </c>
       <c r="F422" s="4" t="s">
-        <v>154</v>
+        <v>433</v>
       </c>
       <c r="G422" s="4" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H422" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="I422" s="8" t="str">
-        <f t="shared" si="80"/>
-        <v>messageBlocks.add(new PayloadBlock(40, 69, 30, "Destination MMSI", "dest_mmsi", "u", "Message destination"));</v>
+        <v>27</v>
+      </c>
+      <c r="I422" t="str">
+        <f t="shared" si="82"/>
+        <v>messageBlocks.add(new PayloadBlock(39, 39, 1, "Binary data flag", "structured", "b", "See below"));</v>
       </c>
       <c r="J422" s="4"/>
       <c r="K422" s="4"/>
@@ -15505,29 +15505,31 @@
     <row r="423" spans="1:13">
       <c r="A423" s="4"/>
       <c r="B423" s="1">
+        <f t="shared" si="83"/>
+        <v>40</v>
+      </c>
+      <c r="C423" s="1">
         <f t="shared" si="81"/>
-        <v>70</v>
-      </c>
-      <c r="C423" s="1">
-        <f t="shared" si="79"/>
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D423">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E423" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F423" s="4"/>
+        <v>153</v>
+      </c>
+      <c r="F423" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="G423" s="4" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="H423" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I423" s="8" t="str">
-        <f t="shared" si="80"/>
-        <v>messageBlocks.add(new PayloadBlock(70, 71, 2, "Spare", "", "x", "Byte Alignment"));</v>
+        <f t="shared" si="82"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 69, 30, "Destination MMSI", "dest_mmsi", "u", "Message destination"));</v>
       </c>
       <c r="J423" s="4"/>
       <c r="K423" s="4"/>
@@ -15537,31 +15539,29 @@
     <row r="424" spans="1:13">
       <c r="A424" s="4"/>
       <c r="B424" s="1">
+        <f t="shared" si="83"/>
+        <v>70</v>
+      </c>
+      <c r="C424" s="1">
         <f t="shared" si="81"/>
-        <v>72</v>
-      </c>
-      <c r="C424" s="1">
-        <f t="shared" si="79"/>
         <v>71</v>
       </c>
       <c r="D424">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E424" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="F424" s="4" t="s">
-        <v>437</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F424" s="4"/>
       <c r="G424" s="4" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="H424" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="I424" s="20" t="str">
-        <f t="shared" si="80"/>
-        <v>messageBlocks.add(new PayloadBlock(72, 71, 0, "Application ID", "app_id", "u", "Unsigned integer"));</v>
+        <v>435</v>
+      </c>
+      <c r="I424" s="8" t="str">
+        <f t="shared" si="82"/>
+        <v>messageBlocks.add(new PayloadBlock(70, 71, 2, "Spare", "", "x", "Byte Alignment"));</v>
       </c>
       <c r="J424" s="4"/>
       <c r="K424" s="4"/>
@@ -15571,31 +15571,31 @@
     <row r="425" spans="1:13">
       <c r="A425" s="4"/>
       <c r="B425" s="1">
+        <f t="shared" si="83"/>
+        <v>72</v>
+      </c>
+      <c r="C425" s="1">
         <f t="shared" si="81"/>
-        <v>72</v>
-      </c>
-      <c r="C425" s="1">
-        <f t="shared" si="79"/>
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="D425">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E425" s="4" t="s">
-        <v>164</v>
+        <v>436</v>
       </c>
       <c r="F425" s="4" t="s">
-        <v>165</v>
+        <v>437</v>
       </c>
       <c r="G425" s="4" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="H425" s="4" t="s">
-        <v>438</v>
+        <v>160</v>
       </c>
       <c r="I425" s="20" t="str">
-        <f t="shared" si="80"/>
-        <v>messageBlocks.add(new PayloadBlock(72, 167, 96, "Data", "data", "d", "Binary data"));</v>
+        <f t="shared" si="82"/>
+        <v>messageBlocks.add(new PayloadBlock(72, 71, 0, "Application ID", "app_id", "u", "Unsigned integer"));</v>
       </c>
       <c r="J425" s="4"/>
       <c r="K425" s="4"/>
@@ -15604,14 +15604,33 @@
     </row>
     <row r="426" spans="1:13">
       <c r="A426" s="4"/>
+      <c r="B426" s="1">
+        <f t="shared" si="83"/>
+        <v>72</v>
+      </c>
+      <c r="C426" s="1">
+        <f t="shared" si="81"/>
+        <v>167</v>
+      </c>
       <c r="D426">
-        <f>SUM(D417:D425)</f>
-        <v>168</v>
-      </c>
-      <c r="E426" s="4"/>
-      <c r="F426" s="4"/>
-      <c r="G426" s="4"/>
-      <c r="H426" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="E426" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F426" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G426" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H426" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="I426" s="20" t="str">
+        <f t="shared" si="82"/>
+        <v>messageBlocks.add(new PayloadBlock(72, 167, 96, "Data", "data", "d", "Binary data"));</v>
+      </c>
       <c r="J426" s="4"/>
       <c r="K426" s="4"/>
       <c r="L426" s="4"/>
@@ -15619,7 +15638,10 @@
     </row>
     <row r="427" spans="1:13">
       <c r="A427" s="4"/>
-      <c r="D427"/>
+      <c r="D427">
+        <f>SUM(D418:D426)</f>
+        <v>168</v>
+      </c>
       <c r="E427" s="4"/>
       <c r="F427" s="4"/>
       <c r="G427" s="4"/>
@@ -15631,9 +15653,6 @@
     </row>
     <row r="428" spans="1:13">
       <c r="A428" s="4"/>
-      <c r="C428" s="1" t="s">
-        <v>768</v>
-      </c>
       <c r="D428"/>
       <c r="E428" s="4"/>
       <c r="F428" s="4"/>
@@ -15646,32 +15665,14 @@
     </row>
     <row r="429" spans="1:13">
       <c r="A429" s="4"/>
-      <c r="B429" s="1">
-        <v>0</v>
-      </c>
-      <c r="C429" s="1">
-        <f t="shared" ref="C429:C437" si="82">B429+D429-1</f>
-        <v>5</v>
-      </c>
-      <c r="D429">
-        <v>6</v>
-      </c>
-      <c r="E429" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F429" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G429" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H429" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="I429" t="str">
-        <f t="shared" ref="I429:I437" si="83">"messageBlocks.add(new PayloadBlock("&amp;B429&amp;", "&amp;C429&amp;", "&amp;D429&amp;", "&amp;CHAR(34)&amp;E429&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F429&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G429&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H429&amp;CHAR(34)&amp;"));"</f>
-        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 25"));</v>
-      </c>
+      <c r="C429" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D429"/>
+      <c r="E429" s="4"/>
+      <c r="F429" s="4"/>
+      <c r="G429" s="4"/>
+      <c r="H429" s="4"/>
       <c r="J429" s="4"/>
       <c r="K429" s="4"/>
       <c r="L429" s="4"/>
@@ -15680,31 +15681,30 @@
     <row r="430" spans="1:13">
       <c r="A430" s="4"/>
       <c r="B430" s="1">
-        <f t="shared" ref="B430:B437" si="84">B429+D429</f>
+        <v>0</v>
+      </c>
+      <c r="C430" s="1">
+        <f t="shared" ref="C430:C439" si="84">B430+D430-1</f>
+        <v>5</v>
+      </c>
+      <c r="D430">
         <v>6</v>
       </c>
-      <c r="C430" s="1">
-        <f t="shared" si="82"/>
-        <v>7</v>
-      </c>
-      <c r="D430">
-        <v>2</v>
-      </c>
       <c r="E430" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F430" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G430" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H430" s="4" t="s">
-        <v>312</v>
+        <v>429</v>
       </c>
       <c r="I430" t="str">
-        <f t="shared" si="83"/>
-        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
+        <f t="shared" ref="I430:I439" si="85">"messageBlocks.add(new PayloadBlock("&amp;B430&amp;", "&amp;C430&amp;", "&amp;D430&amp;", "&amp;CHAR(34)&amp;E430&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F430&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G430&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H430&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 25"));</v>
       </c>
       <c r="J430" s="4"/>
       <c r="K430" s="4"/>
@@ -15714,31 +15714,31 @@
     <row r="431" spans="1:13">
       <c r="A431" s="4"/>
       <c r="B431" s="1">
+        <f t="shared" ref="B431:B438" si="86">B430+D430</f>
+        <v>6</v>
+      </c>
+      <c r="C431" s="1">
         <f t="shared" si="84"/>
-        <v>8</v>
-      </c>
-      <c r="C431" s="1">
-        <f t="shared" si="82"/>
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D431">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E431" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F431" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G431" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H431" s="4" t="s">
-        <v>99</v>
+        <v>312</v>
       </c>
       <c r="I431" t="str">
-        <f t="shared" si="83"/>
-        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 digits"));</v>
+        <f t="shared" si="85"/>
+        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
       </c>
       <c r="J431" s="4"/>
       <c r="K431" s="4"/>
@@ -15748,31 +15748,31 @@
     <row r="432" spans="1:13">
       <c r="A432" s="4"/>
       <c r="B432" s="1">
+        <f t="shared" si="86"/>
+        <v>8</v>
+      </c>
+      <c r="C432" s="1">
         <f t="shared" si="84"/>
-        <v>38</v>
-      </c>
-      <c r="C432" s="1">
-        <f t="shared" si="82"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D432">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E432" s="4" t="s">
-        <v>430</v>
+        <v>17</v>
       </c>
       <c r="F432" s="4" t="s">
-        <v>381</v>
+        <v>18</v>
       </c>
       <c r="G432" s="4" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H432" s="4" t="s">
-        <v>431</v>
+        <v>99</v>
       </c>
       <c r="I432" t="str">
-        <f t="shared" si="83"/>
-        <v>messageBlocks.add(new PayloadBlock(38, 38, 1, "Destination indicator", "addressed", "b", "0=broadcast, 1=addressed."));</v>
+        <f t="shared" si="85"/>
+        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 digits"));</v>
       </c>
       <c r="J432" s="4"/>
       <c r="K432" s="4"/>
@@ -15782,31 +15782,31 @@
     <row r="433" spans="1:13">
       <c r="A433" s="4"/>
       <c r="B433" s="1">
+        <f t="shared" si="86"/>
+        <v>38</v>
+      </c>
+      <c r="C433" s="1">
         <f t="shared" si="84"/>
-        <v>39</v>
-      </c>
-      <c r="C433" s="1">
-        <f t="shared" si="82"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D433">
         <v>1</v>
       </c>
       <c r="E433" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F433" s="4" t="s">
-        <v>433</v>
+        <v>381</v>
       </c>
       <c r="G433" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H433" s="4" t="s">
-        <v>27</v>
+        <v>431</v>
       </c>
       <c r="I433" t="str">
-        <f t="shared" si="83"/>
-        <v>messageBlocks.add(new PayloadBlock(39, 39, 1, "Binary data flag", "structured", "b", "See below"));</v>
+        <f t="shared" si="85"/>
+        <v>messageBlocks.add(new PayloadBlock(38, 38, 1, "Destination indicator", "addressed", "b", "0=broadcast, 1=addressed."));</v>
       </c>
       <c r="J433" s="4"/>
       <c r="K433" s="4"/>
@@ -15816,31 +15816,31 @@
     <row r="434" spans="1:13">
       <c r="A434" s="4"/>
       <c r="B434" s="1">
+        <f t="shared" si="86"/>
+        <v>39</v>
+      </c>
+      <c r="C434" s="1">
         <f t="shared" si="84"/>
-        <v>40</v>
-      </c>
-      <c r="C434" s="1">
-        <f t="shared" si="82"/>
         <v>39</v>
       </c>
       <c r="D434">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E434" s="4" t="s">
-        <v>153</v>
+        <v>432</v>
       </c>
       <c r="F434" s="4" t="s">
-        <v>154</v>
+        <v>433</v>
       </c>
       <c r="G434" s="4" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H434" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="I434" s="8" t="str">
-        <f t="shared" si="83"/>
-        <v>messageBlocks.add(new PayloadBlock(40, 39, 0, "Destination MMSI", "dest_mmsi", "u", "Message destination"));</v>
+        <v>27</v>
+      </c>
+      <c r="I434" t="str">
+        <f t="shared" si="85"/>
+        <v>messageBlocks.add(new PayloadBlock(39, 39, 1, "Binary data flag", "structured", "b", "See below"));</v>
       </c>
       <c r="J434" s="4"/>
       <c r="K434" s="4"/>
@@ -15850,29 +15850,31 @@
     <row r="435" spans="1:13">
       <c r="A435" s="4"/>
       <c r="B435" s="1">
+        <f t="shared" si="86"/>
+        <v>40</v>
+      </c>
+      <c r="C435" s="1">
         <f t="shared" si="84"/>
-        <v>40</v>
-      </c>
-      <c r="C435" s="1">
-        <f t="shared" si="82"/>
         <v>39</v>
       </c>
       <c r="D435">
         <v>0</v>
       </c>
       <c r="E435" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F435" s="4"/>
+        <v>153</v>
+      </c>
+      <c r="F435" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="G435" s="4" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="H435" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I435" s="8" t="str">
-        <f t="shared" si="83"/>
-        <v>messageBlocks.add(new PayloadBlock(40, 39, 0, "Spare", "", "x", "Byte Alignment"));</v>
+        <f t="shared" si="85"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 39, 0, "Destination MMSI", "dest_mmsi", "u", "Message destination"));</v>
       </c>
       <c r="J435" s="4"/>
       <c r="K435" s="4"/>
@@ -15882,31 +15884,29 @@
     <row r="436" spans="1:13">
       <c r="A436" s="4"/>
       <c r="B436" s="1">
+        <f t="shared" si="86"/>
+        <v>40</v>
+      </c>
+      <c r="C436" s="1">
         <f t="shared" si="84"/>
-        <v>40</v>
-      </c>
-      <c r="C436" s="1">
-        <f t="shared" si="82"/>
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D436">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E436" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="F436" s="4" t="s">
-        <v>437</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F436" s="4"/>
       <c r="G436" s="4" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="H436" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="I436" s="20" t="str">
-        <f t="shared" si="83"/>
-        <v>messageBlocks.add(new PayloadBlock(40, 55, 16, "Application ID", "app_id", "u", "Unsigned integer"));</v>
+        <v>435</v>
+      </c>
+      <c r="I436" s="8" t="str">
+        <f t="shared" si="85"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 39, 0, "Spare", "", "x", "Byte Alignment"));</v>
       </c>
       <c r="J436" s="4"/>
       <c r="K436" s="4"/>
@@ -15916,31 +15916,31 @@
     <row r="437" spans="1:13">
       <c r="A437" s="4"/>
       <c r="B437" s="1">
-        <f t="shared" si="84"/>
-        <v>56</v>
+        <f t="shared" ref="B437" si="87">B436+D436</f>
+        <v>40</v>
       </c>
       <c r="C437" s="1">
-        <f t="shared" si="82"/>
-        <v>167</v>
+        <f t="shared" ref="C437" si="88">B437+D437-1</f>
+        <v>49</v>
       </c>
       <c r="D437">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="E437" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F437" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G437" s="4" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="H437" s="4" t="s">
-        <v>438</v>
+        <v>160</v>
       </c>
       <c r="I437" s="20" t="str">
-        <f t="shared" si="83"/>
-        <v>messageBlocks.add(new PayloadBlock(56, 167, 112, "Data", "data", "d", "Binary data"));</v>
+        <f t="shared" si="85"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 49, 10, "Designated Area Code", "dac", "u", "Unsigned integer"));</v>
       </c>
       <c r="J437" s="4"/>
       <c r="K437" s="4"/>
@@ -15949,14 +15949,33 @@
     </row>
     <row r="438" spans="1:13">
       <c r="A438" s="4"/>
+      <c r="B438" s="1">
+        <f t="shared" si="86"/>
+        <v>50</v>
+      </c>
+      <c r="C438" s="1">
+        <f t="shared" si="84"/>
+        <v>55</v>
+      </c>
       <c r="D438">
-        <f>SUM(D429:D437)</f>
-        <v>168</v>
-      </c>
-      <c r="E438" s="4"/>
-      <c r="F438" s="4"/>
-      <c r="G438" s="4"/>
-      <c r="H438" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="E438" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F438" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G438" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H438" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I438" s="20" t="str">
+        <f t="shared" si="85"/>
+        <v>messageBlocks.add(new PayloadBlock(50, 55, 6, "Functional ID", "fid", "u", "Unsigned integer"));</v>
+      </c>
       <c r="J438" s="4"/>
       <c r="K438" s="4"/>
       <c r="L438" s="4"/>
@@ -15964,11 +15983,33 @@
     </row>
     <row r="439" spans="1:13">
       <c r="A439" s="4"/>
-      <c r="D439"/>
-      <c r="E439" s="4"/>
-      <c r="F439" s="4"/>
-      <c r="G439" s="4"/>
-      <c r="H439" s="4"/>
+      <c r="B439" s="1">
+        <f t="shared" ref="B439" si="89">B438+D438</f>
+        <v>56</v>
+      </c>
+      <c r="C439" s="1">
+        <f t="shared" ref="C439" si="90">B439+D439-1</f>
+        <v>167</v>
+      </c>
+      <c r="D439">
+        <v>112</v>
+      </c>
+      <c r="E439" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F439" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G439" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H439" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="I439" s="20" t="str">
+        <f t="shared" si="85"/>
+        <v>messageBlocks.add(new PayloadBlock(56, 167, 112, "Data", "data", "d", "Binary data"));</v>
+      </c>
       <c r="J439" s="4"/>
       <c r="K439" s="4"/>
       <c r="L439" s="4"/>
@@ -15976,10 +16017,10 @@
     </row>
     <row r="440" spans="1:13">
       <c r="A440" s="4"/>
-      <c r="C440" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="D440"/>
+      <c r="D440">
+        <f>SUM(D430:D439)</f>
+        <v>168</v>
+      </c>
       <c r="E440" s="4"/>
       <c r="F440" s="4"/>
       <c r="G440" s="4"/>
@@ -15991,32 +16032,11 @@
     </row>
     <row r="441" spans="1:13">
       <c r="A441" s="4"/>
-      <c r="B441" s="1">
-        <v>0</v>
-      </c>
-      <c r="C441" s="1">
-        <f t="shared" ref="C441:C449" si="85">B441+D441-1</f>
-        <v>5</v>
-      </c>
-      <c r="D441">
-        <v>6</v>
-      </c>
-      <c r="E441" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F441" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G441" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H441" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="I441" t="str">
-        <f t="shared" ref="I441:I449" si="86">"messageBlocks.add(new PayloadBlock("&amp;B441&amp;", "&amp;C441&amp;", "&amp;D441&amp;", "&amp;CHAR(34)&amp;E441&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F441&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G441&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H441&amp;CHAR(34)&amp;"));"</f>
-        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 25"));</v>
-      </c>
+      <c r="D441"/>
+      <c r="E441" s="4"/>
+      <c r="F441" s="4"/>
+      <c r="G441" s="4"/>
+      <c r="H441" s="4"/>
       <c r="J441" s="4"/>
       <c r="K441" s="4"/>
       <c r="L441" s="4"/>
@@ -16024,33 +16044,14 @@
     </row>
     <row r="442" spans="1:13">
       <c r="A442" s="4"/>
-      <c r="B442" s="1">
-        <f t="shared" ref="B442:B449" si="87">B441+D441</f>
-        <v>6</v>
-      </c>
-      <c r="C442" s="1">
-        <f t="shared" si="85"/>
-        <v>7</v>
-      </c>
-      <c r="D442">
-        <v>2</v>
-      </c>
-      <c r="E442" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F442" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G442" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H442" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="I442" t="str">
-        <f t="shared" si="86"/>
-        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
-      </c>
+      <c r="C442" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="D442"/>
+      <c r="E442" s="4"/>
+      <c r="F442" s="4"/>
+      <c r="G442" s="4"/>
+      <c r="H442" s="4"/>
       <c r="J442" s="4"/>
       <c r="K442" s="4"/>
       <c r="L442" s="4"/>
@@ -16059,31 +16060,30 @@
     <row r="443" spans="1:13">
       <c r="A443" s="4"/>
       <c r="B443" s="1">
-        <f t="shared" si="87"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C443" s="1">
-        <f t="shared" si="85"/>
-        <v>37</v>
+        <f t="shared" ref="C443:C451" si="91">B443+D443-1</f>
+        <v>5</v>
       </c>
       <c r="D443">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E443" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F443" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G443" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H443" s="4" t="s">
-        <v>99</v>
+        <v>429</v>
       </c>
       <c r="I443" t="str">
-        <f t="shared" si="86"/>
-        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 digits"));</v>
+        <f t="shared" ref="I443:I451" si="92">"messageBlocks.add(new PayloadBlock("&amp;B443&amp;", "&amp;C443&amp;", "&amp;D443&amp;", "&amp;CHAR(34)&amp;E443&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F443&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G443&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H443&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 25"));</v>
       </c>
       <c r="J443" s="4"/>
       <c r="K443" s="4"/>
@@ -16093,31 +16093,31 @@
     <row r="444" spans="1:13">
       <c r="A444" s="4"/>
       <c r="B444" s="1">
-        <f t="shared" si="87"/>
-        <v>38</v>
+        <f t="shared" ref="B444:B451" si="93">B443+D443</f>
+        <v>6</v>
       </c>
       <c r="C444" s="1">
-        <f t="shared" si="85"/>
-        <v>38</v>
+        <f t="shared" si="91"/>
+        <v>7</v>
       </c>
       <c r="D444">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E444" s="4" t="s">
-        <v>430</v>
+        <v>14</v>
       </c>
       <c r="F444" s="4" t="s">
-        <v>381</v>
+        <v>15</v>
       </c>
       <c r="G444" s="4" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H444" s="4" t="s">
-        <v>431</v>
+        <v>312</v>
       </c>
       <c r="I444" t="str">
-        <f t="shared" si="86"/>
-        <v>messageBlocks.add(new PayloadBlock(38, 38, 1, "Destination indicator", "addressed", "b", "0=broadcast, 1=addressed."));</v>
+        <f t="shared" si="92"/>
+        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
       </c>
       <c r="J444" s="4"/>
       <c r="K444" s="4"/>
@@ -16127,31 +16127,31 @@
     <row r="445" spans="1:13">
       <c r="A445" s="4"/>
       <c r="B445" s="1">
-        <f t="shared" si="87"/>
-        <v>39</v>
+        <f t="shared" si="93"/>
+        <v>8</v>
       </c>
       <c r="C445" s="1">
-        <f t="shared" si="85"/>
-        <v>39</v>
+        <f t="shared" si="91"/>
+        <v>37</v>
       </c>
       <c r="D445">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E445" s="4" t="s">
-        <v>432</v>
+        <v>17</v>
       </c>
       <c r="F445" s="4" t="s">
-        <v>433</v>
+        <v>18</v>
       </c>
       <c r="G445" s="4" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H445" s="4" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="I445" t="str">
-        <f t="shared" si="86"/>
-        <v>messageBlocks.add(new PayloadBlock(39, 39, 1, "Binary data flag", "structured", "b", "See below"));</v>
+        <f t="shared" si="92"/>
+        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 digits"));</v>
       </c>
       <c r="J445" s="4"/>
       <c r="K445" s="4"/>
@@ -16161,31 +16161,31 @@
     <row r="446" spans="1:13">
       <c r="A446" s="4"/>
       <c r="B446" s="1">
-        <f t="shared" si="87"/>
-        <v>40</v>
+        <f t="shared" si="93"/>
+        <v>38</v>
       </c>
       <c r="C446" s="1">
-        <f t="shared" si="85"/>
-        <v>39</v>
+        <f t="shared" si="91"/>
+        <v>38</v>
       </c>
       <c r="D446">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E446" s="4" t="s">
-        <v>153</v>
+        <v>430</v>
       </c>
       <c r="F446" s="4" t="s">
-        <v>154</v>
+        <v>381</v>
       </c>
       <c r="G446" s="4" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H446" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="I446" s="8" t="str">
-        <f t="shared" si="86"/>
-        <v>messageBlocks.add(new PayloadBlock(40, 39, 0, "Destination MMSI", "dest_mmsi", "u", "Message destination"));</v>
+        <v>431</v>
+      </c>
+      <c r="I446" t="str">
+        <f t="shared" si="92"/>
+        <v>messageBlocks.add(new PayloadBlock(38, 38, 1, "Destination indicator", "addressed", "b", "0=broadcast, 1=addressed."));</v>
       </c>
       <c r="J446" s="4"/>
       <c r="K446" s="4"/>
@@ -16195,29 +16195,31 @@
     <row r="447" spans="1:13">
       <c r="A447" s="4"/>
       <c r="B447" s="1">
-        <f t="shared" si="87"/>
-        <v>40</v>
+        <f t="shared" si="93"/>
+        <v>39</v>
       </c>
       <c r="C447" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>39</v>
       </c>
       <c r="D447">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E447" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F447" s="4"/>
+        <v>432</v>
+      </c>
+      <c r="F447" s="4" t="s">
+        <v>433</v>
+      </c>
       <c r="G447" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H447" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="I447" s="8" t="str">
-        <f t="shared" si="86"/>
-        <v>messageBlocks.add(new PayloadBlock(40, 39, 0, "Spare", "", "x", "Byte Alignment"));</v>
+        <v>27</v>
+      </c>
+      <c r="I447" t="str">
+        <f t="shared" si="92"/>
+        <v>messageBlocks.add(new PayloadBlock(39, 39, 1, "Binary data flag", "structured", "b", "See below"));</v>
       </c>
       <c r="J447" s="4"/>
       <c r="K447" s="4"/>
@@ -16227,31 +16229,31 @@
     <row r="448" spans="1:13">
       <c r="A448" s="4"/>
       <c r="B448" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>40</v>
       </c>
       <c r="C448" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>39</v>
       </c>
       <c r="D448">
         <v>0</v>
       </c>
       <c r="E448" s="4" t="s">
-        <v>436</v>
+        <v>153</v>
       </c>
       <c r="F448" s="4" t="s">
-        <v>437</v>
+        <v>154</v>
       </c>
       <c r="G448" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H448" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="I448" s="20" t="str">
-        <f t="shared" si="86"/>
-        <v>messageBlocks.add(new PayloadBlock(40, 39, 0, "Application ID", "app_id", "u", "Unsigned integer"));</v>
+        <v>434</v>
+      </c>
+      <c r="I448" s="8" t="str">
+        <f t="shared" si="92"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 39, 0, "Destination MMSI", "dest_mmsi", "u", "Message destination"));</v>
       </c>
       <c r="J448" s="4"/>
       <c r="K448" s="4"/>
@@ -16261,31 +16263,29 @@
     <row r="449" spans="1:13">
       <c r="A449" s="4"/>
       <c r="B449" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>40</v>
       </c>
       <c r="C449" s="1">
-        <f t="shared" si="85"/>
-        <v>167</v>
+        <f t="shared" si="91"/>
+        <v>39</v>
       </c>
       <c r="D449">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="E449" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F449" s="4" t="s">
-        <v>165</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F449" s="4"/>
       <c r="G449" s="4" t="s">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="H449" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="I449" s="20" t="str">
-        <f t="shared" si="86"/>
-        <v>messageBlocks.add(new PayloadBlock(40, 167, 128, "Data", "data", "d", "Binary data"));</v>
+        <v>435</v>
+      </c>
+      <c r="I449" s="8" t="str">
+        <f t="shared" si="92"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 39, 0, "Spare", "", "x", "Byte Alignment"));</v>
       </c>
       <c r="J449" s="4"/>
       <c r="K449" s="4"/>
@@ -16294,14 +16294,33 @@
     </row>
     <row r="450" spans="1:13">
       <c r="A450" s="4"/>
+      <c r="B450" s="1">
+        <f t="shared" si="93"/>
+        <v>40</v>
+      </c>
+      <c r="C450" s="1">
+        <f t="shared" si="91"/>
+        <v>39</v>
+      </c>
       <c r="D450">
-        <f>SUM(D441:D449)</f>
-        <v>168</v>
-      </c>
-      <c r="E450" s="4"/>
-      <c r="F450" s="4"/>
-      <c r="G450" s="4"/>
-      <c r="H450" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="E450" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F450" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G450" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H450" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I450" s="20" t="str">
+        <f t="shared" si="92"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 39, 0, "Application ID", "app_id", "u", "Unsigned integer"));</v>
+      </c>
       <c r="J450" s="4"/>
       <c r="K450" s="4"/>
       <c r="L450" s="4"/>
@@ -16309,11 +16328,33 @@
     </row>
     <row r="451" spans="1:13">
       <c r="A451" s="4"/>
-      <c r="D451"/>
-      <c r="E451" s="4"/>
-      <c r="F451" s="4"/>
-      <c r="G451" s="4"/>
-      <c r="H451" s="4"/>
+      <c r="B451" s="1">
+        <f t="shared" si="93"/>
+        <v>40</v>
+      </c>
+      <c r="C451" s="1">
+        <f t="shared" si="91"/>
+        <v>167</v>
+      </c>
+      <c r="D451">
+        <v>128</v>
+      </c>
+      <c r="E451" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F451" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G451" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H451" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="I451" s="20" t="str">
+        <f t="shared" si="92"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 167, 128, "Data", "data", "d", "Binary data"));</v>
+      </c>
       <c r="J451" s="4"/>
       <c r="K451" s="4"/>
       <c r="L451" s="4"/>
@@ -16321,31 +16362,26 @@
     </row>
     <row r="452" spans="1:13">
       <c r="A452" s="4"/>
+      <c r="D452">
+        <f>SUM(D443:D451)</f>
+        <v>168</v>
+      </c>
       <c r="E452" s="4"/>
       <c r="F452" s="4"/>
       <c r="G452" s="4"/>
       <c r="H452" s="4"/>
-      <c r="I452" s="4"/>
       <c r="J452" s="4"/>
       <c r="K452" s="4"/>
       <c r="L452" s="4"/>
       <c r="M452" s="4"/>
     </row>
     <row r="453" spans="1:13">
-      <c r="A453" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B453" s="19" t="s">
-        <v>439</v>
-      </c>
-      <c r="C453" s="1" t="s">
-        <v>766</v>
-      </c>
+      <c r="A453" s="4"/>
+      <c r="D453"/>
       <c r="E453" s="4"/>
       <c r="F453" s="4"/>
       <c r="G453" s="4"/>
       <c r="H453" s="4"/>
-      <c r="I453" s="4"/>
       <c r="J453" s="4"/>
       <c r="K453" s="4"/>
       <c r="L453" s="4"/>
@@ -16353,66 +16389,31 @@
     </row>
     <row r="454" spans="1:13">
       <c r="A454" s="4"/>
-      <c r="B454" s="1">
-        <v>0</v>
-      </c>
-      <c r="C454" s="1">
-        <f t="shared" ref="C454:C455" si="88">B454+D454-1</f>
-        <v>5</v>
-      </c>
-      <c r="D454">
-        <v>6</v>
-      </c>
-      <c r="E454" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F454" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G454" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H454" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="I454" t="str">
-        <f t="shared" ref="I454:I465" si="89">"messageBlocks.add(new PayloadBlock("&amp;B454&amp;", "&amp;C454&amp;", "&amp;D454&amp;", "&amp;CHAR(34)&amp;E454&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F454&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G454&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H454&amp;CHAR(34)&amp;"));"</f>
-        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 26"));</v>
-      </c>
+      <c r="E454" s="4"/>
+      <c r="F454" s="4"/>
+      <c r="G454" s="4"/>
+      <c r="H454" s="4"/>
+      <c r="I454" s="4"/>
       <c r="J454" s="4"/>
       <c r="K454" s="4"/>
       <c r="L454" s="4"/>
       <c r="M454" s="4"/>
     </row>
     <row r="455" spans="1:13">
-      <c r="A455" s="4"/>
-      <c r="B455" s="1">
-        <f t="shared" ref="B455" si="90">B454+D454</f>
-        <v>6</v>
-      </c>
-      <c r="C455" s="1">
-        <f t="shared" si="88"/>
+      <c r="A455" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D455">
-        <v>2</v>
-      </c>
-      <c r="E455" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F455" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G455" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H455" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="I455" t="str">
-        <f t="shared" si="89"/>
-        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
-      </c>
+      <c r="B455" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="E455" s="4"/>
+      <c r="F455" s="4"/>
+      <c r="G455" s="4"/>
+      <c r="H455" s="4"/>
+      <c r="I455" s="4"/>
       <c r="J455" s="4"/>
       <c r="K455" s="4"/>
       <c r="L455" s="4"/>
@@ -16421,31 +16422,30 @@
     <row r="456" spans="1:13">
       <c r="A456" s="4"/>
       <c r="B456" s="1">
-        <f t="shared" ref="B456:B465" si="91">B455+D455</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C456" s="1">
-        <f t="shared" ref="C456:C465" si="92">B456+D456-1</f>
-        <v>37</v>
+        <f t="shared" ref="C456:C457" si="94">B456+D456-1</f>
+        <v>5</v>
       </c>
       <c r="D456">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E456" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F456" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G456" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H456" s="4" t="s">
-        <v>99</v>
+        <v>440</v>
       </c>
       <c r="I456" t="str">
-        <f t="shared" si="89"/>
-        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 digits"));</v>
+        <f t="shared" ref="I456:I468" si="95">"messageBlocks.add(new PayloadBlock("&amp;B456&amp;", "&amp;C456&amp;", "&amp;D456&amp;", "&amp;CHAR(34)&amp;E456&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F456&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G456&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H456&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 26"));</v>
       </c>
       <c r="J456" s="4"/>
       <c r="K456" s="4"/>
@@ -16455,31 +16455,31 @@
     <row r="457" spans="1:13">
       <c r="A457" s="4"/>
       <c r="B457" s="1">
-        <f t="shared" si="91"/>
-        <v>38</v>
+        <f t="shared" ref="B457" si="96">B456+D456</f>
+        <v>6</v>
       </c>
       <c r="C457" s="1">
-        <f t="shared" si="92"/>
-        <v>38</v>
+        <f t="shared" si="94"/>
+        <v>7</v>
       </c>
       <c r="D457">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E457" s="4" t="s">
-        <v>430</v>
+        <v>14</v>
       </c>
       <c r="F457" s="4" t="s">
-        <v>381</v>
+        <v>15</v>
       </c>
       <c r="G457" s="4" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H457" s="4" t="s">
-        <v>431</v>
+        <v>312</v>
       </c>
       <c r="I457" t="str">
-        <f t="shared" si="89"/>
-        <v>messageBlocks.add(new PayloadBlock(38, 38, 1, "Destination indicator", "addressed", "b", "0=broadcast, 1=addressed."));</v>
+        <f t="shared" si="95"/>
+        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
       </c>
       <c r="J457" s="4"/>
       <c r="K457" s="4"/>
@@ -16489,31 +16489,31 @@
     <row r="458" spans="1:13">
       <c r="A458" s="4"/>
       <c r="B458" s="1">
-        <f t="shared" si="91"/>
-        <v>39</v>
+        <f t="shared" ref="B458:B468" si="97">B457+D457</f>
+        <v>8</v>
       </c>
       <c r="C458" s="1">
-        <f t="shared" si="92"/>
-        <v>39</v>
+        <f t="shared" ref="C458:C468" si="98">B458+D458-1</f>
+        <v>37</v>
       </c>
       <c r="D458">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E458" s="4" t="s">
-        <v>432</v>
+        <v>17</v>
       </c>
       <c r="F458" s="4" t="s">
-        <v>433</v>
+        <v>18</v>
       </c>
       <c r="G458" s="4" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H458" s="4" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="I458" t="str">
-        <f t="shared" si="89"/>
-        <v>messageBlocks.add(new PayloadBlock(39, 39, 1, "Binary data flag", "structured", "b", "See below"));</v>
+        <f t="shared" si="95"/>
+        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 digits"));</v>
       </c>
       <c r="J458" s="4"/>
       <c r="K458" s="4"/>
@@ -16523,31 +16523,31 @@
     <row r="459" spans="1:13">
       <c r="A459" s="4"/>
       <c r="B459" s="1">
-        <f t="shared" si="91"/>
-        <v>40</v>
+        <f t="shared" si="97"/>
+        <v>38</v>
       </c>
       <c r="C459" s="1">
-        <f t="shared" si="92"/>
-        <v>69</v>
+        <f t="shared" si="98"/>
+        <v>38</v>
       </c>
       <c r="D459">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E459" s="4" t="s">
-        <v>153</v>
+        <v>430</v>
       </c>
       <c r="F459" s="4" t="s">
-        <v>154</v>
+        <v>381</v>
       </c>
       <c r="G459" s="4" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H459" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="I459" s="20" t="str">
-        <f t="shared" si="89"/>
-        <v>messageBlocks.add(new PayloadBlock(40, 69, 30, "Destination MMSI", "dest_mmsi", "u", "Message destination"));</v>
+        <v>431</v>
+      </c>
+      <c r="I459" t="str">
+        <f t="shared" si="95"/>
+        <v>messageBlocks.add(new PayloadBlock(38, 38, 1, "Destination indicator", "addressed", "b", "0=broadcast, 1=addressed."));</v>
       </c>
       <c r="J459" s="4"/>
       <c r="K459" s="4"/>
@@ -16557,29 +16557,31 @@
     <row r="460" spans="1:13">
       <c r="A460" s="4"/>
       <c r="B460" s="1">
-        <f t="shared" si="91"/>
-        <v>70</v>
+        <f t="shared" si="97"/>
+        <v>39</v>
       </c>
       <c r="C460" s="1">
-        <f t="shared" si="92"/>
-        <v>71</v>
+        <f t="shared" si="98"/>
+        <v>39</v>
       </c>
       <c r="D460">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E460" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F460" s="4"/>
+        <v>432</v>
+      </c>
+      <c r="F460" s="4" t="s">
+        <v>433</v>
+      </c>
       <c r="G460" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H460" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="I460" s="20" t="str">
-        <f t="shared" si="89"/>
-        <v>messageBlocks.add(new PayloadBlock(70, 71, 2, "Spare", "", "x", "Byte Alignment"));</v>
+        <v>27</v>
+      </c>
+      <c r="I460" t="str">
+        <f t="shared" si="95"/>
+        <v>messageBlocks.add(new PayloadBlock(39, 39, 1, "Binary data flag", "structured", "b", "See below"));</v>
       </c>
       <c r="J460" s="4"/>
       <c r="K460" s="4"/>
@@ -16589,31 +16591,31 @@
     <row r="461" spans="1:13">
       <c r="A461" s="4"/>
       <c r="B461" s="1">
-        <f t="shared" si="91"/>
-        <v>72</v>
+        <f t="shared" si="97"/>
+        <v>40</v>
       </c>
       <c r="C461" s="1">
-        <f t="shared" si="92"/>
-        <v>87</v>
+        <f t="shared" si="98"/>
+        <v>69</v>
       </c>
       <c r="D461">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E461" s="4" t="s">
-        <v>436</v>
+        <v>153</v>
       </c>
       <c r="F461" s="4" t="s">
-        <v>437</v>
+        <v>154</v>
       </c>
       <c r="G461" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H461" s="4" t="s">
-        <v>160</v>
+        <v>434</v>
       </c>
       <c r="I461" s="20" t="str">
-        <f t="shared" si="89"/>
-        <v>messageBlocks.add(new PayloadBlock(72, 87, 16, "Application ID", "app_id", "u", "Unsigned integer"));</v>
+        <f t="shared" si="95"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 69, 30, "Destination MMSI", "dest_mmsi", "u", "Message destination"));</v>
       </c>
       <c r="J461" s="4"/>
       <c r="K461" s="4"/>
@@ -16623,31 +16625,29 @@
     <row r="462" spans="1:13">
       <c r="A462" s="4"/>
       <c r="B462" s="1">
-        <f t="shared" si="91"/>
-        <v>88</v>
+        <f t="shared" si="97"/>
+        <v>70</v>
       </c>
       <c r="C462" s="1">
-        <f t="shared" si="92"/>
-        <v>1039</v>
+        <f t="shared" si="98"/>
+        <v>71</v>
       </c>
       <c r="D462">
-        <v>952</v>
+        <v>2</v>
       </c>
       <c r="E462" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F462" s="4" t="s">
-        <v>165</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F462" s="4"/>
       <c r="G462" s="4" t="s">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="H462" s="4" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="I462" s="20" t="str">
-        <f t="shared" si="89"/>
-        <v>messageBlocks.add(new PayloadBlock(88, 1039, 952, "Data", "data", "d", "Binary data"));</v>
+        <f t="shared" si="95"/>
+        <v>messageBlocks.add(new PayloadBlock(70, 71, 2, "Spare", "", "x", "Byte Alignment"));</v>
       </c>
       <c r="J462" s="4"/>
       <c r="K462" s="4"/>
@@ -16657,29 +16657,31 @@
     <row r="463" spans="1:13">
       <c r="A463" s="4"/>
       <c r="B463" s="1">
-        <f t="shared" ref="B463" si="93">B462+D462</f>
-        <v>1040</v>
+        <f t="shared" ref="B463" si="99">B462+D462</f>
+        <v>72</v>
       </c>
       <c r="C463" s="1">
-        <f t="shared" ref="C463" si="94">B463+D463-1</f>
-        <v>1043</v>
+        <f t="shared" ref="C463" si="100">B463+D463-1</f>
+        <v>81</v>
       </c>
       <c r="D463">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E463" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F463" s="4"/>
+        <v>158</v>
+      </c>
+      <c r="F463" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="G463" s="4" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="H463" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="I463" s="24" t="str">
-        <f t="shared" ref="I463" si="95">"messageBlocks.add(new PayloadBlock("&amp;B463&amp;", "&amp;C463&amp;", "&amp;D463&amp;", "&amp;CHAR(34)&amp;E463&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F463&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G463&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H463&amp;CHAR(34)&amp;"));"</f>
-        <v>messageBlocks.add(new PayloadBlock(1040, 1043, 4, "Spare", "", "x", "Byte Alignment"));</v>
+        <v>160</v>
+      </c>
+      <c r="I463" s="20" t="str">
+        <f t="shared" si="95"/>
+        <v>messageBlocks.add(new PayloadBlock(72, 81, 10, "Designated Area Code", "dac", "u", "Unsigned integer"));</v>
       </c>
       <c r="J463" s="4"/>
       <c r="K463" s="4"/>
@@ -16689,31 +16691,31 @@
     <row r="464" spans="1:13">
       <c r="A464" s="4"/>
       <c r="B464" s="1">
-        <f t="shared" si="91"/>
-        <v>1044</v>
+        <f t="shared" si="97"/>
+        <v>82</v>
       </c>
       <c r="C464" s="1">
-        <f t="shared" si="92"/>
-        <v>1044</v>
+        <f t="shared" si="98"/>
+        <v>87</v>
       </c>
       <c r="D464">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E464" s="4" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="F464" s="4" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="G464" s="4" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="H464" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="I464" t="str">
-        <f t="shared" si="89"/>
-        <v>messageBlocks.add(new PayloadBlock(1044, 1044, 1, "Comm State Selector", "commflag", "d", "Communication state selector flag"));</v>
+        <v>160</v>
+      </c>
+      <c r="I464" s="20" t="str">
+        <f t="shared" si="95"/>
+        <v>messageBlocks.add(new PayloadBlock(82, 87, 6, "Functional ID", "fid", "u", "Unsigned integer"));</v>
       </c>
       <c r="J464" s="4"/>
       <c r="K464" s="4"/>
@@ -16723,31 +16725,31 @@
     <row r="465" spans="1:13">
       <c r="A465" s="4"/>
       <c r="B465" s="1">
-        <f t="shared" si="91"/>
-        <v>1045</v>
+        <f t="shared" ref="B465" si="101">B464+D464</f>
+        <v>88</v>
       </c>
       <c r="C465" s="1">
-        <f t="shared" si="92"/>
-        <v>1063</v>
+        <f t="shared" ref="C465" si="102">B465+D465-1</f>
+        <v>1039</v>
       </c>
       <c r="D465">
-        <v>19</v>
+        <v>952</v>
       </c>
       <c r="E465" s="4" t="s">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="F465" s="4" t="s">
-        <v>58</v>
+        <v>165</v>
       </c>
       <c r="G465" s="4" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="H465" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="I465" t="str">
-        <f t="shared" si="89"/>
-        <v>messageBlocks.add(new PayloadBlock(1045, 1063, 19, "Radio status", "radio", "u", "See [IALA] for details."));</v>
+        <v>438</v>
+      </c>
+      <c r="I465" s="20" t="str">
+        <f t="shared" si="95"/>
+        <v>messageBlocks.add(new PayloadBlock(88, 1039, 952, "Data", "data", "d", "Binary data"));</v>
       </c>
       <c r="J465" s="4"/>
       <c r="K465" s="4"/>
@@ -16756,14 +16758,31 @@
     </row>
     <row r="466" spans="1:13">
       <c r="A466" s="4"/>
-      <c r="D466" s="21">
-        <f>SUM(D454:D465)</f>
-        <v>1064</v>
-      </c>
-      <c r="E466" s="4"/>
+      <c r="B466" s="1">
+        <f t="shared" ref="B466" si="103">B465+D465</f>
+        <v>1040</v>
+      </c>
+      <c r="C466" s="1">
+        <f t="shared" ref="C466" si="104">B466+D466-1</f>
+        <v>1043</v>
+      </c>
+      <c r="D466">
+        <v>4</v>
+      </c>
+      <c r="E466" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="F466" s="4"/>
-      <c r="G466" s="4"/>
-      <c r="H466" s="4"/>
+      <c r="G466" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H466" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="I466" s="24" t="str">
+        <f t="shared" ref="I466" si="105">"messageBlocks.add(new PayloadBlock("&amp;B466&amp;", "&amp;C466&amp;", "&amp;D466&amp;", "&amp;CHAR(34)&amp;E466&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F466&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G466&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H466&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(1040, 1043, 4, "Spare", "", "x", "Byte Alignment"));</v>
+      </c>
       <c r="J466" s="4"/>
       <c r="K466" s="4"/>
       <c r="L466" s="4"/>
@@ -16771,11 +16790,33 @@
     </row>
     <row r="467" spans="1:13">
       <c r="A467" s="4"/>
-      <c r="D467" s="21"/>
-      <c r="E467" s="4"/>
-      <c r="F467" s="4"/>
-      <c r="G467" s="4"/>
-      <c r="H467" s="4"/>
+      <c r="B467" s="1">
+        <f t="shared" si="97"/>
+        <v>1044</v>
+      </c>
+      <c r="C467" s="1">
+        <f t="shared" si="98"/>
+        <v>1044</v>
+      </c>
+      <c r="D467">
+        <v>1</v>
+      </c>
+      <c r="E467" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F467" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="G467" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H467" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="I467" t="str">
+        <f t="shared" si="95"/>
+        <v>messageBlocks.add(new PayloadBlock(1044, 1044, 1, "Comm State Selector", "commflag", "d", "Communication state selector flag"));</v>
+      </c>
       <c r="J467" s="4"/>
       <c r="K467" s="4"/>
       <c r="L467" s="4"/>
@@ -16783,14 +16824,33 @@
     </row>
     <row r="468" spans="1:13">
       <c r="A468" s="4"/>
-      <c r="C468" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="E468" s="4"/>
-      <c r="F468" s="4"/>
-      <c r="G468" s="4"/>
-      <c r="H468" s="4"/>
-      <c r="I468" s="4"/>
+      <c r="B468" s="1">
+        <f t="shared" si="97"/>
+        <v>1045</v>
+      </c>
+      <c r="C468" s="1">
+        <f t="shared" si="98"/>
+        <v>1063</v>
+      </c>
+      <c r="D468">
+        <v>19</v>
+      </c>
+      <c r="E468" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F468" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G468" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H468" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I468" t="str">
+        <f t="shared" si="95"/>
+        <v>messageBlocks.add(new PayloadBlock(1045, 1063, 19, "Radio status", "radio", "u", "See [IALA] for details."));</v>
+      </c>
       <c r="J468" s="4"/>
       <c r="K468" s="4"/>
       <c r="L468" s="4"/>
@@ -16798,32 +16858,14 @@
     </row>
     <row r="469" spans="1:13">
       <c r="A469" s="4"/>
-      <c r="B469" s="1">
-        <v>0</v>
-      </c>
-      <c r="C469" s="1">
-        <f t="shared" ref="C469:C477" si="96">B469+D469-1</f>
-        <v>5</v>
-      </c>
-      <c r="D469">
-        <v>6</v>
-      </c>
-      <c r="E469" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F469" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G469" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H469" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="I469" t="str">
-        <f t="shared" ref="I469:I480" si="97">"messageBlocks.add(new PayloadBlock("&amp;B469&amp;", "&amp;C469&amp;", "&amp;D469&amp;", "&amp;CHAR(34)&amp;E469&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F469&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G469&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H469&amp;CHAR(34)&amp;"));"</f>
-        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 26"));</v>
-      </c>
+      <c r="D469" s="21">
+        <f>SUM(D456:D468)</f>
+        <v>1064</v>
+      </c>
+      <c r="E469" s="4"/>
+      <c r="F469" s="4"/>
+      <c r="G469" s="4"/>
+      <c r="H469" s="4"/>
       <c r="J469" s="4"/>
       <c r="K469" s="4"/>
       <c r="L469" s="4"/>
@@ -16831,33 +16873,11 @@
     </row>
     <row r="470" spans="1:13">
       <c r="A470" s="4"/>
-      <c r="B470" s="1">
-        <f t="shared" ref="B470:B477" si="98">B469+D469</f>
-        <v>6</v>
-      </c>
-      <c r="C470" s="1">
-        <f t="shared" si="96"/>
-        <v>7</v>
-      </c>
-      <c r="D470">
-        <v>2</v>
-      </c>
-      <c r="E470" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F470" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G470" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H470" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="I470" t="str">
-        <f t="shared" si="97"/>
-        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
-      </c>
+      <c r="D470" s="21"/>
+      <c r="E470" s="4"/>
+      <c r="F470" s="4"/>
+      <c r="G470" s="4"/>
+      <c r="H470" s="4"/>
       <c r="J470" s="4"/>
       <c r="K470" s="4"/>
       <c r="L470" s="4"/>
@@ -16865,33 +16885,14 @@
     </row>
     <row r="471" spans="1:13">
       <c r="A471" s="4"/>
-      <c r="B471" s="1">
-        <f t="shared" si="98"/>
-        <v>8</v>
-      </c>
-      <c r="C471" s="1">
-        <f t="shared" si="96"/>
-        <v>37</v>
-      </c>
-      <c r="D471">
-        <v>30</v>
-      </c>
-      <c r="E471" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F471" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G471" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H471" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I471" t="str">
-        <f t="shared" si="97"/>
-        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 digits"));</v>
-      </c>
+      <c r="C471" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E471" s="4"/>
+      <c r="F471" s="4"/>
+      <c r="G471" s="4"/>
+      <c r="H471" s="4"/>
+      <c r="I471" s="4"/>
       <c r="J471" s="4"/>
       <c r="K471" s="4"/>
       <c r="L471" s="4"/>
@@ -16900,31 +16901,30 @@
     <row r="472" spans="1:13">
       <c r="A472" s="4"/>
       <c r="B472" s="1">
-        <f t="shared" si="98"/>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C472" s="1">
-        <f t="shared" si="96"/>
-        <v>38</v>
+        <f t="shared" ref="C472:C480" si="106">B472+D472-1</f>
+        <v>5</v>
       </c>
       <c r="D472">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E472" s="4" t="s">
-        <v>430</v>
+        <v>10</v>
       </c>
       <c r="F472" s="4" t="s">
-        <v>381</v>
+        <v>11</v>
       </c>
       <c r="G472" s="4" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H472" s="4" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="I472" t="str">
-        <f t="shared" si="97"/>
-        <v>messageBlocks.add(new PayloadBlock(38, 38, 1, "Destination indicator", "addressed", "b", "0=broadcast, 1=addressed."));</v>
+        <f t="shared" ref="I472:I483" si="107">"messageBlocks.add(new PayloadBlock("&amp;B472&amp;", "&amp;C472&amp;", "&amp;D472&amp;", "&amp;CHAR(34)&amp;E472&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F472&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G472&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H472&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 26"));</v>
       </c>
       <c r="J472" s="4"/>
       <c r="K472" s="4"/>
@@ -16934,31 +16934,31 @@
     <row r="473" spans="1:13">
       <c r="A473" s="4"/>
       <c r="B473" s="1">
-        <f t="shared" si="98"/>
-        <v>39</v>
+        <f t="shared" ref="B473:B480" si="108">B472+D472</f>
+        <v>6</v>
       </c>
       <c r="C473" s="1">
-        <f t="shared" si="96"/>
-        <v>39</v>
+        <f t="shared" si="106"/>
+        <v>7</v>
       </c>
       <c r="D473">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E473" s="4" t="s">
-        <v>432</v>
+        <v>14</v>
       </c>
       <c r="F473" s="4" t="s">
-        <v>433</v>
+        <v>15</v>
       </c>
       <c r="G473" s="4" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H473" s="4" t="s">
-        <v>27</v>
+        <v>312</v>
       </c>
       <c r="I473" t="str">
-        <f t="shared" si="97"/>
-        <v>messageBlocks.add(new PayloadBlock(39, 39, 1, "Binary data flag", "structured", "b", "See below"));</v>
+        <f t="shared" si="107"/>
+        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
       </c>
       <c r="J473" s="4"/>
       <c r="K473" s="4"/>
@@ -16968,31 +16968,31 @@
     <row r="474" spans="1:13">
       <c r="A474" s="4"/>
       <c r="B474" s="1">
-        <f t="shared" si="98"/>
-        <v>40</v>
+        <f t="shared" si="108"/>
+        <v>8</v>
       </c>
       <c r="C474" s="1">
-        <f t="shared" si="96"/>
-        <v>69</v>
+        <f t="shared" si="106"/>
+        <v>37</v>
       </c>
       <c r="D474">
         <v>30</v>
       </c>
       <c r="E474" s="4" t="s">
-        <v>153</v>
+        <v>17</v>
       </c>
       <c r="F474" s="4" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="G474" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H474" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="I474" s="20" t="str">
-        <f t="shared" si="97"/>
-        <v>messageBlocks.add(new PayloadBlock(40, 69, 30, "Destination MMSI", "dest_mmsi", "u", "Message destination"));</v>
+        <v>99</v>
+      </c>
+      <c r="I474" t="str">
+        <f t="shared" si="107"/>
+        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 digits"));</v>
       </c>
       <c r="J474" s="4"/>
       <c r="K474" s="4"/>
@@ -17002,29 +17002,31 @@
     <row r="475" spans="1:13">
       <c r="A475" s="4"/>
       <c r="B475" s="1">
-        <f t="shared" si="98"/>
-        <v>70</v>
+        <f t="shared" si="108"/>
+        <v>38</v>
       </c>
       <c r="C475" s="1">
-        <f t="shared" si="96"/>
-        <v>71</v>
+        <f t="shared" si="106"/>
+        <v>38</v>
       </c>
       <c r="D475">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E475" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F475" s="4"/>
+        <v>430</v>
+      </c>
+      <c r="F475" s="4" t="s">
+        <v>381</v>
+      </c>
       <c r="G475" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H475" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="I475" s="20" t="str">
-        <f t="shared" si="97"/>
-        <v>messageBlocks.add(new PayloadBlock(70, 71, 2, "Spare", "", "x", "Byte Alignment"));</v>
+        <v>431</v>
+      </c>
+      <c r="I475" t="str">
+        <f t="shared" si="107"/>
+        <v>messageBlocks.add(new PayloadBlock(38, 38, 1, "Destination indicator", "addressed", "b", "0=broadcast, 1=addressed."));</v>
       </c>
       <c r="J475" s="4"/>
       <c r="K475" s="4"/>
@@ -17034,31 +17036,31 @@
     <row r="476" spans="1:13">
       <c r="A476" s="4"/>
       <c r="B476" s="1">
-        <f t="shared" si="98"/>
-        <v>72</v>
+        <f t="shared" si="108"/>
+        <v>39</v>
       </c>
       <c r="C476" s="1">
-        <f t="shared" si="96"/>
-        <v>71</v>
+        <f t="shared" si="106"/>
+        <v>39</v>
       </c>
       <c r="D476">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E476" s="4" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F476" s="4" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G476" s="4" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H476" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="I476" s="20" t="str">
-        <f t="shared" si="97"/>
-        <v>messageBlocks.add(new PayloadBlock(72, 71, 0, "Application ID", "app_id", "u", "Unsigned integer"));</v>
+        <v>27</v>
+      </c>
+      <c r="I476" t="str">
+        <f t="shared" si="107"/>
+        <v>messageBlocks.add(new PayloadBlock(39, 39, 1, "Binary data flag", "structured", "b", "See below"));</v>
       </c>
       <c r="J476" s="4"/>
       <c r="K476" s="4"/>
@@ -17068,31 +17070,31 @@
     <row r="477" spans="1:13">
       <c r="A477" s="4"/>
       <c r="B477" s="1">
-        <f t="shared" si="98"/>
-        <v>72</v>
+        <f t="shared" si="108"/>
+        <v>40</v>
       </c>
       <c r="C477" s="1">
-        <f t="shared" si="96"/>
-        <v>1039</v>
+        <f t="shared" si="106"/>
+        <v>69</v>
       </c>
       <c r="D477">
-        <v>968</v>
+        <v>30</v>
       </c>
       <c r="E477" s="4" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="F477" s="4" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="G477" s="4" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="H477" s="4" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I477" s="20" t="str">
-        <f t="shared" si="97"/>
-        <v>messageBlocks.add(new PayloadBlock(72, 1039, 968, "Data", "data", "d", "Binary data"));</v>
+        <f t="shared" si="107"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 69, 30, "Destination MMSI", "dest_mmsi", "u", "Message destination"));</v>
       </c>
       <c r="J477" s="4"/>
       <c r="K477" s="4"/>
@@ -17102,15 +17104,15 @@
     <row r="478" spans="1:13">
       <c r="A478" s="4"/>
       <c r="B478" s="1">
-        <f t="shared" ref="B478:B480" si="99">B477+D477</f>
-        <v>1040</v>
+        <f t="shared" si="108"/>
+        <v>70</v>
       </c>
       <c r="C478" s="1">
-        <f t="shared" ref="C478:C480" si="100">B478+D478-1</f>
-        <v>1043</v>
+        <f t="shared" si="106"/>
+        <v>71</v>
       </c>
       <c r="D478">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E478" s="4" t="s">
         <v>52</v>
@@ -17122,9 +17124,9 @@
       <c r="H478" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="I478" s="24" t="str">
-        <f t="shared" si="97"/>
-        <v>messageBlocks.add(new PayloadBlock(1040, 1043, 4, "Spare", "", "x", "Byte Alignment"));</v>
+      <c r="I478" s="20" t="str">
+        <f t="shared" si="107"/>
+        <v>messageBlocks.add(new PayloadBlock(70, 71, 2, "Spare", "", "x", "Byte Alignment"));</v>
       </c>
       <c r="J478" s="4"/>
       <c r="K478" s="4"/>
@@ -17134,31 +17136,31 @@
     <row r="479" spans="1:13">
       <c r="A479" s="4"/>
       <c r="B479" s="1">
-        <f t="shared" si="99"/>
-        <v>1044</v>
+        <f t="shared" si="108"/>
+        <v>72</v>
       </c>
       <c r="C479" s="1">
-        <f t="shared" si="100"/>
-        <v>1044</v>
+        <f t="shared" si="106"/>
+        <v>71</v>
       </c>
       <c r="D479">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E479" s="4" t="s">
-        <v>211</v>
+        <v>436</v>
       </c>
       <c r="F479" s="4" t="s">
-        <v>212</v>
+        <v>437</v>
       </c>
       <c r="G479" s="4" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="H479" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="I479" t="str">
-        <f t="shared" si="97"/>
-        <v>messageBlocks.add(new PayloadBlock(1044, 1044, 1, "Comm State Selector", "commflag", "d", "Communication state selector flag"));</v>
+        <v>160</v>
+      </c>
+      <c r="I479" s="20" t="str">
+        <f t="shared" si="107"/>
+        <v>messageBlocks.add(new PayloadBlock(72, 71, 0, "Application ID", "app_id", "u", "Unsigned integer"));</v>
       </c>
       <c r="J479" s="4"/>
       <c r="K479" s="4"/>
@@ -17168,31 +17170,31 @@
     <row r="480" spans="1:13">
       <c r="A480" s="4"/>
       <c r="B480" s="1">
-        <f t="shared" si="99"/>
-        <v>1045</v>
+        <f t="shared" si="108"/>
+        <v>72</v>
       </c>
       <c r="C480" s="1">
-        <f t="shared" si="100"/>
-        <v>1063</v>
+        <f t="shared" si="106"/>
+        <v>1039</v>
       </c>
       <c r="D480">
-        <v>19</v>
+        <v>968</v>
       </c>
       <c r="E480" s="4" t="s">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="F480" s="4" t="s">
-        <v>58</v>
+        <v>165</v>
       </c>
       <c r="G480" s="4" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="H480" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="I480" t="str">
-        <f t="shared" si="97"/>
-        <v>messageBlocks.add(new PayloadBlock(1045, 1063, 19, "Radio status", "radio", "u", "See [IALA] for details."));</v>
+        <v>438</v>
+      </c>
+      <c r="I480" s="20" t="str">
+        <f t="shared" si="107"/>
+        <v>messageBlocks.add(new PayloadBlock(72, 1039, 968, "Data", "data", "d", "Binary data"));</v>
       </c>
       <c r="J480" s="4"/>
       <c r="K480" s="4"/>
@@ -17201,14 +17203,31 @@
     </row>
     <row r="481" spans="1:13">
       <c r="A481" s="4"/>
-      <c r="D481" s="21">
-        <f>SUM(D469:D480)</f>
-        <v>1064</v>
-      </c>
-      <c r="E481" s="4"/>
+      <c r="B481" s="1">
+        <f t="shared" ref="B481:B483" si="109">B480+D480</f>
+        <v>1040</v>
+      </c>
+      <c r="C481" s="1">
+        <f t="shared" ref="C481:C483" si="110">B481+D481-1</f>
+        <v>1043</v>
+      </c>
+      <c r="D481">
+        <v>4</v>
+      </c>
+      <c r="E481" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="F481" s="4"/>
-      <c r="G481" s="4"/>
-      <c r="H481" s="4"/>
+      <c r="G481" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H481" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="I481" s="24" t="str">
+        <f t="shared" si="107"/>
+        <v>messageBlocks.add(new PayloadBlock(1040, 1043, 4, "Spare", "", "x", "Byte Alignment"));</v>
+      </c>
       <c r="J481" s="4"/>
       <c r="K481" s="4"/>
       <c r="L481" s="4"/>
@@ -17216,11 +17235,33 @@
     </row>
     <row r="482" spans="1:13">
       <c r="A482" s="4"/>
-      <c r="D482" s="21"/>
-      <c r="E482" s="4"/>
-      <c r="F482" s="4"/>
-      <c r="G482" s="4"/>
-      <c r="H482" s="4"/>
+      <c r="B482" s="1">
+        <f t="shared" si="109"/>
+        <v>1044</v>
+      </c>
+      <c r="C482" s="1">
+        <f t="shared" si="110"/>
+        <v>1044</v>
+      </c>
+      <c r="D482">
+        <v>1</v>
+      </c>
+      <c r="E482" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F482" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="G482" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H482" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="I482" t="str">
+        <f t="shared" si="107"/>
+        <v>messageBlocks.add(new PayloadBlock(1044, 1044, 1, "Comm State Selector", "commflag", "d", "Communication state selector flag"));</v>
+      </c>
       <c r="J482" s="4"/>
       <c r="K482" s="4"/>
       <c r="L482" s="4"/>
@@ -17228,14 +17269,33 @@
     </row>
     <row r="483" spans="1:13">
       <c r="A483" s="4"/>
-      <c r="C483" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="E483" s="4"/>
-      <c r="F483" s="4"/>
-      <c r="G483" s="4"/>
-      <c r="H483" s="4"/>
-      <c r="I483" s="4"/>
+      <c r="B483" s="1">
+        <f t="shared" si="109"/>
+        <v>1045</v>
+      </c>
+      <c r="C483" s="1">
+        <f t="shared" si="110"/>
+        <v>1063</v>
+      </c>
+      <c r="D483">
+        <v>19</v>
+      </c>
+      <c r="E483" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F483" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G483" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H483" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I483" t="str">
+        <f t="shared" si="107"/>
+        <v>messageBlocks.add(new PayloadBlock(1045, 1063, 19, "Radio status", "radio", "u", "See [IALA] for details."));</v>
+      </c>
       <c r="J483" s="4"/>
       <c r="K483" s="4"/>
       <c r="L483" s="4"/>
@@ -17243,32 +17303,14 @@
     </row>
     <row r="484" spans="1:13">
       <c r="A484" s="4"/>
-      <c r="B484" s="1">
-        <v>0</v>
-      </c>
-      <c r="C484" s="1">
-        <f t="shared" ref="C484:C495" si="101">B484+D484-1</f>
-        <v>5</v>
-      </c>
-      <c r="D484">
-        <v>6</v>
-      </c>
-      <c r="E484" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F484" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G484" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H484" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="I484" t="str">
-        <f t="shared" ref="I484:I495" si="102">"messageBlocks.add(new PayloadBlock("&amp;B484&amp;", "&amp;C484&amp;", "&amp;D484&amp;", "&amp;CHAR(34)&amp;E484&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F484&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G484&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H484&amp;CHAR(34)&amp;"));"</f>
-        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 26"));</v>
-      </c>
+      <c r="D484" s="21">
+        <f>SUM(D472:D483)</f>
+        <v>1064</v>
+      </c>
+      <c r="E484" s="4"/>
+      <c r="F484" s="4"/>
+      <c r="G484" s="4"/>
+      <c r="H484" s="4"/>
       <c r="J484" s="4"/>
       <c r="K484" s="4"/>
       <c r="L484" s="4"/>
@@ -17276,33 +17318,11 @@
     </row>
     <row r="485" spans="1:13">
       <c r="A485" s="4"/>
-      <c r="B485" s="1">
-        <f t="shared" ref="B485:B495" si="103">B484+D484</f>
-        <v>6</v>
-      </c>
-      <c r="C485" s="1">
-        <f t="shared" si="101"/>
-        <v>7</v>
-      </c>
-      <c r="D485">
-        <v>2</v>
-      </c>
-      <c r="E485" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F485" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G485" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H485" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="I485" t="str">
-        <f t="shared" si="102"/>
-        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
-      </c>
+      <c r="D485" s="21"/>
+      <c r="E485" s="4"/>
+      <c r="F485" s="4"/>
+      <c r="G485" s="4"/>
+      <c r="H485" s="4"/>
       <c r="J485" s="4"/>
       <c r="K485" s="4"/>
       <c r="L485" s="4"/>
@@ -17310,33 +17330,14 @@
     </row>
     <row r="486" spans="1:13">
       <c r="A486" s="4"/>
-      <c r="B486" s="1">
-        <f t="shared" si="103"/>
-        <v>8</v>
-      </c>
-      <c r="C486" s="1">
-        <f t="shared" si="101"/>
-        <v>37</v>
-      </c>
-      <c r="D486">
-        <v>30</v>
-      </c>
-      <c r="E486" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F486" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G486" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H486" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I486" t="str">
-        <f t="shared" si="102"/>
-        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 digits"));</v>
-      </c>
+      <c r="C486" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E486" s="4"/>
+      <c r="F486" s="4"/>
+      <c r="G486" s="4"/>
+      <c r="H486" s="4"/>
+      <c r="I486" s="4"/>
       <c r="J486" s="4"/>
       <c r="K486" s="4"/>
       <c r="L486" s="4"/>
@@ -17345,31 +17346,30 @@
     <row r="487" spans="1:13">
       <c r="A487" s="4"/>
       <c r="B487" s="1">
-        <f t="shared" si="103"/>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C487" s="1">
-        <f t="shared" si="101"/>
-        <v>38</v>
+        <f t="shared" ref="C487:C499" si="111">B487+D487-1</f>
+        <v>5</v>
       </c>
       <c r="D487">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E487" s="4" t="s">
-        <v>430</v>
+        <v>10</v>
       </c>
       <c r="F487" s="4" t="s">
-        <v>381</v>
+        <v>11</v>
       </c>
       <c r="G487" s="4" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H487" s="4" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="I487" t="str">
-        <f t="shared" si="102"/>
-        <v>messageBlocks.add(new PayloadBlock(38, 38, 1, "Destination indicator", "addressed", "b", "0=broadcast, 1=addressed."));</v>
+        <f t="shared" ref="I487:I499" si="112">"messageBlocks.add(new PayloadBlock("&amp;B487&amp;", "&amp;C487&amp;", "&amp;D487&amp;", "&amp;CHAR(34)&amp;E487&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F487&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G487&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H487&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 26"));</v>
       </c>
       <c r="J487" s="4"/>
       <c r="K487" s="4"/>
@@ -17379,31 +17379,31 @@
     <row r="488" spans="1:13">
       <c r="A488" s="4"/>
       <c r="B488" s="1">
-        <f t="shared" si="103"/>
-        <v>39</v>
+        <f t="shared" ref="B488:B499" si="113">B487+D487</f>
+        <v>6</v>
       </c>
       <c r="C488" s="1">
-        <f t="shared" si="101"/>
-        <v>39</v>
+        <f t="shared" si="111"/>
+        <v>7</v>
       </c>
       <c r="D488">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E488" s="4" t="s">
-        <v>432</v>
+        <v>14</v>
       </c>
       <c r="F488" s="4" t="s">
-        <v>433</v>
+        <v>15</v>
       </c>
       <c r="G488" s="4" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H488" s="4" t="s">
-        <v>27</v>
+        <v>312</v>
       </c>
       <c r="I488" t="str">
-        <f t="shared" si="102"/>
-        <v>messageBlocks.add(new PayloadBlock(39, 39, 1, "Binary data flag", "structured", "b", "See below"));</v>
+        <f t="shared" si="112"/>
+        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
       </c>
       <c r="J488" s="4"/>
       <c r="K488" s="4"/>
@@ -17413,31 +17413,31 @@
     <row r="489" spans="1:13">
       <c r="A489" s="4"/>
       <c r="B489" s="1">
-        <f t="shared" si="103"/>
-        <v>40</v>
+        <f t="shared" si="113"/>
+        <v>8</v>
       </c>
       <c r="C489" s="1">
-        <f t="shared" si="101"/>
-        <v>39</v>
+        <f t="shared" si="111"/>
+        <v>37</v>
       </c>
       <c r="D489">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E489" s="4" t="s">
-        <v>153</v>
+        <v>17</v>
       </c>
       <c r="F489" s="4" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="G489" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H489" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="I489" s="20" t="str">
-        <f t="shared" si="102"/>
-        <v>messageBlocks.add(new PayloadBlock(40, 39, 0, "Destination MMSI", "dest_mmsi", "u", "Message destination"));</v>
+        <v>99</v>
+      </c>
+      <c r="I489" t="str">
+        <f t="shared" si="112"/>
+        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 digits"));</v>
       </c>
       <c r="J489" s="4"/>
       <c r="K489" s="4"/>
@@ -17447,29 +17447,31 @@
     <row r="490" spans="1:13">
       <c r="A490" s="4"/>
       <c r="B490" s="1">
-        <f t="shared" si="103"/>
-        <v>40</v>
+        <f t="shared" si="113"/>
+        <v>38</v>
       </c>
       <c r="C490" s="1">
-        <f t="shared" si="101"/>
-        <v>39</v>
+        <f t="shared" si="111"/>
+        <v>38</v>
       </c>
       <c r="D490">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E490" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F490" s="4"/>
+        <v>430</v>
+      </c>
+      <c r="F490" s="4" t="s">
+        <v>381</v>
+      </c>
       <c r="G490" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H490" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="I490" s="20" t="str">
-        <f t="shared" si="102"/>
-        <v>messageBlocks.add(new PayloadBlock(40, 39, 0, "Spare", "", "x", "Byte Alignment"));</v>
+        <v>431</v>
+      </c>
+      <c r="I490" t="str">
+        <f t="shared" si="112"/>
+        <v>messageBlocks.add(new PayloadBlock(38, 38, 1, "Destination indicator", "addressed", "b", "0=broadcast, 1=addressed."));</v>
       </c>
       <c r="J490" s="4"/>
       <c r="K490" s="4"/>
@@ -17479,31 +17481,31 @@
     <row r="491" spans="1:13">
       <c r="A491" s="4"/>
       <c r="B491" s="1">
-        <f t="shared" si="103"/>
-        <v>40</v>
+        <f t="shared" si="113"/>
+        <v>39</v>
       </c>
       <c r="C491" s="1">
-        <f t="shared" si="101"/>
-        <v>55</v>
+        <f t="shared" si="111"/>
+        <v>39</v>
       </c>
       <c r="D491">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E491" s="4" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F491" s="4" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G491" s="4" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H491" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="I491" s="20" t="str">
-        <f t="shared" si="102"/>
-        <v>messageBlocks.add(new PayloadBlock(40, 55, 16, "Application ID", "app_id", "u", "Unsigned integer"));</v>
+        <v>27</v>
+      </c>
+      <c r="I491" t="str">
+        <f t="shared" si="112"/>
+        <v>messageBlocks.add(new PayloadBlock(39, 39, 1, "Binary data flag", "structured", "b", "See below"));</v>
       </c>
       <c r="J491" s="4"/>
       <c r="K491" s="4"/>
@@ -17513,31 +17515,31 @@
     <row r="492" spans="1:13">
       <c r="A492" s="4"/>
       <c r="B492" s="1">
-        <f t="shared" si="103"/>
-        <v>56</v>
+        <f t="shared" si="113"/>
+        <v>40</v>
       </c>
       <c r="C492" s="1">
-        <f t="shared" si="101"/>
-        <v>1039</v>
+        <f t="shared" si="111"/>
+        <v>39</v>
       </c>
       <c r="D492">
-        <v>984</v>
+        <v>0</v>
       </c>
       <c r="E492" s="4" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="F492" s="4" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="G492" s="4" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="H492" s="4" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I492" s="20" t="str">
-        <f t="shared" si="102"/>
-        <v>messageBlocks.add(new PayloadBlock(56, 1039, 984, "Data", "data", "d", "Binary data"));</v>
+        <f t="shared" si="112"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 39, 0, "Destination MMSI", "dest_mmsi", "u", "Message destination"));</v>
       </c>
       <c r="J492" s="4"/>
       <c r="K492" s="4"/>
@@ -17547,15 +17549,15 @@
     <row r="493" spans="1:13">
       <c r="A493" s="4"/>
       <c r="B493" s="1">
-        <f t="shared" si="103"/>
-        <v>1040</v>
+        <f t="shared" si="113"/>
+        <v>40</v>
       </c>
       <c r="C493" s="1">
-        <f t="shared" si="101"/>
-        <v>1043</v>
+        <f t="shared" si="111"/>
+        <v>39</v>
       </c>
       <c r="D493">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E493" s="4" t="s">
         <v>52</v>
@@ -17567,9 +17569,9 @@
       <c r="H493" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="I493" s="24" t="str">
-        <f t="shared" si="102"/>
-        <v>messageBlocks.add(new PayloadBlock(1040, 1043, 4, "Spare", "", "x", "Byte Alignment"));</v>
+      <c r="I493" s="20" t="str">
+        <f t="shared" si="112"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 39, 0, "Spare", "", "x", "Byte Alignment"));</v>
       </c>
       <c r="J493" s="4"/>
       <c r="K493" s="4"/>
@@ -17579,31 +17581,31 @@
     <row r="494" spans="1:13">
       <c r="A494" s="4"/>
       <c r="B494" s="1">
-        <f t="shared" si="103"/>
-        <v>1044</v>
+        <f t="shared" ref="B494" si="114">B493+D493</f>
+        <v>40</v>
       </c>
       <c r="C494" s="1">
-        <f t="shared" si="101"/>
-        <v>1044</v>
+        <f t="shared" ref="C494" si="115">B494+D494-1</f>
+        <v>49</v>
       </c>
       <c r="D494">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E494" s="4" t="s">
-        <v>211</v>
+        <v>158</v>
       </c>
       <c r="F494" s="4" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="G494" s="4" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="H494" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="I494" t="str">
-        <f t="shared" si="102"/>
-        <v>messageBlocks.add(new PayloadBlock(1044, 1044, 1, "Comm State Selector", "commflag", "d", "Communication state selector flag"));</v>
+        <v>160</v>
+      </c>
+      <c r="I494" s="20" t="str">
+        <f t="shared" si="112"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 49, 10, "Designated Area Code", "dac", "u", "Unsigned integer"));</v>
       </c>
       <c r="J494" s="4"/>
       <c r="K494" s="4"/>
@@ -17613,31 +17615,31 @@
     <row r="495" spans="1:13">
       <c r="A495" s="4"/>
       <c r="B495" s="1">
-        <f t="shared" si="103"/>
-        <v>1045</v>
+        <f t="shared" si="113"/>
+        <v>50</v>
       </c>
       <c r="C495" s="1">
-        <f t="shared" si="101"/>
-        <v>1063</v>
+        <f t="shared" si="111"/>
+        <v>55</v>
       </c>
       <c r="D495">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E495" s="4" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="F495" s="4" t="s">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c r="G495" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H495" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="I495" t="str">
-        <f t="shared" si="102"/>
-        <v>messageBlocks.add(new PayloadBlock(1045, 1063, 19, "Radio status", "radio", "u", "See [IALA] for details."));</v>
+        <v>160</v>
+      </c>
+      <c r="I495" s="20" t="str">
+        <f t="shared" si="112"/>
+        <v>messageBlocks.add(new PayloadBlock(50, 55, 6, "Functional ID", "fid", "u", "Unsigned integer"));</v>
       </c>
       <c r="J495" s="4"/>
       <c r="K495" s="4"/>
@@ -17646,14 +17648,33 @@
     </row>
     <row r="496" spans="1:13">
       <c r="A496" s="4"/>
-      <c r="D496" s="21">
-        <f>SUM(D484:D495)</f>
-        <v>1064</v>
-      </c>
-      <c r="E496" s="4"/>
-      <c r="F496" s="4"/>
-      <c r="G496" s="4"/>
-      <c r="H496" s="4"/>
+      <c r="B496" s="1">
+        <f t="shared" ref="B496" si="116">B495+D495</f>
+        <v>56</v>
+      </c>
+      <c r="C496" s="1">
+        <f t="shared" ref="C496" si="117">B496+D496-1</f>
+        <v>1039</v>
+      </c>
+      <c r="D496">
+        <v>984</v>
+      </c>
+      <c r="E496" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F496" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G496" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H496" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="I496" s="20" t="str">
+        <f t="shared" si="112"/>
+        <v>messageBlocks.add(new PayloadBlock(56, 1039, 984, "Data", "data", "d", "Binary data"));</v>
+      </c>
       <c r="J496" s="4"/>
       <c r="K496" s="4"/>
       <c r="L496" s="4"/>
@@ -17661,11 +17682,31 @@
     </row>
     <row r="497" spans="1:13">
       <c r="A497" s="4"/>
-      <c r="D497" s="21"/>
-      <c r="E497" s="4"/>
+      <c r="B497" s="1">
+        <f t="shared" si="113"/>
+        <v>1040</v>
+      </c>
+      <c r="C497" s="1">
+        <f t="shared" si="111"/>
+        <v>1043</v>
+      </c>
+      <c r="D497">
+        <v>4</v>
+      </c>
+      <c r="E497" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="F497" s="4"/>
-      <c r="G497" s="4"/>
-      <c r="H497" s="4"/>
+      <c r="G497" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H497" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="I497" s="24" t="str">
+        <f t="shared" si="112"/>
+        <v>messageBlocks.add(new PayloadBlock(1040, 1043, 4, "Spare", "", "x", "Byte Alignment"));</v>
+      </c>
       <c r="J497" s="4"/>
       <c r="K497" s="4"/>
       <c r="L497" s="4"/>
@@ -17673,14 +17714,33 @@
     </row>
     <row r="498" spans="1:13">
       <c r="A498" s="4"/>
-      <c r="C498" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="E498" s="4"/>
-      <c r="F498" s="4"/>
-      <c r="G498" s="4"/>
-      <c r="H498" s="4"/>
-      <c r="I498" s="4"/>
+      <c r="B498" s="1">
+        <f t="shared" si="113"/>
+        <v>1044</v>
+      </c>
+      <c r="C498" s="1">
+        <f t="shared" si="111"/>
+        <v>1044</v>
+      </c>
+      <c r="D498">
+        <v>1</v>
+      </c>
+      <c r="E498" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F498" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="G498" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H498" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="I498" t="str">
+        <f t="shared" si="112"/>
+        <v>messageBlocks.add(new PayloadBlock(1044, 1044, 1, "Comm State Selector", "commflag", "d", "Communication state selector flag"));</v>
+      </c>
       <c r="J498" s="4"/>
       <c r="K498" s="4"/>
       <c r="L498" s="4"/>
@@ -17689,30 +17749,31 @@
     <row r="499" spans="1:13">
       <c r="A499" s="4"/>
       <c r="B499" s="1">
-        <v>0</v>
+        <f t="shared" si="113"/>
+        <v>1045</v>
       </c>
       <c r="C499" s="1">
-        <f t="shared" ref="C499:C510" si="104">B499+D499-1</f>
-        <v>5</v>
+        <f t="shared" si="111"/>
+        <v>1063</v>
       </c>
       <c r="D499">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E499" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="F499" s="4" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="G499" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H499" s="4" t="s">
-        <v>440</v>
+        <v>214</v>
       </c>
       <c r="I499" t="str">
-        <f t="shared" ref="I499:I510" si="105">"messageBlocks.add(new PayloadBlock("&amp;B499&amp;", "&amp;C499&amp;", "&amp;D499&amp;", "&amp;CHAR(34)&amp;E499&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F499&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G499&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H499&amp;CHAR(34)&amp;"));"</f>
-        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 26"));</v>
+        <f t="shared" si="112"/>
+        <v>messageBlocks.add(new PayloadBlock(1045, 1063, 19, "Radio status", "radio", "u", "See [IALA] for details."));</v>
       </c>
       <c r="J499" s="4"/>
       <c r="K499" s="4"/>
@@ -17721,33 +17782,14 @@
     </row>
     <row r="500" spans="1:13">
       <c r="A500" s="4"/>
-      <c r="B500" s="1">
-        <f t="shared" ref="B500:B510" si="106">B499+D499</f>
-        <v>6</v>
-      </c>
-      <c r="C500" s="1">
-        <f t="shared" si="104"/>
-        <v>7</v>
-      </c>
-      <c r="D500">
-        <v>2</v>
-      </c>
-      <c r="E500" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F500" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G500" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H500" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="I500" t="str">
-        <f t="shared" si="105"/>
-        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
-      </c>
+      <c r="D500" s="21">
+        <f>SUM(D487:D499)</f>
+        <v>1064</v>
+      </c>
+      <c r="E500" s="4"/>
+      <c r="F500" s="4"/>
+      <c r="G500" s="4"/>
+      <c r="H500" s="4"/>
       <c r="J500" s="4"/>
       <c r="K500" s="4"/>
       <c r="L500" s="4"/>
@@ -17755,33 +17797,11 @@
     </row>
     <row r="501" spans="1:13">
       <c r="A501" s="4"/>
-      <c r="B501" s="1">
-        <f t="shared" si="106"/>
-        <v>8</v>
-      </c>
-      <c r="C501" s="1">
-        <f t="shared" si="104"/>
-        <v>37</v>
-      </c>
-      <c r="D501">
-        <v>30</v>
-      </c>
-      <c r="E501" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F501" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G501" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H501" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I501" t="str">
-        <f t="shared" si="105"/>
-        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 digits"));</v>
-      </c>
+      <c r="D501" s="21"/>
+      <c r="E501" s="4"/>
+      <c r="F501" s="4"/>
+      <c r="G501" s="4"/>
+      <c r="H501" s="4"/>
       <c r="J501" s="4"/>
       <c r="K501" s="4"/>
       <c r="L501" s="4"/>
@@ -17789,33 +17809,14 @@
     </row>
     <row r="502" spans="1:13">
       <c r="A502" s="4"/>
-      <c r="B502" s="1">
-        <f t="shared" si="106"/>
-        <v>38</v>
-      </c>
-      <c r="C502" s="1">
-        <f t="shared" si="104"/>
-        <v>38</v>
-      </c>
-      <c r="D502">
-        <v>1</v>
-      </c>
-      <c r="E502" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="F502" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="G502" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H502" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="I502" t="str">
-        <f t="shared" si="105"/>
-        <v>messageBlocks.add(new PayloadBlock(38, 38, 1, "Destination indicator", "addressed", "b", "0=broadcast, 1=addressed."));</v>
-      </c>
+      <c r="C502" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E502" s="4"/>
+      <c r="F502" s="4"/>
+      <c r="G502" s="4"/>
+      <c r="H502" s="4"/>
+      <c r="I502" s="4"/>
       <c r="J502" s="4"/>
       <c r="K502" s="4"/>
       <c r="L502" s="4"/>
@@ -17824,31 +17825,30 @@
     <row r="503" spans="1:13">
       <c r="A503" s="4"/>
       <c r="B503" s="1">
-        <f t="shared" si="106"/>
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="C503" s="1">
-        <f t="shared" si="104"/>
-        <v>39</v>
+        <f t="shared" ref="C503:C514" si="118">B503+D503-1</f>
+        <v>5</v>
       </c>
       <c r="D503">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E503" s="4" t="s">
-        <v>432</v>
+        <v>10</v>
       </c>
       <c r="F503" s="4" t="s">
-        <v>433</v>
+        <v>11</v>
       </c>
       <c r="G503" s="4" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H503" s="4" t="s">
-        <v>27</v>
+        <v>440</v>
       </c>
       <c r="I503" t="str">
-        <f t="shared" si="105"/>
-        <v>messageBlocks.add(new PayloadBlock(39, 39, 1, "Binary data flag", "structured", "b", "See below"));</v>
+        <f t="shared" ref="I503:I514" si="119">"messageBlocks.add(new PayloadBlock("&amp;B503&amp;", "&amp;C503&amp;", "&amp;D503&amp;", "&amp;CHAR(34)&amp;E503&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F503&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G503&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H503&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 26"));</v>
       </c>
       <c r="J503" s="4"/>
       <c r="K503" s="4"/>
@@ -17858,31 +17858,31 @@
     <row r="504" spans="1:13">
       <c r="A504" s="4"/>
       <c r="B504" s="1">
-        <f t="shared" si="106"/>
-        <v>40</v>
+        <f t="shared" ref="B504:B514" si="120">B503+D503</f>
+        <v>6</v>
       </c>
       <c r="C504" s="1">
-        <f t="shared" si="104"/>
-        <v>39</v>
+        <f t="shared" si="118"/>
+        <v>7</v>
       </c>
       <c r="D504">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E504" s="4" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="F504" s="4" t="s">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="G504" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H504" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="I504" s="20" t="str">
-        <f t="shared" si="105"/>
-        <v>messageBlocks.add(new PayloadBlock(40, 39, 0, "Destination MMSI", "dest_mmsi", "u", "Message destination"));</v>
+        <v>312</v>
+      </c>
+      <c r="I504" t="str">
+        <f t="shared" si="119"/>
+        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
       </c>
       <c r="J504" s="4"/>
       <c r="K504" s="4"/>
@@ -17892,29 +17892,31 @@
     <row r="505" spans="1:13">
       <c r="A505" s="4"/>
       <c r="B505" s="1">
-        <f t="shared" si="106"/>
-        <v>40</v>
+        <f t="shared" si="120"/>
+        <v>8</v>
       </c>
       <c r="C505" s="1">
-        <f t="shared" si="104"/>
-        <v>39</v>
+        <f t="shared" si="118"/>
+        <v>37</v>
       </c>
       <c r="D505">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E505" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F505" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="F505" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G505" s="4" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="H505" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="I505" s="20" t="str">
-        <f t="shared" si="105"/>
-        <v>messageBlocks.add(new PayloadBlock(40, 39, 0, "Spare", "", "x", "Byte Alignment"));</v>
+        <v>99</v>
+      </c>
+      <c r="I505" t="str">
+        <f t="shared" si="119"/>
+        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 digits"));</v>
       </c>
       <c r="J505" s="4"/>
       <c r="K505" s="4"/>
@@ -17924,31 +17926,31 @@
     <row r="506" spans="1:13">
       <c r="A506" s="4"/>
       <c r="B506" s="1">
-        <f t="shared" si="106"/>
-        <v>40</v>
+        <f t="shared" si="120"/>
+        <v>38</v>
       </c>
       <c r="C506" s="1">
-        <f t="shared" si="104"/>
-        <v>39</v>
+        <f t="shared" si="118"/>
+        <v>38</v>
       </c>
       <c r="D506">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E506" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="F506" s="4" t="s">
-        <v>437</v>
+        <v>381</v>
       </c>
       <c r="G506" s="4" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H506" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="I506" s="20" t="str">
-        <f t="shared" si="105"/>
-        <v>messageBlocks.add(new PayloadBlock(40, 39, 0, "Application ID", "app_id", "u", "Unsigned integer"));</v>
+        <v>431</v>
+      </c>
+      <c r="I506" t="str">
+        <f t="shared" si="119"/>
+        <v>messageBlocks.add(new PayloadBlock(38, 38, 1, "Destination indicator", "addressed", "b", "0=broadcast, 1=addressed."));</v>
       </c>
       <c r="J506" s="4"/>
       <c r="K506" s="4"/>
@@ -17958,31 +17960,31 @@
     <row r="507" spans="1:13">
       <c r="A507" s="4"/>
       <c r="B507" s="1">
-        <f t="shared" si="106"/>
-        <v>40</v>
+        <f t="shared" si="120"/>
+        <v>39</v>
       </c>
       <c r="C507" s="1">
-        <f t="shared" si="104"/>
-        <v>1039</v>
+        <f t="shared" si="118"/>
+        <v>39</v>
       </c>
       <c r="D507">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E507" s="4" t="s">
-        <v>164</v>
+        <v>432</v>
       </c>
       <c r="F507" s="4" t="s">
-        <v>165</v>
+        <v>433</v>
       </c>
       <c r="G507" s="4" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
       <c r="H507" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="I507" s="20" t="str">
-        <f t="shared" si="105"/>
-        <v>messageBlocks.add(new PayloadBlock(40, 1039, 1000, "Data", "data", "d", "Binary data"));</v>
+        <v>27</v>
+      </c>
+      <c r="I507" t="str">
+        <f t="shared" si="119"/>
+        <v>messageBlocks.add(new PayloadBlock(39, 39, 1, "Binary data flag", "structured", "b", "See below"));</v>
       </c>
       <c r="J507" s="4"/>
       <c r="K507" s="4"/>
@@ -17992,29 +17994,31 @@
     <row r="508" spans="1:13">
       <c r="A508" s="4"/>
       <c r="B508" s="1">
-        <f t="shared" si="106"/>
-        <v>1040</v>
+        <f t="shared" si="120"/>
+        <v>40</v>
       </c>
       <c r="C508" s="1">
-        <f t="shared" si="104"/>
-        <v>1043</v>
+        <f t="shared" si="118"/>
+        <v>39</v>
       </c>
       <c r="D508">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E508" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F508" s="4"/>
+        <v>153</v>
+      </c>
+      <c r="F508" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="G508" s="4" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="H508" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="I508" s="24" t="str">
-        <f t="shared" si="105"/>
-        <v>messageBlocks.add(new PayloadBlock(1040, 1043, 4, "Spare", "", "x", "Byte Alignment"));</v>
+        <v>434</v>
+      </c>
+      <c r="I508" s="20" t="str">
+        <f t="shared" si="119"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 39, 0, "Destination MMSI", "dest_mmsi", "u", "Message destination"));</v>
       </c>
       <c r="J508" s="4"/>
       <c r="K508" s="4"/>
@@ -18024,31 +18028,29 @@
     <row r="509" spans="1:13">
       <c r="A509" s="4"/>
       <c r="B509" s="1">
-        <f t="shared" si="106"/>
-        <v>1044</v>
+        <f t="shared" si="120"/>
+        <v>40</v>
       </c>
       <c r="C509" s="1">
-        <f t="shared" si="104"/>
-        <v>1044</v>
+        <f t="shared" si="118"/>
+        <v>39</v>
       </c>
       <c r="D509">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E509" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F509" s="4" t="s">
-        <v>212</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F509" s="4"/>
       <c r="G509" s="4" t="s">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="H509" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="I509" t="str">
-        <f t="shared" si="105"/>
-        <v>messageBlocks.add(new PayloadBlock(1044, 1044, 1, "Comm State Selector", "commflag", "d", "Communication state selector flag"));</v>
+        <v>435</v>
+      </c>
+      <c r="I509" s="20" t="str">
+        <f t="shared" si="119"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 39, 0, "Spare", "", "x", "Byte Alignment"));</v>
       </c>
       <c r="J509" s="4"/>
       <c r="K509" s="4"/>
@@ -18058,31 +18060,31 @@
     <row r="510" spans="1:13">
       <c r="A510" s="4"/>
       <c r="B510" s="1">
-        <f t="shared" si="106"/>
-        <v>1045</v>
+        <f t="shared" si="120"/>
+        <v>40</v>
       </c>
       <c r="C510" s="1">
-        <f t="shared" si="104"/>
-        <v>1063</v>
+        <f t="shared" si="118"/>
+        <v>39</v>
       </c>
       <c r="D510">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E510" s="4" t="s">
-        <v>57</v>
+        <v>436</v>
       </c>
       <c r="F510" s="4" t="s">
-        <v>58</v>
+        <v>437</v>
       </c>
       <c r="G510" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H510" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="I510" t="str">
-        <f t="shared" si="105"/>
-        <v>messageBlocks.add(new PayloadBlock(1045, 1063, 19, "Radio status", "radio", "u", "See [IALA] for details."));</v>
+        <v>160</v>
+      </c>
+      <c r="I510" s="20" t="str">
+        <f t="shared" si="119"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 39, 0, "Application ID", "app_id", "u", "Unsigned integer"));</v>
       </c>
       <c r="J510" s="4"/>
       <c r="K510" s="4"/>
@@ -18091,14 +18093,33 @@
     </row>
     <row r="511" spans="1:13">
       <c r="A511" s="4"/>
-      <c r="D511" s="21">
-        <f>SUM(D499:D510)</f>
-        <v>1064</v>
-      </c>
-      <c r="E511" s="4"/>
-      <c r="F511" s="4"/>
-      <c r="G511" s="4"/>
-      <c r="H511" s="4"/>
+      <c r="B511" s="1">
+        <f t="shared" si="120"/>
+        <v>40</v>
+      </c>
+      <c r="C511" s="1">
+        <f t="shared" si="118"/>
+        <v>1039</v>
+      </c>
+      <c r="D511">
+        <v>1000</v>
+      </c>
+      <c r="E511" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F511" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G511" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H511" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="I511" s="20" t="str">
+        <f t="shared" si="119"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 1039, 1000, "Data", "data", "d", "Binary data"));</v>
+      </c>
       <c r="J511" s="4"/>
       <c r="K511" s="4"/>
       <c r="L511" s="4"/>
@@ -18106,31 +18127,65 @@
     </row>
     <row r="512" spans="1:13">
       <c r="A512" s="4"/>
-      <c r="D512" s="21"/>
-      <c r="E512" s="4"/>
+      <c r="B512" s="1">
+        <f t="shared" si="120"/>
+        <v>1040</v>
+      </c>
+      <c r="C512" s="1">
+        <f t="shared" si="118"/>
+        <v>1043</v>
+      </c>
+      <c r="D512">
+        <v>4</v>
+      </c>
+      <c r="E512" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="F512" s="4"/>
-      <c r="G512" s="4"/>
-      <c r="H512" s="4"/>
+      <c r="G512" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H512" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="I512" s="24" t="str">
+        <f t="shared" si="119"/>
+        <v>messageBlocks.add(new PayloadBlock(1040, 1043, 4, "Spare", "", "x", "Byte Alignment"));</v>
+      </c>
       <c r="J512" s="4"/>
       <c r="K512" s="4"/>
       <c r="L512" s="4"/>
       <c r="M512" s="4"/>
     </row>
     <row r="513" spans="1:13">
-      <c r="A513" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B513" s="19" t="s">
-        <v>442</v>
-      </c>
-      <c r="C513" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="E513" s="4"/>
-      <c r="F513" s="4"/>
-      <c r="G513" s="4"/>
-      <c r="H513" s="4"/>
-      <c r="I513" s="4"/>
+      <c r="A513" s="4"/>
+      <c r="B513" s="1">
+        <f t="shared" si="120"/>
+        <v>1044</v>
+      </c>
+      <c r="C513" s="1">
+        <f t="shared" si="118"/>
+        <v>1044</v>
+      </c>
+      <c r="D513">
+        <v>1</v>
+      </c>
+      <c r="E513" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F513" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="G513" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H513" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="I513" t="str">
+        <f t="shared" si="119"/>
+        <v>messageBlocks.add(new PayloadBlock(1044, 1044, 1, "Comm State Selector", "commflag", "d", "Communication state selector flag"));</v>
+      </c>
       <c r="J513" s="4"/>
       <c r="K513" s="4"/>
       <c r="L513" s="4"/>
@@ -18139,30 +18194,31 @@
     <row r="514" spans="1:13">
       <c r="A514" s="4"/>
       <c r="B514" s="1">
-        <v>0</v>
+        <f t="shared" si="120"/>
+        <v>1045</v>
       </c>
       <c r="C514" s="1">
-        <f t="shared" ref="C514:C525" si="107">B514+D514-1</f>
-        <v>5</v>
+        <f t="shared" si="118"/>
+        <v>1063</v>
       </c>
       <c r="D514">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E514" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="F514" s="4" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="G514" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H514" s="4" t="s">
-        <v>443</v>
+        <v>214</v>
       </c>
       <c r="I514" t="str">
-        <f t="shared" ref="I514:I525" si="108">"messageBlocks.add(new PayloadBlock("&amp;B514&amp;", "&amp;C514&amp;", "&amp;D514&amp;", "&amp;CHAR(34)&amp;E514&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F514&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G514&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H514&amp;CHAR(34)&amp;"));"</f>
-        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 27"));</v>
+        <f t="shared" si="119"/>
+        <v>messageBlocks.add(new PayloadBlock(1045, 1063, 19, "Radio status", "radio", "u", "See [IALA] for details."));</v>
       </c>
       <c r="J514" s="4"/>
       <c r="K514" s="4"/>
@@ -18171,33 +18227,14 @@
     </row>
     <row r="515" spans="1:13">
       <c r="A515" s="4"/>
-      <c r="B515" s="1">
-        <f t="shared" ref="B515:B525" si="109">B514+D514</f>
-        <v>6</v>
-      </c>
-      <c r="C515" s="1">
-        <f t="shared" si="107"/>
-        <v>7</v>
-      </c>
-      <c r="D515">
-        <v>2</v>
-      </c>
-      <c r="E515" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F515" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G515" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H515" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="I515" t="str">
-        <f t="shared" si="108"/>
-        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
-      </c>
+      <c r="D515" s="21">
+        <f>SUM(D503:D514)</f>
+        <v>1064</v>
+      </c>
+      <c r="E515" s="4"/>
+      <c r="F515" s="4"/>
+      <c r="G515" s="4"/>
+      <c r="H515" s="4"/>
       <c r="J515" s="4"/>
       <c r="K515" s="4"/>
       <c r="L515" s="4"/>
@@ -18205,67 +18242,31 @@
     </row>
     <row r="516" spans="1:13">
       <c r="A516" s="4"/>
-      <c r="B516" s="1">
-        <f t="shared" si="109"/>
-        <v>8</v>
-      </c>
-      <c r="C516" s="1">
-        <f t="shared" si="107"/>
-        <v>37</v>
-      </c>
-      <c r="D516">
-        <v>30</v>
-      </c>
-      <c r="E516" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F516" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G516" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H516" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I516" t="str">
-        <f t="shared" si="108"/>
-        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 decimal digits"));</v>
-      </c>
+      <c r="D516" s="21"/>
+      <c r="E516" s="4"/>
+      <c r="F516" s="4"/>
+      <c r="G516" s="4"/>
+      <c r="H516" s="4"/>
       <c r="J516" s="4"/>
       <c r="K516" s="4"/>
       <c r="L516" s="4"/>
       <c r="M516" s="4"/>
     </row>
     <row r="517" spans="1:13">
-      <c r="A517" s="4"/>
-      <c r="B517" s="1">
-        <f t="shared" si="109"/>
-        <v>38</v>
-      </c>
-      <c r="C517" s="1">
-        <f t="shared" si="107"/>
-        <v>38</v>
-      </c>
-      <c r="D517">
-        <v>1</v>
-      </c>
-      <c r="E517" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F517" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G517" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H517" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="I517" t="str">
-        <f t="shared" si="108"/>
-        <v>messageBlocks.add(new PayloadBlock(38, 38, 1, "Position Accuracy", "accuracy", "b", "See Common Navigation Block"));</v>
-      </c>
+      <c r="A517" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B517" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="E517" s="4"/>
+      <c r="F517" s="4"/>
+      <c r="G517" s="4"/>
+      <c r="H517" s="4"/>
+      <c r="I517" s="4"/>
       <c r="J517" s="4"/>
       <c r="K517" s="4"/>
       <c r="L517" s="4"/>
@@ -18274,31 +18275,30 @@
     <row r="518" spans="1:13">
       <c r="A518" s="4"/>
       <c r="B518" s="1">
-        <f t="shared" si="109"/>
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="C518" s="1">
-        <f t="shared" si="107"/>
-        <v>39</v>
+        <f t="shared" ref="C518:C529" si="121">B518+D518-1</f>
+        <v>5</v>
       </c>
       <c r="D518">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E518" s="4" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="F518" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G518" s="4" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H518" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I518" t="str">
-        <f t="shared" si="108"/>
-        <v>messageBlocks.add(new PayloadBlock(39, 39, 1, "RAIM flag", "raim", "b", "See Common Navigation Block"));</v>
+        <f t="shared" ref="I518:I529" si="122">"messageBlocks.add(new PayloadBlock("&amp;B518&amp;", "&amp;C518&amp;", "&amp;D518&amp;", "&amp;CHAR(34)&amp;E518&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;F518&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;G518&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H518&amp;CHAR(34)&amp;"));"</f>
+        <v>messageBlocks.add(new PayloadBlock(0, 5, 6, "Message Type", "type", "u", "Constant: 27"));</v>
       </c>
       <c r="J518" s="4"/>
       <c r="K518" s="4"/>
@@ -18308,31 +18308,31 @@
     <row r="519" spans="1:13">
       <c r="A519" s="4"/>
       <c r="B519" s="1">
-        <f t="shared" si="109"/>
-        <v>40</v>
+        <f t="shared" ref="B519:B529" si="123">B518+D518</f>
+        <v>6</v>
       </c>
       <c r="C519" s="1">
-        <f t="shared" si="107"/>
-        <v>43</v>
+        <f t="shared" si="121"/>
+        <v>7</v>
       </c>
       <c r="D519">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E519" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F519" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G519" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H519" s="4" t="s">
-        <v>444</v>
+        <v>312</v>
       </c>
       <c r="I519" t="str">
-        <f t="shared" si="108"/>
-        <v>messageBlocks.add(new PayloadBlock(40, 43, 4, "Navigation Status", "status", "e", "See Common Navigation Block"));</v>
+        <f t="shared" si="122"/>
+        <v>messageBlocks.add(new PayloadBlock(6, 7, 2, "Repeat Indicator", "repeat", "u", "As in CNB"));</v>
       </c>
       <c r="J519" s="4"/>
       <c r="K519" s="4"/>
@@ -18342,31 +18342,31 @@
     <row r="520" spans="1:13">
       <c r="A520" s="4"/>
       <c r="B520" s="1">
-        <f t="shared" si="109"/>
-        <v>44</v>
+        <f t="shared" si="123"/>
+        <v>8</v>
       </c>
       <c r="C520" s="1">
-        <f t="shared" si="107"/>
-        <v>61</v>
+        <f t="shared" si="121"/>
+        <v>37</v>
       </c>
       <c r="D520">
+        <v>30</v>
+      </c>
+      <c r="E520" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F520" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E520" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F520" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="G520" s="4" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H520" s="4" t="s">
-        <v>445</v>
+        <v>19</v>
       </c>
       <c r="I520" t="str">
-        <f t="shared" si="108"/>
-        <v>messageBlocks.add(new PayloadBlock(44, 61, 18, "Longitude", "lon", "I4", "minutes/10 East positive, West negative 181000 = N/A (default)"));</v>
+        <f t="shared" si="122"/>
+        <v>messageBlocks.add(new PayloadBlock(8, 37, 30, "MMSI", "mmsi", "u", "9 decimal digits"));</v>
       </c>
       <c r="J520" s="4"/>
       <c r="K520" s="4"/>
@@ -18376,31 +18376,31 @@
     <row r="521" spans="1:13">
       <c r="A521" s="4"/>
       <c r="B521" s="1">
-        <f t="shared" si="109"/>
-        <v>62</v>
+        <f t="shared" si="123"/>
+        <v>38</v>
       </c>
       <c r="C521" s="1">
-        <f t="shared" si="107"/>
-        <v>78</v>
+        <f t="shared" si="121"/>
+        <v>38</v>
       </c>
       <c r="D521">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E521" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F521" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G521" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H521" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="I521" t="str">
-        <f t="shared" si="108"/>
-        <v>messageBlocks.add(new PayloadBlock(62, 78, 17, "Latitude", "lat", "I4", "minutes/10 North positive, South negative 91000 = N/A (default)"));</v>
+        <f t="shared" si="122"/>
+        <v>messageBlocks.add(new PayloadBlock(38, 38, 1, "Position Accuracy", "accuracy", "b", "See Common Navigation Block"));</v>
       </c>
       <c r="J521" s="4"/>
       <c r="K521" s="4"/>
@@ -18410,31 +18410,31 @@
     <row r="522" spans="1:13">
       <c r="A522" s="4"/>
       <c r="B522" s="1">
-        <f t="shared" si="109"/>
-        <v>79</v>
+        <f t="shared" si="123"/>
+        <v>39</v>
       </c>
       <c r="C522" s="1">
-        <f t="shared" si="107"/>
-        <v>84</v>
+        <f t="shared" si="121"/>
+        <v>39</v>
       </c>
       <c r="D522">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E522" s="4" t="s">
-        <v>275</v>
+        <v>55</v>
       </c>
       <c r="F522" s="4" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="G522" s="4" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H522" s="4" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I522" t="str">
-        <f t="shared" si="108"/>
-        <v>messageBlocks.add(new PayloadBlock(79, 84, 6, "Speed Over Ground", "speed", "u", "Knots (0-62); 63 = N/A (default)"));</v>
+        <f t="shared" si="122"/>
+        <v>messageBlocks.add(new PayloadBlock(39, 39, 1, "RAIM flag", "raim", "b", "See Common Navigation Block"));</v>
       </c>
       <c r="J522" s="4"/>
       <c r="K522" s="4"/>
@@ -18444,31 +18444,31 @@
     <row r="523" spans="1:13">
       <c r="A523" s="4"/>
       <c r="B523" s="1">
-        <f t="shared" si="109"/>
-        <v>85</v>
+        <f t="shared" si="123"/>
+        <v>40</v>
       </c>
       <c r="C523" s="1">
-        <f t="shared" si="107"/>
-        <v>93</v>
+        <f t="shared" si="121"/>
+        <v>43</v>
       </c>
       <c r="D523">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E523" s="4" t="s">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="F523" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="G523" s="4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H523" s="4" t="s">
-        <v>45</v>
+        <v>444</v>
       </c>
       <c r="I523" t="str">
-        <f t="shared" si="108"/>
-        <v>messageBlocks.add(new PayloadBlock(85, 93, 9, "Course Over Ground", "course", "u", "0 to 359 degrees, 511 = not available."));</v>
+        <f t="shared" si="122"/>
+        <v>messageBlocks.add(new PayloadBlock(40, 43, 4, "Navigation Status", "status", "e", "See Common Navigation Block"));</v>
       </c>
       <c r="J523" s="4"/>
       <c r="K523" s="4"/>
@@ -18478,31 +18478,31 @@
     <row r="524" spans="1:13">
       <c r="A524" s="4"/>
       <c r="B524" s="1">
-        <f t="shared" si="109"/>
-        <v>94</v>
+        <f t="shared" si="123"/>
+        <v>44</v>
       </c>
       <c r="C524" s="1">
-        <f t="shared" si="107"/>
-        <v>94</v>
+        <f t="shared" si="121"/>
+        <v>61</v>
       </c>
       <c r="D524">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E524" s="4" t="s">
-        <v>448</v>
+        <v>34</v>
       </c>
       <c r="F524" s="4" t="s">
-        <v>449</v>
+        <v>35</v>
       </c>
       <c r="G524" s="4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H524" s="4" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="I524" t="str">
-        <f t="shared" si="108"/>
-        <v>messageBlocks.add(new PayloadBlock(94, 94, 1, "GNSS Position status", "gnss", "u", "0 = current GNSS position 1 = not GNSS position (default)"));</v>
+        <f t="shared" si="122"/>
+        <v>messageBlocks.add(new PayloadBlock(44, 61, 18, "Longitude", "lon", "I4", "minutes/10 East positive, West negative 181000 = N/A (default)"));</v>
       </c>
       <c r="J524" s="4"/>
       <c r="K524" s="4"/>
@@ -18512,29 +18512,31 @@
     <row r="525" spans="1:13">
       <c r="A525" s="4"/>
       <c r="B525" s="1">
-        <f t="shared" si="109"/>
-        <v>95</v>
+        <f t="shared" si="123"/>
+        <v>62</v>
       </c>
       <c r="C525" s="1">
-        <f t="shared" si="107"/>
-        <v>95</v>
+        <f t="shared" si="121"/>
+        <v>78</v>
       </c>
       <c r="D525">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E525" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F525" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="F525" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="G525" s="4" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="H525" s="4" t="s">
-        <v>54</v>
+        <v>446</v>
       </c>
       <c r="I525" t="str">
-        <f t="shared" si="108"/>
-        <v>messageBlocks.add(new PayloadBlock(95, 95, 1, "Spare", "", "x", "Not used"));</v>
+        <f t="shared" si="122"/>
+        <v>messageBlocks.add(new PayloadBlock(62, 78, 17, "Latitude", "lat", "I4", "minutes/10 North positive, South negative 91000 = N/A (default)"));</v>
       </c>
       <c r="J525" s="4"/>
       <c r="K525" s="4"/>
@@ -18543,14 +18545,33 @@
     </row>
     <row r="526" spans="1:13">
       <c r="A526" s="4"/>
+      <c r="B526" s="1">
+        <f t="shared" si="123"/>
+        <v>79</v>
+      </c>
+      <c r="C526" s="1">
+        <f t="shared" si="121"/>
+        <v>84</v>
+      </c>
       <c r="D526">
-        <f>SUM(D514:D525)</f>
-        <v>96</v>
-      </c>
-      <c r="E526" s="4"/>
-      <c r="F526" s="4"/>
-      <c r="G526" s="4"/>
-      <c r="H526" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="E526" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F526" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G526" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H526" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="I526" t="str">
+        <f t="shared" si="122"/>
+        <v>messageBlocks.add(new PayloadBlock(79, 84, 6, "Speed Over Ground", "speed", "u", "Knots (0-62); 63 = N/A (default)"));</v>
+      </c>
       <c r="J526" s="4"/>
       <c r="K526" s="4"/>
       <c r="L526" s="4"/>
@@ -18558,89 +18579,121 @@
     </row>
     <row r="527" spans="1:13">
       <c r="A527" s="4"/>
-      <c r="E527" s="4"/>
-      <c r="F527" s="4"/>
-      <c r="G527" s="4"/>
-      <c r="H527" s="4"/>
-      <c r="I527" s="4"/>
+      <c r="B527" s="1">
+        <f t="shared" si="123"/>
+        <v>85</v>
+      </c>
+      <c r="C527" s="1">
+        <f t="shared" si="121"/>
+        <v>93</v>
+      </c>
+      <c r="D527">
+        <v>9</v>
+      </c>
+      <c r="E527" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F527" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G527" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H527" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I527" t="str">
+        <f t="shared" si="122"/>
+        <v>messageBlocks.add(new PayloadBlock(85, 93, 9, "Course Over Ground", "course", "u", "0 to 359 degrees, 511 = not available."));</v>
+      </c>
       <c r="J527" s="4"/>
       <c r="K527" s="4"/>
       <c r="L527" s="4"/>
       <c r="M527" s="4"/>
     </row>
     <row r="528" spans="1:13">
-      <c r="A528" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="E528" s="4"/>
-      <c r="F528" s="4"/>
-      <c r="G528" s="4"/>
-      <c r="H528" s="4"/>
-      <c r="I528" s="4"/>
+      <c r="A528" s="4"/>
+      <c r="B528" s="1">
+        <f t="shared" si="123"/>
+        <v>94</v>
+      </c>
+      <c r="C528" s="1">
+        <f t="shared" si="121"/>
+        <v>94</v>
+      </c>
+      <c r="D528">
+        <v>1</v>
+      </c>
+      <c r="E528" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="F528" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="G528" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H528" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="I528" t="str">
+        <f t="shared" si="122"/>
+        <v>messageBlocks.add(new PayloadBlock(94, 94, 1, "GNSS Position status", "gnss", "u", "0 = current GNSS position 1 = not GNSS position (default)"));</v>
+      </c>
       <c r="J528" s="4"/>
       <c r="K528" s="4"/>
       <c r="L528" s="4"/>
       <c r="M528" s="4"/>
     </row>
     <row r="529" spans="1:13">
-      <c r="A529" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="B529" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C529" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D529" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E529" s="4"/>
+      <c r="A529" s="4"/>
+      <c r="B529" s="1">
+        <f t="shared" si="123"/>
+        <v>95</v>
+      </c>
+      <c r="C529" s="1">
+        <f t="shared" si="121"/>
+        <v>95</v>
+      </c>
+      <c r="D529">
+        <v>1</v>
+      </c>
+      <c r="E529" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="F529" s="4"/>
-      <c r="G529" s="4"/>
-      <c r="H529" s="4"/>
-      <c r="I529" s="4"/>
+      <c r="G529" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H529" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I529" t="str">
+        <f t="shared" si="122"/>
+        <v>messageBlocks.add(new PayloadBlock(95, 95, 1, "Spare", "", "x", "Not used"));</v>
+      </c>
       <c r="J529" s="4"/>
       <c r="K529" s="4"/>
       <c r="L529" s="4"/>
       <c r="M529" s="4"/>
     </row>
     <row r="530" spans="1:13">
-      <c r="A530" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="B530" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C530" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="D530" s="1" t="s">
-        <v>456</v>
+      <c r="A530" s="4"/>
+      <c r="D530">
+        <f>SUM(D518:D529)</f>
+        <v>96</v>
       </c>
       <c r="E530" s="4"/>
       <c r="F530" s="4"/>
       <c r="G530" s="4"/>
       <c r="H530" s="4"/>
-      <c r="I530" s="4"/>
       <c r="J530" s="4"/>
       <c r="K530" s="4"/>
       <c r="L530" s="4"/>
       <c r="M530" s="4"/>
     </row>
     <row r="531" spans="1:13">
-      <c r="A531" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B531" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C531" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D531" s="1" t="s">
-        <v>458</v>
-      </c>
+      <c r="A531" s="4"/>
       <c r="E531" s="4"/>
       <c r="F531" s="4"/>
       <c r="G531" s="4"/>
@@ -18653,16 +18706,7 @@
     </row>
     <row r="532" spans="1:13">
       <c r="A532" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="B532" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="C532" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D532" s="1" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="E532" s="4"/>
       <c r="F532" s="4"/>
@@ -18676,16 +18720,16 @@
     </row>
     <row r="533" spans="1:13">
       <c r="A533" s="4" t="s">
-        <v>53</v>
+        <v>452</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>455</v>
+        <v>5</v>
       </c>
       <c r="D533" s="1" t="s">
-        <v>464</v>
+        <v>6</v>
       </c>
       <c r="E533" s="4"/>
       <c r="F533" s="4"/>
@@ -18698,15 +18742,17 @@
       <c r="M533" s="4"/>
     </row>
     <row r="534" spans="1:13">
-      <c r="A534" s="4"/>
+      <c r="A534" s="4" t="s">
+        <v>454</v>
+      </c>
       <c r="B534" s="1" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="C534" s="1" t="s">
         <v>455</v>
       </c>
       <c r="D534" s="1" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="E534" s="4"/>
       <c r="F534" s="4"/>
@@ -18720,16 +18766,16 @@
     </row>
     <row r="535" spans="1:13">
       <c r="A535" s="4" t="s">
-        <v>304</v>
+        <v>166</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>304</v>
+        <v>166</v>
       </c>
       <c r="C535" s="1" t="s">
         <v>457</v>
       </c>
       <c r="D535" s="1" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="E535" s="4"/>
       <c r="F535" s="4"/>
@@ -18743,16 +18789,16 @@
     </row>
     <row r="536" spans="1:13">
       <c r="A536" s="4" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>108</v>
+        <v>460</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D536" s="1" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="E536" s="4"/>
       <c r="F536" s="4"/>
@@ -18763,6 +18809,96 @@
       <c r="K536" s="4"/>
       <c r="L536" s="4"/>
       <c r="M536" s="4"/>
+    </row>
+    <row r="537" spans="1:13">
+      <c r="A537" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D537" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E537" s="4"/>
+      <c r="F537" s="4"/>
+      <c r="G537" s="4"/>
+      <c r="H537" s="4"/>
+      <c r="I537" s="4"/>
+      <c r="J537" s="4"/>
+      <c r="K537" s="4"/>
+      <c r="L537" s="4"/>
+      <c r="M537" s="4"/>
+    </row>
+    <row r="538" spans="1:13">
+      <c r="A538" s="4"/>
+      <c r="B538" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D538" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E538" s="4"/>
+      <c r="F538" s="4"/>
+      <c r="G538" s="4"/>
+      <c r="H538" s="4"/>
+      <c r="I538" s="4"/>
+      <c r="J538" s="4"/>
+      <c r="K538" s="4"/>
+      <c r="L538" s="4"/>
+      <c r="M538" s="4"/>
+    </row>
+    <row r="539" spans="1:13">
+      <c r="A539" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D539" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E539" s="4"/>
+      <c r="F539" s="4"/>
+      <c r="G539" s="4"/>
+      <c r="H539" s="4"/>
+      <c r="I539" s="4"/>
+      <c r="J539" s="4"/>
+      <c r="K539" s="4"/>
+      <c r="L539" s="4"/>
+      <c r="M539" s="4"/>
+    </row>
+    <row r="540" spans="1:13">
+      <c r="A540" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D540" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E540" s="4"/>
+      <c r="F540" s="4"/>
+      <c r="G540" s="4"/>
+      <c r="H540" s="4"/>
+      <c r="I540" s="4"/>
+      <c r="J540" s="4"/>
+      <c r="K540" s="4"/>
+      <c r="L540" s="4"/>
+      <c r="M540" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
